--- a/data/fleas_complex_data_backup.xlsx
+++ b/data/fleas_complex_data_backup.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788D28A-D345-954A-9F47-B78B7737B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EA4D6-7719-B940-96B1-549220D2A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" activeTab="2" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="repeated" sheetId="1" r:id="rId1"/>
-    <sheet name="fac4" sheetId="2" r:id="rId2"/>
-    <sheet name="covariate" sheetId="3" r:id="rId3"/>
+    <sheet name="mixed" sheetId="4" r:id="rId2"/>
+    <sheet name="fac4" sheetId="2" r:id="rId3"/>
+    <sheet name="covariate" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="30">
   <si>
     <t>animal</t>
   </si>
@@ -123,13 +124,19 @@
   <si>
     <t>intercept</t>
   </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -163,7 +170,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,7 +508,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,19 +587,19 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">D2+E2+F2+NORMINV(RAND(),0,4)</f>
-        <v>29.640010428989751</v>
+        <v>24.409696066568081</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">D2+E2+G2+NORMINV(RAND(),0,4)</f>
-        <v>21.206049706374799</v>
+        <v>28.114117227225449</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">D2+E2+H2+NORMINV(RAND(),0,4)</f>
-        <v>19.055619688889347</v>
+        <v>26.550333780995597</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+I2+NORMINV(RAND(),0,4)</f>
-        <v>20.47943192702261</v>
+        <v>10.797939696516757</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -625,19 +632,19 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J25" ca="1" si="0">D3+E3+F3+NORMINV(RAND(),0,4)</f>
-        <v>25.342788959811045</v>
+        <v>28.399082362620927</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K25" ca="1" si="1">D3+E3+G3+NORMINV(RAND(),0,4)</f>
-        <v>22.143677021064644</v>
+        <v>20.107435872094925</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L25" ca="1" si="2">D3+E3+H3+NORMINV(RAND(),0,4)</f>
-        <v>20.211565687577679</v>
+        <v>18.31134880988019</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M25" ca="1" si="3">D3+E3+I3+NORMINV(RAND(),0,4)</f>
-        <v>22.241578485010628</v>
+        <v>13.345146779697757</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -670,19 +677,19 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.718160169492631</v>
+        <v>27.689171656476812</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.012301712260939</v>
+        <v>28.347644704617505</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.179042531833797</v>
+        <v>15.289532942617681</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19.766411073610907</v>
+        <v>16.131551772491513</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -715,19 +722,19 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.447831681010044</v>
+        <v>27.660011558452865</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.633980573753576</v>
+        <v>18.347055931119399</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>22.500194362579062</v>
+        <v>17.691471591249957</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11.762921158604723</v>
+        <v>22.208834266075939</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -760,19 +767,19 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.122630646212805</v>
+        <v>20.434065055495481</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.394785683832588</v>
+        <v>25.047533191805929</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2001549780153313</v>
+        <v>15.003641570914363</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0500703273398813</v>
+        <v>17.213463105365982</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -805,19 +812,19 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.433349993703409</v>
+        <v>13.169402888521804</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11.817425777627021</v>
+        <v>23.497674344328605</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.082637958289911</v>
+        <v>8.8743654899040756</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14.572673697648508</v>
+        <v>7.2198666051898872</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -850,19 +857,19 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.643955562172383</v>
+        <v>30.546082533297593</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14.420478097495758</v>
+        <v>16.581919119377567</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17.476567131340474</v>
+        <v>13.27636191034043</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>15.66755203378862</v>
+        <v>14.765944740521306</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -895,19 +902,19 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.300916366406476</v>
+        <v>20.078323715250988</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.763222688625849</v>
+        <v>17.739929299899675</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12.031909701948001</v>
+        <v>11.614352199122919</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17.595993691941246</v>
+        <v>13.352773948890208</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -940,19 +947,19 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.687262595515243</v>
+        <v>29.697918661329442</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.081588554343327</v>
+        <v>23.382695508225197</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13.821145302298024</v>
+        <v>15.371017275619206</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4961161710720869</v>
+        <v>9.1273507924944166</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -985,19 +992,19 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.155425613941603</v>
+        <v>28.688805818980949</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.370173878971372</v>
+        <v>25.152035372574375</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8485954522522174</v>
+        <v>16.460997915256907</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13.736337260349988</v>
+        <v>10.314638484724354</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1030,19 +1037,19 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.31626432255127</v>
+        <v>34.647394415200381</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.842062999455138</v>
+        <v>20.670015270170012</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8137717772570223</v>
+        <v>14.014374910781221</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12.783739647719958</v>
+        <v>15.669601990806743</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1075,19 +1082,19 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.440795972901938</v>
+        <v>31.97867122937723</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.099406792728239</v>
+        <v>16.218177140327132</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21.322999720462313</v>
+        <v>19.673463028734847</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14.609043203145799</v>
+        <v>8.7926318784591402</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1120,19 +1127,19 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37.888334412315388</v>
+        <v>48.285928215737918</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.234143281639462</v>
+        <v>31.500793682556289</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29.680555877922064</v>
+        <v>29.337225546631675</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19.815529619584918</v>
+        <v>17.413605786964723</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1165,19 +1172,19 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42.993760618877069</v>
+        <v>40.964448139327715</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.423394365744876</v>
+        <v>30.45856329687599</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23.084998646759146</v>
+        <v>17.953753240225581</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.329966118298888</v>
+        <v>22.918812093399794</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1210,19 +1217,19 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44.694435314014136</v>
+        <v>35.333610785262337</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.840594923757468</v>
+        <v>33.426005138967689</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21.631612693661381</v>
+        <v>28.398382312288359</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14.388689861291081</v>
+        <v>22.138959270268575</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1255,19 +1262,19 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.8205459545186</v>
+        <v>46.628145708640275</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.29395112858775</v>
+        <v>36.482260735838402</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29.160573875491938</v>
+        <v>26.353558827687809</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>21.384721378747084</v>
+        <v>24.858826852287933</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1300,19 +1307,19 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.807481069082264</v>
+        <v>38.923705957086582</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.712206014070375</v>
+        <v>49.731100766892297</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.990837122661162</v>
+        <v>30.836437935150574</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.811530808380805</v>
+        <v>29.513508078757603</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1345,19 +1352,19 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43.931888310283853</v>
+        <v>49.623160937103542</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.235303193283286</v>
+        <v>39.156244073522899</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.895511714086048</v>
+        <v>35.102830799743941</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.301490151909643</v>
+        <v>27.109978610113998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1390,19 +1397,19 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.341358624425084</v>
+        <v>42.010534200827273</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.764851461866321</v>
+        <v>39.152908475843475</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.558649318732833</v>
+        <v>33.108574142232051</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.868263874665537</v>
+        <v>24.45496349011712</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1435,19 +1442,19 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42.357951843338391</v>
+        <v>39.431836978788013</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.938512921059449</v>
+        <v>38.098545175718733</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24.885014642457154</v>
+        <v>29.449340054309122</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.276127333632608</v>
+        <v>24.847509694803929</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1480,19 +1487,19 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.813720871858116</v>
+        <v>40.932053109185233</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.534307986500025</v>
+        <v>34.330416791458816</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19.861130743239556</v>
+        <v>24.705168838749003</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18.421454303800608</v>
+        <v>23.689183335953395</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1525,19 +1532,19 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45.901145819878465</v>
+        <v>41.200629211486898</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.09664618490276</v>
+        <v>38.620903795779633</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23.743743756051128</v>
+        <v>24.908558338762425</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.59223515709121</v>
+        <v>16.393157314229022</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1570,19 +1577,19 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40.06522310840549</v>
+        <v>35.045725535109781</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.059344278862348</v>
+        <v>44.218913467307353</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23.415423081784624</v>
+        <v>24.131488094237298</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.859334786846699</v>
+        <v>23.553921882451867</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1615,19 +1622,19 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.494703098062644</v>
+        <v>51.226174736538667</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.639370579203543</v>
+        <v>41.149925553803257</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>28.161502459961042</v>
+        <v>32.917721079635101</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>16.594279176296347</v>
+        <v>17.3165717046978</v>
       </c>
     </row>
   </sheetData>
@@ -1640,6 +1647,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E73787-7163-4E43-B4ED-1B200A59E88C}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>12.5</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>7.5</v>
+      </c>
+      <c r="J2" s="1">
+        <f ca="1">D2+E2+F2+NORMINV(RAND(),0,4)</f>
+        <v>28.7129732486307</v>
+      </c>
+      <c r="K2" s="1">
+        <f ca="1">D2+E2+G2+NORMINV(RAND(),0,4)</f>
+        <v>31.841555662827457</v>
+      </c>
+      <c r="L2" s="1">
+        <f ca="1">D2+E2+H2+NORMINV(RAND(),0,4)</f>
+        <v>17.916856719942931</v>
+      </c>
+      <c r="M2" s="1">
+        <f ca="1">D2+E2+I2+NORMINV(RAND(),0,4)</f>
+        <v>26.848102859071957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>7.5</v>
+      </c>
+      <c r="F3">
+        <v>12.5</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J25" ca="1" si="0">D3+E3+F3+NORMINV(RAND(),0,4)</f>
+        <v>26.015010799933908</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K25" ca="1" si="1">D3+E3+G3+NORMINV(RAND(),0,4)</f>
+        <v>33.321745559766207</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L25" ca="1" si="2">D3+E3+H3+NORMINV(RAND(),0,4)</f>
+        <v>20.012717296099179</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M25" ca="1" si="3">D3+E3+I3+NORMINV(RAND(),0,4)</f>
+        <v>17.102225077841211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+      <c r="F4">
+        <v>12.5</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.393168801409438</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.595742798810907</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.288928722508636</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.514924841505181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>7.5</v>
+      </c>
+      <c r="F5">
+        <v>12.5</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>7.5</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.861182124088931</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.116802071129356</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.93972357605627</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.970438713875936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>12.5</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.453607272894732</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.988061830091048</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.350466482035019</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1231484070316498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>12.5</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.025011524082689</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.119953887020621</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3962758114711065</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5590385609442414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>12.5</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>7.5</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.875601831131906</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.631533569149802</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7064068335197859</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.525389640447534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>12.5</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>7.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.373884267890773</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.964167922699211</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.94623164551132</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.282038116521337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.426630440540592</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.490753370029498</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.559778570082617</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.332950696990798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.013183157670912</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.514116126512413</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6306294962340901</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.79277142898157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.212291228087899</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>33.114219048375922</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.511868870400203</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.040685746055612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.400944999172793</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.450164927916219</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4970155269881964</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.279528956988834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.587612698403341</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>41.871716021271091</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.286146949205246</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>19.704235765144652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.800888498579802</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.683143524716755</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.793937667903819</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.31215632341387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.789881686116644</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.096899179641738</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.444894247588028</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>19.093910159154529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.365423136092183</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.96479173075938</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.282482761578665</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.395549005881421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>40.915845162237254</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>47.054719077830775</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.935481233217725</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.047843512774545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.066848443302554</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44.719915887470812</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.540594187286835</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.059763868570254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.339226944343302</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>40.320320685977663</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.126942310936812</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.697396132772663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.493643025343033</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42.373615223138152</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.641938306708543</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.407335072000457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>52.854645292211316</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>49.771985316121253</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>35.469167527004949</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.7385317495512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>48.880547591182378</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>54.356451212014498</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.935942384875482</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.922180761235282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>51.156526366326489</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>55.92522976203437</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.933909979124756</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>46.020530860342895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>47.612597843528874</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.661211570279576</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.303199907672024</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.394197971822507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AABB94-2F91-874E-BD21-A7A146A6F8BD}">
   <dimension ref="A1:J193"/>
   <sheetViews>
@@ -1708,11 +2851,11 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>3.8430010934162713</v>
+        <v>7.8914748196846238</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">E2 + F2 + G2 + H2 + I2 + NORMINV(RAND(),0,2)</f>
-        <v>24.527448307775089</v>
+        <v>26.018565449147573</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1742,11 +2885,11 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I17" ca="1" si="0">NORMINV(RAND(),3,3)</f>
-        <v>2.7218673437901639</v>
+        <v>0.99594026121515888</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" ca="1" si="1">E3 + F3 + G3 + H3 + I3 + NORMINV(RAND(),0,2)</f>
-        <v>27.83404421327662</v>
+        <v>23.889700795727482</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1776,11 +2919,11 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6575294884808249</v>
+        <v>-1.2591570346792977</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.303118527084209</v>
+        <v>17.180779884188695</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1810,11 +2953,11 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1570838222585493</v>
+        <v>7.4549227361910324</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.973747424435988</v>
+        <v>29.716320857496267</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1844,11 +2987,11 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7920799088206776</v>
+        <v>3.0280739807877834</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.408779777476138</v>
+        <v>25.377714012421507</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1878,11 +3021,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1241498630624451</v>
+        <v>3.7237030208721924</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.96069316634583</v>
+        <v>26.895285831308939</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1912,11 +3055,11 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1414434942895015</v>
+        <v>2.1535450397501523</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.29848173743131</v>
+        <v>22.518697003714244</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1946,11 +3089,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.476735247180609</v>
+        <v>2.9901586834498266</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.540262163052457</v>
+        <v>23.884084954363789</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1980,11 +3123,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5187875009046392</v>
+        <v>0.28072093441188795</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.232009337719457</v>
+        <v>28.785599351279544</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2014,11 +3157,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9490209197474724</v>
+        <v>-5.1062165488735545E-2</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.625194394829805</v>
+        <v>25.482354305503407</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2048,11 +3191,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.100404421121576</v>
+        <v>3.543030666590183</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.314783486328334</v>
+        <v>27.839017464384504</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2082,11 +3225,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4398020815552308</v>
+        <v>-1.5433690316963311</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.755394811450714</v>
+        <v>26.75482569277122</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2116,11 +3259,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6685184993921811</v>
+        <v>2.841564123565957</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.56620337718088</v>
+        <v>28.317569613277676</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2150,11 +3293,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2098573900526768</v>
+        <v>5.8949044386327198</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.663870352706887</v>
+        <v>30.093206671120399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2184,11 +3327,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.449690042629399</v>
+        <v>-0.98695947481835766</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.917877990874267</v>
+        <v>20.960529833863706</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2218,11 +3361,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8961732188543294</v>
+        <v>5.7596514976835973</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.329723597705172</v>
+        <v>29.80902029782526</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2252,11 +3395,11 @@
       </c>
       <c r="I18" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>-2.2509167366501508</v>
+        <v>-5.1183066606819612</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.628370318333964</v>
+        <v>14.037052675434197</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2286,11 +3429,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:I33" ca="1" si="2">NORMINV(RAND(),1,3)</f>
-        <v>0.82775073341033356</v>
+        <v>3.1797449425647661E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.987207196433936</v>
+        <v>23.817740704427727</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2320,11 +3463,11 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8326378986561456</v>
+        <v>0.39062395786318371</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.757399177833388</v>
+        <v>22.398872926420029</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2354,11 +3497,11 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8439177556355371</v>
+        <v>-0.38507379343668546</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.923598291842957</v>
+        <v>18.937701005400818</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2388,11 +3531,11 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8283609081359441</v>
+        <v>-0.64787273254926081</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.473243161685549</v>
+        <v>21.887311191594325</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2422,11 +3565,11 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5058448441406931</v>
+        <v>-2.7602314359335747</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.071949703707041</v>
+        <v>16.897430791352424</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2456,11 +3599,11 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.6010210215547955</v>
+        <v>-2.7129330156552718</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.653748643996494</v>
+        <v>20.697082038070043</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2490,11 +3633,11 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9986328333482821E-2</v>
+        <v>2.7590636742582242</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.418236327419311</v>
+        <v>26.388458611640196</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2524,11 +3667,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6722375086188155</v>
+        <v>0.22798913155675349</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.890505386407956</v>
+        <v>21.486901235130098</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2558,11 +3701,11 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17533994944941345</v>
+        <v>7.7997243416502773</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.028282343682733</v>
+        <v>27.649262467380908</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2592,11 +3735,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0437313658245539</v>
+        <v>5.6848748393082449</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.744611443075954</v>
+        <v>29.022978036030892</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2626,11 +3769,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1994554245609246</v>
+        <v>3.5233763973294119</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.260896732735887</v>
+        <v>24.328294993138488</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2660,11 +3803,11 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6049580069692571</v>
+        <v>1.5938027310257048</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.863764689573493</v>
+        <v>27.29617095898287</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2694,11 +3837,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.3047359409694019</v>
+        <v>-5.3318485834291964</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.999735441859638</v>
+        <v>19.129096402006795</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2728,11 +3871,11 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3187982193768351</v>
+        <v>1.9015071714889258</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.184571809266586</v>
+        <v>24.926831734270138</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2762,11 +3905,11 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28725027108311241</v>
+        <v>1.6316327538780948</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.118284771117626</v>
+        <v>26.772202380097088</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2796,11 +3939,11 @@
       </c>
       <c r="I34" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>3.7336301608224041</v>
+        <v>4.9715544923742128</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.12021231940447</v>
+        <v>25.608329369691585</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2830,11 +3973,11 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ref="I35:I49" ca="1" si="3">NORMINV(RAND(),3,3)</f>
-        <v>4.0962241977451317</v>
+        <v>1.6949261477363242</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.878881988831001</v>
+        <v>19.202985943424586</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2864,11 +4007,11 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2886824612908909</v>
+        <v>7.0873392839345879</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.699558502555121</v>
+        <v>27.515400400155123</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2898,11 +4041,11 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9496724791082336</v>
+        <v>3.2924950842613034</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.526697863408778</v>
+        <v>24.74829530825772</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2932,11 +4075,11 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.228722644280225</v>
+        <v>4.0449054786412271</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.365347214971028</v>
+        <v>20.921028479423661</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2966,11 +4109,11 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1221416602754921</v>
+        <v>0.61805219997547045</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.894814007967501</v>
+        <v>19.599273015233987</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -3000,11 +4143,11 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3868213639225813</v>
+        <v>8.8896416457449625</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.228775688708566</v>
+        <v>27.786703933541066</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3034,11 +4177,11 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.032476411224958</v>
+        <v>3.7073743526606364</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.733334810911007</v>
+        <v>21.477815631279615</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3068,11 +4211,11 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3824199235492856</v>
+        <v>-2.1459210352299438</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.105845548348505</v>
+        <v>19.569052776233359</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -3102,11 +4245,11 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66623400665489907</v>
+        <v>-2.1540090415109381</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.475621865451654</v>
+        <v>19.546593588712753</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -3136,11 +4279,11 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47337898667578404</v>
+        <v>4.5869097317978493</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.007243879222798</v>
+        <v>29.323559104605707</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3170,11 +4313,11 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2752960358341685</v>
+        <v>1.8330997360728301</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.833411476038787</v>
+        <v>18.654229507247408</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3204,11 +4347,11 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0738676548158361</v>
+        <v>-0.7318668051035937</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.314054868860019</v>
+        <v>20.692647959324507</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3238,11 +4381,11 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.849636742423451</v>
+        <v>-0.88767252760821735</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14.383377991923297</v>
+        <v>16.242713808657765</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3272,11 +4415,11 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2678775951640464</v>
+        <v>1.5559129036195218</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.761989173795342</v>
+        <v>22.509149417075026</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3306,11 +4449,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4028078481221726</v>
+        <v>2.1474472812842342</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.425844522028516</v>
+        <v>24.435347531112452</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3340,11 +4483,11 @@
       </c>
       <c r="I50" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>0.8750220772427999</v>
+        <v>0.16350365921192589</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.275263132294903</v>
+        <v>18.298173553555301</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3374,11 +4517,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ref="I51:I65" ca="1" si="4">NORMINV(RAND(),1,3)</f>
-        <v>5.1897793129218091</v>
+        <v>-0.24702573313526077</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.559213627241203</v>
+        <v>15.71708431296795</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3408,11 +4551,11 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.6618275506383471</v>
+        <v>2.5100509273954374</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10.289982598784874</v>
+        <v>17.476736785207674</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3442,11 +4585,11 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3996961023809873</v>
+        <v>-0.31909002102281558</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14.930453579718016</v>
+        <v>14.702866353703756</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3476,11 +4619,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4106672242401492</v>
+        <v>-1.8256419686437413</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.109175496290149</v>
+        <v>18.550684014484958</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3510,11 +4653,11 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.0082863002098197</v>
+        <v>1.9734480096243119</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10.981563048859938</v>
+        <v>17.383806635325758</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3544,11 +4687,11 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.80616818064708</v>
+        <v>0.1987866318061573</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.531212072883624</v>
+        <v>16.933970016846732</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -3578,11 +4721,11 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.6720806850003096</v>
+        <v>4.2566341280543112</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.972854866366157</v>
+        <v>20.043694271409016</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -3612,11 +4755,11 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.3777665523503178</v>
+        <v>1.3368147152501084</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.515356940059242</v>
+        <v>21.373802475793312</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3646,11 +4789,11 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83729601124006603</v>
+        <v>4.6206793057242148</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.910329697094074</v>
+        <v>25.827164904930861</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3680,11 +4823,11 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2101586549908685</v>
+        <v>5.3370063240460039</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.592056133780233</v>
+        <v>23.197487573456641</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3714,11 +4857,11 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1567224012342061</v>
+        <v>-1.5218695736671237</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.890994850076705</v>
+        <v>18.482755284336047</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3748,11 +4891,11 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3514814854017185</v>
+        <v>-2.3543348750830022</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.683146411112542</v>
+        <v>15.545379298057206</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3782,11 +4925,11 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4858535427484416</v>
+        <v>3.3084308970391847</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.556881615806802</v>
+        <v>21.269248720097188</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3816,11 +4959,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5098399455631619</v>
+        <v>4.8388657686256602</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.608149768735657</v>
+        <v>22.705934523745398</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -3850,11 +4993,11 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.7378600161676818</v>
+        <v>1.8727141324400542</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.285724667903342</v>
+        <v>22.507897329900285</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3884,11 +5027,11 @@
       </c>
       <c r="I66" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>6.9975986265056678</v>
+        <v>10.22103272917891</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.849296145565063</v>
+        <v>34.127861880137068</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3918,11 +5061,11 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I81" ca="1" si="5">NORMINV(RAND(),0,4)</f>
-        <v>-0.17204126410848417</v>
+        <v>1.2593951802220849</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" ca="1" si="6">E67 + F67 + G67 + H67 + I67 + NORMINV(RAND(),0,2)</f>
-        <v>27.305013460189492</v>
+        <v>28.143530100717911</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3952,11 +5095,11 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.1032111649011522</v>
+        <v>2.3021457354621448</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.911592907589046</v>
+        <v>30.084764321944693</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3986,11 +5129,11 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11.263836647960094</v>
+        <v>3.6056370051165745</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.488828739475153</v>
+        <v>31.290216345420667</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -4020,11 +5163,11 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.5436021826467613</v>
+        <v>0.10982443751834725</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.173182803235935</v>
+        <v>25.484137324016082</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4054,11 +5197,11 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4321914881081332</v>
+        <v>-4.1046040674713131</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.217315938910001</v>
+        <v>23.484380528582715</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -4088,11 +5231,11 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.1948356701250891</v>
+        <v>-1.142013715604268</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.047682395177819</v>
+        <v>27.120320395655007</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4122,11 +5265,11 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9221553394253128</v>
+        <v>7.4137364264695549</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.113466053903018</v>
+        <v>34.419345314325099</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4156,11 +5299,11 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90064906254588062</v>
+        <v>-5.6821548549884673</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.697708536870138</v>
+        <v>25.928845195021246</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4190,11 +5333,11 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4593348247669118</v>
+        <v>-1.0224849828322515</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.662819056230155</v>
+        <v>29.791761370500801</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -4224,11 +5367,11 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5708849446070721</v>
+        <v>-0.6500580579777685</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.855806511139349</v>
+        <v>35.696842818271797</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4258,11 +5401,11 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.1536446205885005</v>
+        <v>2.6276976053964516</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.806438362028633</v>
+        <v>37.907498747587468</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4292,11 +5435,11 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-8.6585506153083122E-2</v>
+        <v>4.1132801476044243</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.972917797210428</v>
+        <v>37.838395168751909</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4326,11 +5469,11 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33894950024382098</v>
+        <v>-2.3255424904929365</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.611519549384369</v>
+        <v>33.868668066216131</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4360,11 +5503,11 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14643189270743989</v>
+        <v>-2.9363521189953512</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.940286151805829</v>
+        <v>29.171902712114992</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -4394,11 +5537,11 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0958126009331295</v>
+        <v>-2.4021810075788346</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.801443293911312</v>
+        <v>30.572839028046094</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -4428,11 +5571,11 @@
       </c>
       <c r="I82" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>0.65011459534496918</v>
+        <v>0.25333698424549261</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.108852460384195</v>
+        <v>24.414865531812875</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4462,11 +5605,11 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ref="I83:I97" ca="1" si="7">NORMINV(RAND(),0,3)</f>
-        <v>0.10540020799052777</v>
+        <v>-2.1603611521911188</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.207960262187726</v>
+        <v>20.533720259272005</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4496,11 +5639,11 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8998398067869566</v>
+        <v>-2.5148290086837477</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.322091442156189</v>
+        <v>23.641293618548247</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4530,11 +5673,11 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.1455419043686383</v>
+        <v>-1.3057840561451939</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.531836087632755</v>
+        <v>24.131280040961588</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -4564,11 +5707,11 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5.1534709134810459</v>
+        <v>-0.78204339808709544</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.615277326496624</v>
+        <v>22.992815703960176</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -4598,11 +5741,11 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8711075662357515</v>
+        <v>-3.3027440262157928</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.766655279919561</v>
+        <v>17.34358197730635</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -4632,11 +5775,11 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.2104532248821389</v>
+        <v>0.37743491876676938</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>20.266485777081385</v>
+        <v>21.522627431934225</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -4666,11 +5809,11 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5328560549352419</v>
+        <v>-1.5775290621465818</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.664672698358615</v>
+        <v>21.937569679207595</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -4700,11 +5843,11 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.60465128793394896</v>
+        <v>1.3085560957719999</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>18.079205874424197</v>
+        <v>27.728425737907951</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -4734,11 +5877,11 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6178834077224602</v>
+        <v>-5.6402988775363261E-2</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.654567658881387</v>
+        <v>22.100475306278611</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -4768,11 +5911,11 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7855039373866013</v>
+        <v>-3.55931421431307</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.1294097643718</v>
+        <v>16.092337198504662</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -4802,11 +5945,11 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.3333312002841913</v>
+        <v>4.5638899019334556</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.525650459165195</v>
+        <v>29.516537957967742</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4836,11 +5979,11 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.661686345077118</v>
+        <v>-1.4166224832128174</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>17.258917737983325</v>
+        <v>20.078768706334081</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4870,11 +6013,11 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3568008159673659</v>
+        <v>-2.002487582305676</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.666070041091199</v>
+        <v>24.375877687802799</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4904,11 +6047,11 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.228709756348807</v>
+        <v>-0.49390875373591392</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.501651666851792</v>
+        <v>22.540151293290865</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -4938,11 +6081,11 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25494963328676101</v>
+        <v>4.0327503301292369</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.827715191487588</v>
+        <v>25.704030631487061</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4972,11 +6115,11 @@
       </c>
       <c r="I98" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>-1.225639197397252</v>
+        <v>-1.7892064173412223</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.221425970703152</v>
+        <v>27.719955332109667</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -5006,11 +6149,11 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ref="I99:I113" ca="1" si="8">NORMINV(RAND(),0,4)</f>
-        <v>-3.5408107749931377</v>
+        <v>-3.5689374405868102</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.719374236722579</v>
+        <v>27.710670077403261</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -5040,11 +6183,11 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8291829944394351</v>
+        <v>1.5243780985376534</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.093128971433124</v>
+        <v>31.958824259232472</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -5074,11 +6217,11 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40908099662542724</v>
+        <v>-7.6018351288452264</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.368556265188804</v>
+        <v>24.722175162676926</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -5108,11 +6251,11 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6986634666672038</v>
+        <v>-0.94550624181158116</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.952339654343699</v>
+        <v>35.044367084989716</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -5142,11 +6285,11 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8017087741356415</v>
+        <v>-10.932855206936297</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.934901368631007</v>
+        <v>17.982602304235836</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -5176,11 +6319,11 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.4651322252807528</v>
+        <v>4.4256003514666125</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.770079827600938</v>
+        <v>34.84598672758225</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -5210,11 +6353,11 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8521537783833772</v>
+        <v>0.21619397605774029</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39.555137025224354</v>
+        <v>30.821346008681562</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -5244,11 +6387,11 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3601672059967216</v>
+        <v>0.50225553416500868</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.327944402430866</v>
+        <v>38.767434835253397</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -5278,11 +6421,11 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2968725894411566</v>
+        <v>-11.06341215363758</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.574041141764987</v>
+        <v>25.091809922492221</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -5312,11 +6455,11 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1073395669745949</v>
+        <v>10.415767493117286</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42.086634703366805</v>
+        <v>50.675556016055836</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -5346,11 +6489,11 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17853951493797246</v>
+        <v>7.116491519273807</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39.197296662199776</v>
+        <v>43.185654886639739</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -5380,11 +6523,11 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.17440234094437118</v>
+        <v>-0.30712148113800763</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36.157657344823654</v>
+        <v>36.911577132926638</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -5414,11 +6557,11 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10053160867857822</v>
+        <v>8.7201299648728412</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40.770227535185732</v>
+        <v>46.264816669651552</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -5448,11 +6591,11 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.9748331780769659</v>
+        <v>1.4375253881653132</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.076673171083119</v>
+        <v>38.11460540171776</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -5482,11 +6625,11 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32175687674000542</v>
+        <v>-1.2153652650602493</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.8349558168916</v>
+        <v>37.858479722477455</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -5516,11 +6659,11 @@
       </c>
       <c r="I114" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>7.695956065007735</v>
+        <v>1.685810352009105</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.085525433597084</v>
+        <v>32.666463633106922</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -5549,12 +6692,12 @@
         <v>2.5</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" ref="I115:I130" ca="1" si="9">NORMINV(RAND(),0,3)</f>
-        <v>3.9168792371689083</v>
+        <f t="shared" ref="I115:I129" ca="1" si="9">NORMINV(RAND(),0,3)</f>
+        <v>2.1039931342086806</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.297608722454534</v>
+        <v>34.11920890607211</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -5584,11 +6727,11 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3876919913714096</v>
+        <v>-0.37334206761587507</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.811644103811446</v>
+        <v>27.843769354070531</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -5618,11 +6761,11 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2227895559479363</v>
+        <v>-1.1885531617847356</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.926149547295186</v>
+        <v>27.170978979046748</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -5652,11 +6795,11 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.6541668842277426</v>
+        <v>-0.3515492906190314</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.113252745551048</v>
+        <v>31.032030853920258</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -5686,11 +6829,11 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.8262654563952974</v>
+        <v>0.44615668561574384</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.73602399767347</v>
+        <v>32.449902598931821</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -5720,11 +6863,11 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53932058344295786</v>
+        <v>0.65733527558625326</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.515888963517757</v>
+        <v>32.463037149765412</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -5754,11 +6897,11 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0118875237505764</v>
+        <v>5.2607630001098356</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.431795401135371</v>
+        <v>38.126622813258599</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -5788,11 +6931,11 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6186813956126151</v>
+        <v>-3.7206465867433538</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.164188725066055</v>
+        <v>26.614985060235007</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -5822,11 +6965,11 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42008470786415586</v>
+        <v>0.58152557215935485</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.916757946466976</v>
+        <v>27.422671367055226</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -5856,11 +6999,11 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4061504764824071</v>
+        <v>-2.5938116201017096</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.933297699550927</v>
+        <v>23.220721358928024</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5890,11 +7033,11 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.73730402843253073</v>
+        <v>2.2857183693907208</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.769184302354539</v>
+        <v>29.08310204111099</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -5924,11 +7067,11 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2314750921986613</v>
+        <v>2.2545885833147166</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.973690032734535</v>
+        <v>28.308882476242601</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -5958,11 +7101,11 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3320624521427007</v>
+        <v>0.63885913188283039</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.570994872229974</v>
+        <v>29.360531661600987</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -5992,11 +7135,11 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.92433542977164995</v>
+        <v>4.1216550793788143</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.687622563012113</v>
+        <v>33.385520842441764</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -6026,11 +7169,11 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.85374298401769078</v>
+        <v>-0.92314912347963596</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.404503853470572</v>
+        <v>26.902861478514563</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -6060,11 +7203,11 @@
       </c>
       <c r="I130" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>3.2313964902957997</v>
+        <v>1.5898149511692157</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43.366555741412405</v>
+        <v>43.046781050998057</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -6093,12 +7236,12 @@
         <v>10</v>
       </c>
       <c r="I131" s="1">
-        <f t="shared" ref="I131:I146" ca="1" si="10">NORMINV(RAND(),2,1)</f>
-        <v>1.3907889837795091</v>
+        <f t="shared" ref="I131:I145" ca="1" si="10">NORMINV(RAND(),2,1)</f>
+        <v>2.7201420634430549</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J193" ca="1" si="11">E131 + F131 + G131 + H131 + I131 + NORMINV(RAND(),0,2)</f>
-        <v>44.206370926267397</v>
+        <v>42.972309834655903</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -6128,11 +7271,11 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0104027165304197</v>
+        <v>2.3292510176007495</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.423144977392802</v>
+        <v>43.093574021100324</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -6162,11 +7305,11 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7482928075731337</v>
+        <v>1.5873649358904971</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44.277285312714952</v>
+        <v>43.113657506886497</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -6196,11 +7339,11 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6513642758866895</v>
+        <v>2.3728253134545447</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.515331840258291</v>
+        <v>43.031316985334556</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -6230,11 +7373,11 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9114839329504418</v>
+        <v>2.6616674655782591</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>47.953519114389245</v>
+        <v>40.504978092798233</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -6264,11 +7407,11 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3638260007230345</v>
+        <v>2.2251823775825397</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.613899397568069</v>
+        <v>42.837062641470922</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -6298,11 +7441,11 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1410770798757488</v>
+        <v>2.8730560791423976</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.181874266208993</v>
+        <v>44.135761100538907</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -6332,11 +7475,11 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.598942825412351</v>
+        <v>3.8065076368552839</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.939707754979914</v>
+        <v>34.283831292343258</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -6366,11 +7509,11 @@
       </c>
       <c r="I139" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6513938977736826</v>
+        <v>2.3220170653448382</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.631914693710769</v>
+        <v>34.160284856618965</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -6400,11 +7543,11 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39621327378292381</v>
+        <v>0.22134131182071504</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.941609128614569</v>
+        <v>27.561869012838581</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -6434,11 +7577,11 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1776907784188242</v>
+        <v>1.1935164923657289</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.352183553872564</v>
+        <v>35.859099306969377</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -6468,11 +7611,11 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4182724425356803</v>
+        <v>1.0021416658667657</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.550776923839507</v>
+        <v>34.048680001065421</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -6502,11 +7645,11 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5046597860723683</v>
+        <v>2.7393376965374916</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.092920594020342</v>
+        <v>30.50211545043685</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -6536,11 +7679,11 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33245590071971742</v>
+        <v>0.58748109720706121</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.496201368641209</v>
+        <v>32.3435963715431</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -6570,11 +7713,11 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9661087374105151</v>
+        <v>1.5060368541739504</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.354932314560763</v>
+        <v>32.847590683103327</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -6604,11 +7747,11 @@
       </c>
       <c r="I146" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>1.5565374857469305</v>
+        <v>-2.5055850103939572</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.033235274262033</v>
+        <v>33.848047149588204</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -6638,11 +7781,11 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ref="I147:I161" ca="1" si="12">NORMINV(RAND(),0,2)</f>
-        <v>1.3850217034632655</v>
+        <v>-1.2813120133607543</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.033211431217111</v>
+        <v>36.665286174045782</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -6672,11 +7815,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2499011069367629</v>
+        <v>-0.66187719499459774</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.923339980509539</v>
+        <v>34.461426958998871</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -6706,11 +7849,11 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.9014933670792482</v>
+        <v>0.33031231214679113</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.376336307051996</v>
+        <v>34.106061036475538</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -6740,11 +7883,11 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4119589975618305</v>
+        <v>-1.1616729948561386</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.971353426159887</v>
+        <v>31.956777238194778</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -6774,11 +7917,11 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.98480175053541497</v>
+        <v>1.4015124066993896</v>
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.413003133359815</v>
+        <v>36.241677697262844</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -6808,11 +7951,11 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.4988929419789647</v>
+        <v>-2.1218738946978006</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.265092242790423</v>
+        <v>36.80692070830198</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -6842,11 +7985,11 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.53373965351322772</v>
+        <v>2.8532020103259619</v>
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.605507548941866</v>
+        <v>36.929959370217915</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -6876,11 +8019,11 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.0979580630007639</v>
+        <v>-4.8338775459791776</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.354646625666856</v>
+        <v>25.29850460373261</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -6910,11 +8053,11 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-7.1722206337019923E-2</v>
+        <v>-1.616846270766443</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.869116991041089</v>
+        <v>29.944554849952073</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -6944,11 +8087,11 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.3283235436839309</v>
+        <v>1.3947240032513935</v>
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>27.643337978095051</v>
+        <v>34.730739462396059</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -6978,11 +8121,11 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.74402957354509014</v>
+        <v>-1.3274332917547849</v>
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.629174650223682</v>
+        <v>30.475524069432335</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -7012,11 +8155,11 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.0263316840662835</v>
+        <v>-0.33151530538993895</v>
       </c>
       <c r="J158" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.892044712164747</v>
+        <v>30.064455849423229</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -7046,11 +8189,11 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.3556910183101234</v>
+        <v>-1.0704588103213819</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.842562491589291</v>
+        <v>29.118961226053028</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -7080,11 +8223,11 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.5077242067774228</v>
+        <v>4.274916167639268</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.225115527717591</v>
+        <v>33.142372901142011</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -7114,11 +8257,11 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.1710775818209147</v>
+        <v>-3.0969069672415199</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.152522599621932</v>
+        <v>30.990506583021993</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -7148,11 +8291,11 @@
       </c>
       <c r="I162" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>0.7613241710943659</v>
+        <v>4.34356009631707</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.016237916367231</v>
+        <v>47.090829351359467</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -7181,12 +8324,12 @@
         <v>10</v>
       </c>
       <c r="I163" s="1">
-        <f t="shared" ref="I163:I178" ca="1" si="13">NORMINV(RAND(),2,1)</f>
-        <v>2.7585435613321545</v>
+        <f t="shared" ref="I163:I177" ca="1" si="13">NORMINV(RAND(),2,1)</f>
+        <v>2.8286061755976717</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.74548611082097</v>
+        <v>43.280433918902588</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -7216,11 +8359,11 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4594484280033715</v>
+        <v>3.6965946613864098E-2</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.127974178230126</v>
+        <v>40.342013140969733</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -7250,11 +8393,11 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0481451671503503</v>
+        <v>0.49227453555922374</v>
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.319340273468065</v>
+        <v>42.646317824123841</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -7284,11 +8427,11 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5317489875918739</v>
+        <v>0.19717553485229788</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.407271579131375</v>
+        <v>39.13394509998615</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -7318,11 +8461,11 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8288987984821901</v>
+        <v>1.9170909400081457</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.332658969481379</v>
+        <v>41.641841131335482</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -7352,11 +8495,11 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8016643339492309</v>
+        <v>2.7193309555733665</v>
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.299115118909839</v>
+        <v>40.10338676279904</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -7386,11 +8529,11 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4945389966132543</v>
+        <v>2.0911481686184881</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.13365553405648</v>
+        <v>42.574284705585498</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -7420,11 +8563,11 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1428769693940257</v>
+        <v>2.1024983931566985</v>
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.982829644248461</v>
+        <v>32.58520026629926</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -7454,11 +8597,11 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0861446960164853</v>
+        <v>1.4751213086777681</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.660656737462496</v>
+        <v>32.84682960819201</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -7488,11 +8631,11 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2100378754061398</v>
+        <v>2.2366367492580252</v>
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.920402835935104</v>
+        <v>35.073796020898357</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -7522,11 +8665,11 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49572261772712345</v>
+        <v>3.1961949459112988</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.827612840289163</v>
+        <v>40.214288046818673</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -7556,11 +8699,11 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1263636267537549</v>
+        <v>0.79960769201510251</v>
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.994800188247986</v>
+        <v>27.963077943545343</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -7590,11 +8733,11 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.6498443550672057</v>
+        <v>1.0597753119860842</v>
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.302354881176143</v>
+        <v>26.432877503767756</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -7624,11 +8767,11 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3357911497881574</v>
+        <v>0.14570817310413964</v>
       </c>
       <c r="J176" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.123903598725107</v>
+        <v>27.700297295152197</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -7658,11 +8801,11 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68378575778950257</v>
+        <v>1.9405198280145772</v>
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.004322790146873</v>
+        <v>37.27355846315627</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -7692,11 +8835,11 @@
       </c>
       <c r="I178" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-1.3837246546936424</v>
+        <v>-0.2787400448678104</v>
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.964710164608334</v>
+        <v>35.832504720602529</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -7726,11 +8869,11 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ref="I179:I193" ca="1" si="14">NORMINV(RAND(),0,2)</f>
-        <v>1.446850813967016</v>
+        <v>0.76980239086095181</v>
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.097060434440905</v>
+        <v>37.939296453690183</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -7760,11 +8903,11 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.7853380371488283</v>
+        <v>1.7565370897813291</v>
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.395546942345902</v>
+        <v>34.432559998650085</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -7794,11 +8937,11 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.68469157259654823</v>
+        <v>0.62352347655867935</v>
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.188763158858045</v>
+        <v>32.464342263712567</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -7828,11 +8971,11 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.20572998901293385</v>
+        <v>-1.7798031777558398</v>
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.306778631312824</v>
+        <v>34.379701038307303</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -7862,11 +9005,11 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.7015599547325329</v>
+        <v>-2.9340941492298609</v>
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.930579216899936</v>
+        <v>31.469434280349262</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -7896,11 +9039,11 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30845624060569643</v>
+        <v>0.71860036265538729</v>
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.346044897358226</v>
+        <v>34.344211901237351</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -7930,11 +9073,11 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26186176630602925</v>
+        <v>-1.6919597011926806</v>
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.95074869089833</v>
+        <v>32.68606535509565</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -7964,11 +9107,11 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.1096189649209547</v>
+        <v>1.4182634921707582</v>
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.907033377698149</v>
+        <v>30.375080070704549</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -7998,11 +9141,11 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.2143999272286512</v>
+        <v>-3.1690829227793822</v>
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.919773020398772</v>
+        <v>28.332614433079719</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -8032,11 +9175,11 @@
       </c>
       <c r="I188" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19432085631322588</v>
+        <v>1.3546935072762174</v>
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.450794005637206</v>
+        <v>33.119312546231299</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -8066,11 +9209,11 @@
       </c>
       <c r="I189" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.15176250883595102</v>
+        <v>0.73508060966887612</v>
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.875607611615226</v>
+        <v>35.278184912456219</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -8100,11 +9243,11 @@
       </c>
       <c r="I190" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33152293942839312</v>
+        <v>-1.3895191415597188</v>
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.594783327530102</v>
+        <v>28.58122575504354</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -8134,11 +9277,11 @@
       </c>
       <c r="I191" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.5997012264966619</v>
+        <v>3.2300924705707628</v>
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.109912024411528</v>
+        <v>36.089039248011105</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -8168,11 +9311,11 @@
       </c>
       <c r="I192" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.2959146901838139</v>
+        <v>-1.7693112799130355</v>
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.430185082158367</v>
+        <v>30.671988109225516</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -8202,11 +9345,11 @@
       </c>
       <c r="I193" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-7.4091197899293055</v>
+        <v>-3.4335673159238067</v>
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.697765297835886</v>
+        <v>28.475360644669177</v>
       </c>
     </row>
   </sheetData>
@@ -8218,11 +9361,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8261,7 +9404,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>17.326446268192672</v>
+        <v>12.247011142626423</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -8271,7 +9414,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">D2 + E2+ 1.25*C2+5+NORMINV(RAND(),0,5)</f>
-        <v>37.763973261038167</v>
+        <v>21.929495897190876</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8283,7 +9426,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>17.082017368623372</v>
+        <v>14.962337948904342</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -8293,7 +9436,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F49" ca="1" si="1">D3 + E3+ 1.25*C3+5+NORMINV(RAND(),0,5)</f>
-        <v>38.553620501716047</v>
+        <v>30.031010631893299</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8305,7 +9448,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.507760254858828</v>
+        <v>21.591025755299267</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -8315,7 +9458,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.948461502918157</v>
+        <v>43.105357905943293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -8327,7 +9470,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.98343814970962</v>
+        <v>13.397705442780044</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -8337,7 +9480,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.124976516318569</v>
+        <v>35.625939573970072</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -8349,7 +9492,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.706721863371005</v>
+        <v>17.006534216821727</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -8359,7 +9502,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.178625198783685</v>
+        <v>36.390084878122039</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -8371,7 +9514,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.914351301512108</v>
+        <v>16.146697850307916</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -8381,7 +9524,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.592089516096138</v>
+        <v>32.592202461200621</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -8393,7 +9536,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.708729374840459</v>
+        <v>15.198707329591352</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -8403,7 +9546,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.58519442539605</v>
+        <v>35.991540631379586</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -8415,7 +9558,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.987300556124264</v>
+        <v>16.268488035823481</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -8425,7 +9568,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.129645731983544</v>
+        <v>37.096887331299378</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -8437,7 +9580,7 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>5.0653151881356893</v>
+        <v>4.2954689543155995</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -8447,7 +9590,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.336007847571009</v>
+        <v>20.640399748454819</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -8459,7 +9602,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:C17" ca="1" si="2">NORMINV(RAND(),5,1)</f>
-        <v>5.1342372693766745</v>
+        <v>4.3407560080239271</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -8469,7 +9612,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.790198283782633</v>
+        <v>16.776706069600085</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -8481,7 +9624,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.49758008279065</v>
+        <v>4.1107001770422018</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -8491,7 +9634,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.948956318094112</v>
+        <v>11.232392595738073</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8503,7 +9646,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1319342826812751</v>
+        <v>6.3043251774501199</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -8513,7 +9656,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11.424180033295722</v>
+        <v>12.034090123290436</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -8525,7 +9668,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9319594741648345</v>
+        <v>6.1374063745477496</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -8535,7 +9678,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.058597802468714</v>
+        <v>17.398244151885418</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -8547,7 +9690,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3991194205082698</v>
+        <v>4.6286909842569051</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -8557,7 +9700,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.830582829381068</v>
+        <v>23.240704874263621</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8569,7 +9712,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7274277344989066</v>
+        <v>4.9749783654150681</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -8579,7 +9722,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.886254511188449</v>
+        <v>18.50364549142968</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8591,7 +9734,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3783355557606418</v>
+        <v>5.7372633857981832</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -8601,7 +9744,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2598808228272969</v>
+        <v>17.024766940283971</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8613,7 +9756,7 @@
       </c>
       <c r="C18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>6.7835018783724284</v>
+        <v>12.011141084273438</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -8623,7 +9766,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.463866970734383</v>
+        <v>38.934734191919958</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8635,7 +9778,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ref="C19:C25" ca="1" si="3">NORMINV(RAND(),12,4)</f>
-        <v>17.686851898423406</v>
+        <v>17.214862785137072</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
@@ -8645,7 +9788,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.377436696830365</v>
+        <v>41.219500949042754</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8657,7 +9800,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.559647810014061</v>
+        <v>6.4163613516133049</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -8667,7 +9810,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.46714210417035</v>
+        <v>26.845630715497069</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8679,7 +9822,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2251876099020222</v>
+        <v>0.41895319370509121</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -8689,7 +9832,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.02189224236076</v>
+        <v>18.030609401121172</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8701,7 +9844,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3168279690394513</v>
+        <v>9.9630142420699332</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
@@ -8711,7 +9854,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.477526921478436</v>
+        <v>29.950826324873063</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8723,7 +9866,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6290309068812849</v>
+        <v>4.6460404697003863</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
@@ -8733,7 +9876,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.605368619743889</v>
+        <v>20.102536249833303</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8745,7 +9888,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.613134302514196</v>
+        <v>8.1835313631596627</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -8755,7 +9898,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.508550949039019</v>
+        <v>21.668256450732624</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8767,7 +9910,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.202681063487852</v>
+        <v>15.993074749280748</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
@@ -8777,7 +9920,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.995220786910586</v>
+        <v>36.73003317650857</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8789,7 +9932,7 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>5.8247805416562546</v>
+        <v>4.3422690919993023</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
@@ -8799,7 +9942,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.32313560610428</v>
+        <v>28.121360211089737</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8811,7 +9954,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:C33" ca="1" si="4">NORMINV(RAND(),6,1)</f>
-        <v>6.6493007115282552</v>
+        <v>7.4920673343157009</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -8821,7 +9964,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.786209342991857</v>
+        <v>25.257639033417977</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8833,7 +9976,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1654452060266838</v>
+        <v>5.2545992232949201</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -8843,7 +9986,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.558096004022122</v>
+        <v>33.665643540824519</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8855,7 +9998,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1051631621539055</v>
+        <v>4.6475163640727928</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -8865,7 +10008,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.615211935868345</v>
+        <v>29.057215738927013</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8877,7 +10020,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9375831724053647</v>
+        <v>5.9134872328731847</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -8887,7 +10030,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.798734812108599</v>
+        <v>26.133054506543154</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8899,7 +10042,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.527447274914242</v>
+        <v>7.4635591781085715</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -8909,7 +10052,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.004055133138259</v>
+        <v>46.726219624910662</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8921,7 +10064,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0434746404090296</v>
+        <v>7.9272830402369188</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
@@ -8931,7 +10074,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.708283666815795</v>
+        <v>36.179746878367936</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -8943,7 +10086,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7081878469581007</v>
+        <v>5.2606822186302793</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
@@ -8953,7 +10096,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.531844661110998</v>
+        <v>29.397275688354313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -8965,7 +10108,7 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>15.029128330085806</v>
+        <v>6.6746998323604601</v>
       </c>
       <c r="D34" s="2">
         <v>15</v>
@@ -8975,7 +10118,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.54302198668266</v>
+        <v>33.004867435435678</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8987,7 +10130,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:C41" ca="1" si="5">NORMINV(RAND(),12,5)</f>
-        <v>19.466895669164309</v>
+        <v>13.605676763927566</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -8997,7 +10140,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.700460956713989</v>
+        <v>27.994187758162294</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -9009,7 +10152,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1468634689546748</v>
+        <v>11.540920330248836</v>
       </c>
       <c r="D36" s="2">
         <v>15</v>
@@ -9019,7 +10162,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.136870450638916</v>
+        <v>42.042461675804013</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -9031,7 +10174,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8106965732186389</v>
+        <v>20.464969104175776</v>
       </c>
       <c r="D37" s="2">
         <v>15</v>
@@ -9041,7 +10184,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.901516409752873</v>
+        <v>43.697028697706685</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -9053,7 +10196,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9694361768481752</v>
+        <v>9.8027023738605159</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -9063,7 +10206,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.481258468290434</v>
+        <v>36.963074504905798</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -9075,7 +10218,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11.589915071376662</v>
+        <v>18.241555450109189</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -9085,7 +10228,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.068376459968349</v>
+        <v>50.345831756675508</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -9097,7 +10240,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>16.254432696818046</v>
+        <v>15.609562016320101</v>
       </c>
       <c r="D40" s="2">
         <v>15</v>
@@ -9107,7 +10250,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.10769164929107</v>
+        <v>50.710005572672323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -9119,7 +10262,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5091753834354096</v>
+        <v>13.800610293664864</v>
       </c>
       <c r="D41" s="2">
         <v>15</v>
@@ -9129,7 +10272,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.742416405395055</v>
+        <v>41.317316273220868</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -9141,7 +10284,7 @@
       </c>
       <c r="C42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>3.5382495150363074</v>
+        <v>8.9732929001286053</v>
       </c>
       <c r="D42" s="2">
         <v>15</v>
@@ -9151,7 +10294,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.607064984126474</v>
+        <v>31.824587682756381</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -9163,7 +10306,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:C49" ca="1" si="6">NORMINV(RAND(),8,2)</f>
-        <v>8.7357800299695985</v>
+        <v>6.7641557931858669</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -9173,7 +10316,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.380223548253596</v>
+        <v>31.350431674621635</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -9185,7 +10328,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9864298670794023</v>
+        <v>8.4897992925608161</v>
       </c>
       <c r="D44" s="2">
         <v>15</v>
@@ -9195,7 +10338,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.512742026622767</v>
+        <v>41.997743018653281</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -9207,7 +10350,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>10.138926456705237</v>
+        <v>7.2911885518773207</v>
       </c>
       <c r="D45" s="2">
         <v>15</v>
@@ -9217,7 +10360,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.780832281889204</v>
+        <v>40.330049306912187</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -9229,7 +10372,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>12.955790940518995</v>
+        <v>7.3366897446095409</v>
       </c>
       <c r="D46" s="2">
         <v>15</v>
@@ -9239,7 +10382,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.749093398997942</v>
+        <v>34.983317447550618</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -9251,7 +10394,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8234171585653494</v>
+        <v>10.234046189027728</v>
       </c>
       <c r="D47" s="2">
         <v>15</v>
@@ -9261,7 +10404,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.738116127859307</v>
+        <v>39.479063788611789</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -9273,7 +10416,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6164044306579672</v>
+        <v>12.614435141645782</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -9283,7 +10426,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.020582067242607</v>
+        <v>40.271342160203098</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -9295,7 +10438,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3730334420968999</v>
+        <v>8.0389953283359077</v>
       </c>
       <c r="D49" s="2">
         <v>15</v>
@@ -9305,7 +10448,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.420753195664119</v>
+        <v>38.425601690038242</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_complex_data_backup.xlsx
+++ b/data/fleas_complex_data_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236E96A8-370F-8240-A972-94871FCE9117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E55AD4-B350-534F-8B00-50E9B9536B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1880" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="7440" yWindow="1880" windowWidth="28240" windowHeight="17240" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,40 +625,40 @@
         <v>12.5</v>
       </c>
       <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
         <v>7.5</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>-10</v>
       </c>
       <c r="K2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>29.531785790652346</v>
+        <f ca="1">$C2+$D2+E2+NORMINV(RAND(),0,4)</f>
+        <v>31.55909096985193</v>
       </c>
       <c r="L2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>19.278142033883057</v>
+        <f t="shared" ref="L2:P17" ca="1" si="0">$C2+$D2+F2+NORMINV(RAND(),0,4)</f>
+        <v>27.606665896679409</v>
       </c>
       <c r="M2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>29.36770978708746</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.115928747587045</v>
       </c>
       <c r="N2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>33.203898880110685</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17.659919460691828</v>
       </c>
       <c r="O2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>29.769770063909455</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.33128508561088</v>
       </c>
       <c r="P2" s="1">
-        <f ca="1">$C2+$D2+$E2+NORMINV(RAND(),0,4)</f>
-        <v>32.428011728098326</v>
+        <f ca="1">$C2+$D2+J2+NORMINV(RAND(),0,4)</f>
+        <v>7.4305697069207852</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -681,40 +681,40 @@
         <v>12.5</v>
       </c>
       <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>7.5</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>-10</v>
       </c>
       <c r="K3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>33.359413582530962</v>
+        <f t="shared" ref="K3:P25" ca="1" si="1">$C3+$D3+E3+NORMINV(RAND(),0,4)</f>
+        <v>32.866209284144198</v>
       </c>
       <c r="L3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>28.085667485533996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.121987372056815</v>
       </c>
       <c r="M3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>30.615629197527365</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.232668158980804</v>
       </c>
       <c r="N3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>34.958864079400584</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.252727997906209</v>
       </c>
       <c r="O3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>28.388138439119402</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.005854362609675</v>
       </c>
       <c r="P3" s="1">
-        <f ca="1">$C3+$D3+$E3+NORMINV(RAND(),0,4)</f>
-        <v>30.347191918215085</v>
+        <f ca="1">$C3+$D3+J3+NORMINV(RAND(),0,4)</f>
+        <v>8.753625648876513</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -737,40 +737,40 @@
         <v>12.5</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>7.5</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>-10</v>
       </c>
       <c r="K4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>24.264350307744511</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.432849009694017</v>
       </c>
       <c r="L4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>29.645571331861806</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.22553105435059</v>
       </c>
       <c r="M4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>38.042557240595166</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.589447946572463</v>
       </c>
       <c r="N4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>25.978893864244984</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.192980399028265</v>
       </c>
       <c r="O4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>29.231771787183487</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.953989628116979</v>
       </c>
       <c r="P4" s="1">
-        <f ca="1">$C4+$D4+$E4+NORMINV(RAND(),0,4)</f>
-        <v>26.311781321618213</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26637802765024432</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -793,40 +793,40 @@
         <v>12.5</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>7.5</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>-10</v>
       </c>
       <c r="K5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>31.256171064213255</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24.876463684780553</v>
       </c>
       <c r="L5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>28.270133953179172</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.474276458411257</v>
       </c>
       <c r="M5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>25.967738227363121</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.821582004821938</v>
       </c>
       <c r="N5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>30.159083866629768</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.765871226134749</v>
       </c>
       <c r="O5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>29.292446746302737</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.711365757585231</v>
       </c>
       <c r="P5" s="1">
-        <f ca="1">$C5+$D5+$E5+NORMINV(RAND(),0,4)</f>
-        <v>27.843499319760731</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3442855221283687</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -849,40 +849,40 @@
         <v>12.5</v>
       </c>
       <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>7.5</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
       <c r="I6">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>-10</v>
       </c>
       <c r="K6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>34.468158531665395</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36.646511040330537</v>
       </c>
       <c r="L6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>26.059337795189933</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.467928006483888</v>
       </c>
       <c r="M6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>33.879026430089588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.499648738651363</v>
       </c>
       <c r="N6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>33.144736750360089</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.713647200484708</v>
       </c>
       <c r="O6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>24.372987256655428</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.685861224159165</v>
       </c>
       <c r="P6" s="1">
-        <f ca="1">$C6+$D6+$E6+NORMINV(RAND(),0,4)</f>
-        <v>33.509192737758028</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.304877072493666</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -905,40 +905,40 @@
         <v>12.5</v>
       </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>7.5</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
       <c r="I7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>-10</v>
       </c>
       <c r="K7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>24.376651309422677</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32.043459192171476</v>
       </c>
       <c r="L7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>31.385604133740124</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.76499003591276</v>
       </c>
       <c r="M7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>30.04145912536039</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.824195614545143</v>
       </c>
       <c r="N7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>34.746281083368174</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.168776169645103</v>
       </c>
       <c r="O7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>30.581265536569607</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.819044352474062</v>
       </c>
       <c r="P7" s="1">
-        <f ca="1">$C7+$D7+$E7+NORMINV(RAND(),0,4)</f>
-        <v>35.642894874063728</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4734529030777921</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -961,40 +961,40 @@
         <v>12.5</v>
       </c>
       <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
         <v>7.5</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>-10</v>
       </c>
       <c r="K8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>27.278479207993485</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.558136560980046</v>
       </c>
       <c r="L8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>33.084835565244312</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.627520596759236</v>
       </c>
       <c r="M8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>25.104904068054516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.193017184017471</v>
       </c>
       <c r="N8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>27.799003603484774</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.765497286227351</v>
       </c>
       <c r="O8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>36.441979136228255</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.793407319256719</v>
       </c>
       <c r="P8" s="1">
-        <f ca="1">$C8+$D8+$E8+NORMINV(RAND(),0,4)</f>
-        <v>34.591051129569841</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5839307724571698</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1017,40 +1017,40 @@
         <v>12.5</v>
       </c>
       <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
         <v>7.5</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
       <c r="I9">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>-10</v>
       </c>
       <c r="K9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>36.815809556165817</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31.085848999852832</v>
       </c>
       <c r="L9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>27.433074957188278</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.055216571316322</v>
       </c>
       <c r="M9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>35.850694289475612</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.734636963102254</v>
       </c>
       <c r="N9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>20.638814820688978</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.295214781995281</v>
       </c>
       <c r="O9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>26.74353461329147</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.888921614972752</v>
       </c>
       <c r="P9" s="1">
-        <f ca="1">$C9+$D9+$E9+NORMINV(RAND(),0,4)</f>
-        <v>36.277479360125483</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7713012496102705</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1085,28 +1085,28 @@
         <v>-5</v>
       </c>
       <c r="K10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>47.740014351517409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.279296925928115</v>
       </c>
       <c r="L10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>38.69797068359842</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.816687443516216</v>
       </c>
       <c r="M10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>47.20085614642516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.761121822321073</v>
       </c>
       <c r="N10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>40.364520614974296</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.969139402205066</v>
       </c>
       <c r="O10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>43.15314988844937</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.292054432937302</v>
       </c>
       <c r="P10" s="1">
-        <f ca="1">$C10+$D10+$E10+NORMINV(RAND(),0,4)</f>
-        <v>38.807934401111282</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.046581022838474</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1141,28 +1141,28 @@
         <v>-5</v>
       </c>
       <c r="K11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>37.060166424745503</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36.712452232886541</v>
       </c>
       <c r="L11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>36.100142491405975</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.662010648043427</v>
       </c>
       <c r="M11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>40.397790988494108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.327384747167201</v>
       </c>
       <c r="N11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>33.99337828764962</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.659429663791698</v>
       </c>
       <c r="O11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>41.124694130861727</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.786449078164154</v>
       </c>
       <c r="P11" s="1">
-        <f ca="1">$C11+$D11+$E11+NORMINV(RAND(),0,4)</f>
-        <v>42.902737259865212</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.948982881499973</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1197,28 +1197,28 @@
         <v>-5</v>
       </c>
       <c r="K12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>28.594298124605359</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43.495061112235121</v>
       </c>
       <c r="L12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>36.311490724331797</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.544297937071018</v>
       </c>
       <c r="M12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>45.55469468468727</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.488775919114627</v>
       </c>
       <c r="N12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>41.232831152297734</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.439816893927652</v>
       </c>
       <c r="O12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>37.09018224660516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17.390644028406136</v>
       </c>
       <c r="P12" s="1">
-        <f ca="1">$C12+$D12+$E12+NORMINV(RAND(),0,4)</f>
-        <v>39.245274974229673</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.422656933411023</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1253,28 +1253,28 @@
         <v>-5</v>
       </c>
       <c r="K13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>36.848675293260015</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40.496581599158958</v>
       </c>
       <c r="L13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>44.395976858633425</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26.700358482890195</v>
       </c>
       <c r="M13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>40.679173381890052</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.206677520613685</v>
       </c>
       <c r="N13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>32.562450283251906</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13.798695649667561</v>
       </c>
       <c r="O13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>42.706796332044384</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.679127910277462</v>
       </c>
       <c r="P13" s="1">
-        <f ca="1">$C13+$D13+$E13+NORMINV(RAND(),0,4)</f>
-        <v>43.194865427733433</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.361114026642213</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1309,28 +1309,28 @@
         <v>-5</v>
       </c>
       <c r="K14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>45.913764813830532</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.905618598431744</v>
       </c>
       <c r="L14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>45.960510919116523</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.374426628882606</v>
       </c>
       <c r="M14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>39.533918815028827</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.177383351943178</v>
       </c>
       <c r="N14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>39.229608191207419</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.266286157305867</v>
       </c>
       <c r="O14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>39.005277424403729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.143414089263668</v>
       </c>
       <c r="P14" s="1">
-        <f ca="1">$C14+$D14+$E14+NORMINV(RAND(),0,4)</f>
-        <v>42.585670294056278</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.192211551433122</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1365,28 +1365,28 @@
         <v>-5</v>
       </c>
       <c r="K15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>43.369988643087595</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39.368968051581653</v>
       </c>
       <c r="L15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>37.481137706314655</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.117970311762726</v>
       </c>
       <c r="M15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>30.178857108661585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.582014119606278</v>
       </c>
       <c r="N15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>40.177193478633981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.632422821352373</v>
       </c>
       <c r="O15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>45.319644109853108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.992017730682658</v>
       </c>
       <c r="P15" s="1">
-        <f ca="1">$C15+$D15+$E15+NORMINV(RAND(),0,4)</f>
-        <v>39.984103503338289</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18.206585404976892</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1421,28 +1421,28 @@
         <v>-5</v>
       </c>
       <c r="K16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>42.868716004990368</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42.72986984332902</v>
       </c>
       <c r="L16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>42.172613794428095</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.277865519598166</v>
       </c>
       <c r="M16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>45.535039603280197</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.284224665612946</v>
       </c>
       <c r="N16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>44.766359638263488</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.209292163104365</v>
       </c>
       <c r="O16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>34.602232413091883</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.504915932897475</v>
       </c>
       <c r="P16" s="1">
-        <f ca="1">$C16+$D16+$E16+NORMINV(RAND(),0,4)</f>
-        <v>39.211490500465153</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.736381139787575</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1477,28 +1477,28 @@
         <v>-5</v>
       </c>
       <c r="K17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>45.836254896942059</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45.580898439008102</v>
       </c>
       <c r="L17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>36.269910984513331</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.722354650100996</v>
       </c>
       <c r="M17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>39.236678129003977</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.05710793903668</v>
       </c>
       <c r="N17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>37.117320126818839</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.518803507957969</v>
       </c>
       <c r="O17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>34.840882400869873</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.222253297425041</v>
       </c>
       <c r="P17" s="1">
-        <f ca="1">$C17+$D17+$E17+NORMINV(RAND(),0,4)</f>
-        <v>35.909352100463749</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14.887367970897088</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1533,28 +1533,28 @@
         <v>5</v>
       </c>
       <c r="K18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>46.621515182929762</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>56.355622953897807</v>
       </c>
       <c r="L18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>54.89544603194404</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48.57302897797787</v>
       </c>
       <c r="M18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>53.831869545301252</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28.941450847456395</v>
       </c>
       <c r="N18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>43.614639424716714</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.688447871877113</v>
       </c>
       <c r="O18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>54.299722243237703</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.448642727706606</v>
       </c>
       <c r="P18" s="1">
-        <f ca="1">$C18+$D18+$E18+NORMINV(RAND(),0,4)</f>
-        <v>48.944740153112562</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.862240443452023</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1589,28 +1589,28 @@
         <v>5</v>
       </c>
       <c r="K19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>51.979508960857416</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49.008252052401318</v>
       </c>
       <c r="L19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>43.925290927696295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41.297392313122302</v>
       </c>
       <c r="M19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>46.915064189671348</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36.445917298007025</v>
       </c>
       <c r="N19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>48.411647021487411</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26.834520384682346</v>
       </c>
       <c r="O19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>47.076730606404922</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24.143327713246091</v>
       </c>
       <c r="P19" s="1">
-        <f ca="1">$C19+$D19+$E19+NORMINV(RAND(),0,4)</f>
-        <v>48.249499055745687</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24.895566404314533</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1645,28 +1645,28 @@
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>53.441888619893973</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51.340906975770672</v>
       </c>
       <c r="L20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>44.296342363000278</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42.455887403500448</v>
       </c>
       <c r="M20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>48.772827291139087</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.918409066955817</v>
       </c>
       <c r="N20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>47.549267352249373</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31.007296729115843</v>
       </c>
       <c r="O20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>47.963245988892261</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29.463189823570314</v>
       </c>
       <c r="P20" s="1">
-        <f ca="1">$C20+$D20+$E20+NORMINV(RAND(),0,4)</f>
-        <v>51.400915646852376</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.3539523872881</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1701,28 +1701,28 @@
         <v>5</v>
       </c>
       <c r="K21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>53.009566437009383</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.686428668014393</v>
       </c>
       <c r="L21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>45.692917858804179</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44.38875800807061</v>
       </c>
       <c r="M21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>50.483346945426057</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34.864530808286865</v>
       </c>
       <c r="N21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>48.774085757783951</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.539629572577301</v>
       </c>
       <c r="O21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>48.726207783530995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29.914753545724672</v>
       </c>
       <c r="P21" s="1">
-        <f ca="1">$C21+$D21+$E21+NORMINV(RAND(),0,4)</f>
-        <v>51.785375833633438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31.365791838765894</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1757,28 +1757,28 @@
         <v>5</v>
       </c>
       <c r="K22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>51.080881125757131</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48.677476836738826</v>
       </c>
       <c r="L22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>45.530220276805117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.27730593078595</v>
       </c>
       <c r="M22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>40.588477066085005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.810992287189855</v>
       </c>
       <c r="N22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>55.395611520026094</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21.89308719302575</v>
       </c>
       <c r="O22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>43.950362022154295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.596491998417534</v>
       </c>
       <c r="P22" s="1">
-        <f ca="1">$C22+$D22+$E22+NORMINV(RAND(),0,4)</f>
-        <v>52.179670817370251</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.836146940540047</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1813,28 +1813,28 @@
         <v>5</v>
       </c>
       <c r="K23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>46.957758199393325</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51.556787678369957</v>
       </c>
       <c r="L23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>45.463329695831966</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49.850748351664159</v>
       </c>
       <c r="M23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>55.888743947472875</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37.171805282830846</v>
       </c>
       <c r="N23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>52.40879501799396</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.662873406411411</v>
       </c>
       <c r="O23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>49.017837824032405</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.666419322604792</v>
       </c>
       <c r="P23" s="1">
-        <f ca="1">$C23+$D23+$E23+NORMINV(RAND(),0,4)</f>
-        <v>50.608546914206023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.029665793441602</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1869,28 +1869,28 @@
         <v>5</v>
       </c>
       <c r="K24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>50.198139260686965</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53.505893911308149</v>
       </c>
       <c r="L24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>50.377208743470725</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.595860609685104</v>
       </c>
       <c r="M24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>48.881343771220379</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.305239466277513</v>
       </c>
       <c r="N24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>52.273876727666419</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.458551402630611</v>
       </c>
       <c r="O24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>45.748446888337774</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25.32049177440275</v>
       </c>
       <c r="P24" s="1">
-        <f ca="1">$C24+$D24+$E24+NORMINV(RAND(),0,4)</f>
-        <v>50.051746309092827</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28.314078873800646</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1925,28 +1925,28 @@
         <v>5</v>
       </c>
       <c r="K25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>54.799243346498599</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49.383727465385135</v>
       </c>
       <c r="L25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>51.263496495090898</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42.846568914777407</v>
       </c>
       <c r="M25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>52.879997517572207</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31.994764027729044</v>
       </c>
       <c r="N25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>46.344542990500457</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34.093412840497756</v>
       </c>
       <c r="O25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>50.334057524141109</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.104435404373898</v>
       </c>
       <c r="P25" s="1">
-        <f ca="1">$C25+$D25+$E25+NORMINV(RAND(),0,4)</f>
-        <v>45.824320335922174</v>
+        <f ca="1">$C25+$D25+J25+NORMINV(RAND(),0,4)</f>
+        <v>34.812657757557204</v>
       </c>
     </row>
   </sheetData>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,27 +2062,27 @@
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>41.175228893541757</v>
+        <v>40.100657362275896</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>35.560025226447877</v>
+        <v>35.964074212985004</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>28.397297146044284</v>
+        <v>29.037374722205438</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>29.54698762020524</v>
+        <v>23.184709414325987</v>
       </c>
       <c r="Q2" s="1">
         <f ca="1">D2+E2+F2+K2+NORMINV(RAND(),0,4)</f>
-        <v>26.599166766459991</v>
+        <v>24.803502963326036</v>
       </c>
       <c r="R2" s="1">
         <f ca="1">D2+E2+F2+L2+NORMINV(RAND(),0,4)</f>
-        <v>13.761807654988852</v>
+        <v>11.809558406358354</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2124,27 +2124,27 @@
       </c>
       <c r="M3" s="1">
         <f ca="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>50.677150149763854</v>
+        <v>39.058276605408409</v>
       </c>
       <c r="N3" s="1">
         <f ca="1">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>33.341855286177264</v>
+        <v>37.251047827212204</v>
       </c>
       <c r="O3" s="1">
         <f ca="1">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>33.405562795624277</v>
+        <v>24.972856367433412</v>
       </c>
       <c r="P3" s="1">
         <f ca="1">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>27.38422061764296</v>
+        <v>26.908068651750209</v>
       </c>
       <c r="Q3" s="1">
         <f ca="1">D3+E3+F3+K3+NORMINV(RAND(),0,4)</f>
-        <v>27.940635956509286</v>
+        <v>26.218684971383141</v>
       </c>
       <c r="R3" s="1">
         <f ca="1">D3+E3+F3+L3+NORMINV(RAND(),0,4)</f>
-        <v>10.937536332199873</v>
+        <v>18.045472689975114</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -2186,27 +2186,27 @@
       </c>
       <c r="M4" s="1">
         <f ca="1">D4+E4+F4+G4+NORMINV(RAND(),0,4)</f>
-        <v>39.5103358717897</v>
+        <v>38.573089294397555</v>
       </c>
       <c r="N4" s="1">
         <f ca="1">D4+E4+F4+H4+NORMINV(RAND(),0,4)</f>
-        <v>34.292975072010194</v>
+        <v>31.104879782856131</v>
       </c>
       <c r="O4" s="1">
         <f ca="1">D4+E4+F4+I4+NORMINV(RAND(),0,4)</f>
-        <v>28.432745159451205</v>
+        <v>36.122594532828472</v>
       </c>
       <c r="P4" s="1">
         <f ca="1">D4+E4+F4+J4+NORMINV(RAND(),0,4)</f>
-        <v>17.433157084983584</v>
+        <v>28.689143636404278</v>
       </c>
       <c r="Q4" s="1">
         <f ca="1">D4+E4+F4+K4+NORMINV(RAND(),0,4)</f>
-        <v>26.0723672097253</v>
+        <v>20.131377991831311</v>
       </c>
       <c r="R4" s="1">
         <f ca="1">D4+E4+F4+L4+NORMINV(RAND(),0,4)</f>
-        <v>18.006719053049338</v>
+        <v>11.508938868166123</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -2248,27 +2248,27 @@
       </c>
       <c r="M5" s="1">
         <f ca="1">D5+E5+F5+G5+NORMINV(RAND(),0,4)</f>
-        <v>38.475214448834592</v>
+        <v>36.97382720642802</v>
       </c>
       <c r="N5" s="1">
         <f ca="1">D5+E5+F5+H5+NORMINV(RAND(),0,4)</f>
-        <v>35.533744992447041</v>
+        <v>40.393299447371362</v>
       </c>
       <c r="O5" s="1">
         <f ca="1">D5+E5+F5+I5+NORMINV(RAND(),0,4)</f>
-        <v>32.012289957801642</v>
+        <v>25.818742125739373</v>
       </c>
       <c r="P5" s="1">
         <f ca="1">D5+E5+F5+J5+NORMINV(RAND(),0,4)</f>
-        <v>27.532961959576426</v>
+        <v>26.538195854302312</v>
       </c>
       <c r="Q5" s="1">
         <f ca="1">D5+E5+F5+K5+NORMINV(RAND(),0,4)</f>
-        <v>29.477001925413248</v>
+        <v>20.512431364808371</v>
       </c>
       <c r="R5" s="1">
         <f ca="1">D5+E5+F5+L5+NORMINV(RAND(),0,4)</f>
-        <v>8.0087423844287073</v>
+        <v>11.558530794085188</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2310,27 +2310,27 @@
       </c>
       <c r="M6" s="1">
         <f ca="1">D6+E6+F6+G6+NORMINV(RAND(),0,4)</f>
-        <v>33.997786313308673</v>
+        <v>26.83328537135846</v>
       </c>
       <c r="N6" s="1">
         <f ca="1">D6+E6+F6+H6+NORMINV(RAND(),0,4)</f>
-        <v>24.205637963737455</v>
+        <v>22.580807992542582</v>
       </c>
       <c r="O6" s="1">
         <f ca="1">D6+E6+F6+I6+NORMINV(RAND(),0,4)</f>
-        <v>19.944474715046386</v>
+        <v>19.630729790269651</v>
       </c>
       <c r="P6" s="1">
         <f ca="1">D6+E6+F6+J6+NORMINV(RAND(),0,4)</f>
-        <v>17.619749118249519</v>
+        <v>11.231657670396176</v>
       </c>
       <c r="Q6" s="1">
         <f ca="1">D6+E6+F6+K6+NORMINV(RAND(),0,4)</f>
-        <v>19.861879830166586</v>
+        <v>13.806094421140953</v>
       </c>
       <c r="R6" s="1">
         <f ca="1">D6+E6+F6+L6+NORMINV(RAND(),0,4)</f>
-        <v>3.4132358129171783</v>
+        <v>-0.95489049225059919</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2372,27 +2372,27 @@
       </c>
       <c r="M7" s="1">
         <f ca="1">D7+E7+F7+G7+NORMINV(RAND(),0,4)</f>
-        <v>24.930353434567074</v>
+        <v>26.491130786874727</v>
       </c>
       <c r="N7" s="1">
         <f ca="1">D7+E7+F7+H7+NORMINV(RAND(),0,4)</f>
-        <v>27.521585760024408</v>
+        <v>28.454151000273136</v>
       </c>
       <c r="O7" s="1">
         <f ca="1">D7+E7+F7+I7+NORMINV(RAND(),0,4)</f>
-        <v>27.060807634884306</v>
+        <v>18.460105795453487</v>
       </c>
       <c r="P7" s="1">
         <f ca="1">D7+E7+F7+J7+NORMINV(RAND(),0,4)</f>
-        <v>30.311595333019973</v>
+        <v>24.961949669189565</v>
       </c>
       <c r="Q7" s="1">
         <f ca="1">D7+E7+F7+K7+NORMINV(RAND(),0,4)</f>
-        <v>18.962958712664925</v>
+        <v>16.390969090067557</v>
       </c>
       <c r="R7" s="1">
         <f ca="1">D7+E7+F7+L7+NORMINV(RAND(),0,4)</f>
-        <v>11.077203318278098</v>
+        <v>3.6454359124113083</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2434,26 +2434,27 @@
       </c>
       <c r="M8" s="1">
         <f ca="1">D8+E8+F8+G8+NORMINV(RAND(),0,4)</f>
-        <v>37.284670432432236</v>
+        <v>32.974223139602344</v>
       </c>
       <c r="N8" s="1">
         <f ca="1">D8+E8+F8+H8+NORMINV(RAND(),0,4)</f>
-        <v>29.678816456441382</v>
+        <v>25.208697041551133</v>
       </c>
       <c r="O8" s="1">
         <f ca="1">D8+E8+F8+I8+NORMINV(RAND(),0,4)</f>
-        <v>26.21799330799773</v>
+        <v>25.273363847177535</v>
       </c>
       <c r="P8" s="1">
         <f ca="1">D8+E8+F8+J8+NORMINV(RAND(),0,4)</f>
-        <v>13.840603781916805</v>
+        <v>20.818313221369724</v>
       </c>
       <c r="Q8" s="1">
         <f ca="1">D8+E8+F8+K8+NORMINV(RAND(),0,4)</f>
-        <v>19.717317898496436</v>
+        <v>24.285642901459251</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <f ca="1">D8+E8+F8+L8+NORMINV(RAND(),0,4)</f>
+        <v>7.9461751156343494</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -2495,27 +2496,27 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">D9+E9+F9+G9+NORMINV(RAND(),0,4)</f>
-        <v>26.289951664549136</v>
+        <v>34.901302292221722</v>
       </c>
       <c r="N9" s="1">
         <f ca="1">D9+E9+F9+H9+NORMINV(RAND(),0,4)</f>
-        <v>25.596335302265047</v>
+        <v>25.14069394123489</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">D9+E9+F9+I9+NORMINV(RAND(),0,4)</f>
-        <v>25.436715011222713</v>
+        <v>26.889939051122838</v>
       </c>
       <c r="P9" s="1">
         <f ca="1">D9+E9+F9+J9+NORMINV(RAND(),0,4)</f>
-        <v>19.157714015470457</v>
+        <v>21.433881618394818</v>
       </c>
       <c r="Q9" s="1">
         <f ca="1">D9+E9+F9+K9+NORMINV(RAND(),0,4)</f>
-        <v>24.290116091742426</v>
+        <v>18.665924342391168</v>
       </c>
       <c r="R9" s="1">
         <f ca="1">D9+E9+F9+L9+NORMINV(RAND(),0,4)</f>
-        <v>9.089809345147291</v>
+        <v>11.678377522389681</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2557,27 +2558,27 @@
       </c>
       <c r="M10" s="1">
         <f ca="1">D10+E10+F10+G10+NORMINV(RAND(),0,4)</f>
-        <v>38.736666397726076</v>
+        <v>42.388383052698423</v>
       </c>
       <c r="N10" s="1">
         <f ca="1">D10+E10+F10+H10+NORMINV(RAND(),0,4)</f>
-        <v>28.964794370730768</v>
+        <v>35.022183771411626</v>
       </c>
       <c r="O10" s="1">
         <f ca="1">D10+E10+F10+I10+NORMINV(RAND(),0,4)</f>
-        <v>30.118367698266081</v>
+        <v>28.441456275980553</v>
       </c>
       <c r="P10" s="1">
         <f ca="1">D10+E10+F10+J10+NORMINV(RAND(),0,4)</f>
-        <v>16.091339585166317</v>
+        <v>27.478354048824357</v>
       </c>
       <c r="Q10" s="1">
         <f ca="1">D10+E10+F10+K10+NORMINV(RAND(),0,4)</f>
-        <v>15.070163903459825</v>
+        <v>25.430484912492869</v>
       </c>
       <c r="R10" s="1">
         <f ca="1">D10+E10+F10+L10+NORMINV(RAND(),0,4)</f>
-        <v>23.587296986031429</v>
+        <v>14.178669320584749</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2619,27 +2620,27 @@
       </c>
       <c r="M11" s="1">
         <f ca="1">D11+E11+F11+G11+NORMINV(RAND(),0,4)</f>
-        <v>49.306018632631435</v>
+        <v>37.432463379758985</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">D11+E11+F11+H11+NORMINV(RAND(),0,4)</f>
-        <v>32.997593253657115</v>
+        <v>31.272065378092723</v>
       </c>
       <c r="O11" s="1">
         <f ca="1">D11+E11+F11+I11+NORMINV(RAND(),0,4)</f>
-        <v>25.553998636994233</v>
+        <v>26.868221391280002</v>
       </c>
       <c r="P11" s="1">
         <f ca="1">D11+E11+F11+J11+NORMINV(RAND(),0,4)</f>
-        <v>19.064489599863769</v>
+        <v>26.429765857423689</v>
       </c>
       <c r="Q11" s="1">
         <f ca="1">D11+E11+F11+K11+NORMINV(RAND(),0,4)</f>
-        <v>17.171098498725556</v>
+        <v>27.499196194242039</v>
       </c>
       <c r="R11" s="1">
         <f ca="1">D11+E11+F11+L11+NORMINV(RAND(),0,4)</f>
-        <v>17.553555449931174</v>
+        <v>10.461384456439472</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2681,27 +2682,27 @@
       </c>
       <c r="M12" s="1">
         <f ca="1">D12+E12+F12+G12+NORMINV(RAND(),0,4)</f>
-        <v>48.45442511217675</v>
+        <v>40.6392718236715</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">D12+E12+F12+H12+NORMINV(RAND(),0,4)</f>
-        <v>30.375289628428387</v>
+        <v>34.926014429108029</v>
       </c>
       <c r="O12" s="1">
         <f ca="1">D12+E12+F12+I12+NORMINV(RAND(),0,4)</f>
-        <v>27.059361939290181</v>
+        <v>26.993393416184521</v>
       </c>
       <c r="P12" s="1">
         <f ca="1">D12+E12+F12+J12+NORMINV(RAND(),0,4)</f>
-        <v>27.377545760170193</v>
+        <v>21.903731103362478</v>
       </c>
       <c r="Q12" s="1">
         <f ca="1">D12+E12+F12+K12+NORMINV(RAND(),0,4)</f>
-        <v>19.940733297057921</v>
+        <v>26.50039665858543</v>
       </c>
       <c r="R12" s="1">
         <f ca="1">D12+E12+F12+L12+NORMINV(RAND(),0,4)</f>
-        <v>18.307755475172176</v>
+        <v>15.0242238088018</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2743,27 +2744,27 @@
       </c>
       <c r="M13" s="1">
         <f ca="1">D13+E13+F13+G13+NORMINV(RAND(),0,4)</f>
-        <v>36.849601413299531</v>
+        <v>42.353479711225042</v>
       </c>
       <c r="N13" s="1">
         <f ca="1">D13+E13+F13+H13+NORMINV(RAND(),0,4)</f>
-        <v>34.123147309106493</v>
+        <v>31.202626894692209</v>
       </c>
       <c r="O13" s="1">
         <f ca="1">D13+E13+F13+I13+NORMINV(RAND(),0,4)</f>
-        <v>18.379392519296623</v>
+        <v>32.88638928548783</v>
       </c>
       <c r="P13" s="1">
         <f ca="1">D13+E13+F13+J13+NORMINV(RAND(),0,4)</f>
-        <v>21.313524100778576</v>
+        <v>27.93042630834254</v>
       </c>
       <c r="Q13" s="1">
         <f ca="1">D13+E13+F13+K13+NORMINV(RAND(),0,4)</f>
-        <v>23.370557228864389</v>
+        <v>21.323805791535101</v>
       </c>
       <c r="R13" s="1">
         <f ca="1">D13+E13+F13+L13+NORMINV(RAND(),0,4)</f>
-        <v>26.667322137225867</v>
+        <v>19.086060166774011</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2805,27 +2806,27 @@
       </c>
       <c r="M14" s="1">
         <f ca="1">D14+E14+F14+G14+NORMINV(RAND(),0,4)</f>
-        <v>58.320645241560143</v>
+        <v>47.860571528183144</v>
       </c>
       <c r="N14" s="1">
         <f ca="1">D14+E14+F14+H14+NORMINV(RAND(),0,4)</f>
-        <v>43.905396913426188</v>
+        <v>36.358241787121713</v>
       </c>
       <c r="O14" s="1">
         <f ca="1">D14+E14+F14+I14+NORMINV(RAND(),0,4)</f>
-        <v>35.332409495010374</v>
+        <v>34.196803602311981</v>
       </c>
       <c r="P14" s="1">
         <f ca="1">D14+E14+F14+J14+NORMINV(RAND(),0,4)</f>
-        <v>33.488189880176414</v>
+        <v>37.543844837152911</v>
       </c>
       <c r="Q14" s="1">
         <f ca="1">D14+E14+F14+K14+NORMINV(RAND(),0,4)</f>
-        <v>30.107998275917108</v>
+        <v>34.226604993420601</v>
       </c>
       <c r="R14" s="1">
         <f ca="1">D14+E14+F14+L14+NORMINV(RAND(),0,4)</f>
-        <v>18.795609000384385</v>
+        <v>28.06422446281092</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2867,27 +2868,27 @@
       </c>
       <c r="M15" s="1">
         <f ca="1">D15+E15+F15+G15+NORMINV(RAND(),0,4)</f>
-        <v>61.07348359708557</v>
+        <v>51.689912702344039</v>
       </c>
       <c r="N15" s="1">
         <f ca="1">D15+E15+F15+H15+NORMINV(RAND(),0,4)</f>
-        <v>49.785620240122711</v>
+        <v>40.354963242976048</v>
       </c>
       <c r="O15" s="1">
         <f ca="1">D15+E15+F15+I15+NORMINV(RAND(),0,4)</f>
-        <v>41.287133806242011</v>
+        <v>38.919692111032461</v>
       </c>
       <c r="P15" s="1">
         <f ca="1">D15+E15+F15+J15+NORMINV(RAND(),0,4)</f>
-        <v>34.504581701753345</v>
+        <v>38.212453467292292</v>
       </c>
       <c r="Q15" s="1">
         <f ca="1">D15+E15+F15+K15+NORMINV(RAND(),0,4)</f>
-        <v>26.258994125827492</v>
+        <v>29.374455158283201</v>
       </c>
       <c r="R15" s="1">
         <f ca="1">D15+E15+F15+L15+NORMINV(RAND(),0,4)</f>
-        <v>28.522493288212562</v>
+        <v>27.875826356740511</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -2929,27 +2930,27 @@
       </c>
       <c r="M16" s="1">
         <f ca="1">D16+E16+F16+G16+NORMINV(RAND(),0,4)</f>
-        <v>47.71038937401562</v>
+        <v>50.754728560237147</v>
       </c>
       <c r="N16" s="1">
         <f ca="1">D16+E16+F16+H16+NORMINV(RAND(),0,4)</f>
-        <v>41.957526378309765</v>
+        <v>46.321427741179662</v>
       </c>
       <c r="O16" s="1">
         <f ca="1">D16+E16+F16+I16+NORMINV(RAND(),0,4)</f>
-        <v>36.533106844874951</v>
+        <v>45.428467685032714</v>
       </c>
       <c r="P16" s="1">
         <f ca="1">D16+E16+F16+J16+NORMINV(RAND(),0,4)</f>
-        <v>35.331246267698248</v>
+        <v>36.471812738457977</v>
       </c>
       <c r="Q16" s="1">
         <f ca="1">D16+E16+F16+K16+NORMINV(RAND(),0,4)</f>
-        <v>26.831248783508961</v>
+        <v>26.52624279736262</v>
       </c>
       <c r="R16" s="1">
         <f ca="1">D16+E16+F16+L16+NORMINV(RAND(),0,4)</f>
-        <v>30.667531441694656</v>
+        <v>35.604505412740167</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -2991,27 +2992,27 @@
       </c>
       <c r="M17" s="1">
         <f ca="1">D17+E17+F17+G17+NORMINV(RAND(),0,4)</f>
-        <v>55.806718179214698</v>
+        <v>50.774795228594542</v>
       </c>
       <c r="N17" s="1">
         <f ca="1">D17+E17+F17+H17+NORMINV(RAND(),0,4)</f>
-        <v>47.726833104033794</v>
+        <v>36.101982130584489</v>
       </c>
       <c r="O17" s="1">
         <f ca="1">D17+E17+F17+I17+NORMINV(RAND(),0,4)</f>
-        <v>40.623563795171066</v>
+        <v>36.654617754025431</v>
       </c>
       <c r="P17" s="1">
         <f ca="1">D17+E17+F17+J17+NORMINV(RAND(),0,4)</f>
-        <v>34.195903523569044</v>
+        <v>33.436996710591103</v>
       </c>
       <c r="Q17" s="1">
         <f ca="1">D17+E17+F17+K17+NORMINV(RAND(),0,4)</f>
-        <v>38.873353459060688</v>
+        <v>42.087634630481332</v>
       </c>
       <c r="R17" s="1">
         <f ca="1">D17+E17+F17+L17+NORMINV(RAND(),0,4)</f>
-        <v>26.942796933047383</v>
+        <v>27.957046552314949</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -3053,27 +3054,27 @@
       </c>
       <c r="M18" s="1">
         <f ca="1">D18+E18+F18+G18+NORMINV(RAND(),0,4)</f>
-        <v>55.140518775717545</v>
+        <v>52.510349988975179</v>
       </c>
       <c r="N18" s="1">
         <f ca="1">D18+E18+F18+H18+NORMINV(RAND(),0,4)</f>
-        <v>51.776779208290137</v>
+        <v>47.791469531392949</v>
       </c>
       <c r="O18" s="1">
         <f ca="1">D18+E18+F18+I18+NORMINV(RAND(),0,4)</f>
-        <v>36.51749065135823</v>
+        <v>39.610304300668346</v>
       </c>
       <c r="P18" s="1">
         <f ca="1">D18+E18+F18+J18+NORMINV(RAND(),0,4)</f>
-        <v>35.280894354990913</v>
+        <v>38.099659936861187</v>
       </c>
       <c r="Q18" s="1">
         <f ca="1">D18+E18+F18+K18+NORMINV(RAND(),0,4)</f>
-        <v>27.537854498156346</v>
+        <v>27.160703254731921</v>
       </c>
       <c r="R18" s="1">
         <f ca="1">D18+E18+F18+L18+NORMINV(RAND(),0,4)</f>
-        <v>32.638376190330064</v>
+        <v>27.059510135034525</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -3115,27 +3116,27 @@
       </c>
       <c r="M19" s="1">
         <f ca="1">D19+E19+F19+G19+NORMINV(RAND(),0,4)</f>
-        <v>55.555215668939809</v>
+        <v>63.282484123312088</v>
       </c>
       <c r="N19" s="1">
         <f ca="1">D19+E19+F19+H19+NORMINV(RAND(),0,4)</f>
-        <v>45.377647769520394</v>
+        <v>41.827185862947324</v>
       </c>
       <c r="O19" s="1">
         <f ca="1">D19+E19+F19+I19+NORMINV(RAND(),0,4)</f>
-        <v>35.865021704113204</v>
+        <v>43.355551045205424</v>
       </c>
       <c r="P19" s="1">
         <f ca="1">D19+E19+F19+J19+NORMINV(RAND(),0,4)</f>
-        <v>37.884422999600453</v>
+        <v>28.256275801060582</v>
       </c>
       <c r="Q19" s="1">
         <f ca="1">D19+E19+F19+K19+NORMINV(RAND(),0,4)</f>
-        <v>30.491489031943701</v>
+        <v>32.312963940029789</v>
       </c>
       <c r="R19" s="1">
         <f ca="1">D19+E19+F19+L19+NORMINV(RAND(),0,4)</f>
-        <v>36.191349902866484</v>
+        <v>31.128658381844662</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3177,27 +3178,27 @@
       </c>
       <c r="M20" s="1">
         <f ca="1">D20+E20+F20+G20+NORMINV(RAND(),0,4)</f>
-        <v>58.371263817369275</v>
+        <v>49.115702397036735</v>
       </c>
       <c r="N20" s="1">
         <f ca="1">D20+E20+F20+H20+NORMINV(RAND(),0,4)</f>
-        <v>51.100438047424916</v>
+        <v>54.336960557787677</v>
       </c>
       <c r="O20" s="1">
         <f ca="1">D20+E20+F20+I20+NORMINV(RAND(),0,4)</f>
-        <v>39.43645356136085</v>
+        <v>35.749533343637474</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">D20+E20+F20+J20+NORMINV(RAND(),0,4)</f>
-        <v>32.528191932294462</v>
+        <v>37.520181678974133</v>
       </c>
       <c r="Q20" s="1">
         <f ca="1">D20+E20+F20+K20+NORMINV(RAND(),0,4)</f>
-        <v>25.164599128480187</v>
+        <v>31.547830797738719</v>
       </c>
       <c r="R20" s="1">
         <f ca="1">D20+E20+F20+L20+NORMINV(RAND(),0,4)</f>
-        <v>37.713591468999049</v>
+        <v>36.900979966526968</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3239,27 +3240,27 @@
       </c>
       <c r="M21" s="1">
         <f ca="1">D21+E21+F21+G21+NORMINV(RAND(),0,4)</f>
-        <v>51.716993459943417</v>
+        <v>69.47294580419991</v>
       </c>
       <c r="N21" s="1">
         <f ca="1">D21+E21+F21+H21+NORMINV(RAND(),0,4)</f>
-        <v>48.397526462377762</v>
+        <v>47.630016783508523</v>
       </c>
       <c r="O21" s="1">
         <f ca="1">D21+E21+F21+I21+NORMINV(RAND(),0,4)</f>
-        <v>46.489869057787374</v>
+        <v>43.181884402319639</v>
       </c>
       <c r="P21" s="1">
         <f ca="1">D21+E21+F21+J21+NORMINV(RAND(),0,4)</f>
-        <v>32.68486199922917</v>
+        <v>40.564615199305493</v>
       </c>
       <c r="Q21" s="1">
         <f ca="1">D21+E21+F21+K21+NORMINV(RAND(),0,4)</f>
-        <v>30.323639594217067</v>
+        <v>28.741940098281134</v>
       </c>
       <c r="R21" s="1">
         <f ca="1">D21+E21+F21+L21+NORMINV(RAND(),0,4)</f>
-        <v>32.332340954985483</v>
+        <v>35.037815994583219</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3301,27 +3302,27 @@
       </c>
       <c r="M22" s="1">
         <f ca="1">D22+E22+F22+G22+NORMINV(RAND(),0,4)</f>
-        <v>57.665029585790137</v>
+        <v>58.523709906434647</v>
       </c>
       <c r="N22" s="1">
         <f ca="1">D22+E22+F22+H22+NORMINV(RAND(),0,4)</f>
-        <v>36.711163416710733</v>
+        <v>50.877078161067452</v>
       </c>
       <c r="O22" s="1">
         <f ca="1">D22+E22+F22+I22+NORMINV(RAND(),0,4)</f>
-        <v>34.880350929414895</v>
+        <v>44.2234480166696</v>
       </c>
       <c r="P22" s="1">
         <f ca="1">D22+E22+F22+J22+NORMINV(RAND(),0,4)</f>
-        <v>24.702732067250668</v>
+        <v>32.768109846175044</v>
       </c>
       <c r="Q22" s="1">
         <f ca="1">D22+E22+F22+K22+NORMINV(RAND(),0,4)</f>
-        <v>33.626644317568903</v>
+        <v>31.849461229869068</v>
       </c>
       <c r="R22" s="1">
         <f ca="1">D22+E22+F22+L22+NORMINV(RAND(),0,4)</f>
-        <v>33.782584923434399</v>
+        <v>33.956013395070315</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3363,27 +3364,27 @@
       </c>
       <c r="M23" s="1">
         <f ca="1">D23+E23+F23+G23+NORMINV(RAND(),0,4)</f>
-        <v>61.418603755228588</v>
+        <v>60.380183028881667</v>
       </c>
       <c r="N23" s="1">
         <f ca="1">D23+E23+F23+H23+NORMINV(RAND(),0,4)</f>
-        <v>47.677380616479056</v>
+        <v>47.045285141304703</v>
       </c>
       <c r="O23" s="1">
         <f ca="1">D23+E23+F23+I23+NORMINV(RAND(),0,4)</f>
-        <v>27.060143646782425</v>
+        <v>39.868785558706698</v>
       </c>
       <c r="P23" s="1">
         <f ca="1">D23+E23+F23+J23+NORMINV(RAND(),0,4)</f>
-        <v>36.967788563145191</v>
+        <v>32.288947715736995</v>
       </c>
       <c r="Q23" s="1">
         <f ca="1">D23+E23+F23+K23+NORMINV(RAND(),0,4)</f>
-        <v>31.246239803585794</v>
+        <v>30.122491700390125</v>
       </c>
       <c r="R23" s="1">
         <f ca="1">D23+E23+F23+L23+NORMINV(RAND(),0,4)</f>
-        <v>37.546882336900282</v>
+        <v>32.414368279862458</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3425,27 +3426,27 @@
       </c>
       <c r="M24" s="1">
         <f ca="1">D24+E24+F24+G24+NORMINV(RAND(),0,4)</f>
-        <v>54.490098744803184</v>
+        <v>55.261637068849026</v>
       </c>
       <c r="N24" s="1">
         <f ca="1">D24+E24+F24+H24+NORMINV(RAND(),0,4)</f>
-        <v>53.472820909204216</v>
+        <v>48.117684294682633</v>
       </c>
       <c r="O24" s="1">
         <f ca="1">D24+E24+F24+I24+NORMINV(RAND(),0,4)</f>
-        <v>43.785628466066441</v>
+        <v>40.856129078418412</v>
       </c>
       <c r="P24" s="1">
         <f ca="1">D24+E24+F24+J24+NORMINV(RAND(),0,4)</f>
-        <v>27.255190193488893</v>
+        <v>31.707455446031034</v>
       </c>
       <c r="Q24" s="1">
         <f ca="1">D24+E24+F24+K24+NORMINV(RAND(),0,4)</f>
-        <v>26.757741572082089</v>
+        <v>25.30743569782911</v>
       </c>
       <c r="R24" s="1">
         <f ca="1">D24+E24+F24+L24+NORMINV(RAND(),0,4)</f>
-        <v>36.036214795317051</v>
+        <v>35.200687994618931</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3487,27 +3488,27 @@
       </c>
       <c r="M25" s="1">
         <f ca="1">D25+E25+F25+G25+NORMINV(RAND(),0,4)</f>
-        <v>50.868849304981062</v>
+        <v>50.363963359921669</v>
       </c>
       <c r="N25" s="1">
         <f ca="1">D25+E25+F25+H25+NORMINV(RAND(),0,4)</f>
-        <v>49.498753326540566</v>
+        <v>46.195408517140088</v>
       </c>
       <c r="O25" s="1">
         <f ca="1">D25+E25+F25+I25+NORMINV(RAND(),0,4)</f>
-        <v>37.480158893026768</v>
+        <v>46.795650459119734</v>
       </c>
       <c r="P25" s="1">
         <f ca="1">D25+E25+F25+J25+NORMINV(RAND(),0,4)</f>
-        <v>36.161399026487807</v>
+        <v>28.777650097142711</v>
       </c>
       <c r="Q25" s="1">
         <f ca="1">D25+E25+F25+K25+NORMINV(RAND(),0,4)</f>
-        <v>28.399463166770246</v>
+        <v>32.811840584944207</v>
       </c>
       <c r="R25" s="1">
         <f ca="1">D25+E25+F25+L25+NORMINV(RAND(),0,4)</f>
-        <v>35.049680466164375</v>
+        <v>38.20339350168976</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3525,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D13"/>
+      <selection sqref="A1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3579,7 +3580,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>0.53790059560106673</v>
+        <v>4.5418319077779801</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3595,19 +3596,19 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">C2+D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>17.110702120106755</v>
+        <v>24.731076444116081</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">C2+D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>24.669031885879146</v>
+        <v>29.728435668555051</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">C2+D2+G2+NORMINV(RAND(),0,4)</f>
-        <v>22.45916347596641</v>
+        <v>20.086999664798004</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">C2+D2+H2+NORMINV(RAND(),0,4)</f>
-        <v>12.929603567210325</v>
+        <v>21.900277253796084</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3622,7 +3623,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>5.1644965919988355</v>
+        <v>-1.6820652320504434</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3638,19 +3639,19 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I13" ca="1" si="1">C3+D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>22.350514371238539</v>
+        <v>12.491269865577944</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J13" ca="1" si="2">C3+D3+F3+NORMINV(RAND(),0,4)</f>
-        <v>29.911577734965739</v>
+        <v>24.633507373692531</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K13" ca="1" si="3">C3+D3+G3+NORMINV(RAND(),0,4)</f>
-        <v>14.628120223563041</v>
+        <v>22.196390546999034</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L13" ca="1" si="4">C3+D3+H3+NORMINV(RAND(),0,4)</f>
-        <v>18.976355414346354</v>
+        <v>13.845553821228354</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3665,7 +3666,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8455491883842599</v>
+        <v>3.1559319898932374</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3681,19 +3682,19 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.012000018885036</v>
+        <v>21.383360326973985</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.009512456139564</v>
+        <v>29.521905965209452</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.251104861038616</v>
+        <v>22.980074097390396</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>20.428577768869793</v>
+        <v>15.19249034627925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3708,7 +3709,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7709690812166494</v>
+        <v>11.801766354867521</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3724,19 +3725,19 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.742797477512735</v>
+        <v>41.434370635449206</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.072271071270173</v>
+        <v>31.318388432127104</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.005414894151539</v>
+        <v>34.240850947559842</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.539240513730256</v>
+        <v>25.642352716114097</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3751,7 +3752,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.37136198867465</v>
+        <v>4.3659567772544881</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3767,19 +3768,19 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.545836359431231</v>
+        <v>25.870598915044166</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34.159925381760488</v>
+        <v>37.567262077814796</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>29.213061023520208</v>
+        <v>18.871828754634244</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>21.631618118889541</v>
+        <v>15.035283160770888</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3794,7 +3795,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4039760972622686</v>
+        <v>3.9474897751318769</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3810,19 +3811,19 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.989771368181557</v>
+        <v>21.919678658330788</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>26.002414716182191</v>
+        <v>31.424645570862598</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19.918353124599015</v>
+        <v>24.32155842142669</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24.941966824727324</v>
+        <v>13.673002272081089</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3837,7 +3838,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6487706915722757</v>
+        <v>7.4545932012432035</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3853,19 +3854,19 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.347494456530423</v>
+        <v>26.67933572105126</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.506097987102329</v>
+        <v>35.326100619318716</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>23.524042749514404</v>
+        <v>25.548601783176473</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14.737678874626447</v>
+        <v>26.504323067353077</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3880,7 +3881,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8143105826179937</v>
+        <v>2.9480990151059867</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3896,19 +3897,19 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.043401790397432</v>
+        <v>26.182761886623986</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29.381786299663922</v>
+        <v>25.109958560564579</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.289582004949537</v>
+        <v>25.538108407718411</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>20.758736874405535</v>
+        <v>15.563066264260129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3923,7 +3924,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2388500716147632</v>
+        <v>6.1343474901605095</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -3939,19 +3940,19 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.927408871241813</v>
+        <v>21.53487419195438</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33.093911157183612</v>
+        <v>32.648362564228236</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.458821930344904</v>
+        <v>21.790524012743315</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>22.078998145450399</v>
+        <v>14.415992693894134</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3966,7 +3967,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1921147561476699</v>
+        <v>7.9326254363968056</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3982,19 +3983,19 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.788701257679044</v>
+        <v>22.262214694000964</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.668554465048409</v>
+        <v>39.376888700970639</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.67362332940084</v>
+        <v>24.001884363167942</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18.27976490370893</v>
+        <v>27.192962220632975</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4009,7 +4010,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.37374763063226</v>
+        <v>2.6490155693163979</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4025,19 +4026,19 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.984421246967592</v>
+        <v>21.402909630720934</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>27.661313324312218</v>
+        <v>24.76636317154491</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11.272043253629906</v>
+        <v>22.730870491624049</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8015554838879151</v>
+        <v>24.045796096025359</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4052,7 +4053,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4281258801097998</v>
+        <v>4.7049840573816635</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -4068,19 +4069,19 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.82165741070207</v>
+        <v>19.31410149314388</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.577964106183565</v>
+        <v>36.279705984951576</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>20.224530112236533</v>
+        <v>25.395783549919006</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25.35186349737824</v>
+        <v>16.961808747999182</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4153,7 +4154,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N37"/>
+      <selection activeCell="N37" sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4217,7 +4218,7 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>6.1490680493049137</v>
+        <v>0.43237308752849657</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -4236,19 +4237,19 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>39.219556254206665</v>
+        <v>34.115981925596735</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>42.765395625479307</v>
+        <v>40.548270885256635</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>41.715999183129185</v>
+        <v>31.904591354099072</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>41.172325212324914</v>
+        <v>30.374428620515612</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4266,7 +4267,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>3.7554971847500926</v>
+        <v>4.0610490988888079</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -4285,19 +4286,19 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K37" ca="1" si="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>39.715358854214116</v>
+        <v>42.45354497861544</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L37" ca="1" si="2">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>53.051087983973815</v>
+        <v>42.840591343366739</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M37" ca="1" si="3">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>42.46460329146521</v>
+        <v>37.279033161508622</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N37" ca="1" si="4">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>32.881429886512734</v>
+        <v>33.622185729076044</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4315,7 +4316,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8613095260244039</v>
+        <v>-2.1951086244447113</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -4334,19 +4335,19 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.26796480037131</v>
+        <v>38.373318920316564</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.061831436901926</v>
+        <v>39.968846039161711</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.22164604977899</v>
+        <v>37.326930237392858</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.940659823706319</v>
+        <v>26.074636041922446</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4364,7 +4365,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3276906866972258</v>
+        <v>1.2394427860675075</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -4383,19 +4384,19 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.674806318614351</v>
+        <v>31.290655681820947</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.223403461602089</v>
+        <v>48.19508513281756</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.940518402631838</v>
+        <v>36.2447760127355</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.23979789621832</v>
+        <v>34.407034623650574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4413,7 +4414,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3675414975133124</v>
+        <v>6.4805952422277917</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -4432,19 +4433,19 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.379395986990616</v>
+        <v>42.106857496307846</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.854135638118564</v>
+        <v>52.516757143411297</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.801480099150915</v>
+        <v>41.160961303326545</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.563669317635856</v>
+        <v>28.661579759257574</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4462,7 +4463,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.673848019495833</v>
+        <v>6.0134504544220713</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -4481,19 +4482,19 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.743679517395755</v>
+        <v>35.65308246912636</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.126226025724982</v>
+        <v>37.921116171284709</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.921830569539878</v>
+        <v>50.374003061029754</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.627193729376891</v>
+        <v>31.34177259129466</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4511,7 +4512,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7298757649827472</v>
+        <v>7.6824306286325106</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -4530,19 +4531,19 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.19241584959579</v>
+        <v>43.137280019789024</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.500849731712904</v>
+        <v>47.917407407791174</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.517588299279971</v>
+        <v>43.269569830564826</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.945167457808644</v>
+        <v>33.499745319738508</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4560,7 +4561,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0781401638644912</v>
+        <v>5.1980393624758214</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -4579,19 +4580,19 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.729543192380568</v>
+        <v>43.132738379817624</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.550412445334807</v>
+        <v>49.619016769150448</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.445932550763832</v>
+        <v>43.739201164675372</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.795890245121591</v>
+        <v>30.564176349815007</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4609,7 +4610,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6396031028553963</v>
+        <v>5.7409094366485327</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -4628,19 +4629,19 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.815360213110857</v>
+        <v>45.615815886232149</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.211285141978394</v>
+        <v>45.569070708551983</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.667620057403461</v>
+        <v>40.082521937523417</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.244965586847947</v>
+        <v>31.096854997853455</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4658,7 +4659,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7869593349817006</v>
+        <v>0.66751004148509185</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -4677,19 +4678,19 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.031841784996885</v>
+        <v>34.705196464640267</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.587466227638288</v>
+        <v>37.866403777683033</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.41799082307184</v>
+        <v>42.123334827476157</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.452090291458838</v>
+        <v>27.90903881421859</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4707,7 +4708,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.93372900001456927</v>
+        <v>2.2429918065464465</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -4726,19 +4727,19 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.108897435268489</v>
+        <v>42.71627997450333</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.327072572143422</v>
+        <v>39.505665185857936</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.40474962231734</v>
+        <v>33.026186966570364</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.371936044194733</v>
+        <v>27.082035063982104</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4756,7 +4757,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.20927398239425</v>
+        <v>0.57353976159117792</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -4775,19 +4776,19 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.386563094670649</v>
+        <v>30.73287496235762</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.590994278656709</v>
+        <v>38.750641029910959</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.690563017777095</v>
+        <v>33.807808145362728</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.790097227017107</v>
+        <v>33.995030762394627</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4805,7 +4806,7 @@
       </c>
       <c r="E14" s="1">
         <f ca="1">E2</f>
-        <v>6.1490680493049137</v>
+        <v>0.43237308752849657</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4824,19 +4825,19 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.805181641039432</v>
+        <v>44.600708711083172</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.711997675866414</v>
+        <v>48.48053832028895</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60.934236260076837</v>
+        <v>59.54218000074713</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>60.282915139515779</v>
+        <v>49.444486878297646</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4854,7 +4855,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E25" ca="1" si="5">E3</f>
-        <v>3.7554971847500926</v>
+        <v>4.0610490988888079</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -4873,19 +4874,19 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.141210098860164</v>
+        <v>37.35472774582486</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.239507589624836</v>
+        <v>51.492932251466122</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58.234622245529614</v>
+        <v>54.038199664540237</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>51.482912768271277</v>
+        <v>58.480645506216213</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4903,7 +4904,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8613095260244039</v>
+        <v>-2.1951086244447113</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -4922,19 +4923,19 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.37539900152025</v>
+        <v>42.441930991282042</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.903474827854723</v>
+        <v>48.258617129165806</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.739132069460851</v>
+        <v>56.201289978252603</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.728664051711789</v>
+        <v>46.498355554741167</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4952,7 +4953,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3276906866972258</v>
+        <v>1.2394427860675075</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -4971,19 +4972,19 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.629942274631269</v>
+        <v>44.13105647879533</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.134506951404937</v>
+        <v>48.546310068021164</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.566026131135835</v>
+        <v>63.453192331834792</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.24310180771527</v>
+        <v>48.859117641455391</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -5001,7 +5002,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3675414975133124</v>
+        <v>6.4805952422277917</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -5020,19 +5021,19 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55.320086481136684</v>
+        <v>53.563400287312703</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.290402452200425</v>
+        <v>57.355826798548627</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.949171960494979</v>
+        <v>61.55534456392774</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.645762110140083</v>
+        <v>46.346511501134344</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5050,7 +5051,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.673848019495833</v>
+        <v>6.0134504544220713</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -5069,19 +5070,19 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.271980336856977</v>
+        <v>48.495573562281436</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.976467518570828</v>
+        <v>57.714419197047157</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.914832051169498</v>
+        <v>62.138295025953227</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>49.807182354107489</v>
+        <v>51.759390084133486</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -5099,7 +5100,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7298757649827472</v>
+        <v>7.6824306286325106</v>
       </c>
       <c r="F20">
         <v>25</v>
@@ -5118,19 +5119,19 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.965188090031617</v>
+        <v>48.833202685484991</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352909372318017</v>
+        <v>55.509209454734659</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>70.062271797463225</v>
+        <v>57.199068697127785</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.670357603193679</v>
+        <v>53.708561445032522</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -5148,7 +5149,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0781401638644912</v>
+        <v>5.1980393624758214</v>
       </c>
       <c r="F21">
         <v>25</v>
@@ -5167,19 +5168,19 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.034203107503174</v>
+        <v>44.081975272904302</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.748882215738384</v>
+        <v>55.725264996407148</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.517987687348864</v>
+        <v>58.681032502140987</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.951127487399454</v>
+        <v>52.027161475034575</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -5197,7 +5198,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6396031028553963</v>
+        <v>5.7409094366485327</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -5216,19 +5217,19 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60.881814340785908</v>
+        <v>51.372559810498025</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.393295743574392</v>
+        <v>64.867578443116471</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60.977181845063896</v>
+        <v>54.44020928202432</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>53.729104003024908</v>
+        <v>51.634926449740902</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -5246,7 +5247,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7869593349817006</v>
+        <v>0.66751004148509185</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -5265,19 +5266,19 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.741745984425599</v>
+        <v>43.733454237913385</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.701797368685988</v>
+        <v>52.802334488839513</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.783340043262442</v>
+        <v>56.766254628329051</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>63.411157796087423</v>
+        <v>44.711521038885401</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5295,7 +5296,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.93372900001456927</v>
+        <v>2.2429918065464465</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -5314,19 +5315,19 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.024882947009175</v>
+        <v>51.237455268698014</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.890842211192172</v>
+        <v>53.028968432945739</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58.90110913694712</v>
+        <v>62.702969487884467</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.095051432378895</v>
+        <v>48.987527990009248</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5344,7 +5345,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.20927398239425</v>
+        <v>0.57353976159117792</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -5363,19 +5364,19 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.832534465116517</v>
+        <v>47.024171335425159</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.360842064965993</v>
+        <v>47.850463894193936</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.794340406891045</v>
+        <v>54.409281099240651</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>54.582576616329362</v>
+        <v>45.841624546985571</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5393,7 +5394,7 @@
       </c>
       <c r="E26" s="1">
         <f ca="1">E2</f>
-        <v>6.1490680493049137</v>
+        <v>0.43237308752849657</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -5412,19 +5413,19 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.915034940888354</v>
+        <v>39.607378536249676</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.323055546317477</v>
+        <v>51.669366727554582</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.18827611939421</v>
+        <v>37.633917744184281</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.329149806742464</v>
+        <v>28.460978627942154</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -5442,7 +5443,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ref="E27:E37" ca="1" si="6">E3</f>
-        <v>3.7554971847500926</v>
+        <v>4.0610490988888079</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -5461,19 +5462,19 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.793393434464932</v>
+        <v>49.66307683326702</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.684799988363913</v>
+        <v>46.966350841314835</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.943172262638662</v>
+        <v>38.180595594010335</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.633493472622206</v>
+        <v>35.426420283749245</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5491,7 +5492,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8613095260244039</v>
+        <v>-2.1951086244447113</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -5510,19 +5511,19 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.763146042394197</v>
+        <v>36.486066668173102</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.84494007734957</v>
+        <v>47.223631537865678</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.201006103432263</v>
+        <v>36.843386028405952</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.538160730542984</v>
+        <v>33.404698650111406</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5540,7 +5541,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3276906866972258</v>
+        <v>1.2394427860675075</v>
       </c>
       <c r="F29">
         <v>20</v>
@@ -5559,19 +5560,19 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.313675846588801</v>
+        <v>38.791915083272904</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.873687962036037</v>
+        <v>48.500584275428793</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.777124082458677</v>
+        <v>30.049317023776631</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.900146227253025</v>
+        <v>32.254027409690963</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5589,7 +5590,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3675414975133124</v>
+        <v>6.4805952422277917</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -5608,19 +5609,19 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.106223125109331</v>
+        <v>43.679463303647353</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.353764200235169</v>
+        <v>45.951840374872212</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.101947885215708</v>
+        <v>47.878871813522473</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.44265213968383</v>
+        <v>37.531860111374321</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5638,7 +5639,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.673848019495833</v>
+        <v>6.0134504544220713</v>
       </c>
       <c r="F31">
         <v>20</v>
@@ -5657,19 +5658,19 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.629914214737227</v>
+        <v>47.963254130740403</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.330938402338283</v>
+        <v>47.304396109901752</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.967487814343919</v>
+        <v>43.206562161919997</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.462279194169056</v>
+        <v>41.42361925004468</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5687,7 +5688,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7298757649827472</v>
+        <v>7.6824306286325106</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -5706,19 +5707,19 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.856009732164665</v>
+        <v>51.460054701516718</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.899105348230584</v>
+        <v>54.638841045449148</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.175205458873521</v>
+        <v>43.209047058372704</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.512810778399555</v>
+        <v>28.779307696538364</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5736,7 +5737,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0781401638644912</v>
+        <v>5.1980393624758214</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -5755,19 +5756,19 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.099264897853807</v>
+        <v>35.787531251279759</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.752979119150716</v>
+        <v>50.837976391224167</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.395886903785488</v>
+        <v>43.65753281716102</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.044053784882536</v>
+        <v>39.957783782215365</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5785,7 +5786,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6396031028553963</v>
+        <v>5.7409094366485327</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -5804,19 +5805,19 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.8644026100689</v>
+        <v>44.694711830233558</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.945759087815865</v>
+        <v>57.47671297221838</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.658460875910791</v>
+        <v>36.130455015024005</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.631298550492815</v>
+        <v>31.206302679605397</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -5834,7 +5835,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7869593349817006</v>
+        <v>0.66751004148509185</v>
       </c>
       <c r="F35">
         <v>20</v>
@@ -5853,19 +5854,19 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.764485640643898</v>
+        <v>44.549464130254265</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.047865506864767</v>
+        <v>45.875830173438743</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.19308621318666</v>
+        <v>39.852114607042054</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.102333778199039</v>
+        <v>30.026604610909622</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -5883,7 +5884,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.93372900001456927</v>
+        <v>2.2429918065464465</v>
       </c>
       <c r="F36">
         <v>20</v>
@@ -5902,19 +5903,19 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.43506803826606</v>
+        <v>40.035936757853023</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.267295044199621</v>
+        <v>53.235501371741066</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.362031456782333</v>
+        <v>34.011455951571854</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30.432736649678063</v>
+        <f ca="1">D36+E36+F36+J36+NORMINV(RAND(),0,4)</f>
+        <v>32.334810424069573</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5932,7 +5933,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.20927398239425</v>
+        <v>0.57353976159117792</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -5951,19 +5952,19 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.745294805361006</v>
+        <v>27.7764094696652</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.048687208380983</v>
+        <v>53.664388217031302</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.527472664029929</v>
+        <v>37.626262197448987</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.807120337274384</v>
+        <v>30.431468789897114</v>
       </c>
     </row>
   </sheetData>
@@ -5975,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E73787-7163-4E43-B4ED-1B200A59E88C}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P73" sqref="A1:P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6052,7 +6053,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -6074,19 +6075,19 @@
       </c>
       <c r="M2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+I2+NORMINV(RAND(),0,4)</f>
-        <v>41.882988268204429</v>
+        <v>39.601220725745279</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+J2+NORMINV(RAND(),0,4)</f>
-        <v>52.488817817585627</v>
+        <v>48.523244902458551</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+K2+NORMINV(RAND(),0,4)</f>
-        <v>46.380441780618781</v>
+        <v>35.567516734403888</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+L2+NORMINV(RAND(),0,4)</f>
-        <v>31.775125004069213</v>
+        <v>22.717327074525024</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6107,7 +6108,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -6129,19 +6130,19 @@
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M66" ca="1" si="1">$E3+$F3+$G3+$H3+I3+NORMINV(RAND(),0,4)</f>
-        <v>50.697094331583152</v>
+        <v>34.779509073688686</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N66" ca="1" si="2">$E3+$F3+$G3+$H3+J3+NORMINV(RAND(),0,4)</f>
-        <v>51.846844918445363</v>
+        <v>47.100498525329471</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O66" ca="1" si="3">$E3+$F3+$G3+$H3+K3+NORMINV(RAND(),0,4)</f>
-        <v>43.400319381249275</v>
+        <v>42.107734076312987</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P66" ca="1" si="4">$E3+$F3+$G3+$H3+L3+NORMINV(RAND(),0,4)</f>
-        <v>36.938771960739061</v>
+        <v>34.744854771724988</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6162,7 +6163,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -6184,19 +6185,19 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.134036801214449</v>
+        <v>43.159493015314659</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.446133260247663</v>
+        <v>44.471037293316684</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.408766064177215</v>
+        <v>46.918854962378035</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.655325354951341</v>
+        <v>27.476280227522558</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6217,7 +6218,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -6239,19 +6240,19 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.729062629762183</v>
+        <v>44.999026961709191</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.641183953463177</v>
+        <v>50.0436795105377</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.802555215710804</v>
+        <v>46.704814437376655</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.082454036130287</v>
+        <v>37.248478129309539</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6272,7 +6273,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6294,19 +6295,19 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.549396009961555</v>
+        <v>37.068642659543968</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.245761735710943</v>
+        <v>46.121970129393361</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.781715623134744</v>
+        <v>38.044369799356964</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.25653969846676</v>
+        <v>35.492850018908392</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6327,7 +6328,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -6349,19 +6350,19 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.778877983773064</v>
+        <v>46.864541418329779</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.980907610274521</v>
+        <v>46.918570503362446</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.622971729941348</v>
+        <v>37.324327937626066</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.478955842036054</v>
+        <v>29.784501883622827</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6382,7 +6383,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -6404,19 +6405,19 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.799812202297105</v>
+        <v>49.025466458652808</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.143087994315913</v>
+        <v>60.9393083422665</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.26134278079612</v>
+        <v>43.613834245867672</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.072792964646425</v>
+        <v>30.263698248345769</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6437,7 +6438,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -6459,19 +6460,19 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.564847194631888</v>
+        <v>49.303009026486293</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.101725428851339</v>
+        <v>54.385191387318969</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.879562443012887</v>
+        <v>39.96584545745413</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.038643597621004</v>
+        <v>33.423510854195094</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6492,7 +6493,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6514,19 +6515,19 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.377007481179362</v>
+        <v>52.556197109741348</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.869491162189455</v>
+        <v>51.107701207713674</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.579263201713523</v>
+        <v>49.860045508458086</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.252285744345379</v>
+        <v>35.072561145413978</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6547,7 +6548,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -6569,19 +6570,19 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.605668536066453</v>
+        <v>44.729216422613149</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.209678453641374</v>
+        <v>56.539656794562511</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.486517928193699</v>
+        <v>44.003174764020294</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.106321863960549</v>
+        <v>26.981787852712557</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6602,7 +6603,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -6624,19 +6625,19 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.292264014564616</v>
+        <v>42.815438738571018</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.986755290312473</v>
+        <v>42.396962439330103</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.99204732027421</v>
+        <v>41.609702302357526</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>22.397141419290875</v>
+        <v>29.144721572357511</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6657,7 +6658,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -6679,19 +6680,19 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.712130790286594</v>
+        <v>47.117415925910535</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.359021484431416</v>
+        <v>47.445615213953204</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.836042146288307</v>
+        <v>42.470433045638423</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.741410316401101</v>
+        <v>38.721194112113231</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6712,7 +6713,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">F2</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G14">
         <v>25</v>
@@ -6734,19 +6735,19 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>59.814385658337784</v>
+        <v>47.209817100161885</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.758102775515539</v>
+        <v>51.219227574651121</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67.321323176651987</v>
+        <v>65.967259315343767</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.75997683490467</v>
+        <v>55.191910760358461</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6767,7 +6768,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15:F25" ca="1" si="5">F3</f>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G15">
         <v>25</v>
@@ -6789,19 +6790,19 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.198697943528842</v>
+        <v>56.566703983047674</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.608305797249791</v>
+        <v>60.677820800795658</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>74.74330709821939</v>
+        <v>73.260935804296167</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>60.045899943666996</v>
+        <v>57.625931341755688</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6822,7 +6823,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -6844,19 +6845,19 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.051693384702432</v>
+        <v>58.385593790400961</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.437502190216122</v>
+        <v>52.048587127199141</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.312711871102692</v>
+        <v>63.594102333897112</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56.938344640561859</v>
+        <v>44.801238701974029</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6877,7 +6878,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -6899,19 +6900,19 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.884834039510821</v>
+        <v>57.869812046440003</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.760558409012049</v>
+        <v>66.508696938730395</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>71.853643964279556</v>
+        <v>64.178583410532525</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.0438938142347</v>
+        <v>65.144673688488609</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6932,7 +6933,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -6954,19 +6955,19 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.661949088363734</v>
+        <v>54.781882100774546</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.579617395986062</v>
+        <v>58.912731594184812</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>59.39796395835895</v>
+        <v>65.233110200292302</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>57.823609283607858</v>
+        <v>56.58437434785845</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6987,7 +6988,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -7009,19 +7010,19 @@
       </c>
       <c r="M19" s="1">
         <f ca="1">$E19+$F19+$G19+$H19+I19+NORMINV(RAND(),0,4)</f>
-        <v>53.80384140277323</v>
+        <v>50.139217152645188</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.266121686547805</v>
+        <v>60.719522294220496</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.096210206851111</v>
+        <v>66.69671823835219</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>68.150704232603061</v>
+        <v>56.21493753452642</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7042,7 +7043,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -7064,19 +7065,19 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56.751123709507709</v>
+        <v>54.201625059006126</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.134145161793668</v>
+        <v>60.889993243036798</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.778643978648333</v>
+        <v>65.5815361308902</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>64.169542321990832</v>
+        <v>62.863173346573987</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -7097,7 +7098,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G21">
         <v>25</v>
@@ -7119,19 +7120,19 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>64.972023779930893</v>
+        <v>49.046986864922346</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.592245433918677</v>
+        <v>58.831678700487984</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67.049146900842103</v>
+        <v>58.250920891963261</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>57.958382297975298</v>
+        <v>59.273921647304888</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -7152,7 +7153,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G22">
         <v>25</v>
@@ -7174,19 +7175,19 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60.405854047290362</v>
+        <v>57.488341416397226</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.59752882775939</v>
+        <v>60.833635945629837</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>72.820371308771655</v>
+        <v>68.067775656170696</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61.772573222873795</v>
+        <v>66.09685176458143</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -7207,7 +7208,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G23">
         <v>25</v>
@@ -7229,19 +7230,19 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>59.441624678554724</v>
+        <v>47.345974194782968</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.562525402030758</v>
+        <v>60.327559756494523</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.534281683842003</v>
+        <v>64.750155482169404</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61.667390180821705</v>
+        <v>61.050028476794907</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -7262,7 +7263,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -7284,19 +7285,19 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.072129979055369</v>
+        <v>52.77907676383829</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67.035305810530446</v>
+        <v>55.374664160113824</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69.922846760036592</v>
+        <v>55.382232636857644</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>57.332459344660208</v>
+        <v>62.500259357744298</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7317,7 +7318,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -7339,19 +7340,19 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.862895999598152</v>
+        <v>58.579276651961067</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.500053604407285</v>
+        <v>61.22853468435563</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.902107384781054</v>
+        <v>60.694067682286274</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61.370862555220704</v>
+        <v>59.867284417359528</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -7372,7 +7373,7 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">F2</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -7394,19 +7395,19 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.86631208602693</v>
+        <v>41.395653590576096</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.591025974294013</v>
+        <v>49.863514912193452</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.676215078068715</v>
+        <v>40.280653538041918</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.928280501343991</v>
+        <v>34.270881065437493</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -7427,7 +7428,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ref="F27:F37" ca="1" si="6">F3</f>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -7449,19 +7450,19 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.908431516421949</v>
+        <v>47.405972364152568</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.847080771687132</v>
+        <v>49.664284728075998</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.10157877729656</v>
+        <v>41.975937879651951</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.126094401607276</v>
+        <v>29.237898429526794</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -7482,7 +7483,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -7504,19 +7505,19 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.556497320569456</v>
+        <v>52.276401611848641</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.562054358143136</v>
+        <v>55.48742491209449</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.769009769363308</v>
+        <v>44.860290904529471</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.46429365495883</v>
+        <v>39.537577439551242</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -7537,7 +7538,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -7559,19 +7560,19 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.766383873140832</v>
+        <v>50.441324589293238</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.354810629424875</v>
+        <v>57.607650697806449</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.151391564203202</v>
+        <v>48.05106315694578</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.284450589974803</v>
+        <v>40.505105142643927</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -7592,7 +7593,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -7614,19 +7615,19 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.420661206241498</v>
+        <v>49.985387380173258</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.830802670833762</v>
+        <v>50.195986734192246</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.831351346540409</v>
+        <v>36.328761826188085</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.536926229473487</v>
+        <v>39.549375255114583</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -7647,7 +7648,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -7669,19 +7670,19 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.709432028500821</v>
+        <v>48.012566967426181</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.142193558570931</v>
+        <v>56.728941986337446</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.98367671291934</v>
+        <v>53.107976835445442</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.740485681334746</v>
+        <v>31.782121208564178</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7702,7 +7703,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -7724,19 +7725,19 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55.271712231446855</v>
+        <v>49.492494295531834</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.829336572249161</v>
+        <v>53.847829425260855</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.626505034654429</v>
+        <v>42.462987943129939</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.858853537574333</v>
+        <v>40.597754130520343</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -7757,7 +7758,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -7779,19 +7780,19 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56.778261568193898</v>
+        <v>42.209826692785747</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.751185389772431</v>
+        <v>53.626150312536431</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.640871768117243</v>
+        <v>43.941186349572924</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.814900682091157</v>
+        <v>43.599081986739236</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -7812,7 +7813,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -7834,19 +7835,19 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.795579016594438</v>
+        <v>53.291379847435387</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.192533404059354</v>
+        <v>67.272822291821342</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.522341399090948</v>
+        <v>45.570453272987713</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.073974161805097</v>
+        <v>48.147147875303084</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -7867,7 +7868,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -7889,19 +7890,19 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.636850474320845</v>
+        <v>53.248973804660203</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.255154383585548</v>
+        <v>60.909447001071321</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.495952188804502</v>
+        <v>51.046005760876234</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.396049828693599</v>
+        <v>41.835748985552996</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -7922,7 +7923,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -7944,19 +7945,19 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.556878979763695</v>
+        <v>53.34667740247032</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.190098224525791</v>
+        <v>52.024125231190595</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.507100410988855</v>
+        <v>47.139092623899963</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.524092213530892</v>
+        <v>38.478819262476335</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7977,7 +7978,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G37">
         <v>20</v>
@@ -7999,19 +8000,19 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.629929898752863</v>
+        <v>40.657206451872831</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.380657216112041</v>
+        <v>56.717517201226883</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.318585245188103</v>
+        <v>49.823335210967343</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.831370600864915</v>
+        <v>34.641635435406613</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -8032,7 +8033,7 @@
       </c>
       <c r="F38" s="1">
         <f ca="1">F2</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -8054,19 +8055,19 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.461876559887365</v>
+        <v>29.212322701031802</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43.070016646831021</v>
+        <v>30.506188029746092</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.123340669030149</v>
+        <v>17.024902906824607</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.047902877136316</v>
+        <v>6.0472076331632971</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -8087,7 +8088,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ref="F39:F73" ca="1" si="7">F3</f>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -8109,19 +8110,19 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.699171646524068</v>
+        <v>32.407067948860018</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.862043144604186</v>
+        <v>32.715318348435318</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.350055698910282</v>
+        <v>18.560788144250537</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.604654136018388</v>
+        <v>13.381836831574125</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8142,7 +8143,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G40">
         <v>15</v>
@@ -8164,19 +8165,19 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.346003773436124</v>
+        <v>32.548175466635968</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.9576659208035</v>
+        <v>32.283975209705531</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.311690957409883</v>
+        <v>24.068642051816411</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18.266098854840788</v>
+        <v>10.672863549795991</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -8197,7 +8198,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -8219,19 +8220,19 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.886026658351383</v>
+        <v>24.845488554427611</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.678700412488631</v>
+        <v>37.623623036685252</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.771459503737482</v>
+        <v>27.524899264539414</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.856703880383247</v>
+        <v>12.303842673272566</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -8252,7 +8253,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -8274,19 +8275,19 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.296237338179075</v>
+        <v>27.844967907391144</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.055700988708402</v>
+        <v>39.874784624572371</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.02704861182383</v>
+        <v>35.518745804228956</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6994577015090542</v>
+        <v>14.705683660204139</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8307,7 +8308,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G43">
         <v>15</v>
@@ -8329,19 +8330,19 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.392074777253043</v>
+        <v>27.661021682590508</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.753366632201157</v>
+        <v>38.242214403099382</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.799343091391517</v>
+        <v>28.377528657508552</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.554837793683086</v>
+        <v>8.8220696581941489</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8362,7 +8363,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -8384,19 +8385,19 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.377628093020192</v>
+        <v>35.371758073298672</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.653042505610749</v>
+        <v>34.190662783463573</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.066454986520093</v>
+        <v>27.452687219198079</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.082081163359526</v>
+        <v>17.117210047532282</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -8417,7 +8418,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G45">
         <v>15</v>
@@ -8439,19 +8440,19 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.763247930364475</v>
+        <v>26.06443264621889</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.396675813795106</v>
+        <v>30.215879718172552</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.344011313426201</v>
+        <v>27.240784512541012</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.942807488585853</v>
+        <v>12.281549078990309</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -8472,7 +8473,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -8494,19 +8495,19 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.57062551289351</v>
+        <v>34.314206810531054</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34.167144836010252</v>
+        <v>32.04248342618088</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.696061112080599</v>
+        <v>38.679369377479674</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.895252930506437</v>
+        <v>17.111367665050544</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -8527,7 +8528,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -8549,19 +8550,19 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.791153720680402</v>
+        <v>21.717344008838186</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.446535816747712</v>
+        <v>30.404418855853677</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.34887998301441</v>
+        <v>37.925924729839693</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.605246748863236</v>
+        <v>13.434743940945497</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8582,7 +8583,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -8604,19 +8605,19 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.665740852501468</v>
+        <v>34.021142301224074</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.011893699731115</v>
+        <v>35.296800967009759</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.594323567057817</v>
+        <v>30.195712768003247</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12.834601046754187</v>
+        <v>19.311724805448147</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8637,7 +8638,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G49">
         <v>15</v>
@@ -8659,19 +8660,19 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.283832203004394</v>
+        <v>35.338192916283049</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31.141614548317413</v>
+        <v>34.640393965012805</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.188426851843701</v>
+        <v>29.807890279835942</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.481371827862802</v>
+        <v>15.320657808869443</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8692,7 +8693,7 @@
       </c>
       <c r="F50" s="1">
         <f ca="1">F14</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G50">
         <v>25</v>
@@ -8714,19 +8715,19 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.985496870818814</v>
+        <v>33.960717750556604</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.259136296679479</v>
+        <v>45.964552773629229</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.640243683856305</v>
+        <v>43.324110544191612</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.288536714461259</v>
+        <v>42.841090004515827</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -8747,7 +8748,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G51">
         <v>25</v>
@@ -8769,19 +8770,19 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.971450024314358</v>
+        <v>34.162762786284524</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.240139174133326</v>
+        <v>44.424423232673135</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.570197917189432</v>
+        <v>45.516536600252564</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.958080281395617</v>
+        <v>37.30324683191791</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8802,7 +8803,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G52">
         <v>25</v>
@@ -8824,19 +8825,19 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.723861105525842</v>
+        <v>47.033671472671784</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.651459151795329</v>
+        <v>45.728454484424461</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.446562554561865</v>
+        <v>48.437453082915411</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.020008807165162</v>
+        <v>39.627649781502349</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -8857,7 +8858,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -8879,19 +8880,19 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.116046114024599</v>
+        <v>40.597054816218915</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.510934309187135</v>
+        <v>47.960541382424488</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62.004847156119041</v>
+        <v>51.512850616080357</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.017567196948072</v>
+        <v>44.811427111552376</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -8912,7 +8913,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G54">
         <v>25</v>
@@ -8934,19 +8935,19 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.519309930636631</v>
+        <v>40.644808786122468</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.583421682523294</v>
+        <v>42.198609399564454</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.709269613386731</v>
+        <v>50.228612619197307</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.267246616113219</v>
+        <v>46.411918992880196</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -8967,7 +8968,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G55">
         <v>25</v>
@@ -8989,19 +8990,19 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.712914749210704</v>
+        <v>40.930595182831183</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.047222276499852</v>
+        <v>42.824005591505227</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.604305934960379</v>
+        <v>46.616161169228477</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.854144559197941</v>
+        <v>37.912300297658653</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -9022,7 +9023,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -9044,19 +9045,19 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.380599732408299</v>
+        <v>39.264601340911618</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.020544485198663</v>
+        <v>44.57685804894674</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.763810449278573</v>
+        <v>43.911669380094189</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.543157629559069</v>
+        <v>39.219792453221352</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -9077,7 +9078,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G57">
         <v>25</v>
@@ -9099,19 +9100,19 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.154495287642355</v>
+        <v>40.49442389571113</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.944394472336285</v>
+        <v>39.430301526975974</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.912104108763749</v>
+        <v>44.055886432325067</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.639193339117732</v>
+        <v>40.623228543237268</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -9132,7 +9133,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G58">
         <v>25</v>
@@ -9154,19 +9155,19 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.505142950682256</v>
+        <v>39.755544520466401</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.638026505914993</v>
+        <v>44.968535144745751</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.265470818227641</v>
+        <v>50.984683122713477</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.201160730642926</v>
+        <v>41.207716177505233</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -9187,7 +9188,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G59">
         <v>25</v>
@@ -9209,19 +9210,19 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.607321862302037</v>
+        <v>43.828813858952465</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.608392525607606</v>
+        <v>42.349912270687703</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.819355572257713</v>
+        <v>45.105727816116868</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.772053453946867</v>
+        <v>45.282668145749724</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -9242,7 +9243,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -9264,19 +9265,19 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.342556089497258</v>
+        <v>42.680598258396131</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.142759165853356</v>
+        <v>51.959707780647008</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.880080079064854</v>
+        <v>46.893138528471049</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.916462662855494</v>
+        <v>34.153013770484144</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -9297,7 +9298,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G61">
         <v>25</v>
@@ -9319,19 +9320,19 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.735730812114483</v>
+        <v>29.32223578112805</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.95119016154559</v>
+        <v>45.057118666381989</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.284049496956428</v>
+        <v>54.851033364870204</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.840776702582673</v>
+        <v>40.843073299671666</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -9352,7 +9353,7 @@
       </c>
       <c r="F62" s="1">
         <f ca="1">F26</f>
-        <v>4.2025858833524374</v>
+        <v>0.59963943991403301</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -9374,19 +9375,19 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.621776102230939</v>
+        <v>28.425086668110044</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.79312388073722</v>
+        <v>35.592673501403887</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.757003781873443</v>
+        <v>24.779032297321422</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>23.419357962513011</v>
+        <v>11.949598946910005</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -9407,7 +9408,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0583832749812352</v>
+        <v>3.2101106891851297</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -9429,19 +9430,19 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.293357555960753</v>
+        <v>30.993674792118469</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.18237760938279</v>
+        <v>37.064801673838488</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.105265447651774</v>
+        <v>26.047833534988996</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.963451629074065</v>
+        <v>24.001063241797024</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -9462,7 +9463,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0090390898769028</v>
+        <v>3.4281275437323582</v>
       </c>
       <c r="G64">
         <v>20</v>
@@ -9484,19 +9485,19 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.988195373671452</v>
+        <v>35.113731078317549</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.911029484643358</v>
+        <v>42.548689584969424</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.013447941827003</v>
+        <v>26.190648020592068</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>21.297210497169274</v>
+        <v>19.063562470138081</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -9517,7 +9518,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.9373107188216</v>
+        <v>7.4435734432653682</v>
       </c>
       <c r="G65">
         <v>20</v>
@@ -9539,19 +9540,19 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.897924447609689</v>
+        <v>40.586822048571072</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.220743492500461</v>
+        <v>35.936318314085973</v>
       </c>
       <c r="O65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.74987008173602</v>
+        <v>24.36816445352791</v>
       </c>
       <c r="P65" s="1">
         <f ca="1">$E65+$F65+$G65+$H65+L65+NORMINV(RAND(),0,4)</f>
-        <v>30.196851604984559</v>
+        <v>21.628609880299358</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -9572,7 +9573,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0711549248686625</v>
+        <v>4.9430962730500392</v>
       </c>
       <c r="G66">
         <v>20</v>
@@ -9594,19 +9595,19 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.788732883602364</v>
+        <v>33.998989735109873</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.518736880609389</v>
+        <v>35.221103100112089</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.596113681876805</v>
+        <v>19.887547210398949</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.37336682993713</v>
+        <v>9.314572252559211</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -9627,7 +9628,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.1332913042731505</v>
+        <v>3.7233456864217032</v>
       </c>
       <c r="G67">
         <v>20</v>
@@ -9649,19 +9650,19 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ref="M67:M73" ca="1" si="8">$E67+$F67+$G67+$H67+I67+NORMINV(RAND(),0,4)</f>
-        <v>38.379504321821244</v>
+        <v>31.494712221544805</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N73" ca="1" si="9">$E67+$F67+$G67+$H67+J67+NORMINV(RAND(),0,4)</f>
-        <v>41.360447016172046</v>
+        <v>39.085772805212038</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" ref="O67:O73" ca="1" si="10">$E67+$F67+$G67+$H67+K67+NORMINV(RAND(),0,4)</f>
-        <v>27.580255238380023</v>
+        <v>25.296380924601714</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ref="P67:P73" ca="1" si="11">$E67+$F67+$G67+$H67+L67+NORMINV(RAND(),0,4)</f>
-        <v>17.840130530252285</v>
+        <v>23.317704287959263</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -9682,7 +9683,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7088077818160503</v>
+        <v>4.8867068134583445</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -9704,19 +9705,19 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33.341138249409127</v>
+        <v>40.264530698004343</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45.07574835280834</v>
+        <v>41.410859284972737</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>40.576908225429108</v>
+        <v>31.215730749648245</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>25.20873436180273</v>
+        <f ca="1">$E68+$F68+$G68+$H68+L68+NORMINV(RAND(),0,4)</f>
+        <v>22.105028594686388</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -9737,7 +9738,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9090086755728608</v>
+        <v>4.1866041349936358</v>
       </c>
       <c r="G69">
         <v>20</v>
@@ -9759,19 +9760,19 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>38.809293762413319</v>
+        <v>34.463360684928126</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>41.869790613423383</v>
+        <v>38.700109483938711</v>
       </c>
       <c r="O69" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>37.408699732998379</v>
+        <v>29.01274315856406</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>22.963498545620901</v>
+        <v>13.552851523855452</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -9792,7 +9793,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4068618394198404</v>
+        <v>8.1299471847689855</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -9814,19 +9815,19 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>35.082336266661258</v>
+        <v>32.164842989974474</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>36.730250953354606</v>
+        <v>45.989201352614913</v>
       </c>
       <c r="O70" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>32.472591206645539</v>
+        <v>32.953239740754952</v>
       </c>
       <c r="P70" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>18.221975087740066</v>
+        <v>33.340114031091595</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -9847,7 +9848,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0554391101554961</v>
+        <v>6.1768556221898727</v>
       </c>
       <c r="G71">
         <v>20</v>
@@ -9869,19 +9870,19 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>34.161588867471558</v>
+        <v>32.870046164267237</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45.680933063731132</v>
+        <v>39.276616243798664</v>
       </c>
       <c r="O71" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.939728989209861</v>
+        <v>34.509707334350757</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>25.058399740295837</v>
+        <v>21.99095957171939</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -9902,7 +9903,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1215617832674907</v>
+        <v>4.0552085651633174</v>
       </c>
       <c r="G72">
         <v>20</v>
@@ -9924,19 +9925,19 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>39.691421351790417</v>
+        <v>36.596741472593614</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>33.714309687355538</v>
+        <v>33.85847563802843</v>
       </c>
       <c r="O72" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>25.380262761690553</v>
+        <v>23.608461381049416</v>
       </c>
       <c r="P72" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>19.885347648891727</v>
+        <v>20.285346463138868</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -9957,7 +9958,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9483728365229611</v>
+        <v>4.0947938941883724</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -9979,19 +9980,19 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30.063010764360214</v>
+        <v>33.340980743620122</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>43.909967366865075</v>
+        <v>37.02429401077908</v>
       </c>
       <c r="O73" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>22.501817479681421</v>
+        <v>35.941167973697276</v>
       </c>
       <c r="P73" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>15.575220476568653</v>
+        <v>14.578106367220865</v>
       </c>
     </row>
   </sheetData>
@@ -10068,11 +10069,11 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>-2.073059030445628</v>
+        <v>2.7132276118504204</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">E2 + F2 + G2 + H2 + I2 + NORMINV(RAND(),0,2)</f>
-        <v>20.813084694380436</v>
+        <v>22.653749554846854</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -10102,11 +10103,11 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I17" ca="1" si="0">NORMINV(RAND(),3,3)</f>
-        <v>4.0641566836315031</v>
+        <v>-3.3065832921582921</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" ca="1" si="1">E3 + F3 + G3 + H3 + I3 + NORMINV(RAND(),0,2)</f>
-        <v>27.479408042579013</v>
+        <v>19.7798851199788</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -10136,11 +10137,11 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35288335912490387</v>
+        <v>3.2019892685883984</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.823760339596831</v>
+        <v>26.223468324261084</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -10170,11 +10171,11 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3163732948625118</v>
+        <v>-1.7011044661930637</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.166093137422848</v>
+        <v>22.254791056660839</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10204,11 +10205,11 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7026485032616527</v>
+        <v>3.3740009845178252</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.987124512146345</v>
+        <v>26.451332739953223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -10238,11 +10239,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0021289402434572</v>
+        <v>5.4431198347492948</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.777394178145222</v>
+        <v>26.988870754525053</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -10272,11 +10273,11 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3653097750335093</v>
+        <v>1.3704820114933214</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.962236809618748</v>
+        <v>29.225358973543472</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -10306,11 +10307,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1635554562022821</v>
+        <v>2.9901438982969166</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.517669155660158</v>
+        <v>25.689592314960525</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -10340,11 +10341,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56242951995485901</v>
+        <v>2.0738068558735319</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.67439413696172</v>
+        <v>28.954563196793231</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -10374,11 +10375,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0488117433902344</v>
+        <v>4.8744837876079083</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.883137404277623</v>
+        <v>28.089689295070336</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10408,11 +10409,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1592139628051013</v>
+        <v>1.0586102414835308</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.789010059299795</v>
+        <v>25.124528209379957</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -10442,11 +10443,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.836698018502684</v>
+        <v>-0.40015330557061413</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.278751276804797</v>
+        <v>21.830572533117042</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -10476,11 +10477,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8136903119322199</v>
+        <v>1.8612605658574166</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.658112378444283</v>
+        <v>28.862139762263297</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -10510,11 +10511,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70693856529146704</v>
+        <v>4.5591302868847254</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.541958479677294</v>
+        <v>30.207834860080812</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -10544,11 +10545,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4553044082078008</v>
+        <v>1.5351280942826167</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.63649729905767</v>
+        <v>24.911275742030824</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -10578,11 +10579,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2129444861203691</v>
+        <v>3.3799787866066788</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.530011364151857</v>
+        <v>27.308426777318111</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -10612,11 +10613,11 @@
       </c>
       <c r="I18" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>-2.2594624426535046</v>
+        <v>3.374688405022976</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.165110697597665</v>
+        <v>24.267001140784004</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -10646,11 +10647,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:I33" ca="1" si="2">NORMINV(RAND(),1,3)</f>
-        <v>-2.637726095468218</v>
+        <v>-5.008398519604464</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.730627154929234</v>
+        <v>16.528622368000928</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10680,11 +10681,11 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.3238065840210957</v>
+        <v>3.0405769835880045</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.640721855647893</v>
+        <v>24.771765214371619</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -10714,11 +10715,11 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0554516110588139</v>
+        <v>-0.42726980650123236</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.454431927974237</v>
+        <v>19.591692307128064</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10748,11 +10749,11 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3025112115886719</v>
+        <v>1.8212164653364755</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.157937755759114</v>
+        <v>22.542484934886314</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -10782,11 +10783,11 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1238531597213424</v>
+        <v>0.46779794776321637</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.927724305230488</v>
+        <v>22.992937999225955</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -10816,11 +10817,11 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9402949372734364E-2</v>
+        <v>3.0829818170008028</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.911408890066379</v>
+        <v>25.386007170991945</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10850,11 +10851,11 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2055122466474408</v>
+        <v>2.9174478400160622</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.719036145467825</v>
+        <v>24.841204784524951</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -10884,11 +10885,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3187746168091721</v>
+        <v>-2.7984350450409901</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.521821680123935</v>
+        <v>18.1337708878143</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -10918,11 +10919,11 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7292171426264957</v>
+        <v>-0.90091352617258202</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.828887462413078</v>
+        <v>25.814948995597238</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -10952,11 +10953,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5424244338824527</v>
+        <v>2.7788794553795793E-3</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.980551617318952</v>
+        <v>24.264996721399431</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -10986,11 +10987,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5860058631105896</v>
+        <v>1.0972011565843061</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.430228975825617</v>
+        <v>26.71558451586451</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -11020,11 +11021,11 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6331716907505367</v>
+        <v>-0.25989634748558976</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.210072376634301</v>
+        <v>24.601445191401577</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -11054,11 +11055,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2651525633281273</v>
+        <v>1.1959793178731377</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.258367265051415</v>
+        <v>25.117680621716161</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -11088,11 +11089,11 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4137733274592632</v>
+        <v>-2.7467644674299372</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.063364238328379</v>
+        <v>18.076618333006291</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -11122,11 +11123,11 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3046368687383438</v>
+        <v>3.837797544860265</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.509490510170394</v>
+        <v>24.54272228457835</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -11156,11 +11157,11 @@
       </c>
       <c r="I34" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>0.34839636509718197</v>
+        <v>-3.4575117573007237</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.388363681611345</v>
+        <v>13.030752138237965</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -11190,11 +11191,11 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ref="I35:I49" ca="1" si="3">NORMINV(RAND(),3,3)</f>
-        <v>5.0475336351024582</v>
+        <v>0.33377591711884902</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.627716425669586</v>
+        <v>15.487140400247458</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -11224,11 +11225,11 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3822977528337188</v>
+        <v>2.479692632893479</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.512765876658865</v>
+        <v>18.216129037096632</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -11258,11 +11259,11 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8184410286151103</v>
+        <v>2.2101054061490863</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.203751848139547</v>
+        <v>20.648908328732013</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -11292,11 +11293,11 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79335665065952687</v>
+        <v>6.105395959673281</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.284123080562637</v>
+        <v>23.746138950088977</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -11326,11 +11327,11 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7819093349978772</v>
+        <v>2.4930336333868803</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.089812517969147</v>
+        <v>22.319695725809041</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -11360,11 +11361,11 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7873013577982539</v>
+        <v>3.7762803448586419</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.451912282805257</v>
+        <v>24.488829836369007</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -11394,11 +11395,11 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3150923328430766</v>
+        <v>5.1197067245425387</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.37334989233808</v>
+        <v>21.952279451849556</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -11428,11 +11429,11 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1848278790535838</v>
+        <v>1.5826953655091702</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.397716667230949</v>
+        <v>22.478496633207222</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -11462,11 +11463,11 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2038911469638176</v>
+        <v>-3.6343703312132192</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.177973272243914</v>
+        <v>16.617546093313749</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -11496,11 +11497,11 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2960565930274317</v>
+        <v>5.5571540943738613</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.277734715858266</v>
+        <v>25.608184309504711</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -11530,11 +11531,11 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6527620835686605</v>
+        <v>5.6971344371696881</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.320550655656593</v>
+        <v>28.613334677654766</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -11564,11 +11565,11 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2740720494555182</v>
+        <v>4.1120810544465884</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.896834933381584</v>
+        <v>25.334983542999847</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -11598,11 +11599,11 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46812980443132446</v>
+        <v>3.1221392296165482</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.988752421529753</v>
+        <v>23.355817121782263</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -11632,11 +11633,11 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.70604840291298032</v>
+        <v>6.9072981212642235</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.563953501284161</v>
+        <v>29.62596695447731</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -11666,11 +11667,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8504932278395216</v>
+        <v>2.5892047946647248</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.64078746591219</v>
+        <v>26.681600499666569</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -11700,11 +11701,11 @@
       </c>
       <c r="I50" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>2.1745301911125949</v>
+        <v>6.2398598641243099</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.762552086106968</v>
+        <v>24.068708078979892</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -11734,11 +11735,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ref="I51:I65" ca="1" si="4">NORMINV(RAND(),1,3)</f>
-        <v>-0.42979428093032768</v>
+        <v>1.1192068425602641</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.449624585463514</v>
+        <v>18.750762177610717</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -11768,11 +11769,11 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.6777954608855739</v>
+        <v>-2.254295106450956</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11.879165269856635</v>
+        <v>15.360678059197507</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -11802,11 +11803,11 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5870413885969241</v>
+        <v>1.4295019003029672</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.635621997995113</v>
+        <v>15.917980268772162</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -11836,11 +11837,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6487570181080899</v>
+        <v>0.97429900001761527</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.855192956036039</v>
+        <v>15.91595596665254</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -11870,11 +11871,11 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3345060870740655</v>
+        <v>0.8702524162266233</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.00614933805096</v>
+        <v>17.169315322225152</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -11904,11 +11905,11 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.887250113019773</v>
+        <v>-0.27639374280831763</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.328822061429365</v>
+        <v>12.737553362606484</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -11938,11 +11939,11 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.7483348068134168</v>
+        <v>3.7019408548234911</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.363207537927275</v>
+        <v>22.792977130495771</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -11972,11 +11973,11 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.742217586263076</v>
+        <v>-3.7397385096759095</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.754222412994423</v>
+        <v>14.009672567011267</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -12006,11 +12007,11 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1029222008030342</v>
+        <v>2.5843205697238409</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.303936734126527</v>
+        <v>18.677997200840139</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -12040,11 +12041,11 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67129048766769539</v>
+        <v>-1.1708537247550921</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.393757623353672</v>
+        <v>16.897455919692636</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -12074,11 +12075,11 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.0060423111021972</v>
+        <v>1.3890652833540849</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.044164027787268</v>
+        <v>16.150425122241241</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -12108,11 +12109,11 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1644689922185014</v>
+        <v>2.7378612884465325</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.03670722535432</v>
+        <v>21.163512684710646</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -12142,11 +12143,11 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.5900546018504507</v>
+        <v>-3.5138564230623528</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.034239730149647</v>
+        <v>12.306892334068449</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -12176,11 +12177,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2184223581658875</v>
+        <v>-6.6948556791570635E-3</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.32514592236285</v>
+        <v>15.992310800962324</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -12210,11 +12211,11 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.79086138272403339</v>
+        <v>0.94238155731809914</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.981924838714033</v>
+        <v>18.467308177868045</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -12244,11 +12245,11 @@
       </c>
       <c r="I66" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>-1.1359228519737814</v>
+        <v>0.19014335546109165</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.733524096152028</v>
+        <v>28.781428515691541</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -12278,11 +12279,11 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I81" ca="1" si="5">NORMINV(RAND(),0,4)</f>
-        <v>2.5101685639773987</v>
+        <v>1.6829014218657652</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" ca="1" si="6">E67 + F67 + G67 + H67 + I67 + NORMINV(RAND(),0,2)</f>
-        <v>30.409144465135991</v>
+        <v>28.495419010863269</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -12312,11 +12313,11 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7735252891450513</v>
+        <v>6.9177734892194351</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.620815871829898</v>
+        <v>32.405204764145985</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -12346,11 +12347,11 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3583096485221069</v>
+        <v>9.8899932025935549</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.350063138291652</v>
+        <v>37.817123425054909</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -12380,11 +12381,11 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.7728397888204983</v>
+        <v>-0.47869674745290836</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.178961821022192</v>
+        <v>27.242920355301333</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -12414,11 +12415,11 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.192720007815729</v>
+        <v>-2.6802513412786184</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.6784010064912</v>
+        <v>24.83618449868732</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -12448,11 +12449,11 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29298668928544547</v>
+        <v>-0.87636776156957485</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.474879113920668</v>
+        <v>27.84026648275508</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -12482,11 +12483,11 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.5253082182916717</v>
+        <v>0.56428809771147137</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.344996724325682</v>
+        <v>28.305620650687761</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -12516,11 +12517,11 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3088735789271625</v>
+        <v>5.7937790000519875</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.40810878773771</v>
+        <v>38.428639180941403</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -12550,11 +12551,11 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.8591762538536452</v>
+        <v>-0.74048706517460827</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.367868885487855</v>
+        <v>29.154941944685795</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -12584,11 +12585,11 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.7146873204725113</v>
+        <v>-1.6694140173990022</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.581764461451908</v>
+        <v>33.390588820128158</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -12618,11 +12619,11 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.2153103907106741</v>
+        <v>-2.6689385977380859</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.96376143382949</v>
+        <v>29.887455626432335</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -12652,11 +12653,11 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.4614843692189488</v>
+        <v>-1.2159406231762528</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.910578013848859</v>
+        <v>32.910463203710769</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -12686,11 +12687,11 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.85302423537189209</v>
+        <v>0.93898531814526809</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.8708443951402</v>
+        <v>29.381925430919569</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -12720,11 +12721,11 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.59599372931920302</v>
+        <v>-2.7639941333862228</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.658379568648233</v>
+        <v>30.146389088294647</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -12754,11 +12755,11 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.8297772902561933</v>
+        <v>-4.6177050424929824</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.804381985343937</v>
+        <v>28.821384350959651</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -12788,11 +12789,11 @@
       </c>
       <c r="I82" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>1.7792815009240834</v>
+        <v>-0.62644946178272798</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.194712152975036</v>
+        <v>24.918504900369072</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -12822,11 +12823,11 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ref="I83:I97" ca="1" si="7">NORMINV(RAND(),0,3)</f>
-        <v>1.5629969282761502</v>
+        <v>2.328639305188335</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.983895518813728</v>
+        <v>25.883000239369256</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -12856,11 +12857,11 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0449051952878969</v>
+        <v>4.1538629812087189</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.740713723552808</v>
+        <v>30.267697417667634</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -12890,11 +12891,11 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.7189417077684008</v>
+        <v>-5.0113964431311731</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.436452385773588</v>
+        <v>19.40088550018465</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -12924,11 +12925,11 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0219304802683644</v>
+        <v>-1.4332856877996796</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.822366023383463</v>
+        <v>23.067748419437304</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -12958,11 +12959,11 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.7263391769458938</v>
+        <v>1.2431720492993772</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.427315221921955</v>
+        <v>27.640864770050836</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -12992,11 +12993,11 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1981430857240798</v>
+        <v>-0.98010144117900277</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.177826287091822</v>
+        <v>26.999004474422438</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -13026,11 +13027,11 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.7644688631424614</v>
+        <v>-8.2694307267660143</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>20.462596189756241</v>
+        <v>19.212398175635172</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -13060,11 +13061,11 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5484184275831474</v>
+        <v>-0.56645895473320951</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.652844714942937</v>
+        <v>26.475359764106734</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -13094,11 +13095,11 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.3208810017037624</v>
+        <v>1.9519378266396825</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.063755588020069</v>
+        <v>26.249607671511377</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -13128,11 +13129,11 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4.6484379228971839</v>
+        <v>-1.1411812927178668</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>17.637598731500141</v>
+        <v>22.861607962639123</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -13162,11 +13163,11 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.7715464809024857</v>
+        <v>4.1221895314501023</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.618613469921311</v>
+        <v>25.942316051351227</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -13196,11 +13197,11 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2264097585384206</v>
+        <v>0.54418511361765509</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.731637386932423</v>
+        <v>25.240878018072621</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -13230,11 +13231,11 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2881890438422852</v>
+        <v>-3.5815645877903997</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.48657046563692</v>
+        <v>17.439359740741732</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -13264,11 +13265,11 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94270009867321591</v>
+        <v>2.6147723244752021</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.36157803021209</v>
+        <v>31.203601439692601</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -13298,11 +13299,11 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.3166628276176426E-2</v>
+        <v>-0.29532546397867271</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.385473001558925</v>
+        <v>23.503246609397564</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -13332,11 +13333,11 @@
       </c>
       <c r="I98" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>2.6797448273801168</v>
+        <v>-3.2915634583005557</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39.139648489171449</v>
+        <v>27.228214337777462</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -13366,11 +13367,11 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ref="I99:I113" ca="1" si="8">NORMINV(RAND(),0,4)</f>
-        <v>1.6599324291506918</v>
+        <v>10.830930730191056</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36.567294305435453</v>
+        <v>44.715571039981228</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -13400,11 +13401,11 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.5137406799452777E-4</v>
+        <v>2.8367682422472331</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.374626465548353</v>
+        <v>35.783330801816675</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -13434,11 +13435,11 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.8267977592520666</v>
+        <v>-6.6818640670708573</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.779201259711797</v>
+        <v>24.922345066123906</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -13468,11 +13469,11 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28433664436343459</v>
+        <v>-2.9075474816326987</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.833917518843499</v>
+        <v>29.650154926693812</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -13502,11 +13503,11 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8555946490366322</v>
+        <v>1.5534279969081712</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.429163461626043</v>
+        <v>37.999550609152287</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -13536,11 +13537,11 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8519546406462297</v>
+        <v>-4.7998295693375201</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.365968160112551</v>
+        <v>31.090207173496353</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -13570,11 +13571,11 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.642213194268044</v>
+        <v>-2.8945278721621119</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.482583451554497</v>
+        <v>33.790631464374549</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -13604,11 +13605,11 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.0697587631945633</v>
+        <v>-2.0212824410925276</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41.100101986119412</v>
+        <v>33.191521896977768</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -13638,11 +13639,11 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2431913935379766</v>
+        <v>4.2131274442218469</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.655126531066799</v>
+        <v>39.619729955391314</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -13672,11 +13673,11 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9987569474741642</v>
+        <v>-2.2603768878441346</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.329100290316951</v>
+        <v>36.608227223365816</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -13706,11 +13707,11 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5418674352168209</v>
+        <v>5.1395434358809871</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40.528982922409703</v>
+        <v>44.403799988289528</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -13740,11 +13741,11 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.2258806462919498</v>
+        <v>3.5503529493805592</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.830470417055295</v>
+        <v>44.82065947885112</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -13774,11 +13775,11 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5523878752194573</v>
+        <v>-4.4124237543210114</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43.163723096271383</v>
+        <v>30.656830531744742</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -13808,11 +13809,11 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5209337315452185</v>
+        <v>-5.7222128212751437</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.53607153922313</v>
+        <v>32.884351404101004</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -13842,11 +13843,11 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.4361785381319994</v>
+        <v>-3.347135055408367</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.762974397999379</v>
+        <v>35.354371910876104</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -13876,11 +13877,11 @@
       </c>
       <c r="I114" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>-2.2964980395983368</v>
+        <v>2.8721703231026652</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.37546272211042</v>
+        <v>32.270460610657395</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -13910,11 +13911,11 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" ref="I115:I129" ca="1" si="9">NORMINV(RAND(),0,3)</f>
-        <v>-1.6709745716102531</v>
+        <v>5.2466863560742887</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.208309198699794</v>
+        <v>35.276760095107299</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -13944,11 +13945,11 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9018385747274689</v>
+        <v>0.28535775596805107</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.901898520236109</v>
+        <v>27.739985674202106</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -13978,11 +13979,11 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.4932176332492624</v>
+        <v>2.7893452991874756</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.138671132200336</v>
+        <v>29.805082087751334</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -14012,11 +14013,11 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3509139077823322</v>
+        <v>-2.3234274406337012</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.164114360944541</v>
+        <v>30.804628686579186</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -14046,11 +14047,11 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.875863969702801</v>
+        <v>2.7218590023463447</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.33148515281966</v>
+        <v>34.563502024602514</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -14080,11 +14081,11 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10500920666375579</v>
+        <v>1.6916245873867894</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.384074529336708</v>
+        <v>35.980637717507953</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -14114,11 +14115,11 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.0338392857823608</v>
+        <v>1.8464001304304545</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.795383567108313</v>
+        <v>31.776328287959636</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -14148,11 +14149,11 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34808432081903851</v>
+        <v>0.75880489593885359</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.288310629632132</v>
+        <v>30.886394734457308</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -14182,11 +14183,11 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.5810478665066374</v>
+        <v>0.37022656689942468</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.377535965689521</v>
+        <v>30.557410495554731</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -14216,11 +14217,11 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.3273211196971921</v>
+        <v>3.4012227858068531</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.759287533449999</v>
+        <v>33.179327702973495</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -14250,11 +14251,11 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6015227723326801</v>
+        <v>-0.68212278071966181</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.456837299763826</v>
+        <v>21.87304865758388</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -14284,11 +14285,11 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.9227668719265103</v>
+        <v>-3.487664915837807</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.824729170258433</v>
+        <v>24.354470432625611</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -14318,11 +14319,11 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.69572458014401994</v>
+        <v>-5.3936139245373962</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.742828845135673</v>
+        <v>20.689137386822075</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -14352,11 +14353,11 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.69087075618182481</v>
+        <v>-0.38072758050988942</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.030533252205629</v>
+        <v>26.414999170814088</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -14386,11 +14387,11 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.8145418571143801</v>
+        <v>2.5415251994938832</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.155253594684915</v>
+        <v>34.785776827353537</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -14420,11 +14421,11 @@
       </c>
       <c r="I130" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>1.35344035965023</v>
+        <v>2.6896893413224481</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42.593395655018874</v>
+        <v>41.815658024895221</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -14454,11 +14455,11 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" ref="I131:I145" ca="1" si="10">NORMINV(RAND(),2,1)</f>
-        <v>1.1236727995279983</v>
+        <v>1.6541935135948536</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J193" ca="1" si="11">E131 + F131 + G131 + H131 + I131 + NORMINV(RAND(),0,2)</f>
-        <v>40.595555577911597</v>
+        <v>45.073907064492118</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -14488,11 +14489,11 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.1973860974840842</v>
+        <v>3.0237977682793842</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.475773786666359</v>
+        <v>43.611009043994919</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -14522,11 +14523,11 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3331238030426151</v>
+        <v>2.400521644158526</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.7851806167102</v>
+        <v>43.783583237174838</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -14556,11 +14557,11 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.2425480091364518</v>
+        <v>3.6332546555022169</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44.353492366182202</v>
+        <v>42.519106843654555</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -14590,11 +14591,11 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4222614800233488</v>
+        <v>1.6359314921457233</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.149835624155308</v>
+        <v>43.802182054271618</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -14624,11 +14625,11 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2265921948112335</v>
+        <v>1.7947266387038496</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>45.798727204493915</v>
+        <v>45.751707301194841</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -14658,11 +14659,11 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1449768316529236</v>
+        <v>2.3622562587453886</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.268386013243422</v>
+        <v>41.13042842109779</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -14692,11 +14693,11 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.88848737115757404</v>
+        <v>1.8396443813392735</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.614267754876838</v>
+        <v>36.472417661662007</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -14726,11 +14727,11 @@
       </c>
       <c r="I139" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4909902800227668</v>
+        <v>1.6596743329915595</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.80774489594517</v>
+        <v>34.051975985922326</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -14760,11 +14761,11 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1070315877509729</v>
+        <v>3.2999178267453089</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.053756226485842</v>
+        <v>34.951611148962087</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -14794,11 +14795,11 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>-8.9197004420379589E-2</v>
+        <v>3.2547348769533899</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.673536732118848</v>
+        <v>32.946324456050746</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -14828,11 +14829,11 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8280045912007132</v>
+        <v>3.3405272759479736</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.7829535927292</v>
+        <v>33.992057513030623</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -14862,11 +14863,11 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2298455596472406</v>
+        <v>2.0898314411970551</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.539465450426299</v>
+        <v>32.535736087146951</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -14896,11 +14897,11 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.363111931058643</v>
+        <v>2.6067610134269739</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.258947909520991</v>
+        <v>36.815854736739198</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -14930,11 +14931,11 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6657856603889507</v>
+        <v>2.7174629915462738</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.234136543172461</v>
+        <v>33.018728226499341</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -14964,11 +14965,11 @@
       </c>
       <c r="I146" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-0.17188148212794427</v>
+        <v>0.55166536185040838</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.733858514453786</v>
+        <v>37.722500474210968</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -14998,11 +14999,11 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ref="I147:I161" ca="1" si="12">NORMINV(RAND(),0,2)</f>
-        <v>0.73424551938392169</v>
+        <v>1.2957119215685196</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.481088935901241</v>
+        <v>35.340448471284681</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -15032,11 +15033,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8.566215946857042E-2</v>
+        <v>-7.6833214125978183E-2</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.664576324908161</v>
+        <v>35.314041685745252</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -15066,11 +15067,11 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.9598009419686757</v>
+        <v>1.6398343637866803</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.044552207521733</v>
+        <v>36.657510799811526</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -15100,11 +15101,11 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.6663059468736559</v>
+        <v>-1.6020345136541303</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.60102448476459</v>
+        <v>33.462924107301802</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -15134,11 +15135,11 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.54510220220695682</v>
+        <v>-0.82303120563646603</v>
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.870781453972931</v>
+        <v>32.199414698957277</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -15168,11 +15169,11 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.5878398327118322</v>
+        <v>-4.7308485719207635E-2</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.487662533296209</v>
+        <v>31.690044822323145</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -15202,11 +15203,11 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.802628827071739</v>
+        <v>-0.56141615809197321</v>
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.996734829609146</v>
+        <v>33.649265179344319</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -15236,11 +15237,11 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.12342280516097824</v>
+        <v>2.1482325080235305</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.673794420031989</v>
+        <v>35.066231839903438</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -15270,11 +15271,11 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.77779171528595725</v>
+        <v>-1.2708880838567367</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.799432292582463</v>
+        <v>31.542975501566158</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -15304,11 +15305,11 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.6560058839367628</v>
+        <v>-2.4665493367256324</v>
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>26.785153807802068</v>
+        <v>28.998414885484305</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -15338,11 +15339,11 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.5835644727962186</v>
+        <v>-1.1513364622614479</v>
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.880591018162747</v>
+        <v>32.107669360060711</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -15372,11 +15373,11 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3009366150742079</v>
+        <v>0.52394657480822193</v>
       </c>
       <c r="J158" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.862785981779226</v>
+        <v>36.591361560666606</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -15406,11 +15407,11 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.47840973760197547</v>
+        <v>-2.5534859858570451</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.352408914881607</v>
+        <v>28.872241638433067</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -15440,11 +15441,11 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.4022385469538343</v>
+        <v>0.10523755173334227</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.168488565192952</v>
+        <v>30.593365182863046</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -15474,11 +15475,11 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.1564213042069458</v>
+        <v>-1.9457077705789203</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.157608241583716</v>
+        <v>31.475374136742872</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -15508,11 +15509,11 @@
       </c>
       <c r="I162" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>2.8183788947420392</v>
+        <v>2.5991845640545184</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>45.172470040587967</v>
+        <v>43.428951928482903</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -15542,11 +15543,11 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" ref="I163:I177" ca="1" si="13">NORMINV(RAND(),2,1)</f>
-        <v>2.2738449542737689</v>
+        <v>1.171030591713925</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.236963873557706</v>
+        <v>43.78795117910429</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -15576,11 +15577,11 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.403168374312199</v>
+        <v>1.5276291086206697</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.679826552581815</v>
+        <v>40.657277073074901</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -15610,11 +15611,11 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.5429982922249001</v>
+        <v>2.2909069579808552</v>
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.443389485752455</v>
+        <v>43.889700203400636</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -15644,11 +15645,11 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.82178895023821874</v>
+        <v>1.6287656181302879</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.840034816747334</v>
+        <v>38.389194452172603</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -15678,11 +15679,11 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.258353373218986</v>
+        <v>0.60768168568215786</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.765008862107855</v>
+        <v>39.615448637807241</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -15712,11 +15713,11 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.89199879901800028</v>
+        <v>3.0860527982138404</v>
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.370122018608399</v>
+        <v>41.327186199763787</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -15746,11 +15747,11 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20149963477213206</v>
+        <v>2.0872245893049124</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.205376091619719</v>
+        <v>44.403842034401414</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -15780,11 +15781,11 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.89945707806577824</v>
+        <v>1.4388601061400239</v>
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.61774807594697</v>
+        <v>32.512013641391562</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -15814,11 +15815,11 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3740980530199245</v>
+        <v>1.6314674069479767</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.396504399069649</v>
+        <v>35.674431108070081</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -15848,11 +15849,11 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.8537468242938779</v>
+        <v>2.9318852270838143</v>
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.918824849664034</v>
+        <v>28.891269290788468</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -15882,11 +15883,11 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6534586957587716</v>
+        <v>2.1661012153425658</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.940627469057457</v>
+        <v>31.413945863976597</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -15916,11 +15917,11 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3846360407855687</v>
+        <v>1.265789393308514</v>
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.588678000418504</v>
+        <v>31.76163495182734</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -15950,11 +15951,11 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1984607146734962</v>
+        <v>1.9316943766550998</v>
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.620255886999715</v>
+        <v>34.693261789414734</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -15984,11 +15985,11 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5381000767881381</v>
+        <v>1.9149132063270835</v>
       </c>
       <c r="J176" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.200295161719353</v>
+        <v>34.273585929498921</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -16018,11 +16019,11 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.18147823392540396</v>
+        <v>1.0766001437568549</v>
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>27.610137875299536</v>
+        <v>35.165756262520283</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -16052,11 +16053,11 @@
       </c>
       <c r="I178" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-0.22837659325141485</v>
+        <v>-0.16107104540671197</v>
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.095348246365702</v>
+        <v>35.996324005108789</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -16086,11 +16087,11 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ref="I179:I193" ca="1" si="14">NORMINV(RAND(),0,2)</f>
-        <v>-1.7387891129798598</v>
+        <v>-1.6666673289758578</v>
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.105394953455527</v>
+        <v>30.584945627627825</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -16120,11 +16121,11 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.146468899015334</v>
+        <v>-0.67102144996930091</v>
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.606857039826714</v>
+        <v>34.497244662256165</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -16154,11 +16155,11 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.9534386093983771</v>
+        <v>-2.4265375675178342</v>
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.843799323011659</v>
+        <v>30.984973875182472</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -16188,11 +16189,11 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2.3633801846802207</v>
+        <v>4.9601813566703505E-2</v>
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.2966642321419</v>
+        <v>34.658949801304651</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -16222,11 +16223,11 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.34927205372330117</v>
+        <v>-1.9506133378797175</v>
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.581025630148467</v>
+        <v>36.313122112601569</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -16256,11 +16257,11 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0146840400114154</v>
+        <v>-0.12029975604983253</v>
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.22736800304839</v>
+        <v>36.59689747115906</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -16290,11 +16291,11 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.99123591134963429</v>
+        <v>2.5222969289618593</v>
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.651376080860494</v>
+        <v>36.897099340335792</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -16324,11 +16325,11 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0318031015534574</v>
+        <v>-1.9256939839588281</v>
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.430007423832798</v>
+        <v>29.033530892954939</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -16358,11 +16359,11 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1284940750972752</v>
+        <v>-0.72326765838989049</v>
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.898764148295506</v>
+        <v>32.501856278716957</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -16392,11 +16393,11 @@
       </c>
       <c r="I188" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.8352867542628863</v>
+        <v>-0.82766304693113246</v>
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.494369542151492</v>
+        <v>37.520688860592493</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -16426,11 +16427,11 @@
       </c>
       <c r="I189" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.53845337517004288</v>
+        <v>-1.424091519341824</v>
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.716165911072988</v>
+        <v>30.615545402924944</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -16460,11 +16461,11 @@
       </c>
       <c r="I190" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8489368561977646</v>
+        <v>-3.862979946640297</v>
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.043848601131948</v>
+        <v>28.554339554904146</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -16494,11 +16495,11 @@
       </c>
       <c r="I191" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1586679424910944</v>
+        <v>-2.1255265663468688</v>
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.957302893161895</v>
+        <v>33.306240832385534</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -16528,11 +16529,11 @@
       </c>
       <c r="I192" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.3910578479695808</v>
+        <v>-1.1122155021593436</v>
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>25.473479828759633</v>
+        <v>34.32935694213829</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -16562,11 +16563,11 @@
       </c>
       <c r="I193" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.3975925868207104E-2</v>
+        <v>-0.71915206035742085</v>
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.575202421774321</v>
+        <v>31.405369575763292</v>
       </c>
     </row>
   </sheetData>
@@ -16621,7 +16622,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>16.427561969484252</v>
+        <v>26.488806489662394</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -16631,7 +16632,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">D2 + E2+ 1.25*C2+5+NORMINV(RAND(),0,5)</f>
-        <v>36.198181902734696</v>
+        <v>48.506157265413968</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16643,7 +16644,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>14.597408853518651</v>
+        <v>18.671055083068719</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -16653,7 +16654,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F49" ca="1" si="1">D3 + E3+ 1.25*C3+5+NORMINV(RAND(),0,5)</f>
-        <v>35.593534403393704</v>
+        <v>41.12492051771779</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16665,7 +16666,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.981990556512137</v>
+        <v>20.016510455746406</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -16675,7 +16676,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.750474944960917</v>
+        <v>40.94132954298302</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -16687,7 +16688,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.399416949406081</v>
+        <v>15.541041993446703</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -16697,7 +16698,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.055272071928329</v>
+        <v>29.089054850048807</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -16709,7 +16710,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.15824739029232</v>
+        <v>18.80207150684015</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -16719,7 +16720,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.913046744730181</v>
+        <v>40.060171011580799</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -16731,7 +16732,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.337873459348602</v>
+        <v>14.148981667719958</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -16741,7 +16742,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.924633732807727</v>
+        <v>35.775109009194047</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -16753,7 +16754,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.849444130418988</v>
+        <v>17.473510733468167</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -16763,7 +16764,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.957472201252742</v>
+        <v>49.08701422329414</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -16775,7 +16776,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8426321679735977</v>
+        <v>12.146001573895223</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -16785,7 +16786,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.16432409386481</v>
+        <v>35.617121873745965</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -16797,7 +16798,7 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>6.4555196165312871</v>
+        <v>4.5910826178129254</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -16807,7 +16808,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.669931272076607</v>
+        <v>7.0183177256434259</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -16819,7 +16820,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:C17" ca="1" si="2">NORMINV(RAND(),5,1)</f>
-        <v>4.7231602405679718</v>
+        <v>4.0847134895007375</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -16829,7 +16830,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8710393131647614</v>
+        <v>21.260771294525231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -16841,7 +16842,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1345494817261512</v>
+        <v>3.3835594590552489</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -16851,7 +16852,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.03430629861532</v>
+        <v>15.355983961955349</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -16863,7 +16864,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9751800702535616</v>
+        <v>5.1155742940905</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -16873,7 +16874,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.921484295402834</v>
+        <v>9.3884296622158985</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -16885,7 +16886,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5249997190182167</v>
+        <v>4.6459980724815066</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -16895,7 +16896,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.58355855857663</v>
+        <v>21.402044520622365</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -16907,7 +16908,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2184504844348538</v>
+        <v>5.3794286628947265</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -16917,7 +16918,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10.203354715937412</v>
+        <v>10.609262091743762</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -16929,7 +16930,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6977498412454004</v>
+        <v>5.9301419175857104</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -16939,7 +16940,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.43583923501609</v>
+        <v>16.371361314937577</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -16951,7 +16952,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2325606152252631</v>
+        <v>5.3947356548549861</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -16961,7 +16962,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.191777202878537</v>
+        <v>20.481754365847287</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -16973,7 +16974,7 @@
       </c>
       <c r="C18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>6.378737662913001</v>
+        <v>19.32964365571295</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -16983,7 +16984,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.167057750627027</v>
+        <v>35.965047910990215</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -16995,7 +16996,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ref="C19:C25" ca="1" si="3">NORMINV(RAND(),12,4)</f>
-        <v>13.526917973913681</v>
+        <v>15.410287954092778</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
@@ -17005,7 +17006,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.076659775411922</v>
+        <v>27.306255706748182</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -17017,7 +17018,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.235270208211546</v>
+        <v>11.806168050794094</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -17027,7 +17028,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.821506894210167</v>
+        <v>24.346800003508555</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -17039,7 +17040,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9436506845949513</v>
+        <v>10.099225846008196</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -17049,7 +17050,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.111416312876791</v>
+        <v>24.335149323247681</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -17061,7 +17062,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10.713605530738837</v>
+        <v>16.799297854200411</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
@@ -17071,7 +17072,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.230685781806272</v>
+        <v>27.991508576885352</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -17083,7 +17084,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.096859156068156</v>
+        <v>16.108097570718773</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
@@ -17093,7 +17094,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.599831714078299</v>
+        <v>35.609783437639521</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -17105,7 +17106,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.359142519889371</v>
+        <v>12.761982676364354</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -17115,7 +17116,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.441799983357896</v>
+        <v>35.485244985199088</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -17127,7 +17128,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6241840746304028</v>
+        <v>17.540707325392166</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
@@ -17137,7 +17138,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.715658838045993</v>
+        <v>48.341601138735236</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -17149,7 +17150,7 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>7.4771359081266153</v>
+        <v>6.5804449814150345</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
@@ -17159,7 +17160,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.615449415110135</v>
+        <v>28.123617057307349</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -17171,7 +17172,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:C33" ca="1" si="4">NORMINV(RAND(),6,1)</f>
-        <v>5.2181735281462664</v>
+        <v>4.5167945931761597</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -17181,7 +17182,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.24281477600621</v>
+        <v>32.067083595851834</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -17193,7 +17194,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2727906239604101</v>
+        <v>7.529959092353316</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -17203,7 +17204,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.489860722299667</v>
+        <v>30.305058946789899</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -17215,7 +17216,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0939308245804407</v>
+        <v>4.9230588173655487</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -17225,7 +17226,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.801298236026661</v>
+        <v>35.138709815725264</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -17237,7 +17238,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5622708261373495</v>
+        <v>5.8806888383535547</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -17247,7 +17248,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.707850512901153</v>
+        <v>36.405564246270956</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -17259,7 +17260,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8963011822226976</v>
+        <v>6.8153876179336708</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -17269,7 +17270,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.875803084624756</v>
+        <v>34.35607187592656</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -17281,7 +17282,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.281494096052942</v>
+        <v>6.1315737995425534</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
@@ -17291,7 +17292,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.605005444088558</v>
+        <v>38.880113080324897</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -17303,7 +17304,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1784975059562139</v>
+        <v>5.5279535067230441</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
@@ -17313,7 +17314,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.653078512778375</v>
+        <v>36.317393929281117</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -17325,7 +17326,7 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>11.337545026208332</v>
+        <v>18.105488881017354</v>
       </c>
       <c r="D34" s="2">
         <v>15</v>
@@ -17335,7 +17336,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.496700047856635</v>
+        <v>50.908337840087412</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -17347,7 +17348,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:C41" ca="1" si="5">NORMINV(RAND(),12,5)</f>
-        <v>6.8532316414210346</v>
+        <v>11.135188594201393</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -17357,7 +17358,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.343119259945158</v>
+        <v>33.628482783233359</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -17369,7 +17370,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.735857926221823</v>
+        <v>8.8362126165387167</v>
       </c>
       <c r="D36" s="2">
         <v>15</v>
@@ -17379,7 +17380,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.075688633179389</v>
+        <v>30.269263008713484</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -17391,7 +17392,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11.924269467674156</v>
+        <v>14.15976484263196</v>
       </c>
       <c r="D37" s="2">
         <v>15</v>
@@ -17401,7 +17402,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.819003938768837</v>
+        <v>43.649027204593608</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -17413,7 +17414,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.054789233145467</v>
+        <v>18.88788409485813</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -17423,7 +17424,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.972836612331037</v>
+        <v>49.073278868650036</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -17435,7 +17436,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11.846531284984739</v>
+        <v>16.925899785717977</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -17445,7 +17446,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.279491197320667</v>
+        <v>58.327555371470552</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -17457,7 +17458,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9586848279186331</v>
+        <v>14.142037296920122</v>
       </c>
       <c r="D40" s="2">
         <v>15</v>
@@ -17467,7 +17468,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.320467113119655</v>
+        <v>46.393608818314362</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -17479,7 +17480,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>16.526650909790128</v>
+        <v>5.8694387820499632</v>
       </c>
       <c r="D41" s="2">
         <v>15</v>
@@ -17489,7 +17490,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.591741143791495</v>
+        <v>33.708556919602096</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -17501,7 +17502,7 @@
       </c>
       <c r="C42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>7.5179865312841239</v>
+        <v>6.6728204767430146</v>
       </c>
       <c r="D42" s="2">
         <v>15</v>
@@ -17511,7 +17512,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.55293428746824</v>
+        <v>38.715498247714351</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -17523,7 +17524,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:C49" ca="1" si="6">NORMINV(RAND(),8,2)</f>
-        <v>7.9526148143983679</v>
+        <v>11.033645506367035</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -17533,7 +17534,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.226036648754036</v>
+        <v>39.60110507043386</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -17545,7 +17546,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>12.359281543157625</v>
+        <v>10.738359796632956</v>
       </c>
       <c r="D44" s="2">
         <v>15</v>
@@ -17555,7 +17556,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.973451260058383</v>
+        <v>38.895507763885441</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -17567,7 +17568,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.441748820246822</v>
+        <v>7.5895076390196996</v>
       </c>
       <c r="D45" s="2">
         <v>15</v>
@@ -17577,7 +17578,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.147566150343657</v>
+        <v>36.927624170670519</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -17589,7 +17590,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0511608567071722</v>
+        <v>6.4199416849034536</v>
       </c>
       <c r="D46" s="2">
         <v>15</v>
@@ -17599,7 +17600,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.922908838422426</v>
+        <v>27.916134108633521</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -17611,7 +17612,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7019771690414958</v>
+        <v>6.5227503778687392</v>
       </c>
       <c r="D47" s="2">
         <v>15</v>
@@ -17621,7 +17622,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.48130613935632</v>
+        <v>33.32524147841027</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -17633,7 +17634,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8543425995667961</v>
+        <v>6.5926627285379036</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -17643,7 +17644,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.053619043288109</v>
+        <v>35.196940224224875</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -17655,7 +17656,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7572080023718328</v>
+        <v>9.421914591366793</v>
       </c>
       <c r="D49" s="2">
         <v>15</v>
@@ -17665,7 +17666,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.956231651710816</v>
+        <v>42.472458510873764</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_complex_data_backup.xlsx
+++ b/data/fleas_complex_data_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E55AD4-B350-534F-8B00-50E9B9536B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB6394-915D-0B40-84D3-6ABDBC2C435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1880" windowWidth="28240" windowHeight="17240" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="7440" yWindow="1880" windowWidth="28240" windowHeight="17240" activeTab="7" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="repeated-fac2" sheetId="6" r:id="rId4"/>
     <sheet name="repeated-fac3" sheetId="4" r:id="rId5"/>
     <sheet name="fac4" sheetId="2" r:id="rId6"/>
-    <sheet name="covariate" sheetId="3" r:id="rId7"/>
+    <sheet name="covariate-fac1" sheetId="8" r:id="rId7"/>
+    <sheet name="covariate-fac2" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="43">
   <si>
     <t>animal</t>
   </si>
@@ -549,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,27 +639,27 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">$C2+$D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>31.55909096985193</v>
+        <v>35.016270369482775</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:P17" ca="1" si="0">$C2+$D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>27.606665896679409</v>
+        <v>33.218630381922573</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.115928747587045</v>
+        <v>14.504612152214321</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.659919460691828</v>
+        <v>23.803448031929129</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.33128508561088</v>
+        <v>24.41811554300801</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">$C2+$D2+J2+NORMINV(RAND(),0,4)</f>
-        <v>7.4305697069207852</v>
+        <v>7.6912452616389366</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -694,27 +695,27 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:P25" ca="1" si="1">$C3+$D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>32.866209284144198</v>
+        <v>25.040359385386616</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.121987372056815</v>
+        <v>22.089439252249836</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.232668158980804</v>
+        <v>23.670145933887973</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.252727997906209</v>
+        <v>20.726512786289902</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.005854362609675</v>
+        <v>22.200546007579032</v>
       </c>
       <c r="P3" s="1">
         <f ca="1">$C3+$D3+J3+NORMINV(RAND(),0,4)</f>
-        <v>8.753625648876513</v>
+        <v>5.348022123016019</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -750,27 +751,27 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.432849009694017</v>
+        <v>32.795707349892304</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.22553105435059</v>
+        <v>28.161802158883592</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.589447946572463</v>
+        <v>24.538503660132928</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.192980399028265</v>
+        <v>23.201899316207864</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.953989628116979</v>
+        <v>25.524971337603873</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26637802765024432</v>
+        <v>17.017045464025998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -806,27 +807,27 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.876463684780553</v>
+        <v>25.913520371367142</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.474276458411257</v>
+        <v>21.56831582838667</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.821582004821938</v>
+        <v>22.679376685138035</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.765871226134749</v>
+        <v>17.832115511122286</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.711365757585231</v>
+        <v>18.576892619192549</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3442855221283687</v>
+        <v>10.138651918527465</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -862,27 +863,27 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.646511040330537</v>
+        <v>28.79706839682337</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36.467928006483888</v>
+        <v>32.228982562403317</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.499648738651363</v>
+        <v>24.101694954458864</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.713647200484708</v>
+        <v>24.744931040665271</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.685861224159165</v>
+        <v>19.172087341990959</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.304877072493666</v>
+        <v>4.2270426451029035</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -918,27 +919,27 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.043459192171476</v>
+        <v>33.059608584499834</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.76499003591276</v>
+        <v>21.525222185370176</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.824195614545143</v>
+        <v>24.519074641898257</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.168776169645103</v>
+        <v>27.969379163097511</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.819044352474062</v>
+        <v>11.864074851018209</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4734529030777921</v>
+        <v>0.38963708509993289</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -974,27 +975,27 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.558136560980046</v>
+        <v>30.166954252020844</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.627520596759236</v>
+        <v>28.609208146699736</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.193017184017471</v>
+        <v>22.257024290881496</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.765497286227351</v>
+        <v>18.89858939772747</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.793407319256719</v>
+        <v>17.025177024277596</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5839307724571698</v>
+        <v>6.4376167415496957</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1030,27 +1031,27 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.085848999852832</v>
+        <v>30.294247593274914</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.055216571316322</v>
+        <v>29.92948218202994</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.734636963102254</v>
+        <v>28.635186394877572</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.295214781995281</v>
+        <v>23.928620040309813</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.888921614972752</v>
+        <v>15.116248214850931</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7713012496102705</v>
+        <v>7.4726018209115281</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1086,27 +1087,27 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.279296925928115</v>
+        <v>41.209353673709742</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.816687443516216</v>
+        <v>32.18726164198641</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.761121822321073</v>
+        <v>20.070581728622059</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.969139402205066</v>
+        <v>24.770210746050459</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.292054432937302</v>
+        <v>10.2906395308979</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.046581022838474</v>
+        <v>21.042342186685303</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1142,27 +1143,27 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.712452232886541</v>
+        <v>42.447403039078608</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.662010648043427</v>
+        <v>30.549928146271874</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.327384747167201</v>
+        <v>31.101602203830293</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.659429663791698</v>
+        <v>18.955765961782063</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.786449078164154</v>
+        <v>23.632451879270981</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.948982881499973</v>
+        <v>15.797138751790788</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1198,27 +1199,27 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.495061112235121</v>
+        <v>42.921767600853705</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.544297937071018</v>
+        <v>27.714614125715219</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.488775919114627</v>
+        <v>23.075259404044722</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.439816893927652</v>
+        <v>26.859345108546236</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.390644028406136</v>
+        <v>21.889315362333825</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.422656933411023</v>
+        <v>20.412452868182012</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1254,27 +1255,27 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.496581599158958</v>
+        <v>45.31913189401299</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.700358482890195</v>
+        <v>29.610393134121818</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.206677520613685</v>
+        <v>23.688564651346894</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.798695649667561</v>
+        <v>19.21373425642421</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.679127910277462</v>
+        <v>21.05431090875858</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.361114026642213</v>
+        <v>14.770230146387217</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1310,27 +1311,27 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.905618598431744</v>
+        <v>38.556586744871048</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.374426628882606</v>
+        <v>24.043921659043644</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.177383351943178</v>
+        <v>29.439350456107857</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.266286157305867</v>
+        <v>18.268151238401337</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.143414089263668</v>
+        <v>24.97027490889716</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.192211551433122</v>
+        <v>16.100305983788488</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1366,27 +1367,27 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.368968051581653</v>
+        <v>41.830349901679568</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.117970311762726</v>
+        <v>27.702211523872009</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.582014119606278</v>
+        <v>23.773169926070334</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.632422821352373</v>
+        <v>21.844833461861203</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.992017730682658</v>
+        <v>15.611851632797492</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.206585404976892</v>
+        <v>12.346976704760223</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1422,27 +1423,27 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.72986984332902</v>
+        <v>41.037107946993039</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.277865519598166</v>
+        <v>27.513067051947914</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.284224665612946</v>
+        <v>27.997127625059282</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.209292163104365</v>
+        <v>25.501969955291937</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.504915932897475</v>
+        <v>13.114865842809387</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.736381139787575</v>
+        <v>11.231903222353433</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1478,27 +1479,27 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.580898439008102</v>
+        <v>36.527333678920904</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.722354650100996</v>
+        <v>33.523690500127934</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.05710793903668</v>
+        <v>22.214530060577133</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.518803507957969</v>
+        <v>23.467798884100837</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.222253297425041</v>
+        <v>10.027460063485552</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.887367970897088</v>
+        <v>13.567218961167054</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1534,27 +1535,27 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56.355622953897807</v>
+        <v>52.071018855284649</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.57302897797787</v>
+        <v>39.454964067256313</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.941450847456395</v>
+        <v>31.389375746543713</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.688447871877113</v>
+        <v>35.360083090744432</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.448642727706606</v>
+        <v>37.035512475026863</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.862240443452023</v>
+        <v>26.427582200044721</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1590,27 +1591,27 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.008252052401318</v>
+        <v>45.712322729353403</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.297392313122302</v>
+        <v>44.930181492280184</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.445917298007025</v>
+        <v>41.139410526644539</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.834520384682346</v>
+        <v>30.242073058343994</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.143327713246091</v>
+        <v>22.72015848204531</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.895566404314533</v>
+        <v>32.462641226533471</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1646,27 +1647,27 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.340906975770672</v>
+        <v>46.831892056544987</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.455887403500448</v>
+        <v>47.237740286775939</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.918409066955817</v>
+        <v>37.516387201853178</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.007296729115843</v>
+        <v>25.894727916527899</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.463189823570314</v>
+        <v>31.991077997415189</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.3539523872881</v>
+        <v>25.468500506348992</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1702,27 +1703,27 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.686428668014393</v>
+        <v>48.192047258332984</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.38875800807061</v>
+        <v>42.903481899810096</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.864530808286865</v>
+        <v>38.065057588811435</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.539629572577301</v>
+        <v>32.733298893526843</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.914753545724672</v>
+        <v>24.692848713549601</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.365791838765894</v>
+        <v>26.957044890229454</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1758,27 +1759,27 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.677476836738826</v>
+        <v>56.540690208597738</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.27730593078595</v>
+        <v>48.475928436877503</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.810992287189855</v>
+        <v>39.449633093094604</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.89308719302575</v>
+        <v>35.437873119897276</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.596491998417534</v>
+        <v>26.039846675427082</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.836146940540047</v>
+        <v>22.416989094616422</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1814,27 +1815,27 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.556787678369957</v>
+        <v>47.186990508889451</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.850748351664159</v>
+        <v>51.837533560489163</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.171805282830846</v>
+        <v>35.15029273806212</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.662873406411411</v>
+        <v>32.657997895134798</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.666419322604792</v>
+        <v>27.347979852621354</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.029665793441602</v>
+        <v>27.86783135924993</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1870,27 +1871,27 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.505893911308149</v>
+        <v>53.372439616616738</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.595860609685104</v>
+        <v>37.116097716214249</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.305239466277513</v>
+        <v>31.758136136285941</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.458551402630611</v>
+        <v>18.555284875484077</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.32049177440275</v>
+        <v>22.879634557803897</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.314078873800646</v>
+        <v>27.710373480105197</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1926,27 +1927,27 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.383727465385135</v>
+        <v>46.553455723406387</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.846568914777407</v>
+        <v>35.5517376032873</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.994764027729044</v>
+        <v>31.557621335189673</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.093412840497756</v>
+        <v>30.766708741515128</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.104435404373898</v>
+        <v>20.841683187492986</v>
       </c>
       <c r="P25" s="1">
         <f ca="1">$C25+$D25+J25+NORMINV(RAND(),0,4)</f>
-        <v>34.812657757557204</v>
+        <v>24.230266782346273</v>
       </c>
     </row>
   </sheetData>
@@ -2062,27 +2063,27 @@
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>40.100657362275896</v>
+        <v>38.94552723733311</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>35.964074212985004</v>
+        <v>34.59564618566624</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>29.037374722205438</v>
+        <v>25.688721403683189</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>23.184709414325987</v>
+        <v>31.528074674059944</v>
       </c>
       <c r="Q2" s="1">
         <f ca="1">D2+E2+F2+K2+NORMINV(RAND(),0,4)</f>
-        <v>24.803502963326036</v>
+        <v>21.467829684851047</v>
       </c>
       <c r="R2" s="1">
         <f ca="1">D2+E2+F2+L2+NORMINV(RAND(),0,4)</f>
-        <v>11.809558406358354</v>
+        <v>14.613875827265856</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2124,27 +2125,27 @@
       </c>
       <c r="M3" s="1">
         <f ca="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>39.058276605408409</v>
+        <v>36.390544660102648</v>
       </c>
       <c r="N3" s="1">
         <f ca="1">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>37.251047827212204</v>
+        <v>33.088437520175439</v>
       </c>
       <c r="O3" s="1">
         <f ca="1">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>24.972856367433412</v>
+        <v>30.156288117603992</v>
       </c>
       <c r="P3" s="1">
         <f ca="1">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>26.908068651750209</v>
+        <v>27.100718956555024</v>
       </c>
       <c r="Q3" s="1">
         <f ca="1">D3+E3+F3+K3+NORMINV(RAND(),0,4)</f>
-        <v>26.218684971383141</v>
+        <v>27.01133405930242</v>
       </c>
       <c r="R3" s="1">
         <f ca="1">D3+E3+F3+L3+NORMINV(RAND(),0,4)</f>
-        <v>18.045472689975114</v>
+        <v>0.6810708623462336</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -2186,27 +2187,27 @@
       </c>
       <c r="M4" s="1">
         <f ca="1">D4+E4+F4+G4+NORMINV(RAND(),0,4)</f>
-        <v>38.573089294397555</v>
+        <v>34.085282239258781</v>
       </c>
       <c r="N4" s="1">
         <f ca="1">D4+E4+F4+H4+NORMINV(RAND(),0,4)</f>
-        <v>31.104879782856131</v>
+        <v>34.876705268823272</v>
       </c>
       <c r="O4" s="1">
         <f ca="1">D4+E4+F4+I4+NORMINV(RAND(),0,4)</f>
-        <v>36.122594532828472</v>
+        <v>22.662129146232239</v>
       </c>
       <c r="P4" s="1">
         <f ca="1">D4+E4+F4+J4+NORMINV(RAND(),0,4)</f>
-        <v>28.689143636404278</v>
+        <v>26.951579620885827</v>
       </c>
       <c r="Q4" s="1">
         <f ca="1">D4+E4+F4+K4+NORMINV(RAND(),0,4)</f>
-        <v>20.131377991831311</v>
+        <v>27.152907351746723</v>
       </c>
       <c r="R4" s="1">
         <f ca="1">D4+E4+F4+L4+NORMINV(RAND(),0,4)</f>
-        <v>11.508938868166123</v>
+        <v>17.449697221817601</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -2248,27 +2249,27 @@
       </c>
       <c r="M5" s="1">
         <f ca="1">D5+E5+F5+G5+NORMINV(RAND(),0,4)</f>
-        <v>36.97382720642802</v>
+        <v>40.490320299077119</v>
       </c>
       <c r="N5" s="1">
         <f ca="1">D5+E5+F5+H5+NORMINV(RAND(),0,4)</f>
-        <v>40.393299447371362</v>
+        <v>33.001104051864871</v>
       </c>
       <c r="O5" s="1">
         <f ca="1">D5+E5+F5+I5+NORMINV(RAND(),0,4)</f>
-        <v>25.818742125739373</v>
+        <v>29.526892777595354</v>
       </c>
       <c r="P5" s="1">
         <f ca="1">D5+E5+F5+J5+NORMINV(RAND(),0,4)</f>
-        <v>26.538195854302312</v>
+        <v>28.346115108179397</v>
       </c>
       <c r="Q5" s="1">
         <f ca="1">D5+E5+F5+K5+NORMINV(RAND(),0,4)</f>
-        <v>20.512431364808371</v>
+        <v>25.475419252190342</v>
       </c>
       <c r="R5" s="1">
         <f ca="1">D5+E5+F5+L5+NORMINV(RAND(),0,4)</f>
-        <v>11.558530794085188</v>
+        <v>13.358641964673476</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2310,27 +2311,27 @@
       </c>
       <c r="M6" s="1">
         <f ca="1">D6+E6+F6+G6+NORMINV(RAND(),0,4)</f>
-        <v>26.83328537135846</v>
+        <v>29.310229729068592</v>
       </c>
       <c r="N6" s="1">
         <f ca="1">D6+E6+F6+H6+NORMINV(RAND(),0,4)</f>
-        <v>22.580807992542582</v>
+        <v>27.104427005323316</v>
       </c>
       <c r="O6" s="1">
         <f ca="1">D6+E6+F6+I6+NORMINV(RAND(),0,4)</f>
-        <v>19.630729790269651</v>
+        <v>26.158977244230972</v>
       </c>
       <c r="P6" s="1">
         <f ca="1">D6+E6+F6+J6+NORMINV(RAND(),0,4)</f>
-        <v>11.231657670396176</v>
+        <v>21.978333190942291</v>
       </c>
       <c r="Q6" s="1">
         <f ca="1">D6+E6+F6+K6+NORMINV(RAND(),0,4)</f>
-        <v>13.806094421140953</v>
+        <v>11.687371709378986</v>
       </c>
       <c r="R6" s="1">
         <f ca="1">D6+E6+F6+L6+NORMINV(RAND(),0,4)</f>
-        <v>-0.95489049225059919</v>
+        <v>6.7574330208805877</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2372,27 +2373,27 @@
       </c>
       <c r="M7" s="1">
         <f ca="1">D7+E7+F7+G7+NORMINV(RAND(),0,4)</f>
-        <v>26.491130786874727</v>
+        <v>23.602100825121759</v>
       </c>
       <c r="N7" s="1">
         <f ca="1">D7+E7+F7+H7+NORMINV(RAND(),0,4)</f>
-        <v>28.454151000273136</v>
+        <v>26.344519635716409</v>
       </c>
       <c r="O7" s="1">
         <f ca="1">D7+E7+F7+I7+NORMINV(RAND(),0,4)</f>
-        <v>18.460105795453487</v>
+        <v>25.505640373740746</v>
       </c>
       <c r="P7" s="1">
         <f ca="1">D7+E7+F7+J7+NORMINV(RAND(),0,4)</f>
-        <v>24.961949669189565</v>
+        <v>26.951364533634042</v>
       </c>
       <c r="Q7" s="1">
         <f ca="1">D7+E7+F7+K7+NORMINV(RAND(),0,4)</f>
-        <v>16.390969090067557</v>
+        <v>15.505001716142262</v>
       </c>
       <c r="R7" s="1">
         <f ca="1">D7+E7+F7+L7+NORMINV(RAND(),0,4)</f>
-        <v>3.6454359124113083</v>
+        <v>1.5516981125570024</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2434,27 +2435,27 @@
       </c>
       <c r="M8" s="1">
         <f ca="1">D8+E8+F8+G8+NORMINV(RAND(),0,4)</f>
-        <v>32.974223139602344</v>
+        <v>26.402504828109326</v>
       </c>
       <c r="N8" s="1">
         <f ca="1">D8+E8+F8+H8+NORMINV(RAND(),0,4)</f>
-        <v>25.208697041551133</v>
+        <v>16.44706343336534</v>
       </c>
       <c r="O8" s="1">
         <f ca="1">D8+E8+F8+I8+NORMINV(RAND(),0,4)</f>
-        <v>25.273363847177535</v>
+        <v>20.401101906873411</v>
       </c>
       <c r="P8" s="1">
         <f ca="1">D8+E8+F8+J8+NORMINV(RAND(),0,4)</f>
-        <v>20.818313221369724</v>
+        <v>19.289026875001699</v>
       </c>
       <c r="Q8" s="1">
         <f ca="1">D8+E8+F8+K8+NORMINV(RAND(),0,4)</f>
-        <v>24.285642901459251</v>
+        <v>17.70487113350244</v>
       </c>
       <c r="R8" s="1">
         <f ca="1">D8+E8+F8+L8+NORMINV(RAND(),0,4)</f>
-        <v>7.9461751156343494</v>
+        <v>7.9456425791447032</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -2496,27 +2497,27 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">D9+E9+F9+G9+NORMINV(RAND(),0,4)</f>
-        <v>34.901302292221722</v>
+        <v>26.768999768893327</v>
       </c>
       <c r="N9" s="1">
         <f ca="1">D9+E9+F9+H9+NORMINV(RAND(),0,4)</f>
-        <v>25.14069394123489</v>
+        <v>21.174690650229351</v>
       </c>
       <c r="O9" s="1">
         <f ca="1">D9+E9+F9+I9+NORMINV(RAND(),0,4)</f>
-        <v>26.889939051122838</v>
+        <v>26.407942578008203</v>
       </c>
       <c r="P9" s="1">
         <f ca="1">D9+E9+F9+J9+NORMINV(RAND(),0,4)</f>
-        <v>21.433881618394818</v>
+        <v>18.028955244493993</v>
       </c>
       <c r="Q9" s="1">
         <f ca="1">D9+E9+F9+K9+NORMINV(RAND(),0,4)</f>
-        <v>18.665924342391168</v>
+        <v>12.935108592926678</v>
       </c>
       <c r="R9" s="1">
         <f ca="1">D9+E9+F9+L9+NORMINV(RAND(),0,4)</f>
-        <v>11.678377522389681</v>
+        <v>6.5193891948064042</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2558,27 +2559,27 @@
       </c>
       <c r="M10" s="1">
         <f ca="1">D10+E10+F10+G10+NORMINV(RAND(),0,4)</f>
-        <v>42.388383052698423</v>
+        <v>38.977700805545602</v>
       </c>
       <c r="N10" s="1">
         <f ca="1">D10+E10+F10+H10+NORMINV(RAND(),0,4)</f>
-        <v>35.022183771411626</v>
+        <v>27.480402120046467</v>
       </c>
       <c r="O10" s="1">
         <f ca="1">D10+E10+F10+I10+NORMINV(RAND(),0,4)</f>
-        <v>28.441456275980553</v>
+        <v>28.094212005526508</v>
       </c>
       <c r="P10" s="1">
         <f ca="1">D10+E10+F10+J10+NORMINV(RAND(),0,4)</f>
-        <v>27.478354048824357</v>
+        <v>22.818059357476155</v>
       </c>
       <c r="Q10" s="1">
         <f ca="1">D10+E10+F10+K10+NORMINV(RAND(),0,4)</f>
-        <v>25.430484912492869</v>
+        <v>21.475486333683303</v>
       </c>
       <c r="R10" s="1">
         <f ca="1">D10+E10+F10+L10+NORMINV(RAND(),0,4)</f>
-        <v>14.178669320584749</v>
+        <v>13.173631811691394</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2620,27 +2621,27 @@
       </c>
       <c r="M11" s="1">
         <f ca="1">D11+E11+F11+G11+NORMINV(RAND(),0,4)</f>
-        <v>37.432463379758985</v>
+        <v>45.863378195833874</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">D11+E11+F11+H11+NORMINV(RAND(),0,4)</f>
-        <v>31.272065378092723</v>
+        <v>32.891501444067984</v>
       </c>
       <c r="O11" s="1">
         <f ca="1">D11+E11+F11+I11+NORMINV(RAND(),0,4)</f>
-        <v>26.868221391280002</v>
+        <v>22.746413837451193</v>
       </c>
       <c r="P11" s="1">
         <f ca="1">D11+E11+F11+J11+NORMINV(RAND(),0,4)</f>
-        <v>26.429765857423689</v>
+        <v>27.526668426436871</v>
       </c>
       <c r="Q11" s="1">
         <f ca="1">D11+E11+F11+K11+NORMINV(RAND(),0,4)</f>
-        <v>27.499196194242039</v>
+        <v>22.005410733510782</v>
       </c>
       <c r="R11" s="1">
         <f ca="1">D11+E11+F11+L11+NORMINV(RAND(),0,4)</f>
-        <v>10.461384456439472</v>
+        <v>21.742495754168587</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2682,27 +2683,27 @@
       </c>
       <c r="M12" s="1">
         <f ca="1">D12+E12+F12+G12+NORMINV(RAND(),0,4)</f>
-        <v>40.6392718236715</v>
+        <v>45.258350648598629</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">D12+E12+F12+H12+NORMINV(RAND(),0,4)</f>
-        <v>34.926014429108029</v>
+        <v>26.180109011298217</v>
       </c>
       <c r="O12" s="1">
         <f ca="1">D12+E12+F12+I12+NORMINV(RAND(),0,4)</f>
-        <v>26.993393416184521</v>
+        <v>25.136630451472847</v>
       </c>
       <c r="P12" s="1">
         <f ca="1">D12+E12+F12+J12+NORMINV(RAND(),0,4)</f>
-        <v>21.903731103362478</v>
+        <v>22.670281856432084</v>
       </c>
       <c r="Q12" s="1">
         <f ca="1">D12+E12+F12+K12+NORMINV(RAND(),0,4)</f>
-        <v>26.50039665858543</v>
+        <v>14.181979936877774</v>
       </c>
       <c r="R12" s="1">
         <f ca="1">D12+E12+F12+L12+NORMINV(RAND(),0,4)</f>
-        <v>15.0242238088018</v>
+        <v>14.098715021467543</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2744,27 +2745,27 @@
       </c>
       <c r="M13" s="1">
         <f ca="1">D13+E13+F13+G13+NORMINV(RAND(),0,4)</f>
-        <v>42.353479711225042</v>
+        <v>44.179796443173139</v>
       </c>
       <c r="N13" s="1">
         <f ca="1">D13+E13+F13+H13+NORMINV(RAND(),0,4)</f>
-        <v>31.202626894692209</v>
+        <v>24.246211909127396</v>
       </c>
       <c r="O13" s="1">
         <f ca="1">D13+E13+F13+I13+NORMINV(RAND(),0,4)</f>
-        <v>32.88638928548783</v>
+        <v>24.596123820733499</v>
       </c>
       <c r="P13" s="1">
         <f ca="1">D13+E13+F13+J13+NORMINV(RAND(),0,4)</f>
-        <v>27.93042630834254</v>
+        <v>27.141804978000515</v>
       </c>
       <c r="Q13" s="1">
         <f ca="1">D13+E13+F13+K13+NORMINV(RAND(),0,4)</f>
-        <v>21.323805791535101</v>
+        <v>32.913177944912071</v>
       </c>
       <c r="R13" s="1">
         <f ca="1">D13+E13+F13+L13+NORMINV(RAND(),0,4)</f>
-        <v>19.086060166774011</v>
+        <v>14.072269944767363</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2806,27 +2807,27 @@
       </c>
       <c r="M14" s="1">
         <f ca="1">D14+E14+F14+G14+NORMINV(RAND(),0,4)</f>
-        <v>47.860571528183144</v>
+        <v>49.130024402958917</v>
       </c>
       <c r="N14" s="1">
         <f ca="1">D14+E14+F14+H14+NORMINV(RAND(),0,4)</f>
-        <v>36.358241787121713</v>
+        <v>51.880826569111434</v>
       </c>
       <c r="O14" s="1">
         <f ca="1">D14+E14+F14+I14+NORMINV(RAND(),0,4)</f>
-        <v>34.196803602311981</v>
+        <v>37.222746840150606</v>
       </c>
       <c r="P14" s="1">
         <f ca="1">D14+E14+F14+J14+NORMINV(RAND(),0,4)</f>
-        <v>37.543844837152911</v>
+        <v>33.029339565566247</v>
       </c>
       <c r="Q14" s="1">
         <f ca="1">D14+E14+F14+K14+NORMINV(RAND(),0,4)</f>
-        <v>34.226604993420601</v>
+        <v>33.785236407075821</v>
       </c>
       <c r="R14" s="1">
         <f ca="1">D14+E14+F14+L14+NORMINV(RAND(),0,4)</f>
-        <v>28.06422446281092</v>
+        <v>26.867868603213243</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2868,27 +2869,27 @@
       </c>
       <c r="M15" s="1">
         <f ca="1">D15+E15+F15+G15+NORMINV(RAND(),0,4)</f>
-        <v>51.689912702344039</v>
+        <v>50.713118379722722</v>
       </c>
       <c r="N15" s="1">
         <f ca="1">D15+E15+F15+H15+NORMINV(RAND(),0,4)</f>
-        <v>40.354963242976048</v>
+        <v>49.879929523988515</v>
       </c>
       <c r="O15" s="1">
         <f ca="1">D15+E15+F15+I15+NORMINV(RAND(),0,4)</f>
-        <v>38.919692111032461</v>
+        <v>42.386650165463585</v>
       </c>
       <c r="P15" s="1">
         <f ca="1">D15+E15+F15+J15+NORMINV(RAND(),0,4)</f>
-        <v>38.212453467292292</v>
+        <v>31.232656743214214</v>
       </c>
       <c r="Q15" s="1">
         <f ca="1">D15+E15+F15+K15+NORMINV(RAND(),0,4)</f>
-        <v>29.374455158283201</v>
+        <v>26.141859422884693</v>
       </c>
       <c r="R15" s="1">
         <f ca="1">D15+E15+F15+L15+NORMINV(RAND(),0,4)</f>
-        <v>27.875826356740511</v>
+        <v>22.548610539393859</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -2930,27 +2931,27 @@
       </c>
       <c r="M16" s="1">
         <f ca="1">D16+E16+F16+G16+NORMINV(RAND(),0,4)</f>
-        <v>50.754728560237147</v>
+        <v>48.371291935758883</v>
       </c>
       <c r="N16" s="1">
         <f ca="1">D16+E16+F16+H16+NORMINV(RAND(),0,4)</f>
-        <v>46.321427741179662</v>
+        <v>45.048941251839629</v>
       </c>
       <c r="O16" s="1">
         <f ca="1">D16+E16+F16+I16+NORMINV(RAND(),0,4)</f>
-        <v>45.428467685032714</v>
+        <v>32.731056133161687</v>
       </c>
       <c r="P16" s="1">
         <f ca="1">D16+E16+F16+J16+NORMINV(RAND(),0,4)</f>
-        <v>36.471812738457977</v>
+        <v>34.967869116941849</v>
       </c>
       <c r="Q16" s="1">
         <f ca="1">D16+E16+F16+K16+NORMINV(RAND(),0,4)</f>
-        <v>26.52624279736262</v>
+        <v>35.862413278302881</v>
       </c>
       <c r="R16" s="1">
         <f ca="1">D16+E16+F16+L16+NORMINV(RAND(),0,4)</f>
-        <v>35.604505412740167</v>
+        <v>27.585920692666935</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -2992,27 +2993,27 @@
       </c>
       <c r="M17" s="1">
         <f ca="1">D17+E17+F17+G17+NORMINV(RAND(),0,4)</f>
-        <v>50.774795228594542</v>
+        <v>53.027835242016735</v>
       </c>
       <c r="N17" s="1">
         <f ca="1">D17+E17+F17+H17+NORMINV(RAND(),0,4)</f>
-        <v>36.101982130584489</v>
+        <v>44.323873804627809</v>
       </c>
       <c r="O17" s="1">
         <f ca="1">D17+E17+F17+I17+NORMINV(RAND(),0,4)</f>
-        <v>36.654617754025431</v>
+        <v>44.462485458390439</v>
       </c>
       <c r="P17" s="1">
         <f ca="1">D17+E17+F17+J17+NORMINV(RAND(),0,4)</f>
-        <v>33.436996710591103</v>
+        <v>30.020106563764273</v>
       </c>
       <c r="Q17" s="1">
         <f ca="1">D17+E17+F17+K17+NORMINV(RAND(),0,4)</f>
-        <v>42.087634630481332</v>
+        <v>30.59034282889931</v>
       </c>
       <c r="R17" s="1">
         <f ca="1">D17+E17+F17+L17+NORMINV(RAND(),0,4)</f>
-        <v>27.957046552314949</v>
+        <v>22.725443810163824</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -3054,27 +3055,27 @@
       </c>
       <c r="M18" s="1">
         <f ca="1">D18+E18+F18+G18+NORMINV(RAND(),0,4)</f>
-        <v>52.510349988975179</v>
+        <v>60.511538254334958</v>
       </c>
       <c r="N18" s="1">
         <f ca="1">D18+E18+F18+H18+NORMINV(RAND(),0,4)</f>
-        <v>47.791469531392949</v>
+        <v>54.632157792415171</v>
       </c>
       <c r="O18" s="1">
         <f ca="1">D18+E18+F18+I18+NORMINV(RAND(),0,4)</f>
-        <v>39.610304300668346</v>
+        <v>38.167950665750105</v>
       </c>
       <c r="P18" s="1">
         <f ca="1">D18+E18+F18+J18+NORMINV(RAND(),0,4)</f>
-        <v>38.099659936861187</v>
+        <v>35.625360127030447</v>
       </c>
       <c r="Q18" s="1">
         <f ca="1">D18+E18+F18+K18+NORMINV(RAND(),0,4)</f>
-        <v>27.160703254731921</v>
+        <v>34.657322047365192</v>
       </c>
       <c r="R18" s="1">
         <f ca="1">D18+E18+F18+L18+NORMINV(RAND(),0,4)</f>
-        <v>27.059510135034525</v>
+        <v>35.737773746958389</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -3116,27 +3117,27 @@
       </c>
       <c r="M19" s="1">
         <f ca="1">D19+E19+F19+G19+NORMINV(RAND(),0,4)</f>
-        <v>63.282484123312088</v>
+        <v>58.797304853617966</v>
       </c>
       <c r="N19" s="1">
         <f ca="1">D19+E19+F19+H19+NORMINV(RAND(),0,4)</f>
-        <v>41.827185862947324</v>
+        <v>53.79775478572212</v>
       </c>
       <c r="O19" s="1">
         <f ca="1">D19+E19+F19+I19+NORMINV(RAND(),0,4)</f>
-        <v>43.355551045205424</v>
+        <v>34.236002933300348</v>
       </c>
       <c r="P19" s="1">
         <f ca="1">D19+E19+F19+J19+NORMINV(RAND(),0,4)</f>
-        <v>28.256275801060582</v>
+        <v>32.818084996230773</v>
       </c>
       <c r="Q19" s="1">
         <f ca="1">D19+E19+F19+K19+NORMINV(RAND(),0,4)</f>
-        <v>32.312963940029789</v>
+        <v>29.321199861877666</v>
       </c>
       <c r="R19" s="1">
         <f ca="1">D19+E19+F19+L19+NORMINV(RAND(),0,4)</f>
-        <v>31.128658381844662</v>
+        <v>35.932878628481255</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3178,27 +3179,27 @@
       </c>
       <c r="M20" s="1">
         <f ca="1">D20+E20+F20+G20+NORMINV(RAND(),0,4)</f>
-        <v>49.115702397036735</v>
+        <v>53.375633038388628</v>
       </c>
       <c r="N20" s="1">
         <f ca="1">D20+E20+F20+H20+NORMINV(RAND(),0,4)</f>
-        <v>54.336960557787677</v>
+        <v>53.65228002045545</v>
       </c>
       <c r="O20" s="1">
         <f ca="1">D20+E20+F20+I20+NORMINV(RAND(),0,4)</f>
-        <v>35.749533343637474</v>
+        <v>42.333469671941586</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">D20+E20+F20+J20+NORMINV(RAND(),0,4)</f>
-        <v>37.520181678974133</v>
+        <v>41.54424043329368</v>
       </c>
       <c r="Q20" s="1">
         <f ca="1">D20+E20+F20+K20+NORMINV(RAND(),0,4)</f>
-        <v>31.547830797738719</v>
+        <v>26.996210003977261</v>
       </c>
       <c r="R20" s="1">
         <f ca="1">D20+E20+F20+L20+NORMINV(RAND(),0,4)</f>
-        <v>36.900979966526968</v>
+        <v>34.952881463596881</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3240,27 +3241,27 @@
       </c>
       <c r="M21" s="1">
         <f ca="1">D21+E21+F21+G21+NORMINV(RAND(),0,4)</f>
-        <v>69.47294580419991</v>
+        <v>61.423581990455759</v>
       </c>
       <c r="N21" s="1">
         <f ca="1">D21+E21+F21+H21+NORMINV(RAND(),0,4)</f>
-        <v>47.630016783508523</v>
+        <v>56.305258617083922</v>
       </c>
       <c r="O21" s="1">
         <f ca="1">D21+E21+F21+I21+NORMINV(RAND(),0,4)</f>
-        <v>43.181884402319639</v>
+        <v>37.663572489354678</v>
       </c>
       <c r="P21" s="1">
         <f ca="1">D21+E21+F21+J21+NORMINV(RAND(),0,4)</f>
-        <v>40.564615199305493</v>
+        <v>28.213122716813771</v>
       </c>
       <c r="Q21" s="1">
         <f ca="1">D21+E21+F21+K21+NORMINV(RAND(),0,4)</f>
-        <v>28.741940098281134</v>
+        <v>23.97546849326735</v>
       </c>
       <c r="R21" s="1">
         <f ca="1">D21+E21+F21+L21+NORMINV(RAND(),0,4)</f>
-        <v>35.037815994583219</v>
+        <v>32.556010757911785</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3302,27 +3303,27 @@
       </c>
       <c r="M22" s="1">
         <f ca="1">D22+E22+F22+G22+NORMINV(RAND(),0,4)</f>
-        <v>58.523709906434647</v>
+        <v>54.087889206727816</v>
       </c>
       <c r="N22" s="1">
         <f ca="1">D22+E22+F22+H22+NORMINV(RAND(),0,4)</f>
-        <v>50.877078161067452</v>
+        <v>50.701305081461825</v>
       </c>
       <c r="O22" s="1">
         <f ca="1">D22+E22+F22+I22+NORMINV(RAND(),0,4)</f>
-        <v>44.2234480166696</v>
+        <v>41.394919738974103</v>
       </c>
       <c r="P22" s="1">
         <f ca="1">D22+E22+F22+J22+NORMINV(RAND(),0,4)</f>
-        <v>32.768109846175044</v>
+        <v>30.772875256329087</v>
       </c>
       <c r="Q22" s="1">
         <f ca="1">D22+E22+F22+K22+NORMINV(RAND(),0,4)</f>
-        <v>31.849461229869068</v>
+        <v>25.144559487608316</v>
       </c>
       <c r="R22" s="1">
         <f ca="1">D22+E22+F22+L22+NORMINV(RAND(),0,4)</f>
-        <v>33.956013395070315</v>
+        <v>26.774212382034161</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3364,27 +3365,27 @@
       </c>
       <c r="M23" s="1">
         <f ca="1">D23+E23+F23+G23+NORMINV(RAND(),0,4)</f>
-        <v>60.380183028881667</v>
+        <v>55.659953162152256</v>
       </c>
       <c r="N23" s="1">
         <f ca="1">D23+E23+F23+H23+NORMINV(RAND(),0,4)</f>
-        <v>47.045285141304703</v>
+        <v>49.159741259720697</v>
       </c>
       <c r="O23" s="1">
         <f ca="1">D23+E23+F23+I23+NORMINV(RAND(),0,4)</f>
-        <v>39.868785558706698</v>
+        <v>41.644541243153334</v>
       </c>
       <c r="P23" s="1">
         <f ca="1">D23+E23+F23+J23+NORMINV(RAND(),0,4)</f>
-        <v>32.288947715736995</v>
+        <v>29.22275577816545</v>
       </c>
       <c r="Q23" s="1">
         <f ca="1">D23+E23+F23+K23+NORMINV(RAND(),0,4)</f>
-        <v>30.122491700390125</v>
+        <v>30.561373205160532</v>
       </c>
       <c r="R23" s="1">
         <f ca="1">D23+E23+F23+L23+NORMINV(RAND(),0,4)</f>
-        <v>32.414368279862458</v>
+        <v>25.687372759852437</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3426,27 +3427,27 @@
       </c>
       <c r="M24" s="1">
         <f ca="1">D24+E24+F24+G24+NORMINV(RAND(),0,4)</f>
-        <v>55.261637068849026</v>
+        <v>54.854166680773865</v>
       </c>
       <c r="N24" s="1">
         <f ca="1">D24+E24+F24+H24+NORMINV(RAND(),0,4)</f>
-        <v>48.117684294682633</v>
+        <v>52.528787811030455</v>
       </c>
       <c r="O24" s="1">
         <f ca="1">D24+E24+F24+I24+NORMINV(RAND(),0,4)</f>
-        <v>40.856129078418412</v>
+        <v>43.272405091006625</v>
       </c>
       <c r="P24" s="1">
         <f ca="1">D24+E24+F24+J24+NORMINV(RAND(),0,4)</f>
-        <v>31.707455446031034</v>
+        <v>35.612531076612598</v>
       </c>
       <c r="Q24" s="1">
         <f ca="1">D24+E24+F24+K24+NORMINV(RAND(),0,4)</f>
-        <v>25.30743569782911</v>
+        <v>30.301904713944612</v>
       </c>
       <c r="R24" s="1">
         <f ca="1">D24+E24+F24+L24+NORMINV(RAND(),0,4)</f>
-        <v>35.200687994618931</v>
+        <v>26.750367230795788</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3488,27 +3489,27 @@
       </c>
       <c r="M25" s="1">
         <f ca="1">D25+E25+F25+G25+NORMINV(RAND(),0,4)</f>
-        <v>50.363963359921669</v>
+        <v>55.354559872420865</v>
       </c>
       <c r="N25" s="1">
         <f ca="1">D25+E25+F25+H25+NORMINV(RAND(),0,4)</f>
-        <v>46.195408517140088</v>
+        <v>58.92797615994936</v>
       </c>
       <c r="O25" s="1">
         <f ca="1">D25+E25+F25+I25+NORMINV(RAND(),0,4)</f>
-        <v>46.795650459119734</v>
+        <v>38.582515418735653</v>
       </c>
       <c r="P25" s="1">
         <f ca="1">D25+E25+F25+J25+NORMINV(RAND(),0,4)</f>
-        <v>28.777650097142711</v>
+        <v>34.623369308320484</v>
       </c>
       <c r="Q25" s="1">
         <f ca="1">D25+E25+F25+K25+NORMINV(RAND(),0,4)</f>
-        <v>32.811840584944207</v>
+        <v>31.127924585283186</v>
       </c>
       <c r="R25" s="1">
         <f ca="1">D25+E25+F25+L25+NORMINV(RAND(),0,4)</f>
-        <v>38.20339350168976</v>
+        <v>32.87856862973797</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>4.5418319077779801</v>
+        <v>5.1169445042532473</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3596,19 +3597,19 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">C2+D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>24.731076444116081</v>
+        <v>27.479070088167621</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">C2+D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>29.728435668555051</v>
+        <v>30.595140180609562</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">C2+D2+G2+NORMINV(RAND(),0,4)</f>
-        <v>20.086999664798004</v>
+        <v>22.999107569490622</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">C2+D2+H2+NORMINV(RAND(),0,4)</f>
-        <v>21.900277253796084</v>
+        <v>20.987271166391</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3623,7 +3624,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>-1.6820652320504434</v>
+        <v>0.16753432608614638</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3639,19 +3640,19 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I13" ca="1" si="1">C3+D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>12.491269865577944</v>
+        <v>21.473223739996651</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J13" ca="1" si="2">C3+D3+F3+NORMINV(RAND(),0,4)</f>
-        <v>24.633507373692531</v>
+        <v>26.771220220445766</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K13" ca="1" si="3">C3+D3+G3+NORMINV(RAND(),0,4)</f>
-        <v>22.196390546999034</v>
+        <v>25.483017533239419</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L13" ca="1" si="4">C3+D3+H3+NORMINV(RAND(),0,4)</f>
-        <v>13.845553821228354</v>
+        <v>9.9834358624191637</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3666,7 +3667,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1559319898932374</v>
+        <v>5.8577179798871519</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3682,19 +3683,19 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.383360326973985</v>
+        <v>21.357229540464409</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29.521905965209452</v>
+        <v>40.574708909647171</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22.980074097390396</v>
+        <v>25.572218069484631</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.19249034627925</v>
+        <v>16.557547804593707</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3709,7 +3710,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.801766354867521</v>
+        <v>2.0644834285139524</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3725,19 +3726,19 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.434370635449206</v>
+        <v>35.059021245747928</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31.318388432127104</v>
+        <v>25.098599681471963</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.240850947559842</v>
+        <v>26.55697458626155</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25.642352716114097</v>
+        <v>21.473206814839305</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3752,7 +3753,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3659567772544881</v>
+        <v>2.066337893362479</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3768,19 +3769,19 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.870598915044166</v>
+        <v>12.939555087974009</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.567262077814796</v>
+        <v>29.020015046228821</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18.871828754634244</v>
+        <v>27.500805876766826</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.035283160770888</v>
+        <v>11.500493017150426</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3795,7 +3796,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9474897751318769</v>
+        <v>8.4985387687559992</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3811,19 +3812,19 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.919678658330788</v>
+        <v>32.017655945244222</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31.424645570862598</v>
+        <v>25.588891475835791</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.32155842142669</v>
+        <v>34.367270762713559</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.673002272081089</v>
+        <v>29.565869124279903</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,7 +3839,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4545932012432035</v>
+        <v>6.5542916404999474</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3854,19 +3855,19 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.67933572105126</v>
+        <v>20.719508805723105</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.326100619318716</v>
+        <v>36.377349019419512</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.548601783176473</v>
+        <v>24.374566899222092</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.504323067353077</v>
+        <v>23.991357111953892</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3881,7 +3882,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9480990151059867</v>
+        <v>5.4651391008652608</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3897,19 +3898,19 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.182761886623986</v>
+        <v>30.220809138986752</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.109958560564579</v>
+        <v>21.821914109587311</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.538108407718411</v>
+        <v>24.365681747146347</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.563066264260129</v>
+        <v>20.884386831926623</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3924,7 +3925,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1343474901605095</v>
+        <v>7.340001505267761</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -3940,19 +3941,19 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.53487419195438</v>
+        <v>32.108756673305706</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.648362564228236</v>
+        <v>38.973284565458997</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>21.790524012743315</v>
+        <v>24.857017085607655</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14.415992693894134</v>
+        <v>13.999985569804309</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3967,7 +3968,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9326254363968056</v>
+        <v>3.6046377033717074</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3983,19 +3984,19 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.262214694000964</v>
+        <v>31.790924991063701</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.376888700970639</v>
+        <v>25.751158193710733</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.001884363167942</v>
+        <v>25.266310038081535</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.192962220632975</v>
+        <v>19.917975924182176</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4010,7 +4011,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6490155693163979</v>
+        <v>6.440208237128612</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4026,19 +4027,19 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.402909630720934</v>
+        <v>29.243800149423176</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24.76636317154491</v>
+        <v>27.260645858128115</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22.730870491624049</v>
+        <v>26.953044363510234</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24.045796096025359</v>
+        <v>26.78133045210766</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4053,7 +4054,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7049840573816635</v>
+        <v>4.7889559914649755</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -4069,19 +4070,19 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.31410149314388</v>
+        <v>27.74135326481008</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.279705984951576</v>
+        <v>23.5500500267928</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.395783549919006</v>
+        <v>20.872843814660531</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.961808747999182</v>
+        <v>14.960198305186085</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4218,7 +4219,7 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>0.43237308752849657</v>
+        <v>6.1447141991260033</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -4237,19 +4238,19 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>34.115981925596735</v>
+        <v>41.297605202648</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>40.548270885256635</v>
+        <v>49.579849261021607</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>31.904591354099072</v>
+        <v>46.434093428009945</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>30.374428620515612</v>
+        <v>33.162983522907076</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4267,7 +4268,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>4.0610490988888079</v>
+        <v>8.6699970143348786</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -4286,19 +4287,19 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K37" ca="1" si="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>42.45354497861544</v>
+        <v>40.211143233840048</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L37" ca="1" si="2">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>42.840591343366739</v>
+        <v>39.552753877310117</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M37" ca="1" si="3">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>37.279033161508622</v>
+        <v>42.247879084364754</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N37" ca="1" si="4">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>33.622185729076044</v>
+        <v>42.047099527812577</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4316,7 +4317,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1951086244447113</v>
+        <v>-0.37081028721034226</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -4335,19 +4336,19 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.373318920316564</v>
+        <v>24.353139119304362</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.968846039161711</v>
+        <v>36.032165062549751</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.326930237392858</v>
+        <v>37.519686811001286</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.074636041922446</v>
+        <v>31.211029323795071</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4365,7 +4366,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2394427860675075</v>
+        <v>4.0089951789783829</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -4384,19 +4385,19 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.290655681820947</v>
+        <v>37.678150842005422</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.19508513281756</v>
+        <v>49.423330807815219</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.2447760127355</v>
+        <v>32.658898505907899</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.407034623650574</v>
+        <v>45.400053395254332</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4414,7 +4415,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4805952422277917</v>
+        <v>7.6007183039477395</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -4433,19 +4434,19 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.106857496307846</v>
+        <v>43.878909256726075</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.516757143411297</v>
+        <v>44.24301806434778</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.160961303326545</v>
+        <v>41.681029294986899</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.661579759257574</v>
+        <v>35.800233699281776</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4463,7 +4464,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0134504544220713</v>
+        <v>11.335573859094396</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -4482,19 +4483,19 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.65308246912636</v>
+        <v>44.618429893082265</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.921116171284709</v>
+        <v>54.201524449794107</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.374003061029754</v>
+        <v>33.100531988194504</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.34177259129466</v>
+        <v>38.514858424157858</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4512,7 +4513,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6824306286325106</v>
+        <v>8.7876216919276011</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -4531,19 +4532,19 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.137280019789024</v>
+        <v>43.780295646336853</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.917407407791174</v>
+        <v>46.015806064513754</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.269569830564826</v>
+        <v>43.293906811838447</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.499745319738508</v>
+        <v>41.626825280826409</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4561,7 +4562,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1980393624758214</v>
+        <v>6.1198448117488278</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -4580,19 +4581,19 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.132738379817624</v>
+        <v>44.531724570048567</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.619016769150448</v>
+        <v>46.536131666951164</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.739201164675372</v>
+        <v>45.114130761744946</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30.564176349815007</v>
+        <v>34.229570760515287</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4610,7 +4611,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7409094366485327</v>
+        <v>7.74803209302417</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -4629,19 +4630,19 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.615815886232149</v>
+        <v>44.177227944518201</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.569070708551983</v>
+        <v>45.060075728875177</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.082521937523417</v>
+        <v>38.261268428818028</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.096854997853455</v>
+        <v>40.47478933704766</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4659,7 +4660,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66751004148509185</v>
+        <v>4.9029517320211964</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -4678,19 +4679,19 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.705196464640267</v>
+        <v>39.205312689659422</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.866403777683033</v>
+        <v>45.787300676499463</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.123334827476157</v>
+        <v>39.411500962529736</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.90903881421859</v>
+        <v>34.177311292725882</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4708,7 +4709,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2429918065464465</v>
+        <v>5.7987522833955989</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -4727,19 +4728,19 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.71627997450333</v>
+        <v>38.451422374981838</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.505665185857936</v>
+        <v>46.672954080878405</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.026186966570364</v>
+        <v>39.916686940235294</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.082035063982104</v>
+        <v>34.346695711759217</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4757,7 +4758,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57353976159117792</v>
+        <v>7.6801940724976392</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -4776,19 +4777,19 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.73287496235762</v>
+        <v>38.625887475801491</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.750641029910959</v>
+        <v>46.695913250470056</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.807808145362728</v>
+        <v>44.261386589393787</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.995030762394627</v>
+        <v>32.111647331773391</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4806,7 +4807,7 @@
       </c>
       <c r="E14" s="1">
         <f ca="1">E2</f>
-        <v>0.43237308752849657</v>
+        <v>6.1447141991260033</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4825,19 +4826,19 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.600708711083172</v>
+        <v>50.304609280893864</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.48053832028895</v>
+        <v>54.300763114353444</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>59.54218000074713</v>
+        <v>64.214280653085595</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>49.444486878297646</v>
+        <v>54.470005408343532</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4855,7 +4856,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E25" ca="1" si="5">E3</f>
-        <v>4.0610490988888079</v>
+        <v>8.6699970143348786</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -4874,19 +4875,19 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.35472774582486</v>
+        <v>57.749695511497038</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.492932251466122</v>
+        <v>54.351196778316179</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.038199664540237</v>
+        <v>67.227821156901712</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>58.480645506216213</v>
+        <v>63.792362379191722</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4904,7 +4905,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1951086244447113</v>
+        <v>-0.37081028721034226</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -4923,19 +4924,19 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.441930991282042</v>
+        <v>52.481198376279217</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.258617129165806</v>
+        <v>51.254632721809401</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.201289978252603</v>
+        <v>55.691641725126331</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.498355554741167</v>
+        <v>47.4452269342477</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4953,7 +4954,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2394427860675075</v>
+        <v>4.0089951789783829</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -4972,19 +4973,19 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.13105647879533</v>
+        <v>44.990923511551344</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.546310068021164</v>
+        <v>52.507618488269912</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.453192331834792</v>
+        <v>56.73388053416253</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>48.859117641455391</v>
+        <v>45.647467378611815</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -5002,7 +5003,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4805952422277917</v>
+        <v>7.6007183039477395</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -5021,19 +5022,19 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.563400287312703</v>
+        <v>52.415664072580967</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.355826798548627</v>
+        <v>50.260700198499343</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.55534456392774</v>
+        <v>64.758362101692811</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.346511501134344</v>
+        <v>47.089263015823001</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5051,7 +5052,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0134504544220713</v>
+        <v>11.335573859094396</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -5070,19 +5071,19 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.495573562281436</v>
+        <v>55.447485426183015</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.714419197047157</v>
+        <v>59.620385607456001</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62.138295025953227</v>
+        <v>71.510106644615348</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>51.759390084133486</v>
+        <v>52.557426513459504</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -5100,7 +5101,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6824306286325106</v>
+        <v>8.7876216919276011</v>
       </c>
       <c r="F20">
         <v>25</v>
@@ -5119,19 +5120,19 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.833202685484991</v>
+        <v>46.34367876732896</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.509209454734659</v>
+        <v>63.480930296932208</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>57.199068697127785</v>
+        <v>66.914578810288504</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>53.708561445032522</v>
+        <v>57.550028798018893</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -5149,7 +5150,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1980393624758214</v>
+        <v>6.1198448117488278</v>
       </c>
       <c r="F21">
         <v>25</v>
@@ -5168,19 +5169,19 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.081975272904302</v>
+        <v>55.51018988619505</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.725264996407148</v>
+        <v>50.953921325345661</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58.681032502140987</v>
+        <v>54.577070127760557</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.027161475034575</v>
+        <v>49.101232140820564</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -5198,7 +5199,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7409094366485327</v>
+        <v>7.74803209302417</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -5217,19 +5218,19 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.372559810498025</v>
+        <v>48.443327344252666</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>64.867578443116471</v>
+        <v>65.885527475182599</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.44020928202432</v>
+        <v>61.130669535412572</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>51.634926449740902</v>
+        <v>55.748036826288995</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -5247,7 +5248,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66751004148509185</v>
+        <v>4.9029517320211964</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -5266,19 +5267,19 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.733454237913385</v>
+        <v>43.168962549707295</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.802334488839513</v>
+        <v>58.375567467391825</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.766254628329051</v>
+        <v>56.160245240847814</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.711521038885401</v>
+        <v>52.888733974033656</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5296,7 +5297,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2429918065464465</v>
+        <v>5.7987522833955989</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -5315,19 +5316,19 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.237455268698014</v>
+        <v>47.662558467636657</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.028968432945739</v>
+        <v>51.220616842102764</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62.702969487884467</v>
+        <v>55.966006424194894</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>48.987527990009248</v>
+        <v>52.822173488858795</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5345,7 +5346,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57353976159117792</v>
+        <v>7.6801940724976392</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -5364,19 +5365,19 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.024171335425159</v>
+        <v>48.759123586355344</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.850463894193936</v>
+        <v>64.346607687823493</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.409281099240651</v>
+        <v>61.40988445796453</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45.841624546985571</v>
+        <v>52.574845300963574</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5394,7 +5395,7 @@
       </c>
       <c r="E26" s="1">
         <f ca="1">E2</f>
-        <v>0.43237308752849657</v>
+        <v>6.1447141991260033</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -5413,19 +5414,19 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.607378536249676</v>
+        <v>43.348104548688383</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.669366727554582</v>
+        <v>50.928598749379432</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.633917744184281</v>
+        <v>39.601201402539886</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.460978627942154</v>
+        <v>32.366088770047327</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -5443,7 +5444,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ref="E27:E37" ca="1" si="6">E3</f>
-        <v>4.0610490988888079</v>
+        <v>8.6699970143348786</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -5462,19 +5463,19 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.66307683326702</v>
+        <v>49.525831651255608</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.966350841314835</v>
+        <v>58.522372986253515</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.180595594010335</v>
+        <v>41.663997458250847</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.426420283749245</v>
+        <v>44.739368228837947</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5492,7 +5493,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.1951086244447113</v>
+        <v>-0.37081028721034226</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -5511,19 +5512,19 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.486066668173102</v>
+        <v>38.470899087895361</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.223631537865678</v>
+        <v>48.399939847770703</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.843386028405952</v>
+        <v>36.898571645264816</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.404698650111406</v>
+        <v>40.483364785688252</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5541,7 +5542,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2394427860675075</v>
+        <v>4.0089951789783829</v>
       </c>
       <c r="F29">
         <v>20</v>
@@ -5560,19 +5561,19 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.791915083272904</v>
+        <v>46.275341428642975</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.500584275428793</v>
+        <v>48.777049740126479</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.049317023776631</v>
+        <v>49.943948810037085</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.254027409690963</v>
+        <v>29.082476862732442</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5590,7 +5591,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4805952422277917</v>
+        <v>7.6007183039477395</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -5609,19 +5610,19 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.679463303647353</v>
+        <v>50.246695745221132</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.951840374872212</v>
+        <v>54.34827323393565</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.878871813522473</v>
+        <v>41.647226499615201</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.531860111374321</v>
+        <v>38.89710619722608</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5639,7 +5640,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0134504544220713</v>
+        <v>11.335573859094396</v>
       </c>
       <c r="F31">
         <v>20</v>
@@ -5658,19 +5659,19 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.963254130740403</v>
+        <v>48.606723513357885</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.304396109901752</v>
+        <v>59.530247974211349</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.206562161919997</v>
+        <v>53.685566909275622</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.42361925004468</v>
+        <v>37.781667618996927</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5688,7 +5689,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6824306286325106</v>
+        <v>8.7876216919276011</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -5707,19 +5708,19 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.460054701516718</v>
+        <v>54.025575207519502</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.638841045449148</v>
+        <v>55.10767703923284</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.209047058372704</v>
+        <v>45.832974459574579</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.779307696538364</v>
+        <v>42.155006252573017</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5737,7 +5738,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1980393624758214</v>
+        <v>6.1198448117488278</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -5756,19 +5757,19 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.787531251279759</v>
+        <v>42.92271558765075</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.837976391224167</v>
+        <v>46.57488921659413</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.65753281716102</v>
+        <v>48.015039380902756</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.957783782215365</v>
+        <v>38.76657715834542</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5786,7 +5787,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7409094366485327</v>
+        <v>7.74803209302417</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -5805,19 +5806,19 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.694711830233558</v>
+        <v>49.880685284276375</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.47671297221838</v>
+        <v>44.797106839869656</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.130455015024005</v>
+        <v>47.615508087198521</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.206302679605397</v>
+        <v>34.928831928406247</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -5835,7 +5836,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66751004148509185</v>
+        <v>4.9029517320211964</v>
       </c>
       <c r="F35">
         <v>20</v>
@@ -5854,19 +5855,19 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.549464130254265</v>
+        <v>47.161062615947358</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.875830173438743</v>
+        <v>47.83978675773492</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.852114607042054</v>
+        <v>40.653349852059563</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30.026604610909622</v>
+        <v>35.024284169873731</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -5884,7 +5885,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2429918065464465</v>
+        <v>5.7987522833955989</v>
       </c>
       <c r="F36">
         <v>20</v>
@@ -5903,19 +5904,19 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.035936757853023</v>
+        <v>52.912173816695713</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.235501371741066</v>
+        <v>43.09273358161245</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.011455951571854</v>
+        <v>42.46226222740885</v>
       </c>
       <c r="N36" s="1">
         <f ca="1">D36+E36+F36+J36+NORMINV(RAND(),0,4)</f>
-        <v>32.334810424069573</v>
+        <v>34.016385609158007</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5933,7 +5934,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57353976159117792</v>
+        <v>7.6801940724976392</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -5952,19 +5953,19 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.7764094696652</v>
+        <v>47.935770916277733</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.664388217031302</v>
+        <v>52.662430769080892</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.626262197448987</v>
+        <v>43.56172358165454</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30.431468789897114</v>
+        <v>41.858496854077018</v>
       </c>
     </row>
   </sheetData>
@@ -6053,7 +6054,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -6075,19 +6076,19 @@
       </c>
       <c r="M2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+I2+NORMINV(RAND(),0,4)</f>
-        <v>39.601220725745279</v>
+        <v>46.201245033272869</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+J2+NORMINV(RAND(),0,4)</f>
-        <v>48.523244902458551</v>
+        <v>56.974081452155197</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+K2+NORMINV(RAND(),0,4)</f>
-        <v>35.567516734403888</v>
+        <v>46.163811063896141</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+L2+NORMINV(RAND(),0,4)</f>
-        <v>22.717327074525024</v>
+        <v>27.188341178690447</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6108,7 +6109,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -6130,19 +6131,19 @@
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M66" ca="1" si="1">$E3+$F3+$G3+$H3+I3+NORMINV(RAND(),0,4)</f>
-        <v>34.779509073688686</v>
+        <v>44.460433375824095</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N66" ca="1" si="2">$E3+$F3+$G3+$H3+J3+NORMINV(RAND(),0,4)</f>
-        <v>47.100498525329471</v>
+        <v>52.982769264638634</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O66" ca="1" si="3">$E3+$F3+$G3+$H3+K3+NORMINV(RAND(),0,4)</f>
-        <v>42.107734076312987</v>
+        <v>45.076183917516339</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P66" ca="1" si="4">$E3+$F3+$G3+$H3+L3+NORMINV(RAND(),0,4)</f>
-        <v>34.744854771724988</v>
+        <v>27.622659005809723</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6163,7 +6164,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -6185,19 +6186,19 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.159493015314659</v>
+        <v>51.609215363062347</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.471037293316684</v>
+        <v>52.241219158042142</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.918854962378035</v>
+        <v>56.057950876785128</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.476280227522558</v>
+        <v>38.157768189137578</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6218,7 +6219,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -6240,19 +6241,19 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.999026961709191</v>
+        <v>44.345623598299397</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.0436795105377</v>
+        <v>53.716926234838049</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.704814437376655</v>
+        <v>44.226283782217486</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.248478129309539</v>
+        <v>32.149653683009554</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6273,7 +6274,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6295,19 +6296,19 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.068642659543968</v>
+        <v>47.881053736284336</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.121970129393361</v>
+        <v>54.411872584245373</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.044369799356964</v>
+        <v>47.168011546517086</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.492850018908392</v>
+        <v>32.526850551802632</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6328,7 +6329,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -6350,19 +6351,19 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.864541418329779</v>
+        <v>47.417498751261604</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.918570503362446</v>
+        <v>54.76532722592421</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.324327937626066</v>
+        <v>43.269705013801044</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.784501883622827</v>
+        <v>26.863070417600561</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6383,7 +6384,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -6405,19 +6406,19 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.025466458652808</v>
+        <v>43.997751521712345</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.9393083422665</v>
+        <v>45.980600334410681</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.613834245867672</v>
+        <v>39.72765925801324</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30.263698248345769</v>
+        <v>27.791115248371966</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6438,7 +6439,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -6460,19 +6461,19 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.303009026486293</v>
+        <v>44.018914957553974</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.385191387318969</v>
+        <v>54.857542220595967</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.96584545745413</v>
+        <v>50.989011382815136</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.423510854195094</v>
+        <v>36.074275356803398</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6493,7 +6494,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6515,19 +6516,19 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.556197109741348</v>
+        <v>52.686769076776471</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.107701207713674</v>
+        <v>55.503481814091366</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.860045508458086</v>
+        <v>45.202941830363088</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.072561145413978</v>
+        <v>35.271668602784267</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6548,7 +6549,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -6570,19 +6571,19 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.729216422613149</v>
+        <v>42.269994073993374</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.539656794562511</v>
+        <v>52.125298143372206</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.003174764020294</v>
+        <v>50.855420113143744</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.981787852712557</v>
+        <v>28.514080914563252</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6603,7 +6604,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -6625,19 +6626,19 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.815438738571018</v>
+        <v>44.89254801991995</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.396962439330103</v>
+        <v>55.491964762301329</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.609702302357526</v>
+        <v>54.30775142256423</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.144721572357511</v>
+        <v>27.543229061098938</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6658,7 +6659,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -6680,19 +6681,19 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.117415925910535</v>
+        <v>51.04523860054632</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.445615213953204</v>
+        <v>58.291751094351483</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.470433045638423</v>
+        <v>45.488102309140992</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.721194112113231</v>
+        <v>29.769551167963826</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6713,7 +6714,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">F2</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G14">
         <v>25</v>
@@ -6735,19 +6736,19 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.209817100161885</v>
+        <v>57.025513685510248</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.219227574651121</v>
+        <v>55.212768715765328</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.967259315343767</v>
+        <v>61.310382004491089</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.191910760358461</v>
+        <v>59.438935176825659</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6768,7 +6769,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15:F25" ca="1" si="5">F3</f>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G15">
         <v>25</v>
@@ -6790,19 +6791,19 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56.566703983047674</v>
+        <v>58.326782694334355</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.677820800795658</v>
+        <v>62.535402163692048</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>73.260935804296167</v>
+        <v>68.497323420534684</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>57.625931341755688</v>
+        <v>56.464038536468699</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6823,7 +6824,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -6845,19 +6846,19 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58.385593790400961</v>
+        <v>57.408136161165999</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.048587127199141</v>
+        <v>60.374905017406164</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.594102333897112</v>
+        <v>76.043802888769761</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.801238701974029</v>
+        <v>58.966300435299239</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6878,7 +6879,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -6900,19 +6901,19 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.869812046440003</v>
+        <v>55.354674987870723</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.508696938730395</v>
+        <v>62.662703331579166</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.178583410532525</v>
+        <v>64.46063424557758</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>65.144673688488609</v>
+        <v>58.730680242544537</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6933,7 +6934,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -6955,19 +6956,19 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.781882100774546</v>
+        <v>60.725119249445918</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.912731594184812</v>
+        <v>62.677867129637271</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.233110200292302</v>
+        <v>62.786125959581064</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56.58437434785845</v>
+        <v>67.871533679190904</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6988,7 +6989,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -7010,19 +7011,19 @@
       </c>
       <c r="M19" s="1">
         <f ca="1">$E19+$F19+$G19+$H19+I19+NORMINV(RAND(),0,4)</f>
-        <v>50.139217152645188</v>
+        <v>56.828326744322617</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.719522294220496</v>
+        <v>60.799793145160145</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>66.69671823835219</v>
+        <v>69.536957821282442</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56.21493753452642</v>
+        <v>60.535785845599236</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7043,7 +7044,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -7065,19 +7066,19 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.201625059006126</v>
+        <v>49.133006893643589</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.889993243036798</v>
+        <v>63.07548520323526</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65.5815361308902</v>
+        <v>57.467739309158098</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>62.863173346573987</v>
+        <v>53.816598214118578</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -7098,7 +7099,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G21">
         <v>25</v>
@@ -7120,19 +7121,19 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.046986864922346</v>
+        <v>59.423249242193101</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.831678700487984</v>
+        <v>61.056092510285602</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>58.250920891963261</v>
+        <v>66.246251595400977</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>59.273921647304888</v>
+        <v>60.981647402595136</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -7153,7 +7154,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G22">
         <v>25</v>
@@ -7175,19 +7176,19 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.488341416397226</v>
+        <v>60.668580400880892</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.833635945629837</v>
+        <v>63.437294514469293</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>68.067775656170696</v>
+        <v>70.616180815536779</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>66.09685176458143</v>
+        <v>67.762393710431766</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -7208,7 +7209,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G23">
         <v>25</v>
@@ -7230,19 +7231,19 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.345974194782968</v>
+        <v>47.457521167847894</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.327559756494523</v>
+        <v>62.218943529610677</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.750155482169404</v>
+        <v>69.224123229869662</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61.050028476794907</v>
+        <v>54.393180930911385</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -7263,7 +7264,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -7285,19 +7286,19 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.77907676383829</v>
+        <v>62.775855478928221</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.374664160113824</v>
+        <v>66.441412183750273</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.382232636857644</v>
+        <v>63.288796725682005</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>62.500259357744298</v>
+        <v>61.589056404049757</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7318,7 +7319,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -7340,19 +7341,19 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58.579276651961067</v>
+        <v>57.894963569346096</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.22853468435563</v>
+        <v>66.547195344020452</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60.694067682286274</v>
+        <v>72.959186773774775</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>59.867284417359528</v>
+        <v>64.692076761873963</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -7373,7 +7374,7 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">F2</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -7395,19 +7396,19 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.395653590576096</v>
+        <v>54.048200918176335</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.863514912193452</v>
+        <v>59.424271969386773</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.280653538041918</v>
+        <v>40.939941368094786</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.270881065437493</v>
+        <v>34.395124412570347</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -7428,7 +7429,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ref="F27:F37" ca="1" si="6">F3</f>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -7450,19 +7451,19 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.405972364152568</v>
+        <v>48.046189387304764</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.664284728075998</v>
+        <v>56.95415597384963</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.975937879651951</v>
+        <v>36.949450738920817</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.237898429526794</v>
+        <v>43.663057786969134</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -7483,7 +7484,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -7505,19 +7506,19 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.276401611848641</v>
+        <v>54.234390079864376</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.48742491209449</v>
+        <v>58.252045035359636</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.860290904529471</v>
+        <v>48.142531552225051</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.537577439551242</v>
+        <v>55.248114500984357</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -7538,7 +7539,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -7560,19 +7561,19 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.441324589293238</v>
+        <v>43.042607075945803</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57.607650697806449</v>
+        <v>55.041566810679015</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.05106315694578</v>
+        <v>48.342523682218051</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.505105142643927</v>
+        <v>42.794171954303998</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -7593,7 +7594,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -7615,19 +7616,19 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.985387380173258</v>
+        <v>48.250501408445579</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.195986734192246</v>
+        <v>61.29620873756658</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.328761826188085</v>
+        <v>48.858104100987433</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.549375255114583</v>
+        <v>43.563870647229727</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -7648,7 +7649,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -7670,19 +7671,19 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.012566967426181</v>
+        <v>49.871724544859156</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.728941986337446</v>
+        <v>51.179371957478011</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.107976835445442</v>
+        <v>46.356065013495041</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.782121208564178</v>
+        <v>41.581951614700216</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7703,7 +7704,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -7725,19 +7726,19 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.492494295531834</v>
+        <v>47.595831806374903</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.847829425260855</v>
+        <v>61.929404817695179</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.462987943129939</v>
+        <v>36.665361234841036</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.597754130520343</v>
+        <v>28.305219539644966</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -7758,7 +7759,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -7780,19 +7781,19 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.209826692785747</v>
+        <v>58.440859242057485</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.626150312536431</v>
+        <v>54.65517127163092</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.941186349572924</v>
+        <v>50.135569563354906</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.599081986739236</v>
+        <v>39.78922688670648</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -7813,7 +7814,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -7835,19 +7836,19 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.291379847435387</v>
+        <v>51.222971307383808</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67.272822291821342</v>
+        <v>56.462053193614643</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.570453272987713</v>
+        <v>49.964756477717053</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>48.147147875303084</v>
+        <v>44.979125016503431</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -7868,7 +7869,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -7890,19 +7891,19 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.248973804660203</v>
+        <v>44.677659473623422</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.909447001071321</v>
+        <v>51.955750035035628</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.046005760876234</v>
+        <v>41.40094786096477</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.835748985552996</v>
+        <v>40.123061544798787</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -7923,7 +7924,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -7945,19 +7946,19 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.34667740247032</v>
+        <v>57.924321019104887</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.024125231190595</v>
+        <v>55.900832423018436</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.139092623899963</v>
+        <v>43.969490026858267</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.478819262476335</v>
+        <v>33.455925880222601</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7978,7 +7979,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G37">
         <v>20</v>
@@ -8000,19 +8001,19 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.657206451872831</v>
+        <v>53.646592408949786</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.717517201226883</v>
+        <v>67.062718183960584</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.823335210967343</v>
+        <v>45.283218586210751</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.641635435406613</v>
+        <v>47.191490503561546</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -8033,7 +8034,7 @@
       </c>
       <c r="F38" s="1">
         <f ca="1">F2</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -8055,19 +8056,19 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.212322701031802</v>
+        <v>27.704915659712167</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.506188029746092</v>
+        <v>36.740667030296677</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17.024902906824607</v>
+        <v>35.419827552376503</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0472076331632971</v>
+        <v>13.982606025401784</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -8088,7 +8089,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ref="F39:F73" ca="1" si="7">F3</f>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -8110,19 +8111,19 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.407067948860018</v>
+        <v>30.251531055206939</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.715318348435318</v>
+        <v>36.816923270236856</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18.560788144250537</v>
+        <v>27.444081481013637</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.381836831574125</v>
+        <v>17.840423079084697</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8143,7 +8144,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G40">
         <v>15</v>
@@ -8165,19 +8166,19 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.548175466635968</v>
+        <v>43.516777973580183</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.283975209705531</v>
+        <v>39.884190935653585</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.068642051816411</v>
+        <v>42.707462774205624</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10.672863549795991</v>
+        <v>17.909627762722973</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -8198,7 +8199,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -8220,19 +8221,19 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.845488554427611</v>
+        <v>30.023291505403758</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.623623036685252</v>
+        <v>42.857400158416318</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.524899264539414</v>
+        <v>33.162182554394398</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12.303842673272566</v>
+        <v>17.862779577087544</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -8253,7 +8254,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -8275,19 +8276,19 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.844967907391144</v>
+        <v>29.7911744279583</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.874784624572371</v>
+        <v>38.713571611871515</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.518745804228956</v>
+        <v>27.63751909968909</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14.705683660204139</v>
+        <v>9.3513774933285809</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8308,7 +8309,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G43">
         <v>15</v>
@@ -8330,19 +8331,19 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.661021682590508</v>
+        <v>41.966599657912177</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.242214403099382</v>
+        <v>40.337668396935882</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>28.377528657508552</v>
+        <v>31.488022005757593</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8.8220696581941489</v>
+        <v>11.025967132757348</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8363,7 +8364,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -8385,19 +8386,19 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.371758073298672</v>
+        <v>28.204028859853906</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34.190662783463573</v>
+        <v>32.052317339395934</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.452687219198079</v>
+        <v>30.327445500191534</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.117210047532282</v>
+        <v>12.663528108063069</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -8418,7 +8419,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G45">
         <v>15</v>
@@ -8440,19 +8441,19 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.06443264621889</v>
+        <v>30.81846399331987</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.215879718172552</v>
+        <v>36.410133010169631</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.240784512541012</v>
+        <v>36.029642223816438</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12.281549078990309</v>
+        <v>22.797552488768464</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -8473,7 +8474,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -8495,19 +8496,19 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.314206810531054</v>
+        <v>31.615820986829306</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.04248342618088</v>
+        <v>41.312591321503547</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.679369377479674</v>
+        <v>34.16334561754708</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.111367665050544</v>
+        <v>15.148874621367941</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -8528,7 +8529,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -8550,19 +8551,19 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.717344008838186</v>
+        <v>23.681409007859301</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.404418855853677</v>
+        <v>30.42272980380789</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.925924729839693</v>
+        <v>31.917710091742084</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.434743940945497</v>
+        <v>17.78097253003757</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8583,7 +8584,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -8605,19 +8606,19 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.021142301224074</v>
+        <v>28.220421181931474</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.296800967009759</v>
+        <v>32.641242790427889</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.195712768003247</v>
+        <v>34.968232127348784</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.311724805448147</v>
+        <v>19.393107968258473</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8638,7 +8639,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G49">
         <v>15</v>
@@ -8660,19 +8661,19 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.338192916283049</v>
+        <v>37.324638090004321</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34.640393965012805</v>
+        <v>40.273166238416508</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>29.807890279835942</v>
+        <v>36.828791652447507</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.320657808869443</v>
+        <v>17.712311009947612</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8693,7 +8694,7 @@
       </c>
       <c r="F50" s="1">
         <f ca="1">F14</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G50">
         <v>25</v>
@@ -8715,19 +8716,19 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.960717750556604</v>
+        <v>34.915628474085942</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.964552773629229</v>
+        <v>42.575173827119066</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.324110544191612</v>
+        <v>47.477398995459815</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.841090004515827</v>
+        <v>36.239410161048632</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -8748,7 +8749,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G51">
         <v>25</v>
@@ -8770,19 +8771,19 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.162762786284524</v>
+        <v>41.242721983474247</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.424423232673135</v>
+        <v>40.819191321951266</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.516536600252564</v>
+        <v>54.514184541191192</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.30324683191791</v>
+        <v>47.11413511886019</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8803,7 +8804,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G52">
         <v>25</v>
@@ -8825,19 +8826,19 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.033671472671784</v>
+        <v>50.221602971618111</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.728454484424461</v>
+        <v>51.4204468039893</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.437453082915411</v>
+        <v>56.290992088091677</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.627649781502349</v>
+        <v>42.174940681751892</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -8858,7 +8859,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -8880,19 +8881,19 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.597054816218915</v>
+        <v>44.134079402022529</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.960541382424488</v>
+        <v>43.224096399301658</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.512850616080357</v>
+        <v>53.275794763404967</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.811427111552376</v>
+        <v>37.635250141264471</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -8913,7 +8914,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G54">
         <v>25</v>
@@ -8935,19 +8936,19 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.644808786122468</v>
+        <v>45.478468161605157</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.198609399564454</v>
+        <v>52.87348754279634</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.228612619197307</v>
+        <v>52.431357111460599</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46.411918992880196</v>
+        <v>48.350082186911592</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -8968,7 +8969,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G55">
         <v>25</v>
@@ -8990,19 +8991,19 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.930595182831183</v>
+        <v>38.219215127027567</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.824005591505227</v>
+        <v>43.594640505189787</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.616161169228477</v>
+        <v>49.339495147560591</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.912300297658653</v>
+        <v>40.726007051905086</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -9023,7 +9024,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -9045,19 +9046,19 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.264601340911618</v>
+        <v>36.670752386045478</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.57685804894674</v>
+        <v>38.467268703116673</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.911669380094189</v>
+        <v>50.492399820577404</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.219792453221352</v>
+        <v>39.72554747438349</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -9078,7 +9079,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G57">
         <v>25</v>
@@ -9100,19 +9101,19 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.49442389571113</v>
+        <v>36.707913951478346</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.430301526975974</v>
+        <v>55.188430446997877</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.055886432325067</v>
+        <v>56.440748172502332</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.623228543237268</v>
+        <v>45.993027443430144</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -9133,7 +9134,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G58">
         <v>25</v>
@@ -9155,19 +9156,19 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.755544520466401</v>
+        <v>44.770518939714933</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.968535144745751</v>
+        <v>53.237418747229476</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.984683122713477</v>
+        <v>54.644517803926163</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.207716177505233</v>
+        <v>43.73584861398799</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -9188,7 +9189,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G59">
         <v>25</v>
@@ -9210,19 +9211,19 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.828813858952465</v>
+        <v>38.079956832504791</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.349912270687703</v>
+        <v>36.768877439519549</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.105727816116868</v>
+        <v>41.986865571318546</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45.282668145749724</v>
+        <v>39.334661996730063</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -9243,7 +9244,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -9265,19 +9266,19 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.680598258396131</v>
+        <v>38.130020968851504</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.959707780647008</v>
+        <v>48.435652797799335</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.893138528471049</v>
+        <v>55.732603543659877</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.153013770484144</v>
+        <v>38.471789027461611</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -9298,7 +9299,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G61">
         <v>25</v>
@@ -9320,19 +9321,19 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.32223578112805</v>
+        <v>39.681271826742716</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.057118666381989</v>
+        <v>45.213844651025155</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.851033364870204</v>
+        <v>51.133526104117252</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.843073299671666</v>
+        <v>44.770960865181522</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -9353,7 +9354,7 @@
       </c>
       <c r="F62" s="1">
         <f ca="1">F26</f>
-        <v>0.59963943991403301</v>
+        <v>5.0589735386731167</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -9375,19 +9376,19 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.425086668110044</v>
+        <v>38.584509186370255</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.592673501403887</v>
+        <v>42.983088826096811</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.779032297321422</v>
+        <v>29.591183234098885</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11.949598946910005</v>
+        <v>19.989866330789788</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -9408,7 +9409,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2101106891851297</v>
+        <v>6.2029953168688028</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -9430,19 +9431,19 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.993674792118469</v>
+        <v>38.012443935377306</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37.064801673838488</v>
+        <v>39.445405445061724</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.047833534988996</v>
+        <v>31.179131477538558</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24.001063241797024</v>
+        <v>10.438271289236823</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -9463,7 +9464,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.4281275437323582</v>
+        <v>10.039801898918244</v>
       </c>
       <c r="G64">
         <v>20</v>
@@ -9485,19 +9486,19 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.113731078317549</v>
+        <v>44.002844413987013</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.548689584969424</v>
+        <v>43.296457569298838</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.190648020592068</v>
+        <v>30.926245452659813</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.063562470138081</v>
+        <v>16.45961878258553</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -9518,7 +9519,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4435734432653682</v>
+        <v>6.3924133932826877</v>
       </c>
       <c r="G65">
         <v>20</v>
@@ -9540,19 +9541,19 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.586822048571072</v>
+        <v>37.712456739553872</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.936318314085973</v>
+        <v>42.159561321130624</v>
       </c>
       <c r="O65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.36816445352791</v>
+        <v>34.605249066358851</v>
       </c>
       <c r="P65" s="1">
         <f ca="1">$E65+$F65+$G65+$H65+L65+NORMINV(RAND(),0,4)</f>
-        <v>21.628609880299358</v>
+        <v>26.527962249699812</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -9573,7 +9574,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9430962730500392</v>
+        <v>7.9142229860579674</v>
       </c>
       <c r="G66">
         <v>20</v>
@@ -9595,19 +9596,19 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.998989735109873</v>
+        <v>39.588737498482075</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35.221103100112089</v>
+        <v>46.186363130162462</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19.887547210398949</v>
+        <v>37.139146370567921</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.314572252559211</v>
+        <v>15.64205677639467</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -9628,7 +9629,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7233456864217032</v>
+        <v>6.0829964941215806</v>
       </c>
       <c r="G67">
         <v>20</v>
@@ -9650,19 +9651,19 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ref="M67:M73" ca="1" si="8">$E67+$F67+$G67+$H67+I67+NORMINV(RAND(),0,4)</f>
-        <v>31.494712221544805</v>
+        <v>36.280094566409531</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N73" ca="1" si="9">$E67+$F67+$G67+$H67+J67+NORMINV(RAND(),0,4)</f>
-        <v>39.085772805212038</v>
+        <v>41.026206972077787</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" ref="O67:O73" ca="1" si="10">$E67+$F67+$G67+$H67+K67+NORMINV(RAND(),0,4)</f>
-        <v>25.296380924601714</v>
+        <v>25.506218885307938</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ref="P67:P73" ca="1" si="11">$E67+$F67+$G67+$H67+L67+NORMINV(RAND(),0,4)</f>
-        <v>23.317704287959263</v>
+        <v>18.287323680659117</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -9683,7 +9684,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8867068134583445</v>
+        <v>3.7583841703545691</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -9705,19 +9706,19 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>40.264530698004343</v>
+        <v>27.863127994393711</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>41.410859284972737</v>
+        <v>39.990406470446246</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>31.215730749648245</v>
+        <v>28.220507840575074</v>
       </c>
       <c r="P68" s="1">
         <f ca="1">$E68+$F68+$G68+$H68+L68+NORMINV(RAND(),0,4)</f>
-        <v>22.105028594686388</v>
+        <v>25.665704725034285</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -9738,7 +9739,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1866041349936358</v>
+        <v>8.2482096620193381</v>
       </c>
       <c r="G69">
         <v>20</v>
@@ -9760,19 +9761,19 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>34.463360684928126</v>
+        <v>39.820193332146239</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>38.700109483938711</v>
+        <v>42.859252680312068</v>
       </c>
       <c r="O69" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>29.01274315856406</v>
+        <v>38.503802808905242</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>13.552851523855452</v>
+        <v>18.201648845403611</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -9793,7 +9794,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.1299471847689855</v>
+        <v>9.0326484961298839</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -9815,19 +9816,19 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>32.164842989974474</v>
+        <v>35.523600420311737</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>45.989201352614913</v>
+        <v>47.594296971972121</v>
       </c>
       <c r="O70" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>32.953239740754952</v>
+        <v>28.247192768715028</v>
       </c>
       <c r="P70" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.340114031091595</v>
+        <v>31.17108958330051</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -9848,7 +9849,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1768556221898727</v>
+        <v>4.2142513036708849</v>
       </c>
       <c r="G71">
         <v>20</v>
@@ -9870,19 +9871,19 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>32.870046164267237</v>
+        <v>30.829827592223268</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>39.276616243798664</v>
+        <v>38.953975382453592</v>
       </c>
       <c r="O71" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>34.509707334350757</v>
+        <v>28.432630334237242</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>21.99095957171939</v>
+        <v>18.729507006317053</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -9903,7 +9904,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0552085651633174</v>
+        <v>7.2391686447676769</v>
       </c>
       <c r="G72">
         <v>20</v>
@@ -9925,19 +9926,19 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>36.596741472593614</v>
+        <v>32.574922106292576</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>33.85847563802843</v>
+        <v>42.193741712713823</v>
       </c>
       <c r="O72" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>23.608461381049416</v>
+        <v>28.983491530587859</v>
       </c>
       <c r="P72" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>20.285346463138868</v>
+        <v>23.22422315351206</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -9958,7 +9959,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0947938941883724</v>
+        <v>9.5223252577292889</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -9980,19 +9981,19 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33.340980743620122</v>
+        <v>42.218323991032392</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>37.02429401077908</v>
+        <v>49.984122784735924</v>
       </c>
       <c r="O73" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>35.941167973697276</v>
+        <v>37.684704582188026</v>
       </c>
       <c r="P73" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>14.578106367220865</v>
+        <v>28.143805802000212</v>
       </c>
     </row>
   </sheetData>
@@ -10069,11 +10070,11 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>2.7132276118504204</v>
+        <v>5.1639206272416338</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">E2 + F2 + G2 + H2 + I2 + NORMINV(RAND(),0,2)</f>
-        <v>22.653749554846854</v>
+        <v>30.686012722699438</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -10103,11 +10104,11 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I17" ca="1" si="0">NORMINV(RAND(),3,3)</f>
-        <v>-3.3065832921582921</v>
+        <v>2.2816300692039135</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" ca="1" si="1">E3 + F3 + G3 + H3 + I3 + NORMINV(RAND(),0,2)</f>
-        <v>19.7798851199788</v>
+        <v>23.332754624902247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -10137,11 +10138,11 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2019892685883984</v>
+        <v>0.2134999208808317</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.223468324261084</v>
+        <v>26.303617885556683</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -10171,11 +10172,11 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7011044661930637</v>
+        <v>2.043790925679581</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.254791056660839</v>
+        <v>24.310863386433589</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10205,11 +10206,11 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3740009845178252</v>
+        <v>2.2532988150726152</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.451332739953223</v>
+        <v>26.46244704035982</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -10239,11 +10240,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4431198347492948</v>
+        <v>4.8991244048903031</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.988870754525053</v>
+        <v>27.517041678935797</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -10273,11 +10274,11 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3704820114933214</v>
+        <v>-0.49099805464296375</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.225358973543472</v>
+        <v>25.243685062178713</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -10307,11 +10308,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9901438982969166</v>
+        <v>0.12761429906388244</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.689592314960525</v>
+        <v>23.418426566882779</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -10341,11 +10342,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0738068558735319</v>
+        <v>1.6121231433219942</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.954563196793231</v>
+        <v>28.622864725893308</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -10375,11 +10376,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8744837876079083</v>
+        <v>3.9449807323112016</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.089689295070336</v>
+        <v>25.817993285990415</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10409,11 +10410,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0586102414835308</v>
+        <v>2.6057435609741901</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.124528209379957</v>
+        <v>28.440519564184658</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -10443,11 +10444,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40015330557061413</v>
+        <v>1.1136625708617953</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.830572533117042</v>
+        <v>24.878965535301326</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -10477,11 +10478,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8612605658574166</v>
+        <v>2.4174785852886078</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.862139762263297</v>
+        <v>25.619298347883088</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -10511,11 +10512,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5591302868847254</v>
+        <v>-7.04838125284558</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.207834860080812</v>
+        <v>17.420766636886789</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -10545,11 +10546,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5351280942826167</v>
+        <v>2.6615582246958618</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.911275742030824</v>
+        <v>25.425719364895741</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -10579,11 +10580,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3799787866066788</v>
+        <v>-3.3496189593332968</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.308426777318111</v>
+        <v>19.90912458798698</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -10613,11 +10614,11 @@
       </c>
       <c r="I18" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>3.374688405022976</v>
+        <v>-0.95142114223665497</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.267001140784004</v>
+        <v>21.349086803460892</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -10647,11 +10648,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:I33" ca="1" si="2">NORMINV(RAND(),1,3)</f>
-        <v>-5.008398519604464</v>
+        <v>1.8215886781391248</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.528622368000928</v>
+        <v>22.606059655102019</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10681,11 +10682,11 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0405769835880045</v>
+        <v>4.9743818238563371</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.771765214371619</v>
+        <v>23.145058103516302</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -10715,11 +10716,11 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.42726980650123236</v>
+        <v>2.6851297055014016</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.591692307128064</v>
+        <v>20.746173345630627</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10749,11 +10750,11 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8212164653364755</v>
+        <v>3.1079937238086055</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.542484934886314</v>
+        <v>22.263821304544315</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -10783,11 +10784,11 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46779794776321637</v>
+        <v>6.8630515871998998</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.992937999225955</v>
+        <v>28.717581664924555</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -10817,11 +10818,11 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0829818170008028</v>
+        <v>4.115975393432568</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.386007170991945</v>
+        <v>24.413793976146746</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10851,11 +10852,11 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9174478400160622</v>
+        <v>-2.0249055104398739</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.841204784524951</v>
+        <v>19.123154203822814</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -10885,11 +10886,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7984350450409901</v>
+        <v>0.67810496534055398</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.1337708878143</v>
+        <v>21.491687948335304</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -10919,11 +10920,11 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.90091352617258202</v>
+        <v>0.57551639505763863</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.814948995597238</v>
+        <v>22.84093149582954</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -10953,11 +10954,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7788794553795793E-3</v>
+        <v>-0.21309087779403058</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.264996721399431</v>
+        <v>23.490833759489941</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -10987,11 +10988,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0972011565843061</v>
+        <v>-3.2674601571247051</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.71558451586451</v>
+        <v>19.73753274788751</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -11021,11 +11022,11 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25989634748558976</v>
+        <v>3.6956905099264143</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.601445191401577</v>
+        <v>26.761436278034324</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -11055,11 +11056,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1959793178731377</v>
+        <v>1.9194842823588085</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.117680621716161</v>
+        <v>21.199845636231949</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -11089,11 +11090,11 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.7467644674299372</v>
+        <v>3.4725473906177968</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.076618333006291</v>
+        <v>25.871177073381755</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -11123,11 +11124,11 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.837797544860265</v>
+        <v>4.553461761882339</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.54272228457835</v>
+        <v>26.51424499086966</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -11157,11 +11158,11 @@
       </c>
       <c r="I34" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>-3.4575117573007237</v>
+        <v>2.4368639903123328</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.030752138237965</v>
+        <v>19.026503546783474</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -11191,11 +11192,11 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ref="I35:I49" ca="1" si="3">NORMINV(RAND(),3,3)</f>
-        <v>0.33377591711884902</v>
+        <v>4.6084768964324905</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.487140400247458</v>
+        <v>22.332850434688336</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -11225,11 +11226,11 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.479692632893479</v>
+        <v>-3.8562901445962732</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.216129037096632</v>
+        <v>11.155184461650389</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -11259,11 +11260,11 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2101054061490863</v>
+        <v>3.2123483769076264</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.648908328732013</v>
+        <v>20.721654824084332</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -11293,11 +11294,11 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.105395959673281</v>
+        <v>3.0974235145241598</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.746138950088977</v>
+        <v>19.672844944595365</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -11327,11 +11328,11 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4930336333868803</v>
+        <v>2.9028194248261636</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.319695725809041</v>
+        <v>23.561379534575618</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -11361,11 +11362,11 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7762803448586419</v>
+        <v>2.6329367388703426</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.488829836369007</v>
+        <v>21.578861242687694</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -11395,11 +11396,11 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1197067245425387</v>
+        <v>-0.62489345224442694</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.952279451849556</v>
+        <v>17.619781189940344</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -11429,11 +11430,11 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5826953655091702</v>
+        <v>-3.4400008310428536</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.478496633207222</v>
+        <v>16.913501087743448</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -11463,11 +11464,11 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.6343703312132192</v>
+        <v>7.0413877469703543</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.617546093313749</v>
+        <v>26.024210930174899</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -11497,11 +11498,11 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5571540943738613</v>
+        <v>1.799085002555399</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.608184309504711</v>
+        <v>22.398941067034066</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -11531,11 +11532,11 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6971344371696881</v>
+        <v>-3.7313096025706951</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.613334677654766</v>
+        <v>21.747850848832393</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -11565,11 +11566,11 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1120810544465884</v>
+        <v>12.388076108766079</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.334983542999847</v>
+        <v>33.488409836621827</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -11599,11 +11600,11 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1221392296165482</v>
+        <v>3.3794428655820061</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.355817121782263</v>
+        <v>23.289471322980205</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -11633,11 +11634,11 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9072981212642235</v>
+        <v>2.2684432537137544</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.62596695447731</v>
+        <v>20.624538557832103</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -11667,11 +11668,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5892047946647248</v>
+        <v>3.1742805973865158</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.681600499666569</v>
+        <v>24.87446405112961</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -11701,11 +11702,11 @@
       </c>
       <c r="I50" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>6.2398598641243099</v>
+        <v>1.9491511205885881</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.068708078979892</v>
+        <v>17.360394858863462</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -11735,11 +11736,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ref="I51:I65" ca="1" si="4">NORMINV(RAND(),1,3)</f>
-        <v>1.1192068425602641</v>
+        <v>-0.84656801525017267</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.750762177610717</v>
+        <v>16.141263750704482</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -11769,11 +11770,11 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.254295106450956</v>
+        <v>1.5861838354685975</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.360678059197507</v>
+        <v>16.305960671088233</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -11803,11 +11804,11 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4295019003029672</v>
+        <v>-0.11493374666690626</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.917980268772162</v>
+        <v>12.471857632052632</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -11837,11 +11838,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97429900001761527</v>
+        <v>2.4209788648327355</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.91595596665254</v>
+        <v>21.24260436298864</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -11871,11 +11872,11 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8702524162266233</v>
+        <v>3.4174881209055474</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.169315322225152</v>
+        <v>15.331950250847182</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -11905,11 +11906,11 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.27639374280831763</v>
+        <v>3.0658358228715077</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.737553362606484</v>
+        <v>20.320081486866549</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -11939,11 +11940,11 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7019408548234911</v>
+        <v>4.808799463583477</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.792977130495771</v>
+        <v>24.87016518289499</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -11973,11 +11974,11 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.7397385096759095</v>
+        <v>3.0794832548556634</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14.009672567011267</v>
+        <v>22.732371329572462</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -12007,11 +12008,11 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5843205697238409</v>
+        <v>-4.2987719700254523</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.677997200840139</v>
+        <v>15.017963883991809</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -12041,11 +12042,11 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.1708537247550921</v>
+        <v>5.445268680733772</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.897455919692636</v>
+        <v>22.873499582348511</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -12075,11 +12076,11 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3890652833540849</v>
+        <v>3.9709211722557747</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.150425122241241</v>
+        <v>24.155669293629604</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -12109,11 +12110,11 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7378612884465325</v>
+        <v>4.79731314710454</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.163512684710646</v>
+        <v>23.934020380864069</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -12143,11 +12144,11 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.5138564230623528</v>
+        <v>2.5749605156095488</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.306892334068449</v>
+        <v>20.222702214839597</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -12177,11 +12178,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.6948556791570635E-3</v>
+        <v>6.2264905261478809</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.992310800962324</v>
+        <v>25.072527477918047</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -12211,11 +12212,11 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94238155731809914</v>
+        <v>-3.3998151407029642</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.467308177868045</v>
+        <v>13.264165801471043</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -12245,11 +12246,11 @@
       </c>
       <c r="I66" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>0.19014335546109165</v>
+        <v>8.1472503743105396</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.781428515691541</v>
+        <v>34.870292927092194</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -12279,11 +12280,11 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I81" ca="1" si="5">NORMINV(RAND(),0,4)</f>
-        <v>1.6829014218657652</v>
+        <v>6.1682411382045981</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" ca="1" si="6">E67 + F67 + G67 + H67 + I67 + NORMINV(RAND(),0,2)</f>
-        <v>28.495419010863269</v>
+        <v>37.43463012941843</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -12313,11 +12314,11 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9177734892194351</v>
+        <v>3.4808726419379226</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.405204764145985</v>
+        <v>31.672991803276126</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -12347,11 +12348,11 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8899932025935549</v>
+        <v>1.2351944133479085</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.817123425054909</v>
+        <v>28.022328388367026</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -12381,11 +12382,11 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.47869674745290836</v>
+        <v>5.1463160768890726</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.242920355301333</v>
+        <v>32.756867401751329</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -12415,11 +12416,11 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.6802513412786184</v>
+        <v>0.85469226742680593</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.83618449868732</v>
+        <v>25.296314751021445</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -12449,11 +12450,11 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.87636776156957485</v>
+        <v>0.20619107299157433</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.84026648275508</v>
+        <v>28.74073174536354</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -12483,11 +12484,11 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56428809771147137</v>
+        <v>-1.6435573193903579</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.305620650687761</v>
+        <v>27.049311910291632</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -12517,11 +12518,11 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7937790000519875</v>
+        <v>1.2461388309343544</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.428639180941403</v>
+        <v>35.904912221026855</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -12551,11 +12552,11 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.74048706517460827</v>
+        <v>-1.8387331818743295</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.154941944685795</v>
+        <v>33.058984916248285</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -12585,11 +12586,11 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6694140173990022</v>
+        <v>0.69082440509253462</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.390588820128158</v>
+        <v>32.80018133026303</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -12619,11 +12620,11 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.6689385977380859</v>
+        <v>1.3663029715201913</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.887455626432335</v>
+        <v>35.780059931633893</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -12653,11 +12654,11 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2159406231762528</v>
+        <v>-1.2758226669392232</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.910463203710769</v>
+        <v>30.566037018612455</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -12687,11 +12688,11 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93898531814526809</v>
+        <v>10.376539439190108</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.381925430919569</v>
+        <v>44.543520212041486</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -12721,11 +12722,11 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.7639941333862228</v>
+        <v>3.1257406498885589</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.146389088294647</v>
+        <v>34.817804689486657</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -12755,11 +12756,11 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.6177050424929824</v>
+        <v>-4.0630632008859191</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.821384350959651</v>
+        <v>26.742563994464717</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -12789,11 +12790,11 @@
       </c>
       <c r="I82" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>-0.62644946178272798</v>
+        <v>-1.3977443292777081</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.918504900369072</v>
+        <v>21.891479590707252</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -12823,11 +12824,11 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ref="I83:I97" ca="1" si="7">NORMINV(RAND(),0,3)</f>
-        <v>2.328639305188335</v>
+        <v>4.471757333132218</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.883000239369256</v>
+        <v>29.245479323145403</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -12857,11 +12858,11 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1538629812087189</v>
+        <v>-0.74951327637225507</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.267697417667634</v>
+        <v>24.137762344430548</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -12891,11 +12892,11 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5.0113964431311731</v>
+        <v>3.0019471481937416</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.40088550018465</v>
+        <v>29.672335909457871</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -12925,11 +12926,11 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.4332856877996796</v>
+        <v>5.1543803840136349</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.067748419437304</v>
+        <v>30.346085243818155</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -12959,11 +12960,11 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2431720492993772</v>
+        <v>-0.78463832370364772</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.640864770050836</v>
+        <v>25.114426724666387</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -12993,11 +12994,11 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.98010144117900277</v>
+        <v>0.89154601536161526</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.999004474422438</v>
+        <v>24.240588474738736</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -13027,11 +13028,11 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.2694307267660143</v>
+        <v>5.6540397604717008</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.212398175635172</v>
+        <v>30.47561054161735</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -13061,11 +13062,11 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.56645895473320951</v>
+        <v>-3.817276084481442</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.475359764106734</v>
+        <v>19.450191654032963</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -13095,11 +13096,11 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9519378266396825</v>
+        <v>4.1627864629113294</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.249607671511377</v>
+        <v>23.79438348190746</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -13129,11 +13130,11 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1411812927178668</v>
+        <v>1.7361086803899077</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.861607962639123</v>
+        <v>24.431090677773376</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -13163,11 +13164,11 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1221895314501023</v>
+        <v>9.7114508182827616E-2</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.942316051351227</v>
+        <v>26.696583174553027</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -13197,11 +13198,11 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54418511361765509</v>
+        <v>2.630688892129748</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.240878018072621</v>
+        <v>25.976286133957906</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -13231,11 +13232,11 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.5815645877903997</v>
+        <v>1.0808268750005769</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>17.439359740741732</v>
+        <v>26.343174331073875</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -13265,11 +13266,11 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6147723244752021</v>
+        <v>-2.0520756138065206</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.203601439692601</v>
+        <v>21.865018213686881</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -13299,11 +13300,11 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.29532546397867271</v>
+        <v>-1.1440557858675215</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.503246609397564</v>
+        <v>21.628598313699378</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -13333,11 +13334,11 @@
       </c>
       <c r="I98" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>-3.2915634583005557</v>
+        <v>5.8664460270141952</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.228214337777462</v>
+        <v>34.319309602258535</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -13367,11 +13368,11 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ref="I99:I113" ca="1" si="8">NORMINV(RAND(),0,4)</f>
-        <v>10.830930730191056</v>
+        <v>-5.0338205494684081</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.715571039981228</v>
+        <v>24.78088596975412</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -13401,11 +13402,11 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8367682422472331</v>
+        <v>-1.3102628315780411</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.783330801816675</v>
+        <v>30.842718461259974</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -13435,11 +13436,11 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6818640670708573</v>
+        <v>-0.83496814219630699</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.922345066123906</v>
+        <v>31.206546648545775</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -13469,11 +13470,11 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.9075474816326987</v>
+        <v>5.5739488071080094</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.650154926693812</v>
+        <v>38.515335616463794</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -13503,11 +13504,11 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5534279969081712</v>
+        <v>-1.8072264575478494</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.999550609152287</v>
+        <v>31.235596803669505</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -13537,11 +13538,11 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.7998295693375201</v>
+        <v>0.10999390362950487</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.090207173496353</v>
+        <v>33.161489639358201</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -13571,11 +13572,11 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8945278721621119</v>
+        <v>3.383567325601331</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.790631464374549</v>
+        <v>35.579656655549513</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -13605,11 +13606,11 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0212824410925276</v>
+        <v>-8.2844733003622029</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.191521896977768</v>
+        <v>24.699800220021572</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -13639,11 +13640,11 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4.2131274442218469</v>
+        <v>-3.8245406915796005</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>39.619729955391314</v>
+        <v>32.740868565029722</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -13673,11 +13674,11 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.2603768878441346</v>
+        <v>0.89905138376556948</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36.608227223365816</v>
+        <v>37.048991770020145</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -13707,11 +13708,11 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1395434358809871</v>
+        <v>6.900259067816938</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.403799988289528</v>
+        <v>44.757056683383382</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -13741,11 +13742,11 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5503529493805592</v>
+        <v>2.9523954969699298</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.82065947885112</v>
+        <v>44.873424375375762</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -13775,11 +13776,11 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.4124237543210114</v>
+        <v>-11.787384431525705</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.656830531744742</v>
+        <v>24.781890348672871</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -13809,11 +13810,11 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.7222128212751437</v>
+        <v>-3.9346188010317156</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.884351404101004</v>
+        <v>34.952125771491986</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -13843,11 +13844,11 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.347135055408367</v>
+        <v>7.1477962743998397E-2</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.354371910876104</v>
+        <v>40.91100346326904</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -13877,11 +13878,11 @@
       </c>
       <c r="I114" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>2.8721703231026652</v>
+        <v>1.0050641676354273</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.270460610657395</v>
+        <v>33.467395108830445</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -13911,11 +13912,11 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" ref="I115:I129" ca="1" si="9">NORMINV(RAND(),0,3)</f>
-        <v>5.2466863560742887</v>
+        <v>-6.0420023953709467</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.276760095107299</v>
+        <v>22.47433602941776</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -13945,11 +13946,11 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28535775596805107</v>
+        <v>-1.3526561818227412</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.739985674202106</v>
+        <v>30.227951453620097</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -13979,11 +13980,11 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7893452991874756</v>
+        <v>0.67506566841869298</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.805082087751334</v>
+        <v>33.2782191222351</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -14013,11 +14014,11 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.3234274406337012</v>
+        <v>1.521404326763226</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.804628686579186</v>
+        <v>35.226158409698662</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -14047,11 +14048,11 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7218590023463447</v>
+        <v>0.80921974129781837</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.563502024602514</v>
+        <v>31.776434591749148</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -14081,11 +14082,11 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6916245873867894</v>
+        <v>-5.2133256155800725</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.980637717507953</v>
+        <v>23.580217144431614</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -14115,11 +14116,11 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8464001304304545</v>
+        <v>2.2416445120796187</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.776328287959636</v>
+        <v>36.155637514013151</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -14149,11 +14150,11 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75880489593885359</v>
+        <v>1.5300269737661476</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.886394734457308</v>
+        <v>28.309157717288073</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -14183,11 +14184,11 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37022656689942468</v>
+        <v>-5.0869095714304011</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.557410495554731</v>
+        <v>22.347140593354666</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -14217,11 +14218,11 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3.4012227858068531</v>
+        <v>2.4718393985107645</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.179327702973495</v>
+        <v>32.962345938246173</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -14251,11 +14252,11 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.68212278071966181</v>
+        <v>-5.5517681307518973</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.87304865758388</v>
+        <v>22.609995037261811</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -14285,11 +14286,11 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.487664915837807</v>
+        <v>2.9172947281298911</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.354470432625611</v>
+        <v>31.661132827679022</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -14319,11 +14320,11 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.3936139245373962</v>
+        <v>2.3030772148247585</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>20.689137386822075</v>
+        <v>32.65830065895895</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -14353,11 +14354,11 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.38072758050988942</v>
+        <v>-1.0415991004354168</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.414999170814088</v>
+        <v>25.587122066925097</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -14387,11 +14388,11 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5415251994938832</v>
+        <v>0.11729464246453214</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.785776827353537</v>
+        <v>30.162846751757641</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -14421,11 +14422,11 @@
       </c>
       <c r="I130" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>2.6896893413224481</v>
+        <v>2.9061892067251103</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>41.815658024895221</v>
+        <v>45.899268119150193</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -14455,11 +14456,11 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" ref="I131:I145" ca="1" si="10">NORMINV(RAND(),2,1)</f>
-        <v>1.6541935135948536</v>
+        <v>3.8807663573369631</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J193" ca="1" si="11">E131 + F131 + G131 + H131 + I131 + NORMINV(RAND(),0,2)</f>
-        <v>45.073907064492118</v>
+        <v>42.988023050606301</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -14489,11 +14490,11 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0237977682793842</v>
+        <v>1.3163928392392701</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.611009043994919</v>
+        <v>40.55102081643907</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -14523,11 +14524,11 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.400521644158526</v>
+        <v>2.4595093486894712</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.783583237174838</v>
+        <v>42.76011285702586</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -14557,11 +14558,11 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.6332546555022169</v>
+        <v>2.9114593281842152</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.519106843654555</v>
+        <v>40.353907862327254</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -14591,11 +14592,11 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6359314921457233</v>
+        <v>0.59011081110103136</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.802182054271618</v>
+        <v>40.635304502163287</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -14625,11 +14626,11 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7947266387038496</v>
+        <v>0.58533753351854734</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>45.751707301194841</v>
+        <v>38.969490164419682</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -14659,11 +14660,11 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3622562587453886</v>
+        <v>2.2377969056964617</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.13042842109779</v>
+        <v>45.198925464007026</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -14693,11 +14694,11 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8396443813392735</v>
+        <v>1.201016080855535</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.472417661662007</v>
+        <v>35.463784186120208</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -14727,11 +14728,11 @@
       </c>
       <c r="I139" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6596743329915595</v>
+        <v>2.227282695456887</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.051975985922326</v>
+        <v>35.376369113761641</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -14761,11 +14762,11 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2999178267453089</v>
+        <v>1.839796793992496</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.951611148962087</v>
+        <v>29.139406763206534</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -14795,11 +14796,11 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2547348769533899</v>
+        <v>4.4172282464575972</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.946324456050746</v>
+        <v>39.017692933241818</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -14829,11 +14830,11 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3405272759479736</v>
+        <v>1.6095397925245272</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.992057513030623</v>
+        <v>29.348504966620034</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -14863,11 +14864,11 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0898314411970551</v>
+        <v>2.9982815187132008</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.535736087146951</v>
+        <v>33.951873611729383</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -14897,11 +14898,11 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6067610134269739</v>
+        <v>2.2001794617034487</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.815854736739198</v>
+        <v>34.826544554393131</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -14931,11 +14932,11 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7174629915462738</v>
+        <v>1.4511203515050706</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.018728226499341</v>
+        <v>30.739143309930192</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -14965,11 +14966,11 @@
       </c>
       <c r="I146" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>0.55166536185040838</v>
+        <v>-5.2399759517034532</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.722500474210968</v>
+        <v>30.380533655239319</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -14999,11 +15000,11 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ref="I147:I161" ca="1" si="12">NORMINV(RAND(),0,2)</f>
-        <v>1.2957119215685196</v>
+        <v>-0.73958416813961159</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.340448471284681</v>
+        <v>34.827148454757555</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -15033,11 +15034,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-7.6833214125978183E-2</v>
+        <v>1.0918711741269955</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.314041685745252</v>
+        <v>35.684339711532104</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -15067,11 +15068,11 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.6398343637866803</v>
+        <v>-2.459282731532749</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.657510799811526</v>
+        <v>33.409069565311185</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -15101,11 +15102,11 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.6020345136541303</v>
+        <v>0.84696847689804367</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.462924107301802</v>
+        <v>33.757335894203024</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -15135,11 +15136,11 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.82303120563646603</v>
+        <v>1.4492675923173177</v>
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.199414698957277</v>
+        <v>35.358388465057068</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -15169,11 +15170,11 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.7308485719207635E-2</v>
+        <v>-3.0958584258094861</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.690044822323145</v>
+        <v>30.710812617969989</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -15203,11 +15204,11 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.56141615809197321</v>
+        <v>-2.6752580623685875</v>
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.649265179344319</v>
+        <v>33.276306162988057</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -15237,11 +15238,11 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.1482325080235305</v>
+        <v>-0.40368368437694652</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.066231839903438</v>
+        <v>34.602665592124865</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -15271,11 +15272,11 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.2708880838567367</v>
+        <v>2.2095150232824272</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.542975501566158</v>
+        <v>33.928658032959504</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -15305,11 +15306,11 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.4665493367256324</v>
+        <v>0.14878961121071166</v>
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.998414885484305</v>
+        <v>29.185514194361122</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -15339,11 +15340,11 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.1513364622614479</v>
+        <v>-1.7712774900660884</v>
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.107669360060711</v>
+        <v>30.094123951154263</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -15373,11 +15374,11 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.52394657480822193</v>
+        <v>1.6358580577383495</v>
       </c>
       <c r="J158" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.591361560666606</v>
+        <v>29.411802735609061</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -15407,11 +15408,11 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.5534859858570451</v>
+        <v>-0.35873004149260657</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.872241638433067</v>
+        <v>30.354653990525755</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -15441,11 +15442,11 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10523755173334227</v>
+        <v>-0.49902502514706526</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.593365182863046</v>
+        <v>34.775013497852633</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -15475,11 +15476,11 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.9457077705789203</v>
+        <v>-3.0438929865130069</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.475374136742872</v>
+        <v>32.796263254687695</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -15509,11 +15510,11 @@
       </c>
       <c r="I162" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>2.5991845640545184</v>
+        <v>2.0396939511479282</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.428951928482903</v>
+        <v>44.950117759232555</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -15543,11 +15544,11 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" ref="I163:I177" ca="1" si="13">NORMINV(RAND(),2,1)</f>
-        <v>1.171030591713925</v>
+        <v>2.4931179488113653</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.78795117910429</v>
+        <v>42.757672672353635</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -15577,11 +15578,11 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5276291086206697</v>
+        <v>2.1100921915847524</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.657277073074901</v>
+        <v>43.628656634155654</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -15611,11 +15612,11 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2909069579808552</v>
+        <v>1.7959377608410032</v>
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.889700203400636</v>
+        <v>42.733472705586841</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -15645,11 +15646,11 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6287656181302879</v>
+        <v>0.32170697687437788</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.389194452172603</v>
+        <v>40.145230191294566</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -15679,11 +15680,11 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.60768168568215786</v>
+        <v>2.8458612891136648</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.615448637807241</v>
+        <v>41.55805332403267</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -15713,11 +15714,11 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0860527982138404</v>
+        <v>3.0752217808396285</v>
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.327186199763787</v>
+        <v>44.128628558124447</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -15747,11 +15748,11 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.0872245893049124</v>
+        <v>2.7432200777350944</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44.403842034401414</v>
+        <v>39.17786539962102</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -15781,11 +15782,11 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4388601061400239</v>
+        <v>1.3518153707632958</v>
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.512013641391562</v>
+        <v>36.868136294219269</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -15815,11 +15816,11 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6314674069479767</v>
+        <v>2.3788948853909688</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.674431108070081</v>
+        <v>35.046224331027901</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -15849,11 +15850,11 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.9318852270838143</v>
+        <v>2.5244668166712283</v>
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.891269290788468</v>
+        <v>31.746031907623689</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -15883,11 +15884,11 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1661012153425658</v>
+        <v>1.0308170915507726</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.413945863976597</v>
+        <v>31.808479406247471</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -15917,11 +15918,11 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.265789393308514</v>
+        <v>2.2506192508297014</v>
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.76163495182734</v>
+        <v>32.076037577044204</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -15951,11 +15952,11 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9316943766550998</v>
+        <v>2.219839304079184</v>
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.693261789414734</v>
+        <v>35.071120516065896</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -15985,11 +15986,11 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9149132063270835</v>
+        <v>1.0965843920544431</v>
       </c>
       <c r="J176" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.273585929498921</v>
+        <v>33.382829529927541</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -16019,11 +16020,11 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0766001437568549</v>
+        <v>3.8019867281069875</v>
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.165756262520283</v>
+        <v>32.616715728193498</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -16053,11 +16054,11 @@
       </c>
       <c r="I178" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-0.16107104540671197</v>
+        <v>0.31719610907658385</v>
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.996324005108789</v>
+        <v>33.927936857603605</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -16087,11 +16088,11 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ref="I179:I193" ca="1" si="14">NORMINV(RAND(),0,2)</f>
-        <v>-1.6666673289758578</v>
+        <v>0.71703466597948029</v>
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.584945627627825</v>
+        <v>33.371841732866784</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -16121,11 +16122,11 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.67102144996930091</v>
+        <v>-1.9227485853145596</v>
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.497244662256165</v>
+        <v>31.791870332910808</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -16155,11 +16156,11 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.4265375675178342</v>
+        <v>-0.42672889244486739</v>
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.984973875182472</v>
+        <v>31.344417644197758</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -16189,11 +16190,11 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4.9601813566703505E-2</v>
+        <v>3.6723309232519346</v>
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.658949801304651</v>
+        <v>36.171922937586821</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -16223,11 +16224,11 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.9506133378797175</v>
+        <v>3.1725119173379071</v>
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.313122112601569</v>
+        <v>36.465465035481174</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -16257,11 +16258,11 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.12029975604983253</v>
+        <v>3.5880283509039925</v>
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.59689747115906</v>
+        <v>38.993424785912509</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -16291,11 +16292,11 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2.5222969289618593</v>
+        <v>-1.4488942324746374</v>
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.897099340335792</v>
+        <v>34.742030173288981</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -16325,11 +16326,11 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.9256939839588281</v>
+        <v>-2.0573359942857872</v>
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.033530892954939</v>
+        <v>27.483920639014279</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -16359,11 +16360,11 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.72326765838989049</v>
+        <v>0.64554859126007769</v>
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.501856278716957</v>
+        <v>33.003845980618898</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -16393,11 +16394,11 @@
       </c>
       <c r="I188" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.82766304693113246</v>
+        <v>-1.258445894549076</v>
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.520688860592493</v>
+        <v>31.903207614396571</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -16427,11 +16428,11 @@
       </c>
       <c r="I189" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.424091519341824</v>
+        <v>-1.057901620804379</v>
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.615545402924944</v>
+        <v>30.599992465588713</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -16461,11 +16462,11 @@
       </c>
       <c r="I190" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.862979946640297</v>
+        <v>-8.706309346324291E-2</v>
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.554339554904146</v>
+        <v>30.594522810244978</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -16495,11 +16496,11 @@
       </c>
       <c r="I191" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.1255265663468688</v>
+        <v>0.87259419271843686</v>
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.306240832385534</v>
+        <v>29.794240672203362</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -16529,11 +16530,11 @@
       </c>
       <c r="I192" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.1122155021593436</v>
+        <v>4.2362189914716462</v>
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.32935694213829</v>
+        <v>39.391664416541367</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -16563,11 +16564,11 @@
       </c>
       <c r="I193" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.71915206035742085</v>
+        <v>0.46516604061842848</v>
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.405369575763292</v>
+        <v>33.022692756518012</v>
       </c>
     </row>
   </sheetData>
@@ -16580,11 +16581,499 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF1B9C0-D4CE-564F-AB11-190446AD8074}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">NORMINV(RAND(),15,3)</f>
+        <v>17.196881649840105</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">C2 +D2+ 1.25*B2+NORMINV(RAND(),0,5)</f>
+        <v>43.091184832270557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B9" ca="1" si="0">NORMINV(RAND(),15,3)</f>
+        <v>10.07229466209632</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E25" ca="1" si="1">C3 +D3+ 1.25*B3+NORMINV(RAND(),0,5)</f>
+        <v>18.611241685088938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5974031899592198</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>37.345458346704454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.580747166708431</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.942883297257492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.790156838631226</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>38.495999997249257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.452629199218173</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>39.757059610819091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.743038896542981</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>34.513820905320998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.608576995561513</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>32.461062886958523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ref="B10:B16" ca="1" si="2">NORMINV(RAND(),10,4)</f>
+        <v>16.352331174823814</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>46.313853411977391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.509673955392413</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.8871554735153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.981471997003089</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.439207802702864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">NORMINV(RAND(),10,4)</f>
+        <v>9.2887185894257822</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>34.784020879527404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1110705671811072</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.838679270292847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6377254440157989</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>21.957352330570657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0583713276953137</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.993894804095529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <f ca="1">NORMINV(RAND(),10,4)</f>
+        <v>6.9413891202025848</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.66653371338786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <f ca="1">NORMINV(RAND(),20,5)</f>
+        <v>15.500047385105837</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43.573203509334142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B25" ca="1" si="3">NORMINV(RAND(),20,5)</f>
+        <v>15.696796434173722</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>45.678959268597985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.766141458990543</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>40.553536026861977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.117019424698761</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>64.397243448645796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6862623326336426</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.481881257131558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.479354651798975</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>64.279687185204978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>19.257288466291172</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.377304724834666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.825367505563012</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.486129854945474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16622,7 +17111,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>26.488806489662394</v>
+        <v>18.853830252972468</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -16631,8 +17120,8 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">D2 + E2+ 1.25*C2+5+NORMINV(RAND(),0,5)</f>
-        <v>48.506157265413968</v>
+        <f ca="1">D2 + E2+ 1.35*C2+5+NORMINV(RAND(),0,5)</f>
+        <v>39.840757698276754</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -16644,7 +17133,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>18.671055083068719</v>
+        <v>17.29774196041615</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -16653,8 +17142,8 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F49" ca="1" si="1">D3 + E3+ 1.25*C3+5+NORMINV(RAND(),0,5)</f>
-        <v>41.12492051771779</v>
+        <f t="shared" ref="F3:F9" ca="1" si="1">D3 + E3+ 1.35*C3+5+NORMINV(RAND(),0,5)</f>
+        <v>34.417431430930812</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -16666,7 +17155,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.016510455746406</v>
+        <v>20.725777841462861</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -16676,7 +17165,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.94132954298302</v>
+        <v>42.318711306437137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -16688,7 +17177,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.541041993446703</v>
+        <v>19.037398405208581</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -16698,7 +17187,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.089054850048807</v>
+        <v>42.023076195317707</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -16710,7 +17199,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.80207150684015</v>
+        <v>13.439492999177672</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -16720,7 +17209,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.060171011580799</v>
+        <v>39.695940303142109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -16732,7 +17221,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.148981667719958</v>
+        <v>13.599415431575181</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -16742,7 +17231,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.775109009194047</v>
+        <v>32.693327864852435</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -16754,7 +17243,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.473510733468167</v>
+        <v>15.93919131722307</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -16764,7 +17253,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.08701422329414</v>
+        <v>32.116476322107026</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -16776,7 +17265,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.146001573895223</v>
+        <v>18.486224359773868</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -16786,7 +17275,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.617121873745965</v>
+        <v>43.77020687718796</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -16798,7 +17287,7 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>4.5910826178129254</v>
+        <v>5.2061259275614935</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -16807,8 +17296,8 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0183177256434259</v>
+        <f ca="1">D10 + E10+ 1.15*C10+5+NORMINV(RAND(),0,5)</f>
+        <v>11.595599537244407</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -16820,7 +17309,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:C17" ca="1" si="2">NORMINV(RAND(),5,1)</f>
-        <v>4.0847134895007375</v>
+        <v>6.6718554012145495</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -16829,8 +17318,8 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.260771294525231</v>
+        <f t="shared" ref="F11:F17" ca="1" si="3">D11 + E11+ 1.15*C11+5+NORMINV(RAND(),0,5)</f>
+        <v>29.537445649885967</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -16842,7 +17331,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3835594590552489</v>
+        <v>3.8856679380737464</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -16851,8 +17340,8 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.355983961955349</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.961619703812786</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -16864,7 +17353,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1155742940905</v>
+        <v>5.5756840077822156</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -16873,8 +17362,8 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3884296622158985</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24.718259207783383</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -16886,7 +17375,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6459980724815066</v>
+        <v>6.5786985336198782</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -16895,8 +17384,8 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.402044520622365</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17.999125455530926</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -16908,7 +17397,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3794286628947265</v>
+        <v>5.0157609393882909</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -16917,8 +17406,8 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.609262091743762</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26.157280032231466</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -16930,7 +17419,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9301419175857104</v>
+        <v>5.2996079385575054</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -16939,8 +17428,8 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.371361314937577</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18.357618823166732</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -16952,7 +17441,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3947356548549861</v>
+        <v>4.37085270065419</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -16961,8 +17450,8 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.481754365847287</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>22.899111623462339</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -16974,7 +17463,7 @@
       </c>
       <c r="C18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>19.32964365571295</v>
+        <v>7.1484797919427292</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -16983,8 +17472,8 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.965047910990215</v>
+        <f ca="1">D18 + E18+ 1.35*C18+5+NORMINV(RAND(),0,5)</f>
+        <v>23.794022103197634</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -16995,8 +17484,8 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:C25" ca="1" si="3">NORMINV(RAND(),12,4)</f>
-        <v>15.410287954092778</v>
+        <f t="shared" ref="C19:C25" ca="1" si="4">NORMINV(RAND(),12,4)</f>
+        <v>10.632863459005966</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
@@ -17005,8 +17494,8 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.306255706748182</v>
+        <f t="shared" ref="F19:F25" ca="1" si="5">D19 + E19+ 1.35*C19+5+NORMINV(RAND(),0,5)</f>
+        <v>34.59781836683716</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -17017,8 +17506,8 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.806168050794094</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.401202867122176</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -17027,8 +17516,8 @@
         <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.346800003508555</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>35.547449842502495</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -17039,8 +17528,8 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.099225846008196</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.958424620756798</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -17049,8 +17538,8 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.335149323247681</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>48.857617301049743</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -17061,8 +17550,8 @@
         <v>5</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.799297854200411</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10.998613821374915</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
@@ -17071,8 +17560,8 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.991508576885352</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33.728722932160366</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -17083,8 +17572,8 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>16.108097570718773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8441161165491273</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
@@ -17093,8 +17582,8 @@
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.609783437639521</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>34.076804861626158</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -17105,8 +17594,8 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.761982676364354</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8281160412197561</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -17115,8 +17604,8 @@
         <v>2.5</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.485244985199088</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>34.744879553270025</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -17127,8 +17616,8 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>17.540707325392166</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.261536320740925</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
@@ -17137,8 +17626,8 @@
         <v>2.5</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>48.341601138735236</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>38.633011792065098</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -17150,7 +17639,7 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>6.5804449814150345</v>
+        <v>6.2511908909490304</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
@@ -17159,8 +17648,8 @@
         <v>10</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.123617057307349</v>
+        <f ca="1">D26 + E26+ 1.15*C26+5+NORMINV(RAND(),0,5)</f>
+        <v>30.491907218668555</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -17171,8 +17660,8 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:C33" ca="1" si="4">NORMINV(RAND(),6,1)</f>
-        <v>4.5167945931761597</v>
+        <f t="shared" ref="C27:C33" ca="1" si="6">NORMINV(RAND(),6,1)</f>
+        <v>7.314354195787919</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -17181,8 +17670,8 @@
         <v>10</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.067083595851834</v>
+        <f t="shared" ref="F27:F33" ca="1" si="7">D27 + E27+ 1.15*C27+5+NORMINV(RAND(),0,5)</f>
+        <v>29.175439636471783</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -17193,8 +17682,8 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.529959092353316</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9100159417049554</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -17203,8 +17692,8 @@
         <v>10</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.305058946789899</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>38.95563627681009</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -17215,8 +17704,8 @@
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.9230588173655487</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.595700865866859</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -17225,8 +17714,8 @@
         <v>10</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.138709815725264</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>38.711490081383303</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -17237,8 +17726,8 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.8806888383535547</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.6615483851983148</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -17247,8 +17736,8 @@
         <v>10</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.405564246270956</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>33.83256165899482</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -17259,8 +17748,8 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8153876179336708</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.0691937885739264</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -17269,8 +17758,8 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>34.35607187592656</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>27.118486268802776</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -17281,8 +17770,8 @@
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1315737995425534</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.5443344881298149</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
@@ -17291,8 +17780,8 @@
         <v>10</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.880113080324897</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>34.273189380528052</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -17303,8 +17792,8 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5279535067230441</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.6936386070376699</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
@@ -17313,8 +17802,8 @@
         <v>10</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.317393929281117</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.526629939474553</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -17326,7 +17815,7 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>18.105488881017354</v>
+        <v>13.164871418800132</v>
       </c>
       <c r="D34" s="2">
         <v>15</v>
@@ -17335,8 +17824,8 @@
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>50.908337840087412</v>
+        <f ca="1">D34 + E34+ 1.35*C34+5+NORMINV(RAND(),0,5)</f>
+        <v>36.830918649724772</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -17347,8 +17836,8 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C41" ca="1" si="5">NORMINV(RAND(),12,5)</f>
-        <v>11.135188594201393</v>
+        <f t="shared" ref="C35:C41" ca="1" si="8">NORMINV(RAND(),12,5)</f>
+        <v>6.0146535681155093</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -17357,8 +17846,8 @@
         <v>4</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.628482783233359</v>
+        <f t="shared" ref="F35:F41" ca="1" si="9">D35 + E35+ 1.35*C35+5+NORMINV(RAND(),0,5)</f>
+        <v>36.234730795277514</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -17369,8 +17858,8 @@
         <v>5</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8362126165387167</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.8914127365959921</v>
       </c>
       <c r="D36" s="2">
         <v>15</v>
@@ -17379,8 +17868,8 @@
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.269263008713484</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>37.844826421326651</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -17391,8 +17880,8 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.15976484263196</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.7213735157238474</v>
       </c>
       <c r="D37" s="2">
         <v>15</v>
@@ -17401,8 +17890,8 @@
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43.649027204593608</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>32.674892254826133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -17413,8 +17902,8 @@
         <v>5</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>18.88788409485813</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>15.686918467650788</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -17423,8 +17912,8 @@
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>49.073278868650036</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>44.109406274779452</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -17435,8 +17924,8 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.925899785717977</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>16.725874475805274</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -17445,8 +17934,8 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>58.327555371470552</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>46.818816030296311</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -17457,8 +17946,8 @@
         <v>5</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.142037296920122</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>17.047416026709502</v>
       </c>
       <c r="D40" s="2">
         <v>15</v>
@@ -17467,8 +17956,8 @@
         <v>4</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>46.393608818314362</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43.056101233836181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -17479,8 +17968,8 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8694387820499632</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>10.84727442169506</v>
       </c>
       <c r="D41" s="2">
         <v>15</v>
@@ -17489,8 +17978,8 @@
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.708556919602096</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>42.940000116146841</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -17502,7 +17991,7 @@
       </c>
       <c r="C42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>6.6728204767430146</v>
+        <v>9.6391011324754672</v>
       </c>
       <c r="D42" s="2">
         <v>15</v>
@@ -17511,8 +18000,8 @@
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.715498247714351</v>
+        <f ca="1">D42 + E42+ 1.15*C42+5+NORMINV(RAND(),0,5)</f>
+        <v>36.030258619343158</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -17523,8 +18012,8 @@
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:C49" ca="1" si="6">NORMINV(RAND(),8,2)</f>
-        <v>11.033645506367035</v>
+        <f t="shared" ref="C43:C49" ca="1" si="10">NORMINV(RAND(),8,2)</f>
+        <v>7.5615086573016024</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -17533,8 +18022,8 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.60110507043386</v>
+        <f t="shared" ref="F43:F49" ca="1" si="11">D43 + E43+ 1.15*C43+5+NORMINV(RAND(),0,5)</f>
+        <v>41.771007842139483</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -17545,8 +18034,8 @@
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10.738359796632956</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.5407311555108834</v>
       </c>
       <c r="D44" s="2">
         <v>15</v>
@@ -17555,8 +18044,8 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.895507763885441</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>36.597778625724395</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -17567,8 +18056,8 @@
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.5895076390196996</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>9.0846778250694005</v>
       </c>
       <c r="D45" s="2">
         <v>15</v>
@@ -17577,8 +18066,8 @@
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>36.927624170670519</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>36.149280583644497</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -17589,8 +18078,8 @@
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4199416849034536</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>10.570503359200032</v>
       </c>
       <c r="D46" s="2">
         <v>15</v>
@@ -17599,8 +18088,8 @@
         <v>5</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.916134108633521</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>32.5350022535535</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -17611,8 +18100,8 @@
         <v>4</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5227503778687392</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.4913809159369986</v>
       </c>
       <c r="D47" s="2">
         <v>15</v>
@@ -17621,8 +18110,8 @@
         <v>5</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.32524147841027</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>39.722942183225619</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -17633,8 +18122,8 @@
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5926627285379036</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2191438368447569</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -17643,8 +18132,8 @@
         <v>5</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.196940224224875</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>35.67994010058684</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -17655,8 +18144,8 @@
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.421914591366793</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>11.665492846804971</v>
       </c>
       <c r="D49" s="2">
         <v>15</v>
@@ -17665,8 +18154,8 @@
         <v>5</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.472458510873764</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>38.333868949368735</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_complex_data_backup.xlsx
+++ b/data/fleas_complex_data_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB6394-915D-0B40-84D3-6ABDBC2C435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65876103-7E21-894D-ADB7-A1A3AC92EB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1880" windowWidth="28240" windowHeight="17240" activeTab="7" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="28240" windowHeight="17240" activeTab="7" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -639,27 +639,27 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">$C2+$D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>35.016270369482775</v>
+        <v>23.006482344169203</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:P17" ca="1" si="0">$C2+$D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>33.218630381922573</v>
+        <v>28.608185095245261</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.504612152214321</v>
+        <v>24.577070542597895</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.803448031929129</v>
+        <v>19.574481191769266</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.41811554300801</v>
+        <v>22.744587004613642</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">$C2+$D2+J2+NORMINV(RAND(),0,4)</f>
-        <v>7.6912452616389366</v>
+        <v>1.5202937911223007</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -695,27 +695,27 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:P25" ca="1" si="1">$C3+$D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>25.040359385386616</v>
+        <v>26.919290669917636</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.089439252249836</v>
+        <v>23.926856893109381</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.670145933887973</v>
+        <v>25.133710700569196</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.726512786289902</v>
+        <v>25.463318634290683</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.200546007579032</v>
+        <v>26.920072042170691</v>
       </c>
       <c r="P3" s="1">
         <f ca="1">$C3+$D3+J3+NORMINV(RAND(),0,4)</f>
-        <v>5.348022123016019</v>
+        <v>0.89326397798526092</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -751,27 +751,27 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.795707349892304</v>
+        <v>29.744514216992172</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.161802158883592</v>
+        <v>26.161998452153618</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.538503660132928</v>
+        <v>27.041141517526924</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.201899316207864</v>
+        <v>20.531306415663153</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.524971337603873</v>
+        <v>15.713606888981412</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.017045464025998</v>
+        <v>13.979669727341724</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -807,27 +807,27 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.913520371367142</v>
+        <v>36.302683242670312</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.56831582838667</v>
+        <v>32.522390258068455</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.679376685138035</v>
+        <v>22.308986241054594</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.832115511122286</v>
+        <v>23.939483137175081</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.576892619192549</v>
+        <v>23.467212569960502</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.138651918527465</v>
+        <v>3.7932287712979305</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -863,27 +863,27 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.79706839682337</v>
+        <v>31.663275773036741</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.228982562403317</v>
+        <v>23.462466651859117</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.101694954458864</v>
+        <v>25.499600982765685</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.744931040665271</v>
+        <v>20.550040430927286</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.172087341990959</v>
+        <v>23.150328581867804</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2270426451029035</v>
+        <v>3.7512300885360759</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -919,27 +919,27 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.059608584499834</v>
+        <v>26.416159875179304</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.525222185370176</v>
+        <v>28.694483118434484</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.519074641898257</v>
+        <v>16.373098005231178</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.969379163097511</v>
+        <v>20.940991005352423</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.864074851018209</v>
+        <v>18.613634245477783</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38963708509993289</v>
+        <v>-0.25638006458411766</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -975,27 +975,27 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.166954252020844</v>
+        <v>31.404907430447249</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.609208146699736</v>
+        <v>32.485525681474016</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.257024290881496</v>
+        <v>22.069699725843137</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.89858939772747</v>
+        <v>25.693959341670823</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>17.025177024277596</v>
+        <v>23.275232577473133</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4376167415496957</v>
+        <v>7.2447102759415127</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1031,27 +1031,27 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.294247593274914</v>
+        <v>36.289905993968162</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.92948218202994</v>
+        <v>28.596121261264265</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.635186394877572</v>
+        <v>27.575450235088823</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.928620040309813</v>
+        <v>20.375812052549858</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.116248214850931</v>
+        <v>23.071970769404857</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4726018209115281</v>
+        <v>1.4180429016643594</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1087,27 +1087,27 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.209353673709742</v>
+        <v>31.656829170924837</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32.18726164198641</v>
+        <v>27.840803564688624</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.070581728622059</v>
+        <v>20.6469692624066</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.770210746050459</v>
+        <v>19.871125211551945</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.2906395308979</v>
+        <v>23.82964433214239</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.042342186685303</v>
+        <v>15.681592579734309</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1143,27 +1143,27 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.447403039078608</v>
+        <v>45.227978420627451</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30.549928146271874</v>
+        <v>29.897501311363929</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.101602203830293</v>
+        <v>27.781987787143251</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.955765961782063</v>
+        <v>18.181294908956961</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.632451879270981</v>
+        <v>19.560674407349239</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.797138751790788</v>
+        <v>13.681343524251346</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1199,27 +1199,27 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.921767600853705</v>
+        <v>42.904449218116795</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.714614125715219</v>
+        <v>31.64113212060014</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.075259404044722</v>
+        <v>20.788954605770009</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26.859345108546236</v>
+        <v>23.663799864040207</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.889315362333825</v>
+        <v>13.405219779081659</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.412452868182012</v>
+        <v>12.021426290050359</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1255,27 +1255,27 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.31913189401299</v>
+        <v>49.009218808546215</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.610393134121818</v>
+        <v>30.407511905218747</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.688564651346894</v>
+        <v>29.886578894192652</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19.21373425642421</v>
+        <v>16.376552580601771</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.05431090875858</v>
+        <v>15.0942182002007</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.770230146387217</v>
+        <v>16.613627265500348</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1311,27 +1311,27 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.556586744871048</v>
+        <v>34.183316572573574</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.043921659043644</v>
+        <v>33.516563432923157</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.439350456107857</v>
+        <v>23.138969164672069</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18.268151238401337</v>
+        <v>23.201274188966039</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.97027490889716</v>
+        <v>21.732690362980357</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.100305983788488</v>
+        <v>14.677871785862283</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1367,27 +1367,27 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.830349901679568</v>
+        <v>41.534977081183719</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.702211523872009</v>
+        <v>30.451124989822627</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.773169926070334</v>
+        <v>29.274201964491141</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.844833461861203</v>
+        <v>11.664208981973514</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.611851632797492</v>
+        <v>22.195916447038819</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.346976704760223</v>
+        <v>15.449902360973978</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1423,27 +1423,27 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.037107946993039</v>
+        <v>36.848179935009803</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.513067051947914</v>
+        <v>30.582075534260277</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.997127625059282</v>
+        <v>19.44122303083126</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.501969955291937</v>
+        <v>20.570001895469261</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.114865842809387</v>
+        <v>17.588799023030369</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.231903222353433</v>
+        <v>17.029949281711069</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1479,27 +1479,27 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.527333678920904</v>
+        <v>41.87603274349361</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.523690500127934</v>
+        <v>29.639552556137158</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.214530060577133</v>
+        <v>23.074066694383912</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.467798884100837</v>
+        <v>19.938657831820564</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.027460063485552</v>
+        <v>18.429197374259715</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13.567218961167054</v>
+        <v>18.508211266863395</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1535,27 +1535,27 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.071018855284649</v>
+        <v>56.827096013991898</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.454964067256313</v>
+        <v>43.13599201122355</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.389375746543713</v>
+        <v>34.739792639166019</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.360083090744432</v>
+        <v>33.928501836777514</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.035512475026863</v>
+        <v>24.480940019900373</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.427582200044721</v>
+        <v>28.884566196016443</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1591,27 +1591,27 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.712322729353403</v>
+        <v>49.781600325010466</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.930181492280184</v>
+        <v>45.650275344833709</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.139410526644539</v>
+        <v>29.597946422790848</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.242073058343994</v>
+        <v>33.380709220047351</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.72015848204531</v>
+        <v>32.902255140481905</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.462641226533471</v>
+        <v>28.795654063886648</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1647,27 +1647,27 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.831892056544987</v>
+        <v>47.496774077229261</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.237740286775939</v>
+        <v>50.03605278218965</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.516387201853178</v>
+        <v>35.972791906085391</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.894727916527899</v>
+        <v>27.324688014494516</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.991077997415189</v>
+        <v>24.249669657882812</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.468500506348992</v>
+        <v>27.058351644186821</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1703,27 +1703,27 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.192047258332984</v>
+        <v>49.749191946533188</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.903481899810096</v>
+        <v>40.903346816680461</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.065057588811435</v>
+        <v>43.119622190507684</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.733298893526843</v>
+        <v>33.511553577324584</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.692848713549601</v>
+        <v>31.311824204095238</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.957044890229454</v>
+        <v>32.140328086257647</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1759,27 +1759,27 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56.540690208597738</v>
+        <v>47.656257984453909</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.475928436877503</v>
+        <v>37.457057351635449</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.449633093094604</v>
+        <v>30.709855797861074</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.437873119897276</v>
+        <v>31.778418200518352</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.039846675427082</v>
+        <v>23.401343470811572</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.416989094616422</v>
+        <v>27.469735226498699</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1815,27 +1815,27 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.186990508889451</v>
+        <v>49.286066156274366</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.837533560489163</v>
+        <v>46.692146348815008</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.15029273806212</v>
+        <v>37.881408180269091</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.657997895134798</v>
+        <v>31.925822966206081</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.347979852621354</v>
+        <v>25.320571535231529</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.86783135924993</v>
+        <v>32.767048548682965</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.372439616616738</v>
+        <v>49.606571649217194</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.116097716214249</v>
+        <v>43.34443252811095</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.758136136285941</v>
+        <v>27.263406154175581</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18.555284875484077</v>
+        <v>25.954789997925822</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.879634557803897</v>
+        <v>26.806871873241015</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.710373480105197</v>
+        <v>24.350949600606043</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1927,27 +1927,27 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.553455723406387</v>
+        <v>52.170034141595067</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.5517376032873</v>
+        <v>41.988094026033885</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.557621335189673</v>
+        <v>31.468259758062636</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.766708741515128</v>
+        <v>31.882362332583511</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.841683187492986</v>
+        <v>26.657441566332441</v>
       </c>
       <c r="P25" s="1">
         <f ca="1">$C25+$D25+J25+NORMINV(RAND(),0,4)</f>
-        <v>24.230266782346273</v>
+        <v>33.441942195245005</v>
       </c>
     </row>
   </sheetData>
@@ -2062,28 +2062,28 @@
         <v>-10</v>
       </c>
       <c r="M2" s="1">
-        <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>38.94552723733311</v>
+        <f t="shared" ref="M2:M25" ca="1" si="0">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
+        <v>36.426387729765693</v>
       </c>
       <c r="N2" s="1">
-        <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>34.59564618566624</v>
+        <f t="shared" ref="N2:N25" ca="1" si="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
+        <v>32.377335775904825</v>
       </c>
       <c r="O2" s="1">
-        <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>25.688721403683189</v>
+        <f t="shared" ref="O2:O25" ca="1" si="2">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
+        <v>31.480437525325783</v>
       </c>
       <c r="P2" s="1">
-        <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>31.528074674059944</v>
+        <f t="shared" ref="P2:P25" ca="1" si="3">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
+        <v>27.474461848288563</v>
       </c>
       <c r="Q2" s="1">
-        <f ca="1">D2+E2+F2+K2+NORMINV(RAND(),0,4)</f>
-        <v>21.467829684851047</v>
+        <f t="shared" ref="Q2:Q25" ca="1" si="4">D2+E2+F2+K2+NORMINV(RAND(),0,4)</f>
+        <v>29.77146775581193</v>
       </c>
       <c r="R2" s="1">
-        <f ca="1">D2+E2+F2+L2+NORMINV(RAND(),0,4)</f>
-        <v>14.613875827265856</v>
+        <f t="shared" ref="R2:R25" ca="1" si="5">D2+E2+F2+L2+NORMINV(RAND(),0,4)</f>
+        <v>11.643878524226487</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -2124,28 +2124,28 @@
         <v>-10</v>
       </c>
       <c r="M3" s="1">
-        <f ca="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>36.390544660102648</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.560552995383347</v>
       </c>
       <c r="N3" s="1">
-        <f ca="1">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>33.088437520175439</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25.061430724870029</v>
       </c>
       <c r="O3" s="1">
-        <f ca="1">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>30.156288117603992</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>26.472563006750619</v>
       </c>
       <c r="P3" s="1">
-        <f ca="1">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>27.100718956555024</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23.620832323777076</v>
       </c>
       <c r="Q3" s="1">
-        <f ca="1">D3+E3+F3+K3+NORMINV(RAND(),0,4)</f>
-        <v>27.01133405930242</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28.403258029903643</v>
       </c>
       <c r="R3" s="1">
-        <f ca="1">D3+E3+F3+L3+NORMINV(RAND(),0,4)</f>
-        <v>0.6810708623462336</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17.643808722974871</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -2186,28 +2186,28 @@
         <v>-10</v>
       </c>
       <c r="M4" s="1">
-        <f ca="1">D4+E4+F4+G4+NORMINV(RAND(),0,4)</f>
-        <v>34.085282239258781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.283722695225926</v>
       </c>
       <c r="N4" s="1">
-        <f ca="1">D4+E4+F4+H4+NORMINV(RAND(),0,4)</f>
-        <v>34.876705268823272</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26.99174285732429</v>
       </c>
       <c r="O4" s="1">
-        <f ca="1">D4+E4+F4+I4+NORMINV(RAND(),0,4)</f>
-        <v>22.662129146232239</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.916734559768415</v>
       </c>
       <c r="P4" s="1">
-        <f ca="1">D4+E4+F4+J4+NORMINV(RAND(),0,4)</f>
-        <v>26.951579620885827</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23.482868957265662</v>
       </c>
       <c r="Q4" s="1">
-        <f ca="1">D4+E4+F4+K4+NORMINV(RAND(),0,4)</f>
-        <v>27.152907351746723</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31.421363134489749</v>
       </c>
       <c r="R4" s="1">
-        <f ca="1">D4+E4+F4+L4+NORMINV(RAND(),0,4)</f>
-        <v>17.449697221817601</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10.676069120002676</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -2248,28 +2248,28 @@
         <v>-10</v>
       </c>
       <c r="M5" s="1">
-        <f ca="1">D5+E5+F5+G5+NORMINV(RAND(),0,4)</f>
-        <v>40.490320299077119</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.741924644108273</v>
       </c>
       <c r="N5" s="1">
-        <f ca="1">D5+E5+F5+H5+NORMINV(RAND(),0,4)</f>
-        <v>33.001104051864871</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.009040388929492</v>
       </c>
       <c r="O5" s="1">
-        <f ca="1">D5+E5+F5+I5+NORMINV(RAND(),0,4)</f>
-        <v>29.526892777595354</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>26.212354593532826</v>
       </c>
       <c r="P5" s="1">
-        <f ca="1">D5+E5+F5+J5+NORMINV(RAND(),0,4)</f>
-        <v>28.346115108179397</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.344780784772958</v>
       </c>
       <c r="Q5" s="1">
-        <f ca="1">D5+E5+F5+K5+NORMINV(RAND(),0,4)</f>
-        <v>25.475419252190342</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.702575360638257</v>
       </c>
       <c r="R5" s="1">
-        <f ca="1">D5+E5+F5+L5+NORMINV(RAND(),0,4)</f>
-        <v>13.358641964673476</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>20.048828266193102</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -2310,28 +2310,28 @@
         <v>-10</v>
       </c>
       <c r="M6" s="1">
-        <f ca="1">D6+E6+F6+G6+NORMINV(RAND(),0,4)</f>
-        <v>29.310229729068592</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.167876843430449</v>
       </c>
       <c r="N6" s="1">
-        <f ca="1">D6+E6+F6+H6+NORMINV(RAND(),0,4)</f>
-        <v>27.104427005323316</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24.68771194953985</v>
       </c>
       <c r="O6" s="1">
-        <f ca="1">D6+E6+F6+I6+NORMINV(RAND(),0,4)</f>
-        <v>26.158977244230972</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>23.402188066522978</v>
       </c>
       <c r="P6" s="1">
-        <f ca="1">D6+E6+F6+J6+NORMINV(RAND(),0,4)</f>
-        <v>21.978333190942291</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18.059284904406272</v>
       </c>
       <c r="Q6" s="1">
-        <f ca="1">D6+E6+F6+K6+NORMINV(RAND(),0,4)</f>
-        <v>11.687371709378986</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.115056635561714</v>
       </c>
       <c r="R6" s="1">
-        <f ca="1">D6+E6+F6+L6+NORMINV(RAND(),0,4)</f>
-        <v>6.7574330208805877</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4453987464151519</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -2372,28 +2372,28 @@
         <v>-10</v>
       </c>
       <c r="M7" s="1">
-        <f ca="1">D7+E7+F7+G7+NORMINV(RAND(),0,4)</f>
-        <v>23.602100825121759</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.467107373904092</v>
       </c>
       <c r="N7" s="1">
-        <f ca="1">D7+E7+F7+H7+NORMINV(RAND(),0,4)</f>
-        <v>26.344519635716409</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25.085043924241525</v>
       </c>
       <c r="O7" s="1">
-        <f ca="1">D7+E7+F7+I7+NORMINV(RAND(),0,4)</f>
-        <v>25.505640373740746</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21.251786929745947</v>
       </c>
       <c r="P7" s="1">
-        <f ca="1">D7+E7+F7+J7+NORMINV(RAND(),0,4)</f>
-        <v>26.951364533634042</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20.300213928432285</v>
       </c>
       <c r="Q7" s="1">
-        <f ca="1">D7+E7+F7+K7+NORMINV(RAND(),0,4)</f>
-        <v>15.505001716142262</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.899975101611448</v>
       </c>
       <c r="R7" s="1">
-        <f ca="1">D7+E7+F7+L7+NORMINV(RAND(),0,4)</f>
-        <v>1.5516981125570024</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.945290252927526</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -2434,28 +2434,28 @@
         <v>-10</v>
       </c>
       <c r="M8" s="1">
-        <f ca="1">D8+E8+F8+G8+NORMINV(RAND(),0,4)</f>
-        <v>26.402504828109326</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.258327195033143</v>
       </c>
       <c r="N8" s="1">
-        <f ca="1">D8+E8+F8+H8+NORMINV(RAND(),0,4)</f>
-        <v>16.44706343336534</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.903528049301329</v>
       </c>
       <c r="O8" s="1">
-        <f ca="1">D8+E8+F8+I8+NORMINV(RAND(),0,4)</f>
-        <v>20.401101906873411</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>26.849777165000745</v>
       </c>
       <c r="P8" s="1">
-        <f ca="1">D8+E8+F8+J8+NORMINV(RAND(),0,4)</f>
-        <v>19.289026875001699</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18.778596321224658</v>
       </c>
       <c r="Q8" s="1">
-        <f ca="1">D8+E8+F8+K8+NORMINV(RAND(),0,4)</f>
-        <v>17.70487113350244</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.864500218984702</v>
       </c>
       <c r="R8" s="1">
-        <f ca="1">D8+E8+F8+L8+NORMINV(RAND(),0,4)</f>
-        <v>7.9456425791447032</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5029171480142853</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -2496,28 +2496,28 @@
         <v>-10</v>
       </c>
       <c r="M9" s="1">
-        <f ca="1">D9+E9+F9+G9+NORMINV(RAND(),0,4)</f>
-        <v>26.768999768893327</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.566913353246786</v>
       </c>
       <c r="N9" s="1">
-        <f ca="1">D9+E9+F9+H9+NORMINV(RAND(),0,4)</f>
-        <v>21.174690650229351</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.73067320855462</v>
       </c>
       <c r="O9" s="1">
-        <f ca="1">D9+E9+F9+I9+NORMINV(RAND(),0,4)</f>
-        <v>26.407942578008203</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25.284963188437725</v>
       </c>
       <c r="P9" s="1">
-        <f ca="1">D9+E9+F9+J9+NORMINV(RAND(),0,4)</f>
-        <v>18.028955244493993</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18.871099971275246</v>
       </c>
       <c r="Q9" s="1">
-        <f ca="1">D9+E9+F9+K9+NORMINV(RAND(),0,4)</f>
-        <v>12.935108592926678</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.407272107464454</v>
       </c>
       <c r="R9" s="1">
-        <f ca="1">D9+E9+F9+L9+NORMINV(RAND(),0,4)</f>
-        <v>6.5193891948064042</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.922989663404608</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2558,28 +2558,28 @@
         <v>-5</v>
       </c>
       <c r="M10" s="1">
-        <f ca="1">D10+E10+F10+G10+NORMINV(RAND(),0,4)</f>
-        <v>38.977700805545602</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39.683022325448498</v>
       </c>
       <c r="N10" s="1">
-        <f ca="1">D10+E10+F10+H10+NORMINV(RAND(),0,4)</f>
-        <v>27.480402120046467</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39.906775052410346</v>
       </c>
       <c r="O10" s="1">
-        <f ca="1">D10+E10+F10+I10+NORMINV(RAND(),0,4)</f>
-        <v>28.094212005526508</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>28.941961563193022</v>
       </c>
       <c r="P10" s="1">
-        <f ca="1">D10+E10+F10+J10+NORMINV(RAND(),0,4)</f>
-        <v>22.818059357476155</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21.010659256778752</v>
       </c>
       <c r="Q10" s="1">
-        <f ca="1">D10+E10+F10+K10+NORMINV(RAND(),0,4)</f>
-        <v>21.475486333683303</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20.500163094533683</v>
       </c>
       <c r="R10" s="1">
-        <f ca="1">D10+E10+F10+L10+NORMINV(RAND(),0,4)</f>
-        <v>13.173631811691394</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.275913272160139</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -2620,28 +2620,28 @@
         <v>-5</v>
       </c>
       <c r="M11" s="1">
-        <f ca="1">D11+E11+F11+G11+NORMINV(RAND(),0,4)</f>
-        <v>45.863378195833874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42.066189567976998</v>
       </c>
       <c r="N11" s="1">
-        <f ca="1">D11+E11+F11+H11+NORMINV(RAND(),0,4)</f>
-        <v>32.891501444067984</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32.592522175428009</v>
       </c>
       <c r="O11" s="1">
-        <f ca="1">D11+E11+F11+I11+NORMINV(RAND(),0,4)</f>
-        <v>22.746413837451193</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>29.729815178636454</v>
       </c>
       <c r="P11" s="1">
-        <f ca="1">D11+E11+F11+J11+NORMINV(RAND(),0,4)</f>
-        <v>27.526668426436871</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25.181863439705428</v>
       </c>
       <c r="Q11" s="1">
-        <f ca="1">D11+E11+F11+K11+NORMINV(RAND(),0,4)</f>
-        <v>22.005410733510782</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29.145696678655707</v>
       </c>
       <c r="R11" s="1">
-        <f ca="1">D11+E11+F11+L11+NORMINV(RAND(),0,4)</f>
-        <v>21.742495754168587</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18.30919903221222</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2682,28 +2682,28 @@
         <v>-5</v>
       </c>
       <c r="M12" s="1">
-        <f ca="1">D12+E12+F12+G12+NORMINV(RAND(),0,4)</f>
-        <v>45.258350648598629</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49.124901017523626</v>
       </c>
       <c r="N12" s="1">
-        <f ca="1">D12+E12+F12+H12+NORMINV(RAND(),0,4)</f>
-        <v>26.180109011298217</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.053885791931762</v>
       </c>
       <c r="O12" s="1">
-        <f ca="1">D12+E12+F12+I12+NORMINV(RAND(),0,4)</f>
-        <v>25.136630451472847</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.869714599429855</v>
       </c>
       <c r="P12" s="1">
-        <f ca="1">D12+E12+F12+J12+NORMINV(RAND(),0,4)</f>
-        <v>22.670281856432084</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21.214021009850573</v>
       </c>
       <c r="Q12" s="1">
-        <f ca="1">D12+E12+F12+K12+NORMINV(RAND(),0,4)</f>
-        <v>14.181979936877774</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22.361511056207288</v>
       </c>
       <c r="R12" s="1">
-        <f ca="1">D12+E12+F12+L12+NORMINV(RAND(),0,4)</f>
-        <v>14.098715021467543</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>15.455942554363606</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2744,28 +2744,28 @@
         <v>-5</v>
       </c>
       <c r="M13" s="1">
-        <f ca="1">D13+E13+F13+G13+NORMINV(RAND(),0,4)</f>
-        <v>44.179796443173139</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.863614979792523</v>
       </c>
       <c r="N13" s="1">
-        <f ca="1">D13+E13+F13+H13+NORMINV(RAND(),0,4)</f>
-        <v>24.246211909127396</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30.386284256440828</v>
       </c>
       <c r="O13" s="1">
-        <f ca="1">D13+E13+F13+I13+NORMINV(RAND(),0,4)</f>
-        <v>24.596123820733499</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.658766361051285</v>
       </c>
       <c r="P13" s="1">
-        <f ca="1">D13+E13+F13+J13+NORMINV(RAND(),0,4)</f>
-        <v>27.141804978000515</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21.510168763655237</v>
       </c>
       <c r="Q13" s="1">
-        <f ca="1">D13+E13+F13+K13+NORMINV(RAND(),0,4)</f>
-        <v>32.913177944912071</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.2063338163181</v>
       </c>
       <c r="R13" s="1">
-        <f ca="1">D13+E13+F13+L13+NORMINV(RAND(),0,4)</f>
-        <v>14.072269944767363</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16.449295431156525</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2806,28 +2806,28 @@
         <v>-5</v>
       </c>
       <c r="M14" s="1">
-        <f ca="1">D14+E14+F14+G14+NORMINV(RAND(),0,4)</f>
-        <v>49.130024402958917</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50.896776992752237</v>
       </c>
       <c r="N14" s="1">
-        <f ca="1">D14+E14+F14+H14+NORMINV(RAND(),0,4)</f>
-        <v>51.880826569111434</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34.998919230903859</v>
       </c>
       <c r="O14" s="1">
-        <f ca="1">D14+E14+F14+I14+NORMINV(RAND(),0,4)</f>
-        <v>37.222746840150606</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.839120889586781</v>
       </c>
       <c r="P14" s="1">
-        <f ca="1">D14+E14+F14+J14+NORMINV(RAND(),0,4)</f>
-        <v>33.029339565566247</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.353096415509619</v>
       </c>
       <c r="Q14" s="1">
-        <f ca="1">D14+E14+F14+K14+NORMINV(RAND(),0,4)</f>
-        <v>33.785236407075821</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30.710844337305439</v>
       </c>
       <c r="R14" s="1">
-        <f ca="1">D14+E14+F14+L14+NORMINV(RAND(),0,4)</f>
-        <v>26.867868603213243</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32.737870755805247</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2868,28 +2868,28 @@
         <v>-5</v>
       </c>
       <c r="M15" s="1">
-        <f ca="1">D15+E15+F15+G15+NORMINV(RAND(),0,4)</f>
-        <v>50.713118379722722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.624678489053984</v>
       </c>
       <c r="N15" s="1">
-        <f ca="1">D15+E15+F15+H15+NORMINV(RAND(),0,4)</f>
-        <v>49.879929523988515</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40.757847899201295</v>
       </c>
       <c r="O15" s="1">
-        <f ca="1">D15+E15+F15+I15+NORMINV(RAND(),0,4)</f>
-        <v>42.386650165463585</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>39.661852391930474</v>
       </c>
       <c r="P15" s="1">
-        <f ca="1">D15+E15+F15+J15+NORMINV(RAND(),0,4)</f>
-        <v>31.232656743214214</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>41.03889058867037</v>
       </c>
       <c r="Q15" s="1">
-        <f ca="1">D15+E15+F15+K15+NORMINV(RAND(),0,4)</f>
-        <v>26.141859422884693</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36.478800819440274</v>
       </c>
       <c r="R15" s="1">
-        <f ca="1">D15+E15+F15+L15+NORMINV(RAND(),0,4)</f>
-        <v>22.548610539393859</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>24.965284765453589</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -2930,28 +2930,28 @@
         <v>-5</v>
       </c>
       <c r="M16" s="1">
-        <f ca="1">D16+E16+F16+G16+NORMINV(RAND(),0,4)</f>
-        <v>48.371291935758883</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49.402122352928004</v>
       </c>
       <c r="N16" s="1">
-        <f ca="1">D16+E16+F16+H16+NORMINV(RAND(),0,4)</f>
-        <v>45.048941251839629</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39.750469252942295</v>
       </c>
       <c r="O16" s="1">
-        <f ca="1">D16+E16+F16+I16+NORMINV(RAND(),0,4)</f>
-        <v>32.731056133161687</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>29.489452318510651</v>
       </c>
       <c r="P16" s="1">
-        <f ca="1">D16+E16+F16+J16+NORMINV(RAND(),0,4)</f>
-        <v>34.967869116941849</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>29.52393555192236</v>
       </c>
       <c r="Q16" s="1">
-        <f ca="1">D16+E16+F16+K16+NORMINV(RAND(),0,4)</f>
-        <v>35.862413278302881</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37.343187257513868</v>
       </c>
       <c r="R16" s="1">
-        <f ca="1">D16+E16+F16+L16+NORMINV(RAND(),0,4)</f>
-        <v>27.585920692666935</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>25.517831206071975</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -2992,28 +2992,28 @@
         <v>-5</v>
       </c>
       <c r="M17" s="1">
-        <f ca="1">D17+E17+F17+G17+NORMINV(RAND(),0,4)</f>
-        <v>53.027835242016735</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.085279257113697</v>
       </c>
       <c r="N17" s="1">
-        <f ca="1">D17+E17+F17+H17+NORMINV(RAND(),0,4)</f>
-        <v>44.323873804627809</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45.383898556766177</v>
       </c>
       <c r="O17" s="1">
-        <f ca="1">D17+E17+F17+I17+NORMINV(RAND(),0,4)</f>
-        <v>44.462485458390439</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>39.908295634253186</v>
       </c>
       <c r="P17" s="1">
-        <f ca="1">D17+E17+F17+J17+NORMINV(RAND(),0,4)</f>
-        <v>30.020106563764273</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.11977010637672</v>
       </c>
       <c r="Q17" s="1">
-        <f ca="1">D17+E17+F17+K17+NORMINV(RAND(),0,4)</f>
-        <v>30.59034282889931</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>35.80298951073852</v>
       </c>
       <c r="R17" s="1">
-        <f ca="1">D17+E17+F17+L17+NORMINV(RAND(),0,4)</f>
-        <v>22.725443810163824</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28.79325021243492</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -3054,28 +3054,28 @@
         <v>5</v>
       </c>
       <c r="M18" s="1">
-        <f ca="1">D18+E18+F18+G18+NORMINV(RAND(),0,4)</f>
-        <v>60.511538254334958</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54.464016062720169</v>
       </c>
       <c r="N18" s="1">
-        <f ca="1">D18+E18+F18+H18+NORMINV(RAND(),0,4)</f>
-        <v>54.632157792415171</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52.065664211778682</v>
       </c>
       <c r="O18" s="1">
-        <f ca="1">D18+E18+F18+I18+NORMINV(RAND(),0,4)</f>
-        <v>38.167950665750105</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.333338302351116</v>
       </c>
       <c r="P18" s="1">
-        <f ca="1">D18+E18+F18+J18+NORMINV(RAND(),0,4)</f>
-        <v>35.625360127030447</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38.339091830198733</v>
       </c>
       <c r="Q18" s="1">
-        <f ca="1">D18+E18+F18+K18+NORMINV(RAND(),0,4)</f>
-        <v>34.657322047365192</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>35.132645400618948</v>
       </c>
       <c r="R18" s="1">
-        <f ca="1">D18+E18+F18+L18+NORMINV(RAND(),0,4)</f>
-        <v>35.737773746958389</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33.56445610056312</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -3116,28 +3116,28 @@
         <v>5</v>
       </c>
       <c r="M19" s="1">
-        <f ca="1">D19+E19+F19+G19+NORMINV(RAND(),0,4)</f>
-        <v>58.797304853617966</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>55.355618783106344</v>
       </c>
       <c r="N19" s="1">
-        <f ca="1">D19+E19+F19+H19+NORMINV(RAND(),0,4)</f>
-        <v>53.79775478572212</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50.758179438754325</v>
       </c>
       <c r="O19" s="1">
-        <f ca="1">D19+E19+F19+I19+NORMINV(RAND(),0,4)</f>
-        <v>34.236002933300348</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42.258634128731991</v>
       </c>
       <c r="P19" s="1">
-        <f ca="1">D19+E19+F19+J19+NORMINV(RAND(),0,4)</f>
-        <v>32.818084996230773</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>34.555865225652781</v>
       </c>
       <c r="Q19" s="1">
-        <f ca="1">D19+E19+F19+K19+NORMINV(RAND(),0,4)</f>
-        <v>29.321199861877666</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37.210283031563755</v>
       </c>
       <c r="R19" s="1">
-        <f ca="1">D19+E19+F19+L19+NORMINV(RAND(),0,4)</f>
-        <v>35.932878628481255</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>36.470108937920884</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -3178,28 +3178,28 @@
         <v>5</v>
       </c>
       <c r="M20" s="1">
-        <f ca="1">D20+E20+F20+G20+NORMINV(RAND(),0,4)</f>
-        <v>53.375633038388628</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46.196224215346817</v>
       </c>
       <c r="N20" s="1">
-        <f ca="1">D20+E20+F20+H20+NORMINV(RAND(),0,4)</f>
-        <v>53.65228002045545</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.713259995286379</v>
       </c>
       <c r="O20" s="1">
-        <f ca="1">D20+E20+F20+I20+NORMINV(RAND(),0,4)</f>
-        <v>42.333469671941586</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42.517079054081222</v>
       </c>
       <c r="P20" s="1">
-        <f ca="1">D20+E20+F20+J20+NORMINV(RAND(),0,4)</f>
-        <v>41.54424043329368</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>31.005248601295907</v>
       </c>
       <c r="Q20" s="1">
-        <f ca="1">D20+E20+F20+K20+NORMINV(RAND(),0,4)</f>
-        <v>26.996210003977261</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24.963704171347928</v>
       </c>
       <c r="R20" s="1">
-        <f ca="1">D20+E20+F20+L20+NORMINV(RAND(),0,4)</f>
-        <v>34.952881463596881</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>39.004364244264501</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -3240,28 +3240,28 @@
         <v>5</v>
       </c>
       <c r="M21" s="1">
-        <f ca="1">D21+E21+F21+G21+NORMINV(RAND(),0,4)</f>
-        <v>61.423581990455759</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.893736311718698</v>
       </c>
       <c r="N21" s="1">
-        <f ca="1">D21+E21+F21+H21+NORMINV(RAND(),0,4)</f>
-        <v>56.305258617083922</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51.375261642161661</v>
       </c>
       <c r="O21" s="1">
-        <f ca="1">D21+E21+F21+I21+NORMINV(RAND(),0,4)</f>
-        <v>37.663572489354678</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38.415548674923265</v>
       </c>
       <c r="P21" s="1">
-        <f ca="1">D21+E21+F21+J21+NORMINV(RAND(),0,4)</f>
-        <v>28.213122716813771</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.770502042859391</v>
       </c>
       <c r="Q21" s="1">
-        <f ca="1">D21+E21+F21+K21+NORMINV(RAND(),0,4)</f>
-        <v>23.97546849326735</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23.359937971515532</v>
       </c>
       <c r="R21" s="1">
-        <f ca="1">D21+E21+F21+L21+NORMINV(RAND(),0,4)</f>
-        <v>32.556010757911785</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33.481948425628737</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -3302,28 +3302,28 @@
         <v>5</v>
       </c>
       <c r="M22" s="1">
-        <f ca="1">D22+E22+F22+G22+NORMINV(RAND(),0,4)</f>
-        <v>54.087889206727816</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.727966123838897</v>
       </c>
       <c r="N22" s="1">
-        <f ca="1">D22+E22+F22+H22+NORMINV(RAND(),0,4)</f>
-        <v>50.701305081461825</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46.526099329944074</v>
       </c>
       <c r="O22" s="1">
-        <f ca="1">D22+E22+F22+I22+NORMINV(RAND(),0,4)</f>
-        <v>41.394919738974103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35.873996435848696</v>
       </c>
       <c r="P22" s="1">
-        <f ca="1">D22+E22+F22+J22+NORMINV(RAND(),0,4)</f>
-        <v>30.772875256329087</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>39.279544804751225</v>
       </c>
       <c r="Q22" s="1">
-        <f ca="1">D22+E22+F22+K22+NORMINV(RAND(),0,4)</f>
-        <v>25.144559487608316</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25.329088291208112</v>
       </c>
       <c r="R22" s="1">
-        <f ca="1">D22+E22+F22+L22+NORMINV(RAND(),0,4)</f>
-        <v>26.774212382034161</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>28.66327711808173</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -3364,28 +3364,28 @@
         <v>5</v>
       </c>
       <c r="M23" s="1">
-        <f ca="1">D23+E23+F23+G23+NORMINV(RAND(),0,4)</f>
-        <v>55.659953162152256</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>51.53806820222934</v>
       </c>
       <c r="N23" s="1">
-        <f ca="1">D23+E23+F23+H23+NORMINV(RAND(),0,4)</f>
-        <v>49.159741259720697</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49.276921548517969</v>
       </c>
       <c r="O23" s="1">
-        <f ca="1">D23+E23+F23+I23+NORMINV(RAND(),0,4)</f>
-        <v>41.644541243153334</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40.671515593741518</v>
       </c>
       <c r="P23" s="1">
-        <f ca="1">D23+E23+F23+J23+NORMINV(RAND(),0,4)</f>
-        <v>29.22275577816545</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36.443536713349509</v>
       </c>
       <c r="Q23" s="1">
-        <f ca="1">D23+E23+F23+K23+NORMINV(RAND(),0,4)</f>
-        <v>30.561373205160532</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>32.436971983577365</v>
       </c>
       <c r="R23" s="1">
-        <f ca="1">D23+E23+F23+L23+NORMINV(RAND(),0,4)</f>
-        <v>25.687372759852437</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>39.322288531498977</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -3426,28 +3426,28 @@
         <v>5</v>
       </c>
       <c r="M24" s="1">
-        <f ca="1">D24+E24+F24+G24+NORMINV(RAND(),0,4)</f>
-        <v>54.854166680773865</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45.936468122823015</v>
       </c>
       <c r="N24" s="1">
-        <f ca="1">D24+E24+F24+H24+NORMINV(RAND(),0,4)</f>
-        <v>52.528787811030455</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45.231091797724723</v>
       </c>
       <c r="O24" s="1">
-        <f ca="1">D24+E24+F24+I24+NORMINV(RAND(),0,4)</f>
-        <v>43.272405091006625</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42.15080715775558</v>
       </c>
       <c r="P24" s="1">
-        <f ca="1">D24+E24+F24+J24+NORMINV(RAND(),0,4)</f>
-        <v>35.612531076612598</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36.962196362534151</v>
       </c>
       <c r="Q24" s="1">
-        <f ca="1">D24+E24+F24+K24+NORMINV(RAND(),0,4)</f>
-        <v>30.301904713944612</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.675024852325649</v>
       </c>
       <c r="R24" s="1">
-        <f ca="1">D24+E24+F24+L24+NORMINV(RAND(),0,4)</f>
-        <v>26.750367230795788</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>32.998076925225433</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -3488,28 +3488,28 @@
         <v>5</v>
       </c>
       <c r="M25" s="1">
-        <f ca="1">D25+E25+F25+G25+NORMINV(RAND(),0,4)</f>
-        <v>55.354559872420865</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57.547391763768928</v>
       </c>
       <c r="N25" s="1">
-        <f ca="1">D25+E25+F25+H25+NORMINV(RAND(),0,4)</f>
-        <v>58.92797615994936</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47.196148375693753</v>
       </c>
       <c r="O25" s="1">
-        <f ca="1">D25+E25+F25+I25+NORMINV(RAND(),0,4)</f>
-        <v>38.582515418735653</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.346043242500087</v>
       </c>
       <c r="P25" s="1">
-        <f ca="1">D25+E25+F25+J25+NORMINV(RAND(),0,4)</f>
-        <v>34.623369308320484</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>31.950700687466036</v>
       </c>
       <c r="Q25" s="1">
-        <f ca="1">D25+E25+F25+K25+NORMINV(RAND(),0,4)</f>
-        <v>31.127924585283186</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27.909973905943076</v>
       </c>
       <c r="R25" s="1">
-        <f ca="1">D25+E25+F25+L25+NORMINV(RAND(),0,4)</f>
-        <v>32.87856862973797</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40.795134811006513</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>5.1169445042532473</v>
+        <v>4.9358946858248078</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -3597,19 +3597,19 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">C2+D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>27.479070088167621</v>
+        <v>26.156528147170611</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">C2+D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>30.595140180609562</v>
+        <v>18.355802177124097</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">C2+D2+G2+NORMINV(RAND(),0,4)</f>
-        <v>22.999107569490622</v>
+        <v>27.629982241008818</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">C2+D2+H2+NORMINV(RAND(),0,4)</f>
-        <v>20.987271166391</v>
+        <v>22.594940385932134</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>0.16753432608614638</v>
+        <v>5.1385229437739133</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -3640,19 +3640,19 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I13" ca="1" si="1">C3+D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>21.473223739996651</v>
+        <v>27.389689464743416</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J13" ca="1" si="2">C3+D3+F3+NORMINV(RAND(),0,4)</f>
-        <v>26.771220220445766</v>
+        <v>24.866928939631524</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K13" ca="1" si="3">C3+D3+G3+NORMINV(RAND(),0,4)</f>
-        <v>25.483017533239419</v>
+        <v>27.149891748559334</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L13" ca="1" si="4">C3+D3+H3+NORMINV(RAND(),0,4)</f>
-        <v>9.9834358624191637</v>
+        <v>23.939832874312899</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8577179798871519</v>
+        <v>2.7529573985448073</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3683,19 +3683,19 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.357229540464409</v>
+        <v>21.557205247470435</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.574708909647171</v>
+        <v>23.497492237498054</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.572218069484631</v>
+        <v>25.157120733191043</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.557547804593707</v>
+        <v>19.966034227905002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0644834285139524</v>
+        <v>5.5354787094429687</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -3726,19 +3726,19 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35.059021245747928</v>
+        <v>30.192287205142822</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.098599681471963</v>
+        <v>35.673850595787258</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.55697458626155</v>
+        <v>27.204461755670806</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>21.473206814839305</v>
+        <v>33.280446659683903</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.066337893362479</v>
+        <v>10.59451255107987</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -3769,19 +3769,19 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.939555087974009</v>
+        <v>24.50241126848238</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29.020015046228821</v>
+        <v>35.963720320406345</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.500805876766826</v>
+        <v>28.088710892499421</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11.500493017150426</v>
+        <v>23.147047133932038</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4985387687559992</v>
+        <v>8.3072726326829596</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3812,19 +3812,19 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.017655945244222</v>
+        <v>31.48034766231444</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.588891475835791</v>
+        <v>28.606592213738587</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.367270762713559</v>
+        <v>26.833225166842372</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.565869124279903</v>
+        <v>27.549881723433387</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5542916404999474</v>
+        <v>-0.84425025731345116</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3855,19 +3855,19 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.719508805723105</v>
+        <v>21.384188141012284</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.377349019419512</v>
+        <v>22.549205951308146</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.374566899222092</v>
+        <v>19.877818743651005</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>23.991357111953892</v>
+        <v>14.686905952318444</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4651391008652608</v>
+        <v>6.8243971246149728</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3898,19 +3898,19 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.220809138986752</v>
+        <v>25.332507850372181</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21.821914109587311</v>
+        <v>31.128956541798658</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.365681747146347</v>
+        <v>27.441482527019915</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>20.884386831926623</v>
+        <v>21.709826593974608</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.340001505267761</v>
+        <v>2.858526321493406</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -3941,19 +3941,19 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.108756673305706</v>
+        <v>20.454004347625887</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.973284565458997</v>
+        <v>26.619027672595408</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.857017085607655</v>
+        <v>24.265402570335912</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.999985569804309</v>
+        <v>12.307030107245158</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6046377033717074</v>
+        <v>4.291814735352351</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3984,19 +3984,19 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.790924991063701</v>
+        <v>25.128801775018008</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>25.751158193710733</v>
+        <v>27.61484609306769</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25.266310038081535</v>
+        <v>16.86150929323718</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.917975924182176</v>
+        <v>23.675219325998253</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.440208237128612</v>
+        <v>6.8916295102358394</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4027,19 +4027,19 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.243800149423176</v>
+        <v>27.620883524879346</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>27.260645858128115</v>
+        <v>33.783031488067827</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.953044363510234</v>
+        <v>22.233598536775517</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.78133045210766</v>
+        <v>25.479850590772521</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7889559914649755</v>
+        <v>-1.055530474723664</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -4070,19 +4070,19 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.74135326481008</v>
+        <v>6.810413350722456</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23.5500500267928</v>
+        <v>27.540168477962645</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>20.872843814660531</v>
+        <v>23.297824599678712</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14.960198305186085</v>
+        <v>11.911588161455141</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>6.1447141991260033</v>
+        <v>9.2733056290696005</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -4238,19 +4238,19 @@
       </c>
       <c r="K2" s="1">
         <f ca="1">D2+E2+F2+G2+NORMINV(RAND(),0,4)</f>
-        <v>41.297605202648</v>
+        <v>43.762631557312808</v>
       </c>
       <c r="L2" s="1">
         <f ca="1">D2+E2+F2+H2+NORMINV(RAND(),0,4)</f>
-        <v>49.579849261021607</v>
+        <v>44.501699294932166</v>
       </c>
       <c r="M2" s="1">
         <f ca="1">D2+E2+F2+I2+NORMINV(RAND(),0,4)</f>
-        <v>46.434093428009945</v>
+        <v>40.633360395287269</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">D2+E2+F2+J2+NORMINV(RAND(),0,4)</f>
-        <v>33.162983522907076</v>
+        <v>38.52494572331365</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>8.6699970143348786</v>
+        <v>7.608244944488991</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -4287,19 +4287,19 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K37" ca="1" si="1">D3+E3+F3+G3+NORMINV(RAND(),0,4)</f>
-        <v>40.211143233840048</v>
+        <v>39.862411080934052</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L37" ca="1" si="2">D3+E3+F3+H3+NORMINV(RAND(),0,4)</f>
-        <v>39.552753877310117</v>
+        <v>52.753983093430456</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M37" ca="1" si="3">D3+E3+F3+I3+NORMINV(RAND(),0,4)</f>
-        <v>42.247879084364754</v>
+        <v>42.063717570221485</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N37" ca="1" si="4">D3+E3+F3+J3+NORMINV(RAND(),0,4)</f>
-        <v>42.047099527812577</v>
+        <v>43.117380274821315</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37081028721034226</v>
+        <v>2.7930711475188645</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -4336,19 +4336,19 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.353139119304362</v>
+        <v>36.752241825617709</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.032165062549751</v>
+        <v>39.638913277007383</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.519686811001286</v>
+        <v>31.730387546807901</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31.211029323795071</v>
+        <v>33.141402761985518</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0089951789783829</v>
+        <v>3.6737249773872223</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -4385,19 +4385,19 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.678150842005422</v>
+        <v>42.390965223951383</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49.423330807815219</v>
+        <v>47.788255449680022</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32.658898505907899</v>
+        <v>36.99802706909491</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45.400053395254332</v>
+        <v>27.842281688535071</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6007183039477395</v>
+        <v>13.953836376335005</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -4434,19 +4434,19 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.878909256726075</v>
+        <v>49.701573638920436</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.24301806434778</v>
+        <v>58.205160132133521</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.681029294986899</v>
+        <v>54.624697971142808</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.800233699281776</v>
+        <v>48.336619950483289</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.335573859094396</v>
+        <v>6.2949629921455781</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -4483,19 +4483,19 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.618429893082265</v>
+        <v>40.101499402878929</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.201524449794107</v>
+        <v>52.210766029479579</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.100531988194504</v>
+        <v>37.155015871093347</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.514858424157858</v>
+        <v>37.903120607606375</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7876216919276011</v>
+        <v>7.1134152324022848</v>
       </c>
       <c r="F8">
         <v>15</v>
@@ -4532,19 +4532,19 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.780295646336853</v>
+        <v>44.222314448373851</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.015806064513754</v>
+        <v>47.835927711355225</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.293906811838447</v>
+        <v>40.021597447599603</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.626825280826409</v>
+        <v>43.332108273203431</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1198448117488278</v>
+        <v>4.70446570161839</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -4581,19 +4581,19 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.531724570048567</v>
+        <v>43.810389421438039</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.536131666951164</v>
+        <v>51.258132713970866</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.114130761744946</v>
+        <v>35.32622015779021</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.229570760515287</v>
+        <v>37.045238091025837</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.74803209302417</v>
+        <v>7.6343326649295946</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -4630,19 +4630,19 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.177227944518201</v>
+        <v>34.62990372909438</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.060075728875177</v>
+        <v>58.086110839627139</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38.261268428818028</v>
+        <v>41.872785702491711</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.47478933704766</v>
+        <v>35.422302382419574</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9029517320211964</v>
+        <v>6.2111867451195977</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -4679,19 +4679,19 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.205312689659422</v>
+        <v>42.994187420081275</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.787300676499463</v>
+        <v>52.750237641728511</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.411500962529736</v>
+        <v>43.830759029958358</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.177311292725882</v>
+        <v>36.890298560636651</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7987522833955989</v>
+        <v>8.7122275522505479</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -4728,19 +4728,19 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.451422374981838</v>
+        <v>42.477677813947054</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.672954080878405</v>
+        <v>59.334498565032433</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.916686940235294</v>
+        <v>45.904802088797673</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.346695711759217</v>
+        <v>39.823597892112147</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6801940724976392</v>
+        <v>1.3981845965615367</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -4777,19 +4777,19 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.625887475801491</v>
+        <v>37.30948575224842</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.695913250470056</v>
+        <v>45.532618084261166</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.261386589393787</v>
+        <v>38.008003170682684</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.111647331773391</v>
+        <v>29.50762497897567</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E14" s="1">
         <f ca="1">E2</f>
-        <v>6.1447141991260033</v>
+        <v>9.2733056290696005</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -4826,19 +4826,19 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.304609280893864</v>
+        <v>47.660462303707455</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.300763114353444</v>
+        <v>55.379012947696637</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.214280653085595</v>
+        <v>66.782945223932359</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>54.470005408343532</v>
+        <v>49.148785211734108</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E25" ca="1" si="5">E3</f>
-        <v>8.6699970143348786</v>
+        <v>7.608244944488991</v>
       </c>
       <c r="F15">
         <v>25</v>
@@ -4875,19 +4875,19 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.749695511497038</v>
+        <v>53.073464292836341</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.351196778316179</v>
+        <v>62.165414873000387</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67.227821156901712</v>
+        <v>56.59395802363138</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>63.792362379191722</v>
+        <v>51.51912009129186</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.37081028721034226</v>
+        <v>2.7930711475188645</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -4924,19 +4924,19 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.481198376279217</v>
+        <v>43.017316654477973</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.254632721809401</v>
+        <v>52.979482439738831</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.691641725126331</v>
+        <v>56.657509943718082</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.4452269342477</v>
+        <v>45.487797909541612</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0089951789783829</v>
+        <v>3.6737249773872223</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -4973,19 +4973,19 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.990923511551344</v>
+        <v>51.781081630693748</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.507618488269912</v>
+        <v>58.555693091815542</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.73388053416253</v>
+        <v>57.218249213197026</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45.647467378611815</v>
+        <v>41.666846773655415</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6007183039477395</v>
+        <v>13.953836376335005</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -5022,19 +5022,19 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.415664072580967</v>
+        <v>62.696850997586395</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.260700198499343</v>
+        <v>61.66387496481039</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.758362101692811</v>
+        <v>67.845198041218254</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.089263015823001</v>
+        <v>65.116745060492789</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11.335573859094396</v>
+        <v>6.2949629921455781</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -5071,19 +5071,19 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55.447485426183015</v>
+        <v>47.342426837714839</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.620385607456001</v>
+        <v>47.040887775155383</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>71.510106644615348</v>
+        <v>58.885892826427963</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.557426513459504</v>
+        <v>49.669456757633412</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7876216919276011</v>
+        <v>7.1134152324022848</v>
       </c>
       <c r="F20">
         <v>25</v>
@@ -5120,19 +5120,19 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.34367876732896</v>
+        <v>51.724102099879822</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63.480930296932208</v>
+        <v>62.409799450521582</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>66.914578810288504</v>
+        <v>64.499152245027091</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>57.550028798018893</v>
+        <v>54.321843563081487</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1198448117488278</v>
+        <v>4.70446570161839</v>
       </c>
       <c r="F21">
         <v>25</v>
@@ -5169,19 +5169,19 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55.51018988619505</v>
+        <v>47.80722062444336</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.953921325345661</v>
+        <v>56.548175700644116</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.577070127760557</v>
+        <v>57.758051686132013</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>49.101232140820564</v>
+        <v>51.467718862348484</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.74803209302417</v>
+        <v>7.6343326649295946</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -5218,19 +5218,19 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.443327344252666</v>
+        <v>50.185884474957007</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65.885527475182599</v>
+        <v>61.534803422553978</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.130669535412572</v>
+        <v>65.059852777871839</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.748036826288995</v>
+        <v>46.303601057377193</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9029517320211964</v>
+        <v>6.2111867451195977</v>
       </c>
       <c r="F23">
         <v>25</v>
@@ -5267,19 +5267,19 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.168962549707295</v>
+        <v>53.418941899967415</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.375567467391825</v>
+        <v>52.517352153248645</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.160245240847814</v>
+        <v>54.754079619929556</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.888733974033656</v>
+        <v>44.626017751713555</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7987522833955989</v>
+        <v>8.7122275522505479</v>
       </c>
       <c r="F24">
         <v>25</v>
@@ -5316,19 +5316,19 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.662558467636657</v>
+        <v>53.168398854392422</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.220616842102764</v>
+        <v>65.618360210811531</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.966006424194894</v>
+        <v>64.204621681368934</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.822173488858795</v>
+        <v>50.353578138781998</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6801940724976392</v>
+        <v>1.3981845965615367</v>
       </c>
       <c r="F25">
         <v>25</v>
@@ -5365,19 +5365,19 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.759123586355344</v>
+        <v>49.311071403126917</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>64.346607687823493</v>
+        <v>48.786828802759011</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.40988445796453</v>
+        <v>53.961495722763019</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>52.574845300963574</v>
+        <v>51.503989574426818</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="E26" s="1">
         <f ca="1">E2</f>
-        <v>6.1447141991260033</v>
+        <v>9.2733056290696005</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -5414,19 +5414,19 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.348104548688383</v>
+        <v>48.704891363596424</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50.928598749379432</v>
+        <v>55.197296000635305</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.601201402539886</v>
+        <v>40.055289249901129</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.366088770047327</v>
+        <v>39.727174038637308</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" ref="E27:E37" ca="1" si="6">E3</f>
-        <v>8.6699970143348786</v>
+        <v>7.608244944488991</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -5463,19 +5463,19 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.525831651255608</v>
+        <v>45.104584817639804</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.522372986253515</v>
+        <v>48.231864286780443</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.663997458250847</v>
+        <v>41.09986147796792</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.739368228837947</v>
+        <v>37.024564506522331</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.37081028721034226</v>
+        <v>2.7930711475188645</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -5512,19 +5512,19 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.470899087895361</v>
+        <v>37.172226406848338</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.399939847770703</v>
+        <v>52.879539860887348</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.898571645264816</v>
+        <v>38.956703849939643</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.483364785688252</v>
+        <v>37.370049121700617</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.0089951789783829</v>
+        <v>3.6737249773872223</v>
       </c>
       <c r="F29">
         <v>20</v>
@@ -5561,19 +5561,19 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.275341428642975</v>
+        <v>42.10805240464083</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.777049740126479</v>
+        <v>47.513214282287706</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.943948810037085</v>
+        <v>33.005777889670682</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.082476862732442</v>
+        <v>39.501940888174289</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6007183039477395</v>
+        <v>13.953836376335005</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -5610,19 +5610,19 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.246695745221132</v>
+        <v>54.850810557419614</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.34827323393565</v>
+        <v>58.343395326057923</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.647226499615201</v>
+        <v>52.165564885075</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.89710619722608</v>
+        <v>46.349911222001367</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>11.335573859094396</v>
+        <v>6.2949629921455781</v>
       </c>
       <c r="F31">
         <v>20</v>
@@ -5659,19 +5659,19 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.606723513357885</v>
+        <v>52.447497891410606</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.530247974211349</v>
+        <v>59.370454568530803</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.685566909275622</v>
+        <v>51.492128049286862</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.781667618996927</v>
+        <v>32.809624376339052</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7876216919276011</v>
+        <v>7.1134152324022848</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -5708,19 +5708,19 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.025575207519502</v>
+        <v>50.687643096767246</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.10767703923284</v>
+        <v>48.748112443455632</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.832974459574579</v>
+        <v>45.799972180123845</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.155006252573017</v>
+        <v>36.527827618606167</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1198448117488278</v>
+        <v>4.70446570161839</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -5757,19 +5757,19 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.92271558765075</v>
+        <v>46.525553733390858</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.57488921659413</v>
+        <v>40.656456632328116</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.015039380902756</v>
+        <v>34.96212804212464</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.76657715834542</v>
+        <v>36.188480836592852</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.74803209302417</v>
+        <v>7.6343326649295946</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -5806,19 +5806,19 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.880685284276375</v>
+        <v>54.090511381295485</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44.797106839869656</v>
+        <v>52.622766049617425</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.615508087198521</v>
+        <v>41.431072258093081</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.928831928406247</v>
+        <v>41.581662318903746</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9029517320211964</v>
+        <v>6.2111867451195977</v>
       </c>
       <c r="F35">
         <v>20</v>
@@ -5855,19 +5855,19 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.161062615947358</v>
+        <v>41.219188280145517</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47.83978675773492</v>
+        <v>51.680642065073265</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.653349852059563</v>
+        <v>43.273263829442079</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.024284169873731</v>
+        <v>35.056923369478554</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7987522833955989</v>
+        <v>8.7122275522505479</v>
       </c>
       <c r="F36">
         <v>20</v>
@@ -5904,19 +5904,19 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.912173816695713</v>
+        <v>44.41686062920288</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43.09273358161245</v>
+        <v>54.568543903166812</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.46226222740885</v>
+        <v>46.153703602852708</v>
       </c>
       <c r="N36" s="1">
         <f ca="1">D36+E36+F36+J36+NORMINV(RAND(),0,4)</f>
-        <v>34.016385609158007</v>
+        <v>34.436948944229755</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6801940724976392</v>
+        <v>1.3981845965615367</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -5953,19 +5953,19 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.935770916277733</v>
+        <v>43.248375811380697</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.662430769080892</v>
+        <v>41.265527233199045</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.56172358165454</v>
+        <v>31.055588902657902</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.858496854077018</v>
+        <v>34.700046068912435</v>
       </c>
     </row>
   </sheetData>
@@ -5977,8 +5977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E73787-7163-4E43-B4ED-1B200A59E88C}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P73" sqref="A1:P73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">NORMINV(RAND(),5,3)</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -6076,19 +6076,19 @@
       </c>
       <c r="M2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+I2+NORMINV(RAND(),0,4)</f>
-        <v>46.201245033272869</v>
+        <v>48.768822593856598</v>
       </c>
       <c r="N2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+J2+NORMINV(RAND(),0,4)</f>
-        <v>56.974081452155197</v>
+        <v>51.230997910823689</v>
       </c>
       <c r="O2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+K2+NORMINV(RAND(),0,4)</f>
-        <v>46.163811063896141</v>
+        <v>45.254305891022</v>
       </c>
       <c r="P2" s="1">
         <f ca="1">$E2+$F2+$G2+$H2+L2+NORMINV(RAND(),0,4)</f>
-        <v>27.188341178690447</v>
+        <v>33.126242141362496</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F13" ca="1" si="0">NORMINV(RAND(),5,3)</f>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -6131,19 +6131,19 @@
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M66" ca="1" si="1">$E3+$F3+$G3+$H3+I3+NORMINV(RAND(),0,4)</f>
-        <v>44.460433375824095</v>
+        <v>42.987226057690521</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N66" ca="1" si="2">$E3+$F3+$G3+$H3+J3+NORMINV(RAND(),0,4)</f>
-        <v>52.982769264638634</v>
+        <v>58.80400602617491</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O66" ca="1" si="3">$E3+$F3+$G3+$H3+K3+NORMINV(RAND(),0,4)</f>
-        <v>45.076183917516339</v>
+        <v>46.680890050897446</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P66" ca="1" si="4">$E3+$F3+$G3+$H3+L3+NORMINV(RAND(),0,4)</f>
-        <v>27.622659005809723</v>
+        <v>24.794740562200374</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -6186,19 +6186,19 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.609215363062347</v>
+        <v>42.720369048258064</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.241219158042142</v>
+        <v>53.110537531441835</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.057950876785128</v>
+        <v>42.50446046165964</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.157768189137578</v>
+        <v>26.743467824399684</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -6241,19 +6241,19 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.345623598299397</v>
+        <v>34.856693109921594</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.716926234838049</v>
+        <v>46.691440620788782</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>44.226283782217486</v>
+        <v>41.645708020963298</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.149653683009554</v>
+        <v>24.366786308218707</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6296,19 +6296,19 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.881053736284336</v>
+        <v>42.692646789786956</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.411872584245373</v>
+        <v>46.591732208354642</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.168011546517086</v>
+        <v>48.522010096253823</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32.526850551802632</v>
+        <v>36.61807904251264</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -6351,19 +6351,19 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.417498751261604</v>
+        <v>50.6626525475018</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.76532722592421</v>
+        <v>61.992380418677143</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.269705013801044</v>
+        <v>48.244652484917836</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26.863070417600561</v>
+        <v>35.158985994940885</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -6406,19 +6406,19 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.997751521712345</v>
+        <v>36.201240996332984</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.980600334410681</v>
+        <v>44.749567552282556</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39.72765925801324</v>
+        <v>38.351392934627825</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.791115248371966</v>
+        <v>29.79699027183052</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -6461,19 +6461,19 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.018914957553974</v>
+        <v>43.001394359442251</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.857542220595967</v>
+        <v>56.878731573697749</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.989011382815136</v>
+        <v>43.46283313196664</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.074275356803398</v>
+        <v>31.896773404613374</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6516,19 +6516,19 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>52.686769076776471</v>
+        <v>36.277415781560208</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.503481814091366</v>
+        <v>38.344021831372075</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.202941830363088</v>
+        <v>39.273695670943994</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35.271668602784267</v>
+        <v>23.032886333472131</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -6571,19 +6571,19 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.269994073993374</v>
+        <v>36.723483523222782</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.125298143372206</v>
+        <v>57.433954136268852</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.855420113143744</v>
+        <v>37.384015740220015</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.514080914563252</v>
+        <v>29.988007331309475</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G12">
         <v>15</v>
@@ -6626,19 +6626,19 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.89254801991995</v>
+        <v>49.530682540367096</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.491964762301329</v>
+        <v>54.601644653001109</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.30775142256423</v>
+        <v>44.16955096827472</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27.543229061098938</v>
+        <v>28.675761459504379</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -6681,19 +6681,19 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.04523860054632</v>
+        <v>47.136173894042635</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.291751094351483</v>
+        <v>46.177105881802902</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.488102309140992</v>
+        <v>44.578323082367447</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29.769551167963826</v>
+        <v>29.154489026400661</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F14" s="1">
         <f ca="1">F2</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G14">
         <v>25</v>
@@ -6736,19 +6736,19 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.025513685510248</v>
+        <v>57.316781327414276</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.212768715765328</v>
+        <v>64.397466590646374</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61.310382004491089</v>
+        <v>71.166623404750041</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>59.438935176825659</v>
+        <v>61.738826270702987</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15:F25" ca="1" si="5">F3</f>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G15">
         <v>25</v>
@@ -6791,19 +6791,19 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58.326782694334355</v>
+        <v>56.272392213790674</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.535402163692048</v>
+        <v>64.245380719688569</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>68.497323420534684</v>
+        <v>68.808878395450833</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56.464038536468699</v>
+        <v>63.823697967075503</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G16">
         <v>25</v>
@@ -6846,19 +6846,19 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.408136161165999</v>
+        <v>50.831195720172083</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.374905017406164</v>
+        <v>53.182284107710352</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>76.043802888769761</v>
+        <v>56.856463601179904</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>58.966300435299239</v>
+        <v>55.915948774452602</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -6901,19 +6901,19 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55.354674987870723</v>
+        <v>55.413433508179828</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.662703331579166</v>
+        <v>67.18995012779186</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64.46063424557758</v>
+        <v>64.890724911186084</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>58.730680242544537</v>
+        <v>58.750043257809217</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -6956,19 +6956,19 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60.725119249445918</v>
+        <v>57.216868424005149</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.677867129637271</v>
+        <v>64.997109251706135</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62.786125959581064</v>
+        <v>73.993928730368282</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>67.871533679190904</v>
+        <v>70.820332097358076</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -7011,19 +7011,19 @@
       </c>
       <c r="M19" s="1">
         <f ca="1">$E19+$F19+$G19+$H19+I19+NORMINV(RAND(),0,4)</f>
-        <v>56.828326744322617</v>
+        <v>62.754499771745422</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60.799793145160145</v>
+        <v>73.381162511431384</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69.536957821282442</v>
+        <v>70.545657683893609</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>60.535785845599236</v>
+        <v>63.561119907351852</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G20">
         <v>25</v>
@@ -7066,19 +7066,19 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.133006893643589</v>
+        <v>53.489819176816731</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63.07548520323526</v>
+        <v>55.957731204341648</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>57.467739309158098</v>
+        <v>64.328797149097809</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>53.816598214118578</v>
+        <v>54.372641065691319</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G21">
         <v>25</v>
@@ -7121,19 +7121,19 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>59.423249242193101</v>
+        <v>51.500615292487332</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.056092510285602</v>
+        <v>65.843916674457802</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>66.246251595400977</v>
+        <v>67.23432809361239</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>60.981647402595136</v>
+        <v>67.045565388536616</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G22">
         <v>25</v>
@@ -7176,19 +7176,19 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60.668580400880892</v>
+        <v>46.817597502053559</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63.437294514469293</v>
+        <v>59.386997428020706</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>70.616180815536779</v>
+        <v>62.273517934958164</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>67.762393710431766</v>
+        <v>51.147928773861224</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G23">
         <v>25</v>
@@ -7231,19 +7231,19 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.457521167847894</v>
+        <v>43.542817962507918</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>62.218943529610677</v>
+        <v>53.592830536451132</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69.224123229869662</v>
+        <v>59.446717698103306</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>54.393180930911385</v>
+        <v>49.692142052423577</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G24">
         <v>25</v>
@@ -7286,19 +7286,19 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>62.775855478928221</v>
+        <v>58.671833963216216</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.441412183750273</v>
+        <v>62.063456838436373</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63.288796725682005</v>
+        <v>67.037362228438369</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61.589056404049757</v>
+        <v>50.813958627003714</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -7341,19 +7341,19 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.894963569346096</v>
+        <v>47.778065899219577</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>66.547195344020452</v>
+        <v>58.034179319249574</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>72.959186773774775</v>
+        <v>63.9473037187052</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>64.692076761873963</v>
+        <v>51.812926205256879</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">F2</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -7396,19 +7396,19 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.048200918176335</v>
+        <v>51.495610192475958</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>59.424271969386773</v>
+        <v>61.85364588408116</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40.939941368094786</v>
+        <v>44.64735960507204</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>34.395124412570347</v>
+        <v>41.923848739861469</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ref="F27:F37" ca="1" si="6">F3</f>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -7451,19 +7451,19 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.046189387304764</v>
+        <v>58.596379684791529</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.95415597384963</v>
+        <v>56.544614712622547</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.949450738920817</v>
+        <v>49.181907359569138</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.663057786969134</v>
+        <v>48.521487521237596</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -7506,19 +7506,19 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>54.234390079864376</v>
+        <v>43.830009131326086</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58.252045035359636</v>
+        <v>49.770477037756258</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.142531552225051</v>
+        <v>40.414020847901845</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55.248114500984357</v>
+        <v>35.701601676934253</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -7561,19 +7561,19 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.042607075945803</v>
+        <v>54.108239002214241</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.041566810679015</v>
+        <v>48.752444294908756</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.342523682218051</v>
+        <v>32.691935208018592</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.794171954303998</v>
+        <v>36.274279420235452</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -7616,19 +7616,19 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.250501408445579</v>
+        <v>45.985317603080084</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.29620873756658</v>
+        <v>58.406718724587442</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>48.858104100987433</v>
+        <v>41.977530441804149</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.563870647229727</v>
+        <v>46.052375795133138</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -7671,19 +7671,19 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49.871724544859156</v>
+        <v>59.728626285530346</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.179371957478011</v>
+        <v>67.158060211864523</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46.356065013495041</v>
+        <v>56.213340561557004</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41.581951614700216</v>
+        <v>44.357410198187353</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -7726,19 +7726,19 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47.595831806374903</v>
+        <v>41.091619401858438</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61.929404817695179</v>
+        <v>50.819583513336987</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.665361234841036</v>
+        <v>34.240947214066196</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28.305219539644966</v>
+        <v>31.92835151267802</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -7781,19 +7781,19 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58.440859242057485</v>
+        <v>53.766628771048069</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54.65517127163092</v>
+        <v>57.640548141850864</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.135569563354906</v>
+        <v>41.636054576549348</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.78922688670648</v>
+        <v>37.747493364763173</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -7836,19 +7836,19 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51.222971307383808</v>
+        <v>49.469905561400431</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56.462053193614643</v>
+        <v>44.481745740366918</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.964756477717053</v>
+        <v>36.874143736416585</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.979125016503431</v>
+        <v>30.452528435565483</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -7891,19 +7891,19 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.677659473623422</v>
+        <v>43.711676479895488</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.955750035035628</v>
+        <v>52.184179172650147</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.40094786096477</v>
+        <v>44.374938143692432</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.123061544798787</v>
+        <v>33.740813105163433</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G36">
         <v>20</v>
@@ -7946,19 +7946,19 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.924321019104887</v>
+        <v>52.164201130060441</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.900832423018436</v>
+        <v>48.798658139119595</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43.969490026858267</v>
+        <v>48.287975143029769</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33.455925880222601</v>
+        <v>33.301000472824114</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G37">
         <v>20</v>
@@ -8001,19 +8001,19 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53.646592408949786</v>
+        <v>49.073483953718117</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67.062718183960584</v>
+        <v>44.712905295459883</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45.283218586210751</v>
+        <v>45.561918983398506</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.191490503561546</v>
+        <v>38.374255859896749</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="F38" s="1">
         <f ca="1">F2</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -8056,19 +8056,19 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.704915659712167</v>
+        <v>39.749448261128741</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.740667030296677</v>
+        <v>37.361974165702115</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>35.419827552376503</v>
+        <v>33.162849177178849</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13.982606025401784</v>
+        <v>8.8115808708359999</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ref="F39:F73" ca="1" si="7">F3</f>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -8111,19 +8111,19 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.251531055206939</v>
+        <v>28.865682845082784</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.816923270236856</v>
+        <v>37.572190511085708</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.444081481013637</v>
+        <v>35.163272975111042</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.840423079084697</v>
+        <v>13.754784551840791</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G40">
         <v>15</v>
@@ -8166,19 +8166,19 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.516777973580183</v>
+        <v>33.181175283985439</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.884190935653585</v>
+        <v>28.87227596927691</v>
       </c>
       <c r="O40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42.707462774205624</v>
+        <v>34.320373330234425</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.909627762722973</v>
+        <v>12.790189419942186</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -8221,19 +8221,19 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.023291505403758</v>
+        <v>28.265189248430151</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.857400158416318</v>
+        <v>34.90641145429305</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33.162182554394398</v>
+        <v>16.097288266029381</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.862779577087544</v>
+        <v>20.106216229919433</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -8276,19 +8276,19 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.7911744279583</v>
+        <v>36.330138276910688</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.713571611871515</v>
+        <v>36.709496564556261</v>
       </c>
       <c r="O42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27.63751909968909</v>
+        <v>28.227852716973523</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3513774933285809</v>
+        <v>17.636073445563166</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G43">
         <v>15</v>
@@ -8331,19 +8331,19 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.966599657912177</v>
+        <v>36.412244328070258</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.337668396935882</v>
+        <v>34.797003080433228</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.488022005757593</v>
+        <v>31.558230285990327</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11.025967132757348</v>
+        <v>14.440621167595573</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -8386,19 +8386,19 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.204028859853906</v>
+        <v>18.675851941695498</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.052317339395934</v>
+        <v>28.877781399529422</v>
       </c>
       <c r="O44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.327445500191534</v>
+        <v>24.28104790275156</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12.663528108063069</v>
+        <v>6.6670904911786977</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G45">
         <v>15</v>
@@ -8441,19 +8441,19 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30.81846399331987</v>
+        <v>24.779576592587709</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.410133010169631</v>
+        <v>31.30126784735641</v>
       </c>
       <c r="O45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.029642223816438</v>
+        <v>29.037759245271804</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>22.797552488768464</v>
+        <v>16.769216117928085</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -8496,19 +8496,19 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.615820986829306</v>
+        <v>29.720107455566591</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41.312591321503547</v>
+        <v>32.67858222253539</v>
       </c>
       <c r="O46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.16334561754708</v>
+        <v>21.64605096735847</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.148874621367941</v>
+        <v>14.39428207958456</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -8551,19 +8551,19 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.681409007859301</v>
+        <v>24.110261724339569</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30.42272980380789</v>
+        <v>36.185488577320314</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.917710091742084</v>
+        <v>30.789573416343053</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.78097253003757</v>
+        <v>11.846093491756061</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -8606,19 +8606,19 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.220421181931474</v>
+        <v>32.170913174649954</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32.641242790427889</v>
+        <v>33.495515797736481</v>
       </c>
       <c r="O48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.968232127348784</v>
+        <v>31.016390925192827</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.393107968258473</v>
+        <v>13.201397145535362</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G49">
         <v>15</v>
@@ -8661,19 +8661,19 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.324638090004321</v>
+        <v>31.992298007303624</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.273166238416508</v>
+        <v>30.045227850751239</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36.828791652447507</v>
+        <v>33.083786141439205</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17.712311009947612</v>
+        <v>15.626485443333221</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="F50" s="1">
         <f ca="1">F14</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G50">
         <v>25</v>
@@ -8716,19 +8716,19 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.915628474085942</v>
+        <v>42.02839802304721</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.575173827119066</v>
+        <v>51.513112915258162</v>
       </c>
       <c r="O50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47.477398995459815</v>
+        <v>51.863520090996353</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>36.239410161048632</v>
+        <v>46.092395957216226</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G51">
         <v>25</v>
@@ -8771,19 +8771,19 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41.242721983474247</v>
+        <v>41.458114281744095</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40.819191321951266</v>
+        <v>41.936753942194791</v>
       </c>
       <c r="O51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.514184541191192</v>
+        <v>57.088127518553271</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47.11413511886019</v>
+        <v>43.345932666989675</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G52">
         <v>25</v>
@@ -8826,19 +8826,19 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50.221602971618111</v>
+        <v>39.801449320971926</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51.4204468039893</v>
+        <v>42.19793927087062</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.290992088091677</v>
+        <v>48.492766340641801</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42.174940681751892</v>
+        <v>43.665327616548652</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G53">
         <v>25</v>
@@ -8881,19 +8881,19 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.134079402022529</v>
+        <v>40.802518125894814</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43.224096399301658</v>
+        <v>38.829808741418901</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53.275794763404967</v>
+        <v>48.526931458198803</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37.635250141264471</v>
+        <v>34.209257986926644</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G54">
         <v>25</v>
@@ -8936,19 +8936,19 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.478468161605157</v>
+        <v>41.550424481317094</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52.87348754279634</v>
+        <v>41.091478913166391</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>52.431357111460599</v>
+        <v>47.277375990462652</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>48.350082186911592</v>
+        <v>44.813692652529653</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G55">
         <v>25</v>
@@ -8991,19 +8991,19 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.219215127027567</v>
+        <v>38.506186267470355</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43.594640505189787</v>
+        <v>52.946073749101274</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49.339495147560591</v>
+        <v>52.047674078943118</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40.726007051905086</v>
+        <v>49.931409101329912</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -9046,19 +9046,19 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.670752386045478</v>
+        <v>35.939386484115573</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>38.467268703116673</v>
+        <v>34.605818754103495</v>
       </c>
       <c r="O56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50.492399820577404</v>
+        <v>36.052187788895701</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.72554747438349</v>
+        <v>37.276830862919873</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G57">
         <v>25</v>
@@ -9101,19 +9101,19 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36.707913951478346</v>
+        <v>29.556300711706676</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>55.188430446997877</v>
+        <v>43.24616560441202</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56.440748172502332</v>
+        <v>52.296103926819391</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45.993027443430144</v>
+        <v>36.191636663515027</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G58">
         <v>25</v>
@@ -9156,19 +9156,19 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.770518939714933</v>
+        <v>37.123241661914037</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>53.237418747229476</v>
+        <v>48.410353362691403</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54.644517803926163</v>
+        <v>46.957742852920681</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>43.73584861398799</v>
+        <v>34.375046638027534</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G59">
         <v>25</v>
@@ -9211,19 +9211,19 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.079956832504791</v>
+        <v>35.392201453130497</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36.768877439519549</v>
+        <v>40.522749787134849</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41.986865571318546</v>
+        <v>42.768555096645393</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39.334661996730063</v>
+        <v>41.466775988913547</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -9266,19 +9266,19 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.130020968851504</v>
+        <v>44.972527981937176</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>48.435652797799335</v>
+        <v>48.716516241622401</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55.732603543659877</v>
+        <v>54.343983461063459</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38.471789027461611</v>
+        <v>43.081680999541362</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G61">
         <v>25</v>
@@ -9321,19 +9321,19 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.681271826742716</v>
+        <v>37.163243787434411</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45.213844651025155</v>
+        <v>41.316331093927388</v>
       </c>
       <c r="O61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51.133526104117252</v>
+        <v>46.211318981763263</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>44.770960865181522</v>
+        <v>34.61690486239879</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="F62" s="1">
         <f ca="1">F26</f>
-        <v>5.0589735386731167</v>
+        <v>7.8516567619271243</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -9376,19 +9376,19 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.584509186370255</v>
+        <v>44.694787372484235</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.983088826096811</v>
+        <v>43.746409684790613</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>29.591183234098885</v>
+        <v>29.873812463469367</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19.989866330789788</v>
+        <v>24.323654267200144</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2029953168688028</v>
+        <v>6.472063947636066</v>
       </c>
       <c r="G63">
         <v>20</v>
@@ -9431,19 +9431,19 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.012443935377306</v>
+        <v>34.390112059275175</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>39.445405445061724</v>
+        <v>40.044110929436052</v>
       </c>
       <c r="O63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31.179131477538558</v>
+        <v>29.199125196152714</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10.438271289236823</v>
+        <v>18.527818113314979</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.039801898918244</v>
+        <v>3.0517661320251577E-2</v>
       </c>
       <c r="G64">
         <v>20</v>
@@ -9486,19 +9486,19 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>44.002844413987013</v>
+        <v>20.106848878805017</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43.296457569298838</v>
+        <v>39.917039586226274</v>
       </c>
       <c r="O64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30.926245452659813</v>
+        <v>21.9902178006909</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16.45961878258553</v>
+        <v>14.698462383015878</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3924133932826877</v>
+        <v>1.8524284061925904</v>
       </c>
       <c r="G65">
         <v>20</v>
@@ -9541,19 +9541,19 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.712456739553872</v>
+        <v>28.200240656065951</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>42.159561321130624</v>
+        <v>32.548384255658313</v>
       </c>
       <c r="O65" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34.605249066358851</v>
+        <v>24.078157856308746</v>
       </c>
       <c r="P65" s="1">
         <f ca="1">$E65+$F65+$G65+$H65+L65+NORMINV(RAND(),0,4)</f>
-        <v>26.527962249699812</v>
+        <v>14.368511735880633</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9142229860579674</v>
+        <v>7.0302444829594091</v>
       </c>
       <c r="G66">
         <v>20</v>
@@ -9596,19 +9596,19 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.588737498482075</v>
+        <v>33.293426376025906</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46.186363130162462</v>
+        <v>40.046463762318787</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37.139146370567921</v>
+        <v>28.136020886191513</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15.64205677639467</v>
+        <v>34.60653409483843</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0829964941215806</v>
+        <v>9.9168727829055729</v>
       </c>
       <c r="G67">
         <v>20</v>
@@ -9651,19 +9651,19 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ref="M67:M73" ca="1" si="8">$E67+$F67+$G67+$H67+I67+NORMINV(RAND(),0,4)</f>
-        <v>36.280094566409531</v>
+        <v>42.220918635845294</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" ref="N67:N73" ca="1" si="9">$E67+$F67+$G67+$H67+J67+NORMINV(RAND(),0,4)</f>
-        <v>41.026206972077787</v>
+        <v>43.833737795348071</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" ref="O67:O73" ca="1" si="10">$E67+$F67+$G67+$H67+K67+NORMINV(RAND(),0,4)</f>
-        <v>25.506218885307938</v>
+        <v>32.734221736680368</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ref="P67:P73" ca="1" si="11">$E67+$F67+$G67+$H67+L67+NORMINV(RAND(),0,4)</f>
-        <v>18.287323680659117</v>
+        <v>22.092113748456956</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7583841703545691</v>
+        <v>-0.14089006913172675</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -9706,19 +9706,19 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>27.863127994393711</v>
+        <v>34.415935939902845</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>39.990406470446246</v>
+        <v>32.068360316848704</v>
       </c>
       <c r="O68" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28.220507840575074</v>
+        <v>27.50413525434098</v>
       </c>
       <c r="P68" s="1">
         <f ca="1">$E68+$F68+$G68+$H68+L68+NORMINV(RAND(),0,4)</f>
-        <v>25.665704725034285</v>
+        <v>12.173628667046664</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2482096620193381</v>
+        <v>5.5267439381881536</v>
       </c>
       <c r="G69">
         <v>20</v>
@@ -9761,19 +9761,19 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>39.820193332146239</v>
+        <v>33.22512846325094</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>42.859252680312068</v>
+        <v>40.364985101286912</v>
       </c>
       <c r="O69" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38.503802808905242</v>
+        <v>30.375963365634227</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>18.201648845403611</v>
+        <v>19.743186302128322</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0326484961298839</v>
+        <v>1.4061751107959006</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -9816,19 +9816,19 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>35.523600420311737</v>
+        <v>28.562902618690021</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>47.594296971972121</v>
+        <v>39.535438676402549</v>
       </c>
       <c r="O70" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28.247192768715028</v>
+        <v>27.29340461964069</v>
       </c>
       <c r="P70" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.17108958330051</v>
+        <v>11.589729801705069</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2142513036708849</v>
+        <v>0.67123183193457514</v>
       </c>
       <c r="G71">
         <v>20</v>
@@ -9871,19 +9871,19 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>30.829827592223268</v>
+        <v>35.509959194409639</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>38.953975382453592</v>
+        <v>33.844063678482023</v>
       </c>
       <c r="O71" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28.432630334237242</v>
+        <v>25.998624637414629</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>18.729507006317053</v>
+        <v>14.493778617288264</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2391686447676769</v>
+        <v>4.7226063615388458</v>
       </c>
       <c r="G72">
         <v>20</v>
@@ -9926,19 +9926,19 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>32.574922106292576</v>
+        <v>32.460913780219101</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>42.193741712713823</v>
+        <v>36.660366203773371</v>
       </c>
       <c r="O72" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>28.983491530587859</v>
+        <v>28.386690705039594</v>
       </c>
       <c r="P72" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>23.22422315351206</v>
+        <v>16.317991127252711</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5223252577292889</v>
+        <v>3.3260802307960597</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -9981,19 +9981,19 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>42.218323991032392</v>
+        <v>31.617784469451639</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>49.984122784735924</v>
+        <v>32.666513738205929</v>
       </c>
       <c r="O73" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>37.684704582188026</v>
+        <v>28.464294650865433</v>
       </c>
       <c r="P73" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>28.143805802000212</v>
+        <v>14.351879867514212</v>
       </c>
     </row>
   </sheetData>
@@ -10070,11 +10070,11 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>5.1639206272416338</v>
+        <v>0.53816144980825342</v>
       </c>
       <c r="J2" s="1">
         <f ca="1">E2 + F2 + G2 + H2 + I2 + NORMINV(RAND(),0,2)</f>
-        <v>30.686012722699438</v>
+        <v>19.7378609645829</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -10104,11 +10104,11 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I17" ca="1" si="0">NORMINV(RAND(),3,3)</f>
-        <v>2.2816300692039135</v>
+        <v>2.6369308914849134</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J66" ca="1" si="1">E3 + F3 + G3 + H3 + I3 + NORMINV(RAND(),0,2)</f>
-        <v>23.332754624902247</v>
+        <v>26.933787947380207</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -10138,11 +10138,11 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2134999208808317</v>
+        <v>-1.0078242221006519</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.303617885556683</v>
+        <v>20.905559382668322</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -10172,11 +10172,11 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.043790925679581</v>
+        <v>3.2039324966380045</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.310863386433589</v>
+        <v>23.716564614813112</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -10206,11 +10206,11 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2532988150726152</v>
+        <v>6.6992150746680963</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.46244704035982</v>
+        <v>29.231065724236075</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -10240,11 +10240,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8991244048903031</v>
+        <v>1.9692424007854186</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27.517041678935797</v>
+        <v>23.774379958184543</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -10274,11 +10274,11 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49099805464296375</v>
+        <v>4.8932367594284383</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.243685062178713</v>
+        <v>26.950098606811292</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -10308,11 +10308,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12761429906388244</v>
+        <v>6.8451807797310096</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.418426566882779</v>
+        <v>29.261447538636748</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -10342,11 +10342,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6121231433219942</v>
+        <v>-0.7739629296923165</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.622864725893308</v>
+        <v>26.139540006753975</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -10376,11 +10376,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9449807323112016</v>
+        <v>4.8258068530235487</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.817993285990415</v>
+        <v>28.964406947347317</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -10410,11 +10410,11 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6057435609741901</v>
+        <v>3.3833755501392511</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.440519564184658</v>
+        <v>31.765707871501391</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -10444,11 +10444,11 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1136625708617953</v>
+        <v>8.0328762391233415</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.878965535301326</v>
+        <v>33.35365135306651</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -10478,11 +10478,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4174785852886078</v>
+        <v>3.105808486443101</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.619298347883088</v>
+        <v>25.08576159002445</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -10512,11 +10512,11 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.04838125284558</v>
+        <v>-5.7413012117580315</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.420766636886789</v>
+        <v>18.512386367194306</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6615582246958618</v>
+        <v>0.33505100029423973</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.425719364895741</v>
+        <v>23.633908313580122</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -10580,11 +10580,11 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.3496189593332968</v>
+        <v>3.6237862954779705</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.90912458798698</v>
+        <v>28.104422581481558</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -10614,11 +10614,11 @@
       </c>
       <c r="I18" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>-0.95142114223665497</v>
+        <v>2.2985719878034589</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.349086803460892</v>
+        <v>22.890679259592982</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -10648,11 +10648,11 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:I33" ca="1" si="2">NORMINV(RAND(),1,3)</f>
-        <v>1.8215886781391248</v>
+        <v>-0.93163610439172651</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.606059655102019</v>
+        <v>19.341045287332722</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10682,11 +10682,11 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9743818238563371</v>
+        <v>1.0954917503086363</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.145058103516302</v>
+        <v>20.854563595862388</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -10716,11 +10716,11 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6851297055014016</v>
+        <v>7.2572813309482065E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.746173345630627</v>
+        <v>22.254867202008398</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10750,11 +10750,11 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1079937238086055</v>
+        <v>4.7500031141442118</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.263821304544315</v>
+        <v>24.881452405035418</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -10784,11 +10784,11 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8630515871998998</v>
+        <v>5.0351109923947739</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28.717581664924555</v>
+        <v>28.337310765853225</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -10818,11 +10818,11 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.115975393432568</v>
+        <v>-0.52223908921781304</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.413793976146746</v>
+        <v>22.663756902908528</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10852,11 +10852,11 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0249055104398739</v>
+        <v>1.2112937236883412</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.123154203822814</v>
+        <v>20.856579927883431</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -10886,11 +10886,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67810496534055398</v>
+        <v>3.6274274996826317</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.491687948335304</v>
+        <v>27.113491057957816</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -10920,11 +10920,11 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57551639505763863</v>
+        <v>6.9513873917254188</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.84093149582954</v>
+        <v>29.216069979739483</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -10954,11 +10954,11 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21309087779403058</v>
+        <v>6.3595620623239189</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.490833759489941</v>
+        <v>29.138365618001174</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -10988,11 +10988,11 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.2674601571247051</v>
+        <v>-0.44987979381852838</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.73753274788751</v>
+        <v>21.429464279447398</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -11022,11 +11022,11 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6956905099264143</v>
+        <v>1.0535183790702931</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.761436278034324</v>
+        <v>22.668255319538382</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -11056,11 +11056,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9194842823588085</v>
+        <v>-2.8625239050156521</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.199845636231949</v>
+        <v>20.054581977446571</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -11090,11 +11090,11 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4725473906177968</v>
+        <v>-0.96077834545981755</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.871177073381755</v>
+        <v>18.170308100788631</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -11124,11 +11124,11 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4.553461761882339</v>
+        <v>-0.93601499769984797</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.51424499086966</v>
+        <v>23.374018408330123</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -11158,11 +11158,11 @@
       </c>
       <c r="I34" s="1">
         <f ca="1">NORMINV(RAND(),3,3)</f>
-        <v>2.4368639903123328</v>
+        <v>8.1783249511661467</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.026503546783474</v>
+        <v>27.974728937495176</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -11192,11 +11192,11 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ref="I35:I49" ca="1" si="3">NORMINV(RAND(),3,3)</f>
-        <v>4.6084768964324905</v>
+        <v>4.0233595640569035</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.332850434688336</v>
+        <v>21.380775128459955</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -11226,11 +11226,11 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.8562901445962732</v>
+        <v>4.2275966735874704</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11.155184461650389</v>
+        <v>21.080841753635053</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -11260,11 +11260,11 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2123483769076264</v>
+        <v>6.2721231814134288</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.721654824084332</v>
+        <v>18.216538065040716</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0974235145241598</v>
+        <v>6.2265152602895677</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19.672844944595365</v>
+        <v>27.429614908242378</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -11328,11 +11328,11 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9028194248261636</v>
+        <v>5.4533878874323429</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.561379534575618</v>
+        <v>20.914496687706841</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -11362,11 +11362,11 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6329367388703426</v>
+        <v>5.7387850797932121</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.578861242687694</v>
+        <v>26.117307207312297</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -11396,11 +11396,11 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.62489345224442694</v>
+        <v>5.2002185338335281</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.619781189940344</v>
+        <v>21.021471601693147</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -11430,11 +11430,11 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.4400008310428536</v>
+        <v>10.788016264975157</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.913501087743448</v>
+        <v>30.903938087202384</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -11464,11 +11464,11 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0413877469703543</v>
+        <v>3.9014760537292728</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>26.024210930174899</v>
+        <v>23.460949003821739</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -11498,11 +11498,11 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.799085002555399</v>
+        <v>2.8095068722468044</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.398941067034066</v>
+        <v>24.080156917206992</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -11532,11 +11532,11 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7313096025706951</v>
+        <v>4.7015543126966577</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.747850848832393</v>
+        <v>26.950257543715168</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -11566,11 +11566,11 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12.388076108766079</v>
+        <v>5.1664898765185523</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>33.488409836621827</v>
+        <v>23.567015362013091</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -11600,11 +11600,11 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3794428655820061</v>
+        <v>8.6647742909250365</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.289471322980205</v>
+        <v>32.799883299740912</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -11634,11 +11634,11 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2684432537137544</v>
+        <v>2.6496754888150078</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.624538557832103</v>
+        <v>22.348044376595119</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -11668,11 +11668,11 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1742805973865158</v>
+        <v>7.4680102916781399</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.87446405112961</v>
+        <v>26.663415150908026</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -11702,11 +11702,11 @@
       </c>
       <c r="I50" s="1">
         <f ca="1">NORMINV(RAND(),1,3)</f>
-        <v>1.9491511205885881</v>
+        <v>3.0675106292810788</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17.360394858863462</v>
+        <v>18.360226685253327</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -11736,11 +11736,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ref="I51:I65" ca="1" si="4">NORMINV(RAND(),1,3)</f>
-        <v>-0.84656801525017267</v>
+        <v>5.422797922253757</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.141263750704482</v>
+        <v>21.540351446892942</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -11770,11 +11770,11 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5861838354685975</v>
+        <v>5.0470355346510374</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.305960671088233</v>
+        <v>22.538987898731943</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -11804,11 +11804,11 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.11493374666690626</v>
+        <v>3.8388571445579345</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12.471857632052632</v>
+        <v>22.111271675688169</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -11838,11 +11838,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4209788648327355</v>
+        <v>-1.6941728239502041</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.24260436298864</v>
+        <v>14.265871093680829</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -11872,11 +11872,11 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4174881209055474</v>
+        <v>2.094947456448474</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.331950250847182</v>
+        <v>22.642946754191644</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -11906,11 +11906,11 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0658358228715077</v>
+        <v>1.480533585826536</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.320081486866549</v>
+        <v>20.344794986719517</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -11940,11 +11940,11 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.808799463583477</v>
+        <v>3.1811445101516038</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.87016518289499</v>
+        <v>21.965685139307741</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -11974,11 +11974,11 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0794832548556634</v>
+        <v>2.8409553374127854</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.732371329572462</v>
+        <v>23.234643407168846</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -12008,11 +12008,11 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.2987719700254523</v>
+        <v>-2.2327185325720507</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15.017963883991809</v>
+        <v>14.377741620064004</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -12042,11 +12042,11 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5.445268680733772</v>
+        <v>2.1444219681810357</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.873499582348511</v>
+        <v>16.6635952449653</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -12076,11 +12076,11 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9709211722557747</v>
+        <v>-6.5422042788491996</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.155669293629604</v>
+        <v>14.188563974668892</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -12110,11 +12110,11 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4.79731314710454</v>
+        <v>3.4067999149958115</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.934020380864069</v>
+        <v>22.790888066154103</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -12144,11 +12144,11 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5749605156095488</v>
+        <v>4.3440971490822724</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20.222702214839597</v>
+        <v>21.493029385144212</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2264905261478809</v>
+        <v>-0.31730162010211083</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.072527477918047</v>
+        <v>19.387139970984808</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -12212,11 +12212,11 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.3998151407029642</v>
+        <v>1.2242567026527278</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13.264165801471043</v>
+        <v>18.797007891422588</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -12246,11 +12246,11 @@
       </c>
       <c r="I66" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>8.1472503743105396</v>
+        <v>-3.4594291621753968</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.870292927092194</v>
+        <v>22.398052645881567</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -12280,11 +12280,11 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ref="I67:I81" ca="1" si="5">NORMINV(RAND(),0,4)</f>
-        <v>6.1682411382045981</v>
+        <v>-0.86467749903725877</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ref="J67:J130" ca="1" si="6">E67 + F67 + G67 + H67 + I67 + NORMINV(RAND(),0,2)</f>
-        <v>37.43463012941843</v>
+        <v>28.592193033517674</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -12314,11 +12314,11 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4808726419379226</v>
+        <v>0.68278980354722862</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.672991803276126</v>
+        <v>23.639085032766161</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -12348,11 +12348,11 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2351944133479085</v>
+        <v>-1.0634846660038617</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.022328388367026</v>
+        <v>25.54821497739611</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -12382,11 +12382,11 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1463160768890726</v>
+        <v>-3.6995804990160468</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.756867401751329</v>
+        <v>23.777846821869005</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -12416,11 +12416,11 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85469226742680593</v>
+        <v>0.33288392562571439</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.296314751021445</v>
+        <v>31.597847821080187</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -12450,11 +12450,11 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20619107299157433</v>
+        <v>-4.7792333138705896</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.74073174536354</v>
+        <v>23.224898045802377</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -12484,11 +12484,11 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6435573193903579</v>
+        <v>-1.3165164708754824</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>27.049311910291632</v>
+        <v>26.175182947793324</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -12518,11 +12518,11 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2461388309343544</v>
+        <v>4.7444440008936235</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.904912221026855</v>
+        <v>37.819161705875381</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -12552,11 +12552,11 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.8387331818743295</v>
+        <v>0.67700924397699846</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.058984916248285</v>
+        <v>33.237406433639954</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -12586,11 +12586,11 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69082440509253462</v>
+        <v>-5.7392479596171198</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.80018133026303</v>
+        <v>27.148821363066418</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -12620,11 +12620,11 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3663029715201913</v>
+        <v>-4.3421761471869589</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.780059931633893</v>
+        <v>27.831508600220925</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -12654,11 +12654,11 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2758226669392232</v>
+        <v>-5.1795304650408154</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.566037018612455</v>
+        <v>27.554849718291685</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -12688,11 +12688,11 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10.376539439190108</v>
+        <v>-2.1653922949110123</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.543520212041486</v>
+        <v>27.47402996325593</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -12722,11 +12722,11 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1257406498885589</v>
+        <v>-1.6769074603829386</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.817804689486657</v>
+        <v>31.778616356967305</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -12756,11 +12756,11 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.0630632008859191</v>
+        <v>1.2662022167125691</v>
       </c>
       <c r="J81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.742563994464717</v>
+        <v>32.777665883362154</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -12790,11 +12790,11 @@
       </c>
       <c r="I82" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>-1.3977443292777081</v>
+        <v>-0.19305613355843193</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.891479590707252</v>
+        <v>23.901964072808457</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -12824,11 +12824,11 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ref="I83:I97" ca="1" si="7">NORMINV(RAND(),0,3)</f>
-        <v>4.471757333132218</v>
+        <v>-0.22848953218500845</v>
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.245479323145403</v>
+        <v>26.197012906670171</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -12858,11 +12858,11 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.74951327637225507</v>
+        <v>0.30332983847188089</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.137762344430548</v>
+        <v>19.971677813149739</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -12892,11 +12892,11 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0019471481937416</v>
+        <v>2.8272911591902323</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29.672335909457871</v>
+        <v>31.459350859263161</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -12926,11 +12926,11 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1543803840136349</v>
+        <v>2.7982267961629606</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.346085243818155</v>
+        <v>32.83981842251788</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -12960,11 +12960,11 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.78463832370364772</v>
+        <v>1.6942437978817857</v>
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.114426724666387</v>
+        <v>29.035787683507984</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -12994,11 +12994,11 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.89154601536161526</v>
+        <v>2.0199799366170765</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.240588474738736</v>
+        <v>24.889656825557051</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -13028,11 +13028,11 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6540397604717008</v>
+        <v>-2.8452765928113894</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.47561054161735</v>
+        <v>21.029963391436709</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -13062,11 +13062,11 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3.817276084481442</v>
+        <v>-1.5702204283306944</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19.450191654032963</v>
+        <v>21.630876825343407</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1627864629113294</v>
+        <v>1.0862845928011349</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.79438348190746</v>
+        <v>21.664479570169025</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -13130,11 +13130,11 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7361086803899077</v>
+        <v>1.3660144903551261</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.431090677773376</v>
+        <v>24.967018765523385</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -13164,11 +13164,11 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7114508182827616E-2</v>
+        <v>1.7543611220846804</v>
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.696583174553027</v>
+        <v>26.299714973563237</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -13198,11 +13198,11 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.630688892129748</v>
+        <v>-0.99740458419554789</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.976286133957906</v>
+        <v>23.126256743407215</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -13232,11 +13232,11 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0808268750005769</v>
+        <v>0.17342672768121026</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>26.343174331073875</v>
+        <v>23.928111299833347</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -13266,11 +13266,11 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.0520756138065206</v>
+        <v>-0.53012861230840436</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.865018213686881</v>
+        <v>22.332557409421423</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -13300,11 +13300,11 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1440557858675215</v>
+        <v>0.50812934812069444</v>
       </c>
       <c r="J97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>21.628598313699378</v>
+        <v>24.751135693655193</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -13334,11 +13334,11 @@
       </c>
       <c r="I98" s="1">
         <f ca="1">NORMINV(RAND(),0,4)</f>
-        <v>5.8664460270141952</v>
+        <v>4.9316023835056821</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.319309602258535</v>
+        <v>35.572710185651715</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -13368,11 +13368,11 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ref="I99:I113" ca="1" si="8">NORMINV(RAND(),0,4)</f>
-        <v>-5.0338205494684081</v>
+        <v>-2.6198333311434587</v>
       </c>
       <c r="J99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.78088596975412</v>
+        <v>34.721386146886921</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -13402,11 +13402,11 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.3102628315780411</v>
+        <v>-11.91455034380944</v>
       </c>
       <c r="J100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.842718461259974</v>
+        <v>18.676917483883873</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -13436,11 +13436,11 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.83496814219630699</v>
+        <v>-5.8684703516406254</v>
       </c>
       <c r="J101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.206546648545775</v>
+        <v>26.976380079941041</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -13470,11 +13470,11 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5739488071080094</v>
+        <v>1.0631246729000077</v>
       </c>
       <c r="J102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>38.515335616463794</v>
+        <v>34.226349051695649</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -13504,11 +13504,11 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8072264575478494</v>
+        <v>0.24574974455884982</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.235596803669505</v>
+        <v>33.168405805141809</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -13538,11 +13538,11 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10999390362950487</v>
+        <v>-0.30284522068601016</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.161489639358201</v>
+        <v>32.960047748977388</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -13572,11 +13572,11 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.383567325601331</v>
+        <v>-2.0506158539711676</v>
       </c>
       <c r="J105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.579656655549513</v>
+        <v>30.201763669644404</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -13606,11 +13606,11 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.2844733003622029</v>
+        <v>0.9982389957546397</v>
       </c>
       <c r="J106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.699800220021572</v>
+        <v>42.322501333334536</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -13640,11 +13640,11 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8245406915796005</v>
+        <v>-3.0796471969153694</v>
       </c>
       <c r="J107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.740868565029722</v>
+        <v>37.531986836106668</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -13674,11 +13674,11 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.89905138376556948</v>
+        <v>-2.6956817668262416</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37.048991770020145</v>
+        <v>34.396384118911236</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -13708,11 +13708,11 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.900259067816938</v>
+        <v>4.0023724368235714</v>
       </c>
       <c r="J109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.757056683383382</v>
+        <v>42.042357067422152</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -13742,11 +13742,11 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9523954969699298</v>
+        <v>-3.275305382086851</v>
       </c>
       <c r="J110" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44.873424375375762</v>
+        <v>33.519588077044013</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -13776,11 +13776,11 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.787384431525705</v>
+        <v>5.6880301459820872</v>
       </c>
       <c r="J111" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24.781890348672871</v>
+        <v>45.577474381697094</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
@@ -13810,11 +13810,11 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.9346188010317156</v>
+        <v>-1.96322503416488</v>
       </c>
       <c r="J112" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34.952125771491986</v>
+        <v>34.697262951607385</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -13844,11 +13844,11 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7.1477962743998397E-2</v>
+        <v>2.0497102011289452</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>40.91100346326904</v>
+        <v>39.058724216349603</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -13878,11 +13878,11 @@
       </c>
       <c r="I114" s="1">
         <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>1.0050641676354273</v>
+        <v>1.8635856253571035</v>
       </c>
       <c r="J114" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.467395108830445</v>
+        <v>32.239435404914879</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -13912,11 +13912,11 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" ref="I115:I129" ca="1" si="9">NORMINV(RAND(),0,3)</f>
-        <v>-6.0420023953709467</v>
+        <v>-3.2533727941898487</v>
       </c>
       <c r="J115" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.47433602941776</v>
+        <v>30.213770804617745</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -13946,11 +13946,11 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.3526561818227412</v>
+        <v>5.8171517996377462</v>
       </c>
       <c r="J116" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.227951453620097</v>
+        <v>36.207647069954746</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -13980,11 +13980,11 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67506566841869298</v>
+        <v>-2.5820327701948225</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>33.2782191222351</v>
+        <v>28.504610972875259</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
@@ -14014,11 +14014,11 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.521404326763226</v>
+        <v>1.1086431604163862</v>
       </c>
       <c r="J118" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35.226158409698662</v>
+        <v>30.04272408935509</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -14048,11 +14048,11 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80921974129781837</v>
+        <v>-0.27905344415343503</v>
       </c>
       <c r="J119" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.776434591749148</v>
+        <v>28.146560631320526</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -14082,11 +14082,11 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.2133256155800725</v>
+        <v>1.8081492397748349</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23.580217144431614</v>
+        <v>33.098331179451996</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -14116,11 +14116,11 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2416445120796187</v>
+        <v>-3.4870950359721276</v>
       </c>
       <c r="J121" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>36.155637514013151</v>
+        <v>28.220622097962078</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -14150,11 +14150,11 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5300269737661476</v>
+        <v>0.96025107893573158</v>
       </c>
       <c r="J122" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>28.309157717288073</v>
+        <v>28.686280235013506</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -14184,11 +14184,11 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.0869095714304011</v>
+        <v>0.49389134161109549</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.347140593354666</v>
+        <v>28.344199170099738</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -14218,11 +14218,11 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4718393985107645</v>
+        <v>-1.8498422700434456</v>
       </c>
       <c r="J124" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.962345938246173</v>
+        <v>25.373451302368618</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -14252,11 +14252,11 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.5517681307518973</v>
+        <v>5.1926868680809886</v>
       </c>
       <c r="J125" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>22.609995037261811</v>
+        <v>38.216934856919018</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -14286,11 +14286,11 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9172947281298911</v>
+        <v>-1.9249438437432933</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>31.661132827679022</v>
+        <v>27.653000847862348</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -14320,11 +14320,11 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3030772148247585</v>
+        <v>1.4477351467940047</v>
       </c>
       <c r="J127" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>32.65830065895895</v>
+        <v>25.560521588327138</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -14354,11 +14354,11 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0415991004354168</v>
+        <v>-2.8701418160722221</v>
       </c>
       <c r="J128" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>25.587122066925097</v>
+        <v>24.182104965649657</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -14388,11 +14388,11 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11729464246453214</v>
+        <v>-0.73990752876976373</v>
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30.162846751757641</v>
+        <v>28.076203343228727</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -14422,11 +14422,11 @@
       </c>
       <c r="I130" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>2.9061892067251103</v>
+        <v>1.6722636108103797</v>
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45.899268119150193</v>
+        <v>40.960749924153255</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -14456,11 +14456,11 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" ref="I131:I145" ca="1" si="10">NORMINV(RAND(),2,1)</f>
-        <v>3.8807663573369631</v>
+        <v>1.5094087120126383</v>
       </c>
       <c r="J131" s="1">
         <f t="shared" ref="J131:J193" ca="1" si="11">E131 + F131 + G131 + H131 + I131 + NORMINV(RAND(),0,2)</f>
-        <v>42.988023050606301</v>
+        <v>41.600701209830646</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
@@ -14490,11 +14490,11 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3163928392392701</v>
+        <v>2.4453788155315075</v>
       </c>
       <c r="J132" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.55102081643907</v>
+        <v>42.019510802939976</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -14524,11 +14524,11 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4595093486894712</v>
+        <v>1.7452270057671173</v>
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.76011285702586</v>
+        <v>40.185084603116792</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -14558,11 +14558,11 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9114593281842152</v>
+        <v>1.4324488623378806</v>
       </c>
       <c r="J134" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.353907862327254</v>
+        <v>39.009494811383966</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -14592,11 +14592,11 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59011081110103136</v>
+        <v>2.0941700187769916</v>
       </c>
       <c r="J135" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.635304502163287</v>
+        <v>40.984262627585025</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -14626,11 +14626,11 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58533753351854734</v>
+        <v>2.6929518397373982</v>
       </c>
       <c r="J136" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.969490164419682</v>
+        <v>38.974340509439223</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -14660,11 +14660,11 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2377969056964617</v>
+        <v>3.2376763788292937</v>
       </c>
       <c r="J137" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>45.198925464007026</v>
+        <v>42.968205398802198</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -14694,11 +14694,11 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.201016080855535</v>
+        <v>2.2286169985144149</v>
       </c>
       <c r="J138" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.463784186120208</v>
+        <v>33.659275724429378</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -14728,11 +14728,11 @@
       </c>
       <c r="I139" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.227282695456887</v>
+        <v>1.1422945067403512</v>
       </c>
       <c r="J139" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.376369113761641</v>
+        <v>34.34638052192242</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -14762,11 +14762,11 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.839796793992496</v>
+        <v>0.98438987188476301</v>
       </c>
       <c r="J140" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.139406763206534</v>
+        <v>35.261680034056525</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -14796,11 +14796,11 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4172282464575972</v>
+        <v>1.348952250207458</v>
       </c>
       <c r="J141" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.017692933241818</v>
+        <v>33.576549268574695</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -14830,11 +14830,11 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6095397925245272</v>
+        <v>2.944338581256619</v>
       </c>
       <c r="J142" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.348504966620034</v>
+        <v>33.397059047185074</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -14864,11 +14864,11 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9982815187132008</v>
+        <v>2.2469136532747473</v>
       </c>
       <c r="J143" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.951873611729383</v>
+        <v>31.426883017313855</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -14898,11 +14898,11 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2001794617034487</v>
+        <v>0.56459407704572606</v>
       </c>
       <c r="J144" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.826544554393131</v>
+        <v>29.456286750836458</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -14932,11 +14932,11 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4511203515050706</v>
+        <v>2.9461299179688543</v>
       </c>
       <c r="J145" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.739143309930192</v>
+        <v>35.805673825119285</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -14966,11 +14966,11 @@
       </c>
       <c r="I146" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-5.2399759517034532</v>
+        <v>1.5684656863978512</v>
       </c>
       <c r="J146" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.380533655239319</v>
+        <v>40.653297267278894</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -15000,11 +15000,11 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ref="I147:I161" ca="1" si="12">NORMINV(RAND(),0,2)</f>
-        <v>-0.73958416813961159</v>
+        <v>-1.4768553467826659</v>
       </c>
       <c r="J147" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.827148454757555</v>
+        <v>33.602587789819999</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -15034,11 +15034,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0918711741269955</v>
+        <v>-1.1606522201435117</v>
       </c>
       <c r="J148" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.684339711532104</v>
+        <v>34.824312472595153</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -15068,11 +15068,11 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.459282731532749</v>
+        <v>-2.0358174165473932</v>
       </c>
       <c r="J149" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.409069565311185</v>
+        <v>31.864329148985089</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -15102,11 +15102,11 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.84696847689804367</v>
+        <v>0.12899649817632386</v>
       </c>
       <c r="J150" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.757335894203024</v>
+        <v>35.509037496469112</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -15136,11 +15136,11 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4492675923173177</v>
+        <v>0.81653183407651608</v>
       </c>
       <c r="J151" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.358388465057068</v>
+        <v>38.612774595433812</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -15170,11 +15170,11 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-3.0958584258094861</v>
+        <v>2.0087892979104827</v>
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.710812617969989</v>
+        <v>39.342043524512526</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -15204,11 +15204,11 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-2.6752580623685875</v>
+        <v>0.17795285529454141</v>
       </c>
       <c r="J153" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.276306162988057</v>
+        <v>36.96419145180127</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -15238,11 +15238,11 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.40368368437694652</v>
+        <v>-1.5781100045473162</v>
       </c>
       <c r="J154" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.602665592124865</v>
+        <v>32.415507363684782</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -15272,11 +15272,11 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.2095150232824272</v>
+        <v>2.7498931667006756</v>
       </c>
       <c r="J155" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.928658032959504</v>
+        <v>32.979396891957492</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -15306,11 +15306,11 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>0.14878961121071166</v>
+        <v>-1.4685988799526091</v>
       </c>
       <c r="J156" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.185514194361122</v>
+        <v>33.004535485863315</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -15340,11 +15340,11 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.7712774900660884</v>
+        <v>-0.90802413329845733</v>
       </c>
       <c r="J157" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.094123951154263</v>
+        <v>30.091794518632206</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -15374,11 +15374,11 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.6358580577383495</v>
+        <v>-0.37142134007783367</v>
       </c>
       <c r="J158" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.411802735609061</v>
+        <v>32.373480722180226</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -15408,11 +15408,11 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.35873004149260657</v>
+        <v>-0.5764078521583893</v>
       </c>
       <c r="J159" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.354653990525755</v>
+        <v>29.931363891852428</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -15442,11 +15442,11 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-0.49902502514706526</v>
+        <v>3.879941916452057</v>
       </c>
       <c r="J160" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.775013497852633</v>
+        <v>36.002789857288342</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -15476,11 +15476,11 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-3.0438929865130069</v>
+        <v>8.6330656179166049E-2</v>
       </c>
       <c r="J161" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.796263254687695</v>
+        <v>35.454503724215463</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -15510,11 +15510,11 @@
       </c>
       <c r="I162" s="1">
         <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>2.0396939511479282</v>
+        <v>1.4741631510286828</v>
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44.950117759232555</v>
+        <v>43.066922208880968</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -15544,11 +15544,11 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" ref="I163:I177" ca="1" si="13">NORMINV(RAND(),2,1)</f>
-        <v>2.4931179488113653</v>
+        <v>1.4433014009743408</v>
       </c>
       <c r="J163" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.757672672353635</v>
+        <v>41.863332941120866</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -15578,11 +15578,11 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1100921915847524</v>
+        <v>1.5439463141396326</v>
       </c>
       <c r="J164" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43.628656634155654</v>
+        <v>45.033979895870033</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -15612,11 +15612,11 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7959377608410032</v>
+        <v>0.33092099431408073</v>
       </c>
       <c r="J165" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>42.733472705586841</v>
+        <v>40.907693991580253</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -15646,11 +15646,11 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0.32170697687437788</v>
+        <v>2.1073237814462411</v>
       </c>
       <c r="J166" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>40.145230191294566</v>
+        <v>41.136810360604578</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
@@ -15680,11 +15680,11 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8458612891136648</v>
+        <v>1.1107428173832454</v>
       </c>
       <c r="J167" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>41.55805332403267</v>
+        <v>41.458245362257074</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
@@ -15714,11 +15714,11 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.0752217808396285</v>
+        <v>1.3802181527701798</v>
       </c>
       <c r="J168" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44.128628558124447</v>
+        <v>39.308058670288865</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -15748,11 +15748,11 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.7432200777350944</v>
+        <v>3.8418243689126443</v>
       </c>
       <c r="J169" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.17786539962102</v>
+        <v>48.519407629394188</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -15782,11 +15782,11 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.3518153707632958</v>
+        <v>1.6217259778673396</v>
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.868136294219269</v>
+        <v>33.728537046579547</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -15816,11 +15816,11 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.3788948853909688</v>
+        <v>0.27653797703376237</v>
       </c>
       <c r="J171" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.046224331027901</v>
+        <v>29.763653185813542</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -15850,11 +15850,11 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.5244668166712283</v>
+        <v>2.8072453685555043</v>
       </c>
       <c r="J172" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.746031907623689</v>
+        <v>33.162235771631536</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -15884,11 +15884,11 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0308170915507726</v>
+        <v>2.5173746900017004</v>
       </c>
       <c r="J173" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.808479406247471</v>
+        <v>31.879242464740834</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -15918,11 +15918,11 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.2506192508297014</v>
+        <v>0.25984448300333751</v>
       </c>
       <c r="J174" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.076037577044204</v>
+        <v>32.97129287529679</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -15952,11 +15952,11 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.219839304079184</v>
+        <v>4.5645041327895859</v>
       </c>
       <c r="J175" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.071120516065896</v>
+        <v>30.495703311955307</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -15986,11 +15986,11 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0965843920544431</v>
+        <v>1.4973118087171422</v>
       </c>
       <c r="J176" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.382829529927541</v>
+        <v>31.610119635423089</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -16020,11 +16020,11 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8019867281069875</v>
+        <v>0.64045866592470824</v>
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.616715728193498</v>
+        <v>29.882115115486663</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -16054,11 +16054,11 @@
       </c>
       <c r="I178" s="1">
         <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>0.31719610907658385</v>
+        <v>-0.71565296414265767</v>
       </c>
       <c r="J178" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.927936857603605</v>
+        <v>37.242935243962989</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -16088,11 +16088,11 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ref="I179:I193" ca="1" si="14">NORMINV(RAND(),0,2)</f>
-        <v>0.71703466597948029</v>
+        <v>-0.74096887686810675</v>
       </c>
       <c r="J179" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.371841732866784</v>
+        <v>31.155212529832834</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -16122,11 +16122,11 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.9227485853145596</v>
+        <v>1.0727598968688692</v>
       </c>
       <c r="J180" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.791870332910808</v>
+        <v>34.348100428246717</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -16156,11 +16156,11 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.42672889244486739</v>
+        <v>-3.3610489709809928</v>
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.344417644197758</v>
+        <v>32.02822899183964</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -16190,11 +16190,11 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6723309232519346</v>
+        <v>1.5945453943913332</v>
       </c>
       <c r="J182" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.171922937586821</v>
+        <v>38.908582545295701</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -16224,11 +16224,11 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1725119173379071</v>
+        <v>-0.14313160741876449</v>
       </c>
       <c r="J183" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.465465035481174</v>
+        <v>35.447895272731195</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -16258,11 +16258,11 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5880283509039925</v>
+        <v>-1.3132449907635868</v>
       </c>
       <c r="J184" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.993424785912509</v>
+        <v>36.915753726225148</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -16292,11 +16292,11 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.4488942324746374</v>
+        <v>0.32450236585381903</v>
       </c>
       <c r="J185" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34.742030173288981</v>
+        <v>39.39646556285431</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -16326,11 +16326,11 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.0573359942857872</v>
+        <v>-1.5168942091213267</v>
       </c>
       <c r="J186" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>27.483920639014279</v>
+        <v>30.7447543062707</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -16360,11 +16360,11 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.64554859126007769</v>
+        <v>-0.87440067923354547</v>
       </c>
       <c r="J187" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.003845980618898</v>
+        <v>32.493339316075868</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -16394,11 +16394,11 @@
       </c>
       <c r="I188" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.258445894549076</v>
+        <v>-0.64158774770173754</v>
       </c>
       <c r="J188" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>31.903207614396571</v>
+        <v>33.156143584451527</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -16428,11 +16428,11 @@
       </c>
       <c r="I189" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.057901620804379</v>
+        <v>0.61923275256001853</v>
       </c>
       <c r="J189" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.599992465588713</v>
+        <v>37.711277375473266</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -16462,11 +16462,11 @@
       </c>
       <c r="I190" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>-8.706309346324291E-2</v>
+        <v>-0.84159426899288092</v>
       </c>
       <c r="J190" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>30.594522810244978</v>
+        <v>31.880167981109516</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -16496,11 +16496,11 @@
       </c>
       <c r="I191" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.87259419271843686</v>
+        <v>-0.14176162317535307</v>
       </c>
       <c r="J191" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29.794240672203362</v>
+        <v>28.477606033065772</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -16530,11 +16530,11 @@
       </c>
       <c r="I192" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2362189914716462</v>
+        <v>1.566417439366423</v>
       </c>
       <c r="J192" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.391664416541367</v>
+        <v>33.776706615456135</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -16564,11 +16564,11 @@
       </c>
       <c r="I193" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.46516604061842848</v>
+        <v>-2.8678632457476834</v>
       </c>
       <c r="J193" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33.022692756518012</v>
+        <v>28.954903813537449</v>
       </c>
     </row>
   </sheetData>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">NORMINV(RAND(),15,3)</f>
-        <v>17.196881649840105</v>
+        <v>16.494972796538484</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">C2 +D2+ 1.25*B2+NORMINV(RAND(),0,5)</f>
-        <v>43.091184832270557</v>
+        <v>33.340625013089543</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B9" ca="1" si="0">NORMINV(RAND(),15,3)</f>
-        <v>10.07229466209632</v>
+        <v>12.719134751757753</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E25" ca="1" si="1">C3 +D3+ 1.25*B3+NORMINV(RAND(),0,5)</f>
-        <v>18.611241685088938</v>
+        <v>33.027305340569242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5974031899592198</v>
+        <v>13.745381028651378</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37.345458346704454</v>
+        <v>30.834879079265139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -16670,7 +16670,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.580747166708431</v>
+        <v>15.950350791542679</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.942883297257492</v>
+        <v>37.188929607763853</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.790156838631226</v>
+        <v>13.537118280504421</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -16699,7 +16699,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38.495999997249257</v>
+        <v>26.241341457144031</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -16708,7 +16708,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.452629199218173</v>
+        <v>13.50609334774086</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.757059610819091</v>
+        <v>30.88407847938165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.743038896542981</v>
+        <v>16.801312195069105</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.513820905320998</v>
+        <v>34.261671009347268</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.608576995561513</v>
+        <v>19.091398053880209</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.461062886958523</v>
+        <v>39.761234710336609</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ref="B10:B16" ca="1" si="2">NORMINV(RAND(),10,4)</f>
-        <v>16.352331174823814</v>
+        <v>9.7822640874637266</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46.313853411977391</v>
+        <v>32.81626639895638</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.509673955392413</v>
+        <v>11.143854955237675</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23.8871554735153</v>
+        <v>32.340172683659198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.981471997003089</v>
+        <v>8.9353112846552829</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22.439207802702864</v>
+        <v>40.510961521338203</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="B13" s="2">
         <f ca="1">NORMINV(RAND(),10,4)</f>
-        <v>9.2887185894257822</v>
+        <v>6.3117654366018172</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -16832,7 +16832,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.784020879527404</v>
+        <v>27.154427107187665</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1110705671811072</v>
+        <v>9.9442587939288369</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>25.838679270292847</v>
+        <v>32.630765057949922</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -16860,7 +16860,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6377254440157989</v>
+        <v>10.676312909930742</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21.957352330570657</v>
+        <v>40.589109313682862</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -16879,7 +16879,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0583713276953137</v>
+        <v>15.718746447366547</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24.993894804095529</v>
+        <v>39.208754066610524</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B17" s="2">
         <f ca="1">NORMINV(RAND(),10,4)</f>
-        <v>6.9413891202025848</v>
+        <v>11.91558357041902</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29.66653371338786</v>
+        <v>37.128968794783965</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B18" s="2">
         <f ca="1">NORMINV(RAND(),20,5)</f>
-        <v>15.500047385105837</v>
+        <v>20.342462736321963</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.573203509334142</v>
+        <v>51.208286772528126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:B25" ca="1" si="3">NORMINV(RAND(),20,5)</f>
-        <v>15.696796434173722</v>
+        <v>21.811360057295662</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45.678959268597985</v>
+        <v>49.361312383008041</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.766141458990543</v>
+        <v>21.253784758342956</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40.553536026861977</v>
+        <v>49.134179427035285</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.117019424698761</v>
+        <v>22.946812292976478</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>64.397243448645796</v>
+        <v>53.291491594514198</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6862623326336426</v>
+        <v>13.516153477766848</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31.481881257131558</v>
+        <v>41.538748468315809</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.479354651798975</v>
+        <v>14.545586723470212</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>64.279687185204978</v>
+        <v>41.766680856527017</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.257288466291172</v>
+        <v>19.008741293837925</v>
       </c>
       <c r="C24" s="2">
         <v>10</v>
@@ -17041,7 +17041,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48.377304724834666</v>
+        <v>47.544235311859737</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.825367505563012</v>
+        <v>14.813612090839051</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57.486129854945474</v>
+        <v>44.846485230946733</v>
       </c>
     </row>
   </sheetData>
@@ -17072,8 +17072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>18.853830252972468</v>
+        <v>16.751687944764637</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">D2 + E2+ 1.35*C2+5+NORMINV(RAND(),0,5)</f>
-        <v>39.840757698276754</v>
+        <v>32.034614656063269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>17.29774196041615</v>
+        <v>17.308982274829127</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F9" ca="1" si="1">D3 + E3+ 1.35*C3+5+NORMINV(RAND(),0,5)</f>
-        <v>34.417431430930812</v>
+        <v>38.865203993393827</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -17155,7 +17155,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.725777841462861</v>
+        <v>20.084084307270114</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.318711306437137</v>
+        <v>36.841813316930995</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.037398405208581</v>
+        <v>17.475206291270169</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -17187,7 +17187,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42.023076195317707</v>
+        <v>48.912917250017941</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.439492999177672</v>
+        <v>12.406857282885671</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39.695940303142109</v>
+        <v>39.676941598857987</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.599415431575181</v>
+        <v>16.778551279114552</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.693327864852435</v>
+        <v>30.051692340042607</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -17243,7 +17243,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.93919131722307</v>
+        <v>18.104826141575295</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32.116476322107026</v>
+        <v>43.455576156723623</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -17265,7 +17265,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.486224359773868</v>
+        <v>19.360088059269721</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -17275,7 +17275,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43.77020687718796</v>
+        <v>47.872140395702786</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>5.2061259275614935</v>
+        <v>2.9406082471498309</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -17297,7 +17297,7 @@
       </c>
       <c r="F10" s="1">
         <f ca="1">D10 + E10+ 1.15*C10+5+NORMINV(RAND(),0,5)</f>
-        <v>11.595599537244407</v>
+        <v>11.545074574464863</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:C17" ca="1" si="2">NORMINV(RAND(),5,1)</f>
-        <v>6.6718554012145495</v>
+        <v>5.0341214624000381</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F17" ca="1" si="3">D11 + E11+ 1.15*C11+5+NORMINV(RAND(),0,5)</f>
-        <v>29.537445649885967</v>
+        <v>17.037609975929868</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8856679380737464</v>
+        <v>6.9060217840606448</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -17341,7 +17341,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10.961619703812786</v>
+        <v>25.025749726913926</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5756840077822156</v>
+        <v>5.3152602442240289</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24.718259207783383</v>
+        <v>16.376034667663159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -17375,7 +17375,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5786985336198782</v>
+        <v>4.6760549603791262</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -17385,7 +17385,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>17.999125455530926</v>
+        <v>19.435517258729114</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0157609393882909</v>
+        <v>3.3128769985992133</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>26.157280032231466</v>
+        <v>12.821843590490781</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -17419,7 +17419,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2996079385575054</v>
+        <v>5.6972982031187662</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18.357618823166732</v>
+        <v>22.464649125340227</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.37085270065419</v>
+        <v>4.3751761451131141</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22.899111623462339</v>
+        <v>20.660988526805493</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="C18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>7.1484797919427292</v>
+        <v>18.367769602122397</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="F18" s="1">
         <f ca="1">D18 + E18+ 1.35*C18+5+NORMINV(RAND(),0,5)</f>
-        <v>23.794022103197634</v>
+        <v>34.330174397474813</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ref="C19:C25" ca="1" si="4">NORMINV(RAND(),12,4)</f>
-        <v>10.632863459005966</v>
+        <v>11.662352213553724</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F25" ca="1" si="5">D19 + E19+ 1.35*C19+5+NORMINV(RAND(),0,5)</f>
-        <v>34.59781836683716</v>
+        <v>24.884754975587967</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.401202867122176</v>
+        <v>11.78499672183921</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>35.547449842502495</v>
+        <v>31.168761130559808</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.958424620756798</v>
+        <v>7.4888835554778739</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -17539,7 +17539,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>48.857617301049743</v>
+        <v>25.658564513333214</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10.998613821374915</v>
+        <v>13.711376270297942</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
@@ -17561,7 +17561,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>33.728722932160366</v>
+        <v>36.917217536693805</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -17573,7 +17573,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8441161165491273</v>
+        <v>5.9487860272543811</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>34.076804861626158</v>
+        <v>17.099782463450868</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8281160412197561</v>
+        <v>12.509227135810722</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>34.744879553270025</v>
+        <v>31.869068355312798</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12.261536320740925</v>
+        <v>7.1097270876738676</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
@@ -17627,7 +17627,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>38.633011792065098</v>
+        <v>28.157996433565906</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>6.2511908909490304</v>
+        <v>6.96144808111233</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
@@ -17649,7 +17649,7 @@
       </c>
       <c r="F26" s="1">
         <f ca="1">D26 + E26+ 1.15*C26+5+NORMINV(RAND(),0,5)</f>
-        <v>30.491907218668555</v>
+        <v>23.366400203448435</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:C33" ca="1" si="6">NORMINV(RAND(),6,1)</f>
-        <v>7.314354195787919</v>
+        <v>6.7492172553652656</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ref="F27:F33" ca="1" si="7">D27 + E27+ 1.15*C27+5+NORMINV(RAND(),0,5)</f>
-        <v>29.175439636471783</v>
+        <v>35.859818317176298</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9100159417049554</v>
+        <v>6.1158252833665951</v>
       </c>
       <c r="D28" s="2">
         <v>10</v>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>38.95563627681009</v>
+        <v>32.396777665261631</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.595700865866859</v>
+        <v>6.8271850420316849</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>38.711490081383303</v>
+        <v>30.182374815916322</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6615483851983148</v>
+        <v>4.6603401639925819</v>
       </c>
       <c r="D30" s="2">
         <v>10</v>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>33.83256165899482</v>
+        <v>33.791001127036374</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -17749,7 +17749,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0691937885739264</v>
+        <v>6.4796908724665778</v>
       </c>
       <c r="D31" s="2">
         <v>10</v>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>27.118486268802776</v>
+        <v>35.084480899140246</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5443344881298149</v>
+        <v>4.3664805244634621</v>
       </c>
       <c r="D32" s="2">
         <v>10</v>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>34.273189380528052</v>
+        <v>31.34485091817929</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6936386070376699</v>
+        <v>3.9647945435406511</v>
       </c>
       <c r="D33" s="2">
         <v>10</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>21.526629939474553</v>
+        <v>35.578441006296863</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>13.164871418800132</v>
+        <v>7.4057842921002353</v>
       </c>
       <c r="D34" s="2">
         <v>15</v>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="F34" s="1">
         <f ca="1">D34 + E34+ 1.35*C34+5+NORMINV(RAND(),0,5)</f>
-        <v>36.830918649724772</v>
+        <v>39.670620101654436</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:C41" ca="1" si="8">NORMINV(RAND(),12,5)</f>
-        <v>6.0146535681155093</v>
+        <v>7.7225156107766502</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F41" ca="1" si="9">D35 + E35+ 1.35*C35+5+NORMINV(RAND(),0,5)</f>
-        <v>36.234730795277514</v>
+        <v>37.060075095798538</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8914127365959921</v>
+        <v>-2.7216341580560783</v>
       </c>
       <c r="D36" s="2">
         <v>15</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>37.844826421326651</v>
+        <v>17.67434075119774</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7.7213735157238474</v>
+        <v>14.250507125824413</v>
       </c>
       <c r="D37" s="2">
         <v>15</v>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>32.674892254826133</v>
+        <v>44.889800976628628</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>15.686918467650788</v>
+        <v>13.478677747296722</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>44.109406274779452</v>
+        <v>43.432403808560309</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>16.725874475805274</v>
+        <v>8.3924899289476222</v>
       </c>
       <c r="D39" s="2">
         <v>15</v>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>46.818816030296311</v>
+        <v>39.083036718189121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>17.047416026709502</v>
+        <v>9.9432235462724741</v>
       </c>
       <c r="D40" s="2">
         <v>15</v>
@@ -17957,7 +17957,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>43.056101233836181</v>
+        <v>44.772785092015539</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10.84727442169506</v>
+        <v>6.1675258859058761</v>
       </c>
       <c r="D41" s="2">
         <v>15</v>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>42.940000116146841</v>
+        <v>34.625643736383786</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="C42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>9.6391011324754672</v>
+        <v>10.832975849349987</v>
       </c>
       <c r="D42" s="2">
         <v>15</v>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="F42" s="1">
         <f ca="1">D42 + E42+ 1.15*C42+5+NORMINV(RAND(),0,5)</f>
-        <v>36.030258619343158</v>
+        <v>36.64760941709519</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ref="C43:C49" ca="1" si="10">NORMINV(RAND(),8,2)</f>
-        <v>7.5615086573016024</v>
+        <v>6.1759261155048657</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:F49" ca="1" si="11">D43 + E43+ 1.15*C43+5+NORMINV(RAND(),0,5)</f>
-        <v>41.771007842139483</v>
+        <v>29.057258206111971</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -18035,7 +18035,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5407311555108834</v>
+        <v>8.4016405422058433</v>
       </c>
       <c r="D44" s="2">
         <v>15</v>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.597778625724395</v>
+        <v>42.190236160833614</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0846778250694005</v>
+        <v>5.713817571748609</v>
       </c>
       <c r="D45" s="2">
         <v>15</v>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>36.149280583644497</v>
+        <v>29.864457937776997</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -18079,7 +18079,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>10.570503359200032</v>
+        <v>5.8106183508613558</v>
       </c>
       <c r="D46" s="2">
         <v>15</v>
@@ -18089,7 +18089,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32.5350022535535</v>
+        <v>36.768930385763696</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -18101,7 +18101,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4913809159369986</v>
+        <v>7.875420439495155</v>
       </c>
       <c r="D47" s="2">
         <v>15</v>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>39.722942183225619</v>
+        <v>31.716861174694479</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.2191438368447569</v>
+        <v>8.2328306961161299</v>
       </c>
       <c r="D48" s="2">
         <v>15</v>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>35.67994010058684</v>
+        <v>30.018579559086255</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -18145,7 +18145,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>11.665492846804971</v>
+        <v>6.3280514613559316</v>
       </c>
       <c r="D49" s="2">
         <v>15</v>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38.333868949368735</v>
+        <v>27.700934303704251</v>
       </c>
     </row>
   </sheetData>
